--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,55 +1079,130 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1136,14 +1211,41 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1286,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,143 +1301,38 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="96"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="96"/>
+      <c r="M2" s="134"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="111">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="150">
         <v>43047</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="97" t="str">
+      <c r="G3" s="151"/>
+      <c r="H3" s="135" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
         <v>43077</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="O3" s="74" t="s">
+      <c r="M3" s="138"/>
+      <c r="O3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="153"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,24 +3382,24 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="74" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="str">
+      <c r="G4" s="153"/>
+      <c r="H4" s="74" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
         <v>187.5</v>
@@ -3409,17 +3409,17 @@
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="79" t="str">
+      <c r="O4" s="74" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="78"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3463,24 +3463,24 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="79" t="str">
+      <c r="B5" s="74" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="109" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="102" t="str">
+      <c r="G5" s="149"/>
+      <c r="H5" s="140" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
         <v>You've Lost</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
         <v>1.0999999999999943</v>
@@ -3490,13 +3490,13 @@
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="79" t="str">
+      <c r="O5" s="74" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="79" t="str">
+      <c r="B6" s="74" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,13 +3566,13 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="102" t="str">
+      <c r="H6" s="140" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
         <v>3075</v>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="74" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="116" t="str">
+      <c r="H7" s="126" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118">
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
         <v>43094.5</v>
       </c>
-      <c r="M7" s="119"/>
+      <c r="M7" s="129"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="142" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,13 +3699,13 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="114" t="str">
+      <c r="H8" s="124" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
         <v>2075</v>
@@ -3715,12 +3715,12 @@
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="120" t="str">
+      <c r="B9" s="130" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3769,14 +3769,14 @@
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
         <v>2.5</v>
       </c>
-      <c r="I9" s="122" t="str">
+      <c r="I9" s="132" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="92">
+      <c r="B12" s="121">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L12" s="111">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="122">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="86">
+      <c r="AT12" s="154">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="87">
+      <c r="AU12" s="156">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="85"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="157"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94">
+      <c r="B14" s="115">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="126">
+      <c r="L14" s="113">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="117">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="137" t="str">
+      <c r="V14" s="99" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="141">
+      <c r="W14" s="100"/>
+      <c r="X14" s="103">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143" t="str">
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="105" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="144">
+      <c r="AB14" s="106">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="147"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="109"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="86">
+      <c r="AT14" s="154">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="87">
+      <c r="AU14" s="156">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="93"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="148"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="110"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="85"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="157"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="94">
+      <c r="B16" s="115">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="113">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="117">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="128" t="str">
+      <c r="V16" s="76" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="160" t="str">
+      <c r="AC16" s="78" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="82">
+      <c r="AT16" s="158">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="84">
+      <c r="AU16" s="159">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="93"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="130" t="str">
+      <c r="V17" s="81" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132">
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="134" t="str">
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="85" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="85"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="157"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="94">
+      <c r="B18" s="115">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="113">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="117">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="149" t="str">
+      <c r="V18" s="88" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="153">
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="92">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="155" t="str">
+      <c r="AA18" s="94" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="82">
+      <c r="AT18" s="158">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="84">
+      <c r="AU18" s="159">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="113"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="91"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="159"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="85"/>
+      <c r="AT19" s="155"/>
+      <c r="AU19" s="157"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="92">
+      <c r="B20" s="121">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4983,11 +4983,11 @@
         <f t="shared" si="0"/>
         <v>187.74285714285716</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="111">
         <f>IF(K20="","",AT20)</f>
         <v>-4</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="122">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3075</v>
       </c>
@@ -5071,11 +5071,11 @@
         <f t="shared" si="8"/>
         <v>187.74285714285716</v>
       </c>
-      <c r="AT20" s="82">
+      <c r="AT20" s="158">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-4</v>
       </c>
-      <c r="AU20" s="84">
+      <c r="AU20" s="159">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3075</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="93"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5120,8 +5120,8 @@
         <f t="shared" si="0"/>
         <v>2156</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5186,8 +5186,8 @@
         <f t="shared" si="8"/>
         <v>2156</v>
       </c>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="85"/>
+      <c r="AT21" s="155"/>
+      <c r="AU21" s="157"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5199,7 +5199,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="94">
+      <c r="B22" s="115">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5218,11 +5218,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="126" t="str">
+      <c r="L22" s="113" t="str">
         <f>IF(K22="","",AT22)</f>
         <v/>
       </c>
-      <c r="M22" s="90" t="str">
+      <c r="M22" s="117" t="str">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v/>
       </c>
@@ -5237,28 +5237,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="137" t="str">
+      <c r="V22" s="99" t="str">
         <f ca="1">IF(M26="","","From")</f>
         <v/>
       </c>
-      <c r="W22" s="138"/>
-      <c r="X22" s="141" t="str">
+      <c r="W22" s="100"/>
+      <c r="X22" s="103" t="str">
         <f ca="1">IF(M26="","",B20)</f>
         <v/>
       </c>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="143" t="str">
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105" t="str">
         <f ca="1">IF(M26="","","to")</f>
         <v/>
       </c>
-      <c r="AB22" s="144" t="str">
+      <c r="AB22" s="106" t="str">
         <f ca="1">IF(M26="","",B26)</f>
         <v/>
       </c>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="147"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="109"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5312,11 +5312,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT22" s="82" t="str">
+      <c r="AT22" s="158" t="str">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v/>
       </c>
-      <c r="AU22" s="84" t="str">
+      <c r="AU22" s="159" t="str">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v/>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="93"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5351,8 +5351,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="89"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5361,16 +5361,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="148"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5424,8 +5424,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="85"/>
+      <c r="AT23" s="155"/>
+      <c r="AU23" s="157"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5437,7 +5437,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="94">
+      <c r="B24" s="115">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5456,11 +5456,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="126" t="str">
+      <c r="L24" s="113" t="str">
         <f>IF(K24="","",AT24)</f>
         <v/>
       </c>
-      <c r="M24" s="90" t="str">
+      <c r="M24" s="117" t="str">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v/>
       </c>
@@ -5475,25 +5475,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="128" t="str">
+      <c r="V24" s="76" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="42" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
         <v/>
       </c>
-      <c r="AC24" s="160" t="str">
+      <c r="AC24" s="78" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5547,11 +5547,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT24" s="82" t="str">
+      <c r="AT24" s="158" t="str">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v/>
       </c>
-      <c r="AU24" s="84" t="str">
+      <c r="AU24" s="159" t="str">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v/>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="93"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5586,8 +5586,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="89"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="118"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5596,25 +5596,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="130" t="str">
+      <c r="V25" s="81" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="132" t="str">
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83" t="str">
         <f ca="1">IF(V25="","",AB24/4)</f>
         <v/>
       </c>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134" t="str">
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="87"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5668,8 +5668,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="85"/>
+      <c r="AT25" s="155"/>
+      <c r="AU25" s="157"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5681,7 +5681,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="94">
+      <c r="B26" s="115">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5700,11 +5700,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="126" t="str">
+      <c r="L26" s="113" t="str">
         <f>IF(K26="","",AT26)</f>
         <v/>
       </c>
-      <c r="M26" s="90" t="str">
+      <c r="M26" s="117" t="str">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
         <v/>
       </c>
@@ -5719,25 +5719,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="149" t="str">
+      <c r="V26" s="88" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
         <v/>
       </c>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="153" t="str">
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="92" t="str">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
         <v/>
       </c>
-      <c r="AA26" s="155" t="str">
+      <c r="AA26" s="94" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5791,11 +5791,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT26" s="82" t="str">
+      <c r="AT26" s="158" t="str">
         <f>IF(AS26="","",AS26-AS24)</f>
         <v/>
       </c>
-      <c r="AU26" s="84" t="str">
+      <c r="AU26" s="159" t="str">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
         <v/>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5830,8 +5830,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5840,16 +5840,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5903,8 +5903,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="85"/>
+      <c r="AT27" s="155"/>
+      <c r="AU27" s="157"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5916,7 +5916,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="92">
+      <c r="B28" s="121">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5935,11 +5935,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="124" t="str">
+      <c r="L28" s="111" t="str">
         <f>IF(K28="","",AT28)</f>
         <v/>
       </c>
-      <c r="M28" s="88" t="str">
+      <c r="M28" s="122" t="str">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
         <v/>
       </c>
@@ -6017,11 +6017,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT28" s="82" t="str">
+      <c r="AT28" s="158" t="str">
         <f>IF(AS28="","",AS28-AS26)</f>
         <v/>
       </c>
-      <c r="AU28" s="84" t="str">
+      <c r="AU28" s="159" t="str">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
         <v/>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="93"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6056,8 +6056,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="89"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6129,8 +6129,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="85"/>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="157"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6142,7 +6142,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="94">
+      <c r="B30" s="115">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6161,11 +6161,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="126" t="str">
+      <c r="L30" s="113" t="str">
         <f>IF(K30="","",AT30)</f>
         <v/>
       </c>
-      <c r="M30" s="90" t="str">
+      <c r="M30" s="117" t="str">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v/>
       </c>
@@ -6180,28 +6180,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="137" t="str">
+      <c r="V30" s="99" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="138"/>
-      <c r="X30" s="141" t="str">
+      <c r="W30" s="100"/>
+      <c r="X30" s="103" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="143" t="str">
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="105" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="144" t="str">
+      <c r="AB30" s="106" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="147"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6255,11 +6255,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT30" s="82" t="str">
+      <c r="AT30" s="158" t="str">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v/>
       </c>
-      <c r="AU30" s="84" t="str">
+      <c r="AU30" s="159" t="str">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v/>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="93"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6294,8 +6294,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="89"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="118"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6304,16 +6304,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="148"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="110"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6367,8 +6367,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="85"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="157"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6380,7 +6380,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="94">
+      <c r="B32" s="115">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6399,11 +6399,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="126" t="str">
+      <c r="L32" s="113" t="str">
         <f>IF(K32="","",AT32)</f>
         <v/>
       </c>
-      <c r="M32" s="90" t="str">
+      <c r="M32" s="117" t="str">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
         <v/>
       </c>
@@ -6418,25 +6418,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="128" t="str">
+      <c r="V32" s="76" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="160" t="str">
+      <c r="AC32" s="78" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6490,11 +6490,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT32" s="82" t="str">
+      <c r="AT32" s="158" t="str">
         <f>IF(AS32="","",AS32-AS30)</f>
         <v/>
       </c>
-      <c r="AU32" s="84" t="str">
+      <c r="AU32" s="159" t="str">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
         <v/>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6529,8 +6529,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="89"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="118"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6539,25 +6539,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="130" t="str">
+      <c r="V33" s="81" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132" t="str">
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134" t="str">
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="85" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6611,8 +6611,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="85"/>
+      <c r="AT33" s="155"/>
+      <c r="AU33" s="157"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6624,7 +6624,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="94">
+      <c r="B34" s="115">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6643,11 +6643,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="126" t="str">
+      <c r="L34" s="113" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="90" t="str">
+      <c r="M34" s="117" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6662,25 +6662,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="149" t="str">
+      <c r="V34" s="88" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="150"/>
-      <c r="X34" s="150"/>
-      <c r="Y34" s="150"/>
-      <c r="Z34" s="153" t="str">
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="92" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="155" t="str">
+      <c r="AA34" s="94" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="157"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="96"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6734,11 +6734,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="82" t="str">
+      <c r="AT34" s="158" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="84" t="str">
+      <c r="AU34" s="159" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="95"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6773,8 +6773,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6783,16 +6783,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="159"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6846,8 +6846,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="85"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="157"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6859,7 +6859,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="92">
+      <c r="B36" s="121">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6878,11 +6878,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="124" t="str">
+      <c r="L36" s="111" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="88" t="str">
+      <c r="M36" s="122" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -6960,11 +6960,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="82" t="str">
+      <c r="AT36" s="158" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="84" t="str">
+      <c r="AU36" s="159" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6999,8 +6999,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="89"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7072,8 +7072,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="83"/>
-      <c r="AU37" s="85"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="157"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7085,7 +7085,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="94">
+      <c r="B38" s="115">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7104,11 +7104,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="126" t="str">
+      <c r="L38" s="113" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="90" t="str">
+      <c r="M38" s="117" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7123,28 +7123,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="137" t="str">
+      <c r="V38" s="99" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="138"/>
-      <c r="X38" s="141" t="str">
+      <c r="W38" s="100"/>
+      <c r="X38" s="103" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="142"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="143" t="str">
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="144" t="str">
+      <c r="AB38" s="106" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="147"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="109"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7198,11 +7198,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="82" t="str">
+      <c r="AT38" s="158" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="84" t="str">
+      <c r="AU38" s="159" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7237,8 +7237,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="89"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="118"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7247,16 +7247,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="140"/>
-      <c r="AA39" s="140"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="148"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+      <c r="AA39" s="102"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="110"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7310,8 +7310,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="83"/>
-      <c r="AU39" s="85"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="157"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7323,7 +7323,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="94">
+      <c r="B40" s="115">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7342,11 +7342,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="126" t="str">
+      <c r="L40" s="113" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="90" t="str">
+      <c r="M40" s="117" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7361,25 +7361,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="128" t="str">
+      <c r="V40" s="76" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="129"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="160" t="str">
+      <c r="AC40" s="78" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="162"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7433,11 +7433,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="82" t="str">
+      <c r="AT40" s="158" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="84" t="str">
+      <c r="AU40" s="159" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7472,8 +7472,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="89"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7482,25 +7482,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="130" t="str">
+      <c r="V41" s="81" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="132" t="str">
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="83" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="134" t="str">
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="85" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="135"/>
-      <c r="AE41" s="136"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="87"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7554,8 +7554,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="85"/>
+      <c r="AT41" s="155"/>
+      <c r="AU41" s="157"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7567,7 +7567,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="94">
+      <c r="B42" s="115">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7586,11 +7586,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="126" t="str">
+      <c r="L42" s="113" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="90" t="str">
+      <c r="M42" s="117" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7605,25 +7605,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="149" t="str">
+      <c r="V42" s="88" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="150"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="153" t="str">
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="92" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="155" t="str">
+      <c r="AA42" s="94" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="156"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="157"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="96"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7677,11 +7677,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="82" t="str">
+      <c r="AT42" s="158" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="84" t="str">
+      <c r="AU42" s="159" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="95"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7716,8 +7716,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="127"/>
-      <c r="M43" s="91"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7726,16 +7726,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="158"/>
-      <c r="AE43" s="159"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="98"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7789,8 +7789,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="85"/>
+      <c r="AT43" s="155"/>
+      <c r="AU43" s="157"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7802,7 +7802,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="92">
+      <c r="B44" s="121">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7821,11 +7821,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="124" t="str">
+      <c r="L44" s="111" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="88" t="str">
+      <c r="M44" s="122" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7903,11 +7903,11 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="82" t="str">
+      <c r="AT44" s="158" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="84" t="str">
+      <c r="AU44" s="159" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7942,8 +7942,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="125"/>
-      <c r="M45" s="89"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="118"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8015,8 +8015,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="85"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="157"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8028,7 +8028,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="94">
+      <c r="B46" s="115">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8047,11 +8047,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="126" t="str">
+      <c r="L46" s="113" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="90" t="str">
+      <c r="M46" s="117" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8066,28 +8066,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="137" t="str">
+      <c r="V46" s="99" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="138"/>
-      <c r="X46" s="141" t="str">
+      <c r="W46" s="100"/>
+      <c r="X46" s="103" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="142"/>
-      <c r="AA46" s="143" t="str">
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="105" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="144" t="str">
+      <c r="AB46" s="106" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="145"/>
-      <c r="AD46" s="146"/>
-      <c r="AE46" s="147"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="109"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8141,11 +8141,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="82" t="str">
+      <c r="AT46" s="158" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="84" t="str">
+      <c r="AU46" s="159" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8180,8 +8180,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="125"/>
-      <c r="M47" s="89"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="118"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8190,16 +8190,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="140"/>
-      <c r="X47" s="140"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="148"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="102"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="110"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8253,8 +8253,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="83"/>
-      <c r="AU47" s="85"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="157"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8266,7 +8266,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="94">
+      <c r="B48" s="115">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8285,11 +8285,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="126" t="str">
+      <c r="L48" s="113" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="90" t="str">
+      <c r="M48" s="117" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8304,25 +8304,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="128" t="str">
+      <c r="V48" s="76" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="160" t="str">
+      <c r="AC48" s="78" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="162"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8376,11 +8376,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="82" t="str">
+      <c r="AT48" s="158" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="84" t="str">
+      <c r="AU48" s="159" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8415,8 +8415,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="125"/>
-      <c r="M49" s="89"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="118"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8425,25 +8425,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="130" t="str">
+      <c r="V49" s="81" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="132" t="str">
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="83" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="134" t="str">
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="135"/>
-      <c r="AE49" s="136"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="87"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8497,8 +8497,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="85"/>
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="157"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8510,7 +8510,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="94">
+      <c r="B50" s="115">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8529,11 +8529,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="126" t="str">
+      <c r="L50" s="113" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="90" t="str">
+      <c r="M50" s="117" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8548,25 +8548,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="149" t="str">
+      <c r="V50" s="88" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="150"/>
-      <c r="X50" s="150"/>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="153" t="str">
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="92" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="155" t="str">
+      <c r="AA50" s="94" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-      <c r="AD50" s="156"/>
-      <c r="AE50" s="157"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="96"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8620,11 +8620,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="82" t="str">
+      <c r="AT50" s="158" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="84" t="str">
+      <c r="AU50" s="159" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
@@ -8643,7 +8643,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="95"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8659,8 +8659,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="127"/>
-      <c r="M51" s="91"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8669,16 +8669,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="152"/>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
-      <c r="AC51" s="158"/>
-      <c r="AD51" s="158"/>
-      <c r="AE51" s="159"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="98"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8732,8 +8732,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="83"/>
-      <c r="AU51" s="85"/>
+      <c r="AT51" s="155"/>
+      <c r="AU51" s="157"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8745,7 +8745,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="92">
+      <c r="B52" s="121">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8764,11 +8764,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="124" t="str">
+      <c r="L52" s="111" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="88" t="str">
+      <c r="M52" s="122" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8846,11 +8846,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="82" t="str">
+      <c r="AT52" s="158" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="84" t="str">
+      <c r="AU52" s="159" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="93"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8885,8 +8885,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="125"/>
-      <c r="M53" s="89"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="118"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -8958,8 +8958,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="85"/>
+      <c r="AT53" s="155"/>
+      <c r="AU53" s="157"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -8971,7 +8971,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="94">
+      <c r="B54" s="115">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -8990,11 +8990,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="126" t="str">
+      <c r="L54" s="113" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="90" t="str">
+      <c r="M54" s="117" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9009,28 +9009,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="137" t="str">
+      <c r="V54" s="99" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="138"/>
-      <c r="X54" s="141" t="str">
+      <c r="W54" s="100"/>
+      <c r="X54" s="103" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="143" t="str">
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="105" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="144" t="str">
+      <c r="AB54" s="106" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="145"/>
-      <c r="AD54" s="146"/>
-      <c r="AE54" s="147"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="109"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9084,11 +9084,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="82" t="str">
+      <c r="AT54" s="158" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="84" t="str">
+      <c r="AU54" s="159" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
@@ -9107,7 +9107,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9123,8 +9123,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="125"/>
-      <c r="M55" s="89"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="118"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9133,16 +9133,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="140"/>
-      <c r="X55" s="140"/>
-      <c r="Y55" s="140"/>
-      <c r="Z55" s="140"/>
-      <c r="AA55" s="140"/>
-      <c r="AB55" s="140"/>
-      <c r="AC55" s="140"/>
-      <c r="AD55" s="140"/>
-      <c r="AE55" s="148"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="102"/>
+      <c r="AC55" s="102"/>
+      <c r="AD55" s="102"/>
+      <c r="AE55" s="110"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9196,8 +9196,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="83"/>
-      <c r="AU55" s="85"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="157"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9209,7 +9209,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="94">
+      <c r="B56" s="115">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9228,11 +9228,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="126" t="str">
+      <c r="L56" s="113" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="90" t="str">
+      <c r="M56" s="117" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9247,25 +9247,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="128" t="str">
+      <c r="V56" s="76" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="129"/>
-      <c r="X56" s="129"/>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="160" t="str">
+      <c r="AC56" s="78" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="162"/>
+      <c r="AD56" s="79"/>
+      <c r="AE56" s="80"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9319,11 +9319,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="82" t="str">
+      <c r="AT56" s="158" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="84" t="str">
+      <c r="AU56" s="159" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9358,8 +9358,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="125"/>
-      <c r="M57" s="89"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="118"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9368,25 +9368,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="130" t="str">
+      <c r="V57" s="81" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="131"/>
-      <c r="X57" s="131"/>
-      <c r="Y57" s="131"/>
-      <c r="Z57" s="131"/>
-      <c r="AA57" s="132" t="str">
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="83" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="133"/>
-      <c r="AC57" s="134" t="str">
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="85" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="136"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="87"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9440,8 +9440,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="83"/>
-      <c r="AU57" s="85"/>
+      <c r="AT57" s="155"/>
+      <c r="AU57" s="157"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9453,7 +9453,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="94">
+      <c r="B58" s="115">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9472,11 +9472,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="126" t="str">
+      <c r="L58" s="113" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="90" t="str">
+      <c r="M58" s="117" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9491,25 +9491,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="149" t="str">
+      <c r="V58" s="88" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="150"/>
-      <c r="X58" s="150"/>
-      <c r="Y58" s="150"/>
-      <c r="Z58" s="153" t="str">
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="92" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="155" t="str">
+      <c r="AA58" s="94" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="156"/>
-      <c r="AC58" s="156"/>
-      <c r="AD58" s="156"/>
-      <c r="AE58" s="157"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="96"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9563,11 +9563,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="82" t="str">
+      <c r="AT58" s="158" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="84" t="str">
+      <c r="AU58" s="159" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="95"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9602,8 +9602,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="127"/>
-      <c r="M59" s="91"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="120"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9612,16 +9612,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="152"/>
-      <c r="X59" s="152"/>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="158"/>
-      <c r="AB59" s="158"/>
-      <c r="AC59" s="158"/>
-      <c r="AD59" s="158"/>
-      <c r="AE59" s="159"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="98"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9675,8 +9675,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="83"/>
-      <c r="AU59" s="85"/>
+      <c r="AT59" s="155"/>
+      <c r="AU59" s="157"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9688,7 +9688,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="92">
+      <c r="B60" s="121">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9707,11 +9707,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="124" t="str">
+      <c r="L60" s="111" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="88" t="str">
+      <c r="M60" s="122" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9789,11 +9789,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="82" t="str">
+      <c r="AT60" s="158" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="84" t="str">
+      <c r="AU60" s="159" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9828,8 +9828,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="125"/>
-      <c r="M61" s="89"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="118"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9901,8 +9901,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="83"/>
-      <c r="AU61" s="85"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="157"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -9914,7 +9914,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="94">
+      <c r="B62" s="115">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -9933,11 +9933,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="126" t="str">
+      <c r="L62" s="113" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="90" t="str">
+      <c r="M62" s="117" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -9952,28 +9952,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="137" t="str">
+      <c r="V62" s="99" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="138"/>
-      <c r="X62" s="141" t="str">
+      <c r="W62" s="100"/>
+      <c r="X62" s="103" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="142"/>
-      <c r="Z62" s="142"/>
-      <c r="AA62" s="143" t="str">
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="105" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="144" t="str">
+      <c r="AB62" s="106" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="146"/>
-      <c r="AE62" s="147"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="109"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10027,11 +10027,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="82" t="str">
+      <c r="AT62" s="158" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="84" t="str">
+      <c r="AU62" s="159" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
@@ -10050,7 +10050,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10066,8 +10066,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="125"/>
-      <c r="M63" s="89"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="118"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10076,16 +10076,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="139"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="140"/>
-      <c r="Y63" s="140"/>
-      <c r="Z63" s="140"/>
-      <c r="AA63" s="140"/>
-      <c r="AB63" s="140"/>
-      <c r="AC63" s="140"/>
-      <c r="AD63" s="140"/>
-      <c r="AE63" s="148"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="110"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10139,8 +10139,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="83"/>
-      <c r="AU63" s="85"/>
+      <c r="AT63" s="155"/>
+      <c r="AU63" s="157"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10152,7 +10152,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="94">
+      <c r="B64" s="115">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10171,11 +10171,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="126" t="str">
+      <c r="L64" s="113" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="90" t="str">
+      <c r="M64" s="117" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10190,25 +10190,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="128" t="str">
+      <c r="V64" s="76" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="129"/>
-      <c r="X64" s="129"/>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="129"/>
-      <c r="AA64" s="129"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="160" t="str">
+      <c r="AC64" s="78" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="161"/>
-      <c r="AE64" s="162"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="80"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10262,11 +10262,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="82" t="str">
+      <c r="AT64" s="158" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="84" t="str">
+      <c r="AU64" s="159" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
@@ -10285,7 +10285,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="93"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10301,8 +10301,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="125"/>
-      <c r="M65" s="89"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="118"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10311,25 +10311,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="130" t="str">
+      <c r="V65" s="81" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="132" t="str">
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="83" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="133"/>
-      <c r="AC65" s="134" t="str">
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="85" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="135"/>
-      <c r="AE65" s="136"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="87"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10383,8 +10383,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="85"/>
+      <c r="AT65" s="155"/>
+      <c r="AU65" s="157"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10396,7 +10396,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="94">
+      <c r="B66" s="115">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10415,11 +10415,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="126" t="str">
+      <c r="L66" s="113" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="90" t="str">
+      <c r="M66" s="117" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10434,25 +10434,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="149" t="str">
+      <c r="V66" s="88" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="150"/>
-      <c r="X66" s="150"/>
-      <c r="Y66" s="150"/>
-      <c r="Z66" s="153" t="str">
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="92" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="155" t="str">
+      <c r="AA66" s="94" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="156"/>
-      <c r="AC66" s="156"/>
-      <c r="AD66" s="156"/>
-      <c r="AE66" s="157"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="96"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10506,11 +10506,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="82" t="str">
+      <c r="AT66" s="158" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="84" t="str">
+      <c r="AU66" s="159" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
@@ -10529,7 +10529,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="95"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10545,8 +10545,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="127"/>
-      <c r="M67" s="91"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10555,16 +10555,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="151"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="152"/>
-      <c r="Y67" s="152"/>
-      <c r="Z67" s="154"/>
-      <c r="AA67" s="158"/>
-      <c r="AB67" s="158"/>
-      <c r="AC67" s="158"/>
-      <c r="AD67" s="158"/>
-      <c r="AE67" s="159"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="98"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10618,8 +10618,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="83"/>
-      <c r="AU67" s="85"/>
+      <c r="AT67" s="155"/>
+      <c r="AU67" s="157"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10631,7 +10631,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="92">
+      <c r="B68" s="121">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10650,11 +10650,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="124" t="str">
+      <c r="L68" s="111" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="88" t="str">
+      <c r="M68" s="122" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10732,11 +10732,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="82" t="str">
+      <c r="AT68" s="158" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="84" t="str">
+      <c r="AU68" s="159" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
@@ -10755,7 +10755,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10771,8 +10771,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="125"/>
-      <c r="M69" s="89"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="118"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10844,8 +10844,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="83"/>
-      <c r="AU69" s="85"/>
+      <c r="AT69" s="155"/>
+      <c r="AU69" s="157"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10857,7 +10857,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="94">
+      <c r="B70" s="115">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10876,11 +10876,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="126" t="str">
+      <c r="L70" s="113" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="90" t="str">
+      <c r="M70" s="117" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10895,28 +10895,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="137" t="str">
+      <c r="V70" s="99" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="138"/>
-      <c r="X70" s="141" t="str">
+      <c r="W70" s="100"/>
+      <c r="X70" s="103" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="142"/>
-      <c r="Z70" s="142"/>
-      <c r="AA70" s="143" t="str">
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="105" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="144" t="str">
+      <c r="AB70" s="106" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="145"/>
-      <c r="AD70" s="146"/>
-      <c r="AE70" s="147"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="109"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -10970,11 +10970,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="82" t="str">
+      <c r="AT70" s="158" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="84" t="str">
+      <c r="AU70" s="159" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11009,8 +11009,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="125"/>
-      <c r="M71" s="89"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="118"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11019,16 +11019,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="139"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="140"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="140"/>
-      <c r="AA71" s="140"/>
-      <c r="AB71" s="140"/>
-      <c r="AC71" s="140"/>
-      <c r="AD71" s="140"/>
-      <c r="AE71" s="148"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+      <c r="AA71" s="102"/>
+      <c r="AB71" s="102"/>
+      <c r="AC71" s="102"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="110"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11082,8 +11082,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="83"/>
-      <c r="AU71" s="85"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="157"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11095,7 +11095,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="94">
+      <c r="B72" s="115">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11114,11 +11114,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="126" t="str">
+      <c r="L72" s="113" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="90" t="str">
+      <c r="M72" s="117" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11133,25 +11133,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="128" t="str">
+      <c r="V72" s="76" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="129"/>
-      <c r="X72" s="129"/>
-      <c r="Y72" s="129"/>
-      <c r="Z72" s="129"/>
-      <c r="AA72" s="129"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="160" t="str">
+      <c r="AC72" s="78" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="161"/>
-      <c r="AE72" s="162"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="80"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11205,11 +11205,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="82" t="str">
+      <c r="AT72" s="158" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="84" t="str">
+      <c r="AU72" s="159" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11244,8 +11244,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="125"/>
-      <c r="M73" s="89"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="118"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11254,25 +11254,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="130" t="str">
+      <c r="V73" s="81" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="131"/>
-      <c r="X73" s="131"/>
-      <c r="Y73" s="131"/>
-      <c r="Z73" s="131"/>
-      <c r="AA73" s="132" t="str">
+      <c r="W73" s="82"/>
+      <c r="X73" s="82"/>
+      <c r="Y73" s="82"/>
+      <c r="Z73" s="82"/>
+      <c r="AA73" s="83" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="133"/>
-      <c r="AC73" s="134" t="str">
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="85" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="135"/>
-      <c r="AE73" s="136"/>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="87"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11326,8 +11326,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="83"/>
-      <c r="AU73" s="85"/>
+      <c r="AT73" s="155"/>
+      <c r="AU73" s="157"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11339,7 +11339,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="94">
+      <c r="B74" s="115">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11358,11 +11358,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="126" t="str">
+      <c r="L74" s="113" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="90" t="str">
+      <c r="M74" s="117" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11377,25 +11377,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="149" t="str">
+      <c r="V74" s="88" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="150"/>
-      <c r="X74" s="150"/>
-      <c r="Y74" s="150"/>
-      <c r="Z74" s="153" t="str">
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="92" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="155" t="str">
+      <c r="AA74" s="94" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="156"/>
-      <c r="AC74" s="156"/>
-      <c r="AD74" s="156"/>
-      <c r="AE74" s="157"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="96"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11449,11 +11449,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="82" t="str">
+      <c r="AT74" s="158" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="84" t="str">
+      <c r="AU74" s="159" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11488,8 +11488,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="127"/>
-      <c r="M75" s="91"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11498,16 +11498,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="151"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="154"/>
-      <c r="AA75" s="158"/>
-      <c r="AB75" s="158"/>
-      <c r="AC75" s="158"/>
-      <c r="AD75" s="158"/>
-      <c r="AE75" s="159"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="91"/>
+      <c r="X75" s="91"/>
+      <c r="Y75" s="91"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="98"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11561,8 +11561,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="83"/>
-      <c r="AU75" s="85"/>
+      <c r="AT75" s="155"/>
+      <c r="AU75" s="157"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11574,7 +11574,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="92">
+      <c r="B76" s="121">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11593,11 +11593,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="124" t="str">
+      <c r="L76" s="111" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="88" t="str">
+      <c r="M76" s="122" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11675,11 +11675,11 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="82" t="str">
+      <c r="AT76" s="158" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="84" t="str">
+      <c r="AU76" s="159" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
@@ -11698,7 +11698,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11714,8 +11714,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="125"/>
-      <c r="M77" s="89"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="118"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11787,8 +11787,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="83"/>
-      <c r="AU77" s="85"/>
+      <c r="AT77" s="155"/>
+      <c r="AU77" s="157"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11800,7 +11800,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="94">
+      <c r="B78" s="115">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11819,11 +11819,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="126" t="str">
+      <c r="L78" s="113" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="90" t="str">
+      <c r="M78" s="117" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11838,28 +11838,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="137" t="str">
+      <c r="V78" s="99" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="138"/>
-      <c r="X78" s="141" t="str">
+      <c r="W78" s="100"/>
+      <c r="X78" s="103" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="142"/>
-      <c r="Z78" s="142"/>
-      <c r="AA78" s="143" t="str">
+      <c r="Y78" s="104"/>
+      <c r="Z78" s="104"/>
+      <c r="AA78" s="105" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="144" t="str">
+      <c r="AB78" s="106" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="145"/>
-      <c r="AD78" s="146"/>
-      <c r="AE78" s="147"/>
+      <c r="AC78" s="107"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="109"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11913,11 +11913,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="82" t="str">
+      <c r="AT78" s="158" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="84" t="str">
+      <c r="AU78" s="159" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -11952,8 +11952,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="125"/>
-      <c r="M79" s="89"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="118"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -11962,16 +11962,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="140"/>
-      <c r="X79" s="140"/>
-      <c r="Y79" s="140"/>
-      <c r="Z79" s="140"/>
-      <c r="AA79" s="140"/>
-      <c r="AB79" s="140"/>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="140"/>
-      <c r="AE79" s="148"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="102"/>
+      <c r="AA79" s="102"/>
+      <c r="AB79" s="102"/>
+      <c r="AC79" s="102"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="110"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12025,8 +12025,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="83"/>
-      <c r="AU79" s="85"/>
+      <c r="AT79" s="155"/>
+      <c r="AU79" s="157"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12038,7 +12038,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="94">
+      <c r="B80" s="115">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12057,11 +12057,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="126" t="str">
+      <c r="L80" s="113" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="90" t="str">
+      <c r="M80" s="117" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12076,25 +12076,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="128" t="str">
+      <c r="V80" s="76" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="129"/>
-      <c r="X80" s="129"/>
-      <c r="Y80" s="129"/>
-      <c r="Z80" s="129"/>
-      <c r="AA80" s="129"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="160" t="str">
+      <c r="AC80" s="78" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="161"/>
-      <c r="AE80" s="162"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="80"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12148,11 +12148,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="82" t="str">
+      <c r="AT80" s="158" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="84" t="str">
+      <c r="AU80" s="159" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
@@ -12171,7 +12171,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12187,8 +12187,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="125"/>
-      <c r="M81" s="89"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="118"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12197,25 +12197,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="130" t="str">
+      <c r="V81" s="81" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="131"/>
-      <c r="X81" s="131"/>
-      <c r="Y81" s="131"/>
-      <c r="Z81" s="131"/>
-      <c r="AA81" s="132" t="str">
+      <c r="W81" s="82"/>
+      <c r="X81" s="82"/>
+      <c r="Y81" s="82"/>
+      <c r="Z81" s="82"/>
+      <c r="AA81" s="83" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="133"/>
-      <c r="AC81" s="134" t="str">
+      <c r="AB81" s="84"/>
+      <c r="AC81" s="85" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="135"/>
-      <c r="AE81" s="136"/>
+      <c r="AD81" s="86"/>
+      <c r="AE81" s="87"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12269,8 +12269,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="83"/>
-      <c r="AU81" s="85"/>
+      <c r="AT81" s="155"/>
+      <c r="AU81" s="157"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12282,7 +12282,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="94">
+      <c r="B82" s="115">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12301,11 +12301,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="126" t="str">
+      <c r="L82" s="113" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="90" t="str">
+      <c r="M82" s="117" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12320,25 +12320,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="149" t="str">
+      <c r="V82" s="88" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="150"/>
-      <c r="X82" s="150"/>
-      <c r="Y82" s="150"/>
-      <c r="Z82" s="153" t="str">
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="92" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="155" t="str">
+      <c r="AA82" s="94" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="156"/>
-      <c r="AC82" s="156"/>
-      <c r="AD82" s="156"/>
-      <c r="AE82" s="157"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="96"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12392,11 +12392,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="82" t="str">
+      <c r="AT82" s="158" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="84" t="str">
+      <c r="AU82" s="159" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
@@ -12415,7 +12415,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="95"/>
+      <c r="B83" s="119"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12431,8 +12431,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="127"/>
-      <c r="M83" s="91"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="120"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12441,16 +12441,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="151"/>
-      <c r="W83" s="152"/>
-      <c r="X83" s="152"/>
-      <c r="Y83" s="152"/>
-      <c r="Z83" s="154"/>
-      <c r="AA83" s="158"/>
-      <c r="AB83" s="158"/>
-      <c r="AC83" s="158"/>
-      <c r="AD83" s="158"/>
-      <c r="AE83" s="159"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="98"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12504,8 +12504,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="83"/>
-      <c r="AU83" s="85"/>
+      <c r="AT83" s="155"/>
+      <c r="AU83" s="157"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12517,7 +12517,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="92">
+      <c r="B84" s="121">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12536,11 +12536,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="124" t="str">
+      <c r="L84" s="111" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="88" t="str">
+      <c r="M84" s="122" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12618,11 +12618,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="82" t="str">
+      <c r="AT84" s="158" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="84" t="str">
+      <c r="AU84" s="159" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
@@ -12641,7 +12641,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12657,8 +12657,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="125"/>
-      <c r="M85" s="89"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="118"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12730,8 +12730,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="83"/>
-      <c r="AU85" s="85"/>
+      <c r="AT85" s="155"/>
+      <c r="AU85" s="157"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12743,7 +12743,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="94">
+      <c r="B86" s="115">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12762,11 +12762,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="126" t="str">
+      <c r="L86" s="113" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="90" t="str">
+      <c r="M86" s="117" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12781,28 +12781,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="137" t="str">
+      <c r="V86" s="99" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="138"/>
-      <c r="X86" s="141" t="str">
+      <c r="W86" s="100"/>
+      <c r="X86" s="103" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="142"/>
-      <c r="Z86" s="142"/>
-      <c r="AA86" s="143" t="str">
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
+      <c r="AA86" s="105" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="144" t="str">
+      <c r="AB86" s="106" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="145"/>
-      <c r="AD86" s="146"/>
-      <c r="AE86" s="147"/>
+      <c r="AC86" s="107"/>
+      <c r="AD86" s="108"/>
+      <c r="AE86" s="109"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12856,11 +12856,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="82" t="str">
+      <c r="AT86" s="158" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="84" t="str">
+      <c r="AU86" s="159" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
@@ -12879,7 +12879,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="93"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12895,8 +12895,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="125"/>
-      <c r="M87" s="89"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="118"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -12905,16 +12905,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="139"/>
-      <c r="W87" s="140"/>
-      <c r="X87" s="140"/>
-      <c r="Y87" s="140"/>
-      <c r="Z87" s="140"/>
-      <c r="AA87" s="140"/>
-      <c r="AB87" s="140"/>
-      <c r="AC87" s="140"/>
-      <c r="AD87" s="140"/>
-      <c r="AE87" s="148"/>
+      <c r="V87" s="101"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
+      <c r="AB87" s="102"/>
+      <c r="AC87" s="102"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="110"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -12968,8 +12968,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="83"/>
-      <c r="AU87" s="85"/>
+      <c r="AT87" s="155"/>
+      <c r="AU87" s="157"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -12981,7 +12981,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="94">
+      <c r="B88" s="115">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13000,11 +13000,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="126" t="str">
+      <c r="L88" s="113" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="90" t="str">
+      <c r="M88" s="117" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13019,25 +13019,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="128" t="str">
+      <c r="V88" s="76" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="129"/>
-      <c r="X88" s="129"/>
-      <c r="Y88" s="129"/>
-      <c r="Z88" s="129"/>
-      <c r="AA88" s="129"/>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+      <c r="Y88" s="77"/>
+      <c r="Z88" s="77"/>
+      <c r="AA88" s="77"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="160" t="str">
+      <c r="AC88" s="78" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="161"/>
-      <c r="AE88" s="162"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="80"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13091,11 +13091,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="82" t="str">
+      <c r="AT88" s="158" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="84" t="str">
+      <c r="AU88" s="159" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13130,8 +13130,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="125"/>
-      <c r="M89" s="89"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="118"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13140,25 +13140,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="130" t="str">
+      <c r="V89" s="81" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="131"/>
-      <c r="X89" s="131"/>
-      <c r="Y89" s="131"/>
-      <c r="Z89" s="131"/>
-      <c r="AA89" s="132" t="str">
+      <c r="W89" s="82"/>
+      <c r="X89" s="82"/>
+      <c r="Y89" s="82"/>
+      <c r="Z89" s="82"/>
+      <c r="AA89" s="83" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="133"/>
-      <c r="AC89" s="134" t="str">
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="135"/>
-      <c r="AE89" s="136"/>
+      <c r="AD89" s="86"/>
+      <c r="AE89" s="87"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13212,8 +13212,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="83"/>
-      <c r="AU89" s="85"/>
+      <c r="AT89" s="155"/>
+      <c r="AU89" s="157"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13225,7 +13225,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="94">
+      <c r="B90" s="115">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13244,11 +13244,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="126" t="str">
+      <c r="L90" s="113" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="90" t="str">
+      <c r="M90" s="117" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13263,25 +13263,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="149" t="str">
+      <c r="V90" s="88" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="150"/>
-      <c r="X90" s="150"/>
-      <c r="Y90" s="150"/>
-      <c r="Z90" s="153" t="str">
+      <c r="W90" s="89"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="92" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="155" t="str">
+      <c r="AA90" s="94" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="156"/>
-      <c r="AC90" s="156"/>
-      <c r="AD90" s="156"/>
-      <c r="AE90" s="157"/>
+      <c r="AB90" s="95"/>
+      <c r="AC90" s="95"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="96"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13335,11 +13335,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="82" t="str">
+      <c r="AT90" s="158" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="84" t="str">
+      <c r="AU90" s="159" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
@@ -13358,7 +13358,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="95"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13374,8 +13374,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="127"/>
-      <c r="M91" s="91"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13384,16 +13384,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="151"/>
-      <c r="W91" s="152"/>
-      <c r="X91" s="152"/>
-      <c r="Y91" s="152"/>
-      <c r="Z91" s="154"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158"/>
-      <c r="AC91" s="158"/>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="159"/>
+      <c r="V91" s="90"/>
+      <c r="W91" s="91"/>
+      <c r="X91" s="91"/>
+      <c r="Y91" s="91"/>
+      <c r="Z91" s="93"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="98"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13447,8 +13447,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="83"/>
-      <c r="AU91" s="85"/>
+      <c r="AT91" s="155"/>
+      <c r="AU91" s="157"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13460,7 +13460,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="92">
+      <c r="B92" s="121">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13479,11 +13479,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="124" t="str">
+      <c r="L92" s="111" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="88" t="str">
+      <c r="M92" s="122" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13561,11 +13561,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="82" t="str">
+      <c r="AT92" s="158" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="84" t="str">
+      <c r="AU92" s="159" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13600,8 +13600,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="125"/>
-      <c r="M93" s="89"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="118"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13673,8 +13673,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="83"/>
-      <c r="AU93" s="85"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="157"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13686,7 +13686,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="94">
+      <c r="B94" s="115">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13705,11 +13705,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="126" t="str">
+      <c r="L94" s="113" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="90" t="str">
+      <c r="M94" s="117" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13724,28 +13724,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="137" t="str">
+      <c r="V94" s="99" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="138"/>
-      <c r="X94" s="141" t="str">
+      <c r="W94" s="100"/>
+      <c r="X94" s="103" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="142"/>
-      <c r="Z94" s="142"/>
-      <c r="AA94" s="143" t="str">
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+      <c r="AA94" s="105" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="144" t="str">
+      <c r="AB94" s="106" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="145"/>
-      <c r="AD94" s="146"/>
-      <c r="AE94" s="147"/>
+      <c r="AC94" s="107"/>
+      <c r="AD94" s="108"/>
+      <c r="AE94" s="109"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13799,11 +13799,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="82" t="str">
+      <c r="AT94" s="158" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="84" t="str">
+      <c r="AU94" s="159" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
+      <c r="B95" s="116"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13838,8 +13838,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="125"/>
-      <c r="M95" s="89"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="118"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13848,16 +13848,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="139"/>
-      <c r="W95" s="140"/>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="140"/>
-      <c r="AD95" s="140"/>
-      <c r="AE95" s="148"/>
+      <c r="V95" s="101"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="102"/>
+      <c r="AA95" s="102"/>
+      <c r="AB95" s="102"/>
+      <c r="AC95" s="102"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="110"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13911,8 +13911,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="85"/>
+      <c r="AT95" s="155"/>
+      <c r="AU95" s="157"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -13924,7 +13924,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="94">
+      <c r="B96" s="115">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -13943,11 +13943,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="126" t="str">
+      <c r="L96" s="113" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="90" t="str">
+      <c r="M96" s="117" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -13962,25 +13962,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="128" t="str">
+      <c r="V96" s="76" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="129"/>
-      <c r="X96" s="129"/>
-      <c r="Y96" s="129"/>
-      <c r="Z96" s="129"/>
-      <c r="AA96" s="129"/>
+      <c r="W96" s="77"/>
+      <c r="X96" s="77"/>
+      <c r="Y96" s="77"/>
+      <c r="Z96" s="77"/>
+      <c r="AA96" s="77"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="160" t="str">
+      <c r="AC96" s="78" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="161"/>
-      <c r="AE96" s="162"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="80"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14034,11 +14034,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="82" t="str">
+      <c r="AT96" s="158" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="84" t="str">
+      <c r="AU96" s="159" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="93"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14073,8 +14073,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="125"/>
-      <c r="M97" s="89"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="118"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14083,25 +14083,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="130" t="str">
+      <c r="V97" s="81" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="131"/>
-      <c r="X97" s="131"/>
-      <c r="Y97" s="131"/>
-      <c r="Z97" s="131"/>
-      <c r="AA97" s="132" t="str">
+      <c r="W97" s="82"/>
+      <c r="X97" s="82"/>
+      <c r="Y97" s="82"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="83" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="133"/>
-      <c r="AC97" s="134" t="str">
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="85" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="135"/>
-      <c r="AE97" s="136"/>
+      <c r="AD97" s="86"/>
+      <c r="AE97" s="87"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14155,8 +14155,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="83"/>
-      <c r="AU97" s="85"/>
+      <c r="AT97" s="155"/>
+      <c r="AU97" s="157"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14168,7 +14168,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="94">
+      <c r="B98" s="115">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14187,11 +14187,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="126" t="str">
+      <c r="L98" s="113" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="90" t="str">
+      <c r="M98" s="117" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14206,25 +14206,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="149" t="str">
+      <c r="V98" s="88" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="150"/>
-      <c r="X98" s="150"/>
-      <c r="Y98" s="150"/>
-      <c r="Z98" s="153" t="str">
+      <c r="W98" s="89"/>
+      <c r="X98" s="89"/>
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="92" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="155" t="str">
+      <c r="AA98" s="94" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="156"/>
-      <c r="AC98" s="156"/>
-      <c r="AD98" s="156"/>
-      <c r="AE98" s="157"/>
+      <c r="AB98" s="95"/>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="96"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14278,11 +14278,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="82" t="str">
+      <c r="AT98" s="158" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="84" t="str">
+      <c r="AU98" s="159" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
@@ -14301,7 +14301,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="95"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14317,8 +14317,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="127"/>
-      <c r="M99" s="91"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="120"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14327,16 +14327,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="151"/>
-      <c r="W99" s="152"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="152"/>
-      <c r="Z99" s="154"/>
-      <c r="AA99" s="158"/>
-      <c r="AB99" s="158"/>
-      <c r="AC99" s="158"/>
-      <c r="AD99" s="158"/>
-      <c r="AE99" s="159"/>
+      <c r="V99" s="90"/>
+      <c r="W99" s="91"/>
+      <c r="X99" s="91"/>
+      <c r="Y99" s="91"/>
+      <c r="Z99" s="93"/>
+      <c r="AA99" s="97"/>
+      <c r="AB99" s="97"/>
+      <c r="AC99" s="97"/>
+      <c r="AD99" s="97"/>
+      <c r="AE99" s="98"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14390,8 +14390,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="83"/>
-      <c r="AU99" s="85"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="157"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14403,7 +14403,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="92">
+      <c r="B100" s="121">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14422,11 +14422,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="124" t="str">
+      <c r="L100" s="111" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="88" t="str">
+      <c r="M100" s="122" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14504,11 +14504,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="82" t="str">
+      <c r="AT100" s="158" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="84" t="str">
+      <c r="AU100" s="159" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
@@ -14527,7 +14527,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14543,8 +14543,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="89"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="118"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14616,8 +14616,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="83"/>
-      <c r="AU101" s="85"/>
+      <c r="AT101" s="155"/>
+      <c r="AU101" s="157"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14629,7 +14629,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="94">
+      <c r="B102" s="115">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14648,11 +14648,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="126" t="str">
+      <c r="L102" s="113" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="90" t="str">
+      <c r="M102" s="117" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14667,28 +14667,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="137" t="str">
+      <c r="V102" s="99" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="138"/>
-      <c r="X102" s="141" t="str">
+      <c r="W102" s="100"/>
+      <c r="X102" s="103" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="142"/>
-      <c r="Z102" s="142"/>
-      <c r="AA102" s="143" t="str">
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="105" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="144" t="str">
+      <c r="AB102" s="106" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="145"/>
-      <c r="AD102" s="146"/>
-      <c r="AE102" s="147"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="108"/>
+      <c r="AE102" s="109"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14742,11 +14742,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="82" t="str">
+      <c r="AT102" s="158" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="84" t="str">
+      <c r="AU102" s="159" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14781,8 +14781,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="89"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="118"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14791,16 +14791,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="140"/>
-      <c r="X103" s="140"/>
-      <c r="Y103" s="140"/>
-      <c r="Z103" s="140"/>
-      <c r="AA103" s="140"/>
-      <c r="AB103" s="140"/>
-      <c r="AC103" s="140"/>
-      <c r="AD103" s="140"/>
-      <c r="AE103" s="148"/>
+      <c r="V103" s="101"/>
+      <c r="W103" s="102"/>
+      <c r="X103" s="102"/>
+      <c r="Y103" s="102"/>
+      <c r="Z103" s="102"/>
+      <c r="AA103" s="102"/>
+      <c r="AB103" s="102"/>
+      <c r="AC103" s="102"/>
+      <c r="AD103" s="102"/>
+      <c r="AE103" s="110"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14854,8 +14854,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="83"/>
-      <c r="AU103" s="85"/>
+      <c r="AT103" s="155"/>
+      <c r="AU103" s="157"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14867,7 +14867,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="94">
+      <c r="B104" s="115">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14886,11 +14886,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="126" t="str">
+      <c r="L104" s="113" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="90" t="str">
+      <c r="M104" s="117" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -14905,25 +14905,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="128" t="str">
+      <c r="V104" s="76" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="129"/>
-      <c r="X104" s="129"/>
-      <c r="Y104" s="129"/>
-      <c r="Z104" s="129"/>
-      <c r="AA104" s="129"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="160" t="str">
+      <c r="AC104" s="78" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="161"/>
-      <c r="AE104" s="162"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="80"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -14977,11 +14977,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="82" t="str">
+      <c r="AT104" s="158" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="84" t="str">
+      <c r="AU104" s="159" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
@@ -15000,7 +15000,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15016,8 +15016,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="89"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="118"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15026,25 +15026,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="130" t="str">
+      <c r="V105" s="81" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="131"/>
-      <c r="X105" s="131"/>
-      <c r="Y105" s="131"/>
-      <c r="Z105" s="131"/>
-      <c r="AA105" s="132" t="str">
+      <c r="W105" s="82"/>
+      <c r="X105" s="82"/>
+      <c r="Y105" s="82"/>
+      <c r="Z105" s="82"/>
+      <c r="AA105" s="83" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="133"/>
-      <c r="AC105" s="134" t="str">
+      <c r="AB105" s="84"/>
+      <c r="AC105" s="85" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="135"/>
-      <c r="AE105" s="136"/>
+      <c r="AD105" s="86"/>
+      <c r="AE105" s="87"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15098,8 +15098,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="83"/>
-      <c r="AU105" s="85"/>
+      <c r="AT105" s="155"/>
+      <c r="AU105" s="157"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15111,7 +15111,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="94">
+      <c r="B106" s="115">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15130,11 +15130,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="126" t="str">
+      <c r="L106" s="113" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="90" t="str">
+      <c r="M106" s="117" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15149,25 +15149,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="149" t="str">
+      <c r="V106" s="88" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="150"/>
-      <c r="X106" s="150"/>
-      <c r="Y106" s="150"/>
-      <c r="Z106" s="153" t="str">
+      <c r="W106" s="89"/>
+      <c r="X106" s="89"/>
+      <c r="Y106" s="89"/>
+      <c r="Z106" s="92" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="155" t="str">
+      <c r="AA106" s="94" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="156"/>
-      <c r="AC106" s="156"/>
-      <c r="AD106" s="156"/>
-      <c r="AE106" s="157"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="96"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15221,11 +15221,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="82" t="str">
+      <c r="AT106" s="158" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="84" t="str">
+      <c r="AU106" s="159" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
@@ -15244,7 +15244,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="95"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15260,8 +15260,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="127"/>
-      <c r="M107" s="91"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="120"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15270,16 +15270,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="151"/>
-      <c r="W107" s="152"/>
-      <c r="X107" s="152"/>
-      <c r="Y107" s="152"/>
-      <c r="Z107" s="154"/>
-      <c r="AA107" s="158"/>
-      <c r="AB107" s="158"/>
-      <c r="AC107" s="158"/>
-      <c r="AD107" s="158"/>
-      <c r="AE107" s="159"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="91"/>
+      <c r="X107" s="91"/>
+      <c r="Y107" s="91"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="97"/>
+      <c r="AB107" s="97"/>
+      <c r="AC107" s="97"/>
+      <c r="AD107" s="97"/>
+      <c r="AE107" s="98"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15333,8 +15333,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="83"/>
-      <c r="AU107" s="85"/>
+      <c r="AT107" s="155"/>
+      <c r="AU107" s="157"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15346,7 +15346,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="92">
+      <c r="B108" s="121">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15365,11 +15365,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="124" t="str">
+      <c r="L108" s="111" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="88" t="str">
+      <c r="M108" s="122" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15447,11 +15447,11 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="82" t="str">
+      <c r="AT108" s="158" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="84" t="str">
+      <c r="AU108" s="159" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="93"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15486,8 +15486,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="125"/>
-      <c r="M109" s="89"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="118"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15559,8 +15559,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="83"/>
-      <c r="AU109" s="85"/>
+      <c r="AT109" s="155"/>
+      <c r="AU109" s="157"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15572,7 +15572,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="94">
+      <c r="B110" s="115">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15591,11 +15591,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="126" t="str">
+      <c r="L110" s="113" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="90" t="str">
+      <c r="M110" s="117" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15610,28 +15610,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="137" t="str">
+      <c r="V110" s="99" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="138"/>
-      <c r="X110" s="141" t="str">
+      <c r="W110" s="100"/>
+      <c r="X110" s="103" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="142"/>
-      <c r="Z110" s="142"/>
-      <c r="AA110" s="143" t="str">
+      <c r="Y110" s="104"/>
+      <c r="Z110" s="104"/>
+      <c r="AA110" s="105" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="144" t="str">
+      <c r="AB110" s="106" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="145"/>
-      <c r="AD110" s="146"/>
-      <c r="AE110" s="147"/>
+      <c r="AC110" s="107"/>
+      <c r="AD110" s="108"/>
+      <c r="AE110" s="109"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15685,11 +15685,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="82" t="str">
+      <c r="AT110" s="158" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="84" t="str">
+      <c r="AU110" s="159" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
@@ -15708,7 +15708,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
+      <c r="B111" s="116"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15724,8 +15724,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="125"/>
-      <c r="M111" s="89"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="118"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15734,16 +15734,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="140"/>
-      <c r="X111" s="140"/>
-      <c r="Y111" s="140"/>
-      <c r="Z111" s="140"/>
-      <c r="AA111" s="140"/>
-      <c r="AB111" s="140"/>
-      <c r="AC111" s="140"/>
-      <c r="AD111" s="140"/>
-      <c r="AE111" s="148"/>
+      <c r="V111" s="101"/>
+      <c r="W111" s="102"/>
+      <c r="X111" s="102"/>
+      <c r="Y111" s="102"/>
+      <c r="Z111" s="102"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="110"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15797,8 +15797,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="83"/>
-      <c r="AU111" s="85"/>
+      <c r="AT111" s="155"/>
+      <c r="AU111" s="157"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15810,7 +15810,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="94">
+      <c r="B112" s="115">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15829,11 +15829,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="126" t="str">
+      <c r="L112" s="113" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="90" t="str">
+      <c r="M112" s="117" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15848,25 +15848,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="128" t="str">
+      <c r="V112" s="76" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="129"/>
-      <c r="X112" s="129"/>
-      <c r="Y112" s="129"/>
-      <c r="Z112" s="129"/>
-      <c r="AA112" s="129"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="160" t="str">
+      <c r="AC112" s="78" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="161"/>
-      <c r="AE112" s="162"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="80"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15920,11 +15920,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="82" t="str">
+      <c r="AT112" s="158" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="84" t="str">
+      <c r="AU112" s="159" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15959,8 +15959,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="125"/>
-      <c r="M113" s="89"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="118"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -15969,25 +15969,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="130" t="str">
+      <c r="V113" s="81" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="131"/>
-      <c r="X113" s="131"/>
-      <c r="Y113" s="131"/>
-      <c r="Z113" s="131"/>
-      <c r="AA113" s="132" t="str">
+      <c r="W113" s="82"/>
+      <c r="X113" s="82"/>
+      <c r="Y113" s="82"/>
+      <c r="Z113" s="82"/>
+      <c r="AA113" s="83" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="133"/>
-      <c r="AC113" s="134" t="str">
+      <c r="AB113" s="84"/>
+      <c r="AC113" s="85" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="135"/>
-      <c r="AE113" s="136"/>
+      <c r="AD113" s="86"/>
+      <c r="AE113" s="87"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16041,8 +16041,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="83"/>
-      <c r="AU113" s="85"/>
+      <c r="AT113" s="155"/>
+      <c r="AU113" s="157"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16054,7 +16054,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="94">
+      <c r="B114" s="115">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16073,11 +16073,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="126" t="str">
+      <c r="L114" s="113" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="90" t="str">
+      <c r="M114" s="117" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16092,25 +16092,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="149" t="str">
+      <c r="V114" s="88" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="150"/>
-      <c r="X114" s="150"/>
-      <c r="Y114" s="150"/>
-      <c r="Z114" s="153" t="str">
+      <c r="W114" s="89"/>
+      <c r="X114" s="89"/>
+      <c r="Y114" s="89"/>
+      <c r="Z114" s="92" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="155" t="str">
+      <c r="AA114" s="94" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="156"/>
-      <c r="AC114" s="156"/>
-      <c r="AD114" s="156"/>
-      <c r="AE114" s="157"/>
+      <c r="AB114" s="95"/>
+      <c r="AC114" s="95"/>
+      <c r="AD114" s="95"/>
+      <c r="AE114" s="96"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16164,11 +16164,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="82" t="str">
+      <c r="AT114" s="158" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="84" t="str">
+      <c r="AU114" s="159" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="95"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16203,8 +16203,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="127"/>
-      <c r="M115" s="91"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="120"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16213,16 +16213,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="151"/>
-      <c r="W115" s="152"/>
-      <c r="X115" s="152"/>
-      <c r="Y115" s="152"/>
-      <c r="Z115" s="154"/>
-      <c r="AA115" s="158"/>
-      <c r="AB115" s="158"/>
-      <c r="AC115" s="158"/>
-      <c r="AD115" s="158"/>
-      <c r="AE115" s="159"/>
+      <c r="V115" s="90"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="93"/>
+      <c r="AA115" s="97"/>
+      <c r="AB115" s="97"/>
+      <c r="AC115" s="97"/>
+      <c r="AD115" s="97"/>
+      <c r="AE115" s="98"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16276,8 +16276,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="83"/>
-      <c r="AU115" s="85"/>
+      <c r="AT115" s="155"/>
+      <c r="AU115" s="157"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16289,7 +16289,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="92">
+      <c r="B116" s="121">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16308,11 +16308,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="124" t="str">
+      <c r="L116" s="111" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="88" t="str">
+      <c r="M116" s="122" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16390,11 +16390,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="82" t="str">
+      <c r="AT116" s="158" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="84" t="str">
+      <c r="AU116" s="159" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
@@ -16413,7 +16413,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
+      <c r="B117" s="116"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16429,8 +16429,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="125"/>
-      <c r="M117" s="89"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="118"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16502,8 +16502,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="83"/>
-      <c r="AU117" s="85"/>
+      <c r="AT117" s="155"/>
+      <c r="AU117" s="157"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16515,7 +16515,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="94">
+      <c r="B118" s="115">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16534,11 +16534,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="126" t="str">
+      <c r="L118" s="113" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="90" t="str">
+      <c r="M118" s="117" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16553,28 +16553,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="137" t="str">
+      <c r="V118" s="99" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="138"/>
-      <c r="X118" s="141" t="str">
+      <c r="W118" s="100"/>
+      <c r="X118" s="103" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="142"/>
-      <c r="Z118" s="142"/>
-      <c r="AA118" s="143" t="str">
+      <c r="Y118" s="104"/>
+      <c r="Z118" s="104"/>
+      <c r="AA118" s="105" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="144" t="str">
+      <c r="AB118" s="106" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="145"/>
-      <c r="AD118" s="146"/>
-      <c r="AE118" s="147"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="108"/>
+      <c r="AE118" s="109"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16628,11 +16628,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="82" t="str">
+      <c r="AT118" s="158" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="84" t="str">
+      <c r="AU118" s="159" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
@@ -16651,7 +16651,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="93"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16667,8 +16667,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="125"/>
-      <c r="M119" s="89"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="118"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16677,16 +16677,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="139"/>
-      <c r="W119" s="140"/>
-      <c r="X119" s="140"/>
-      <c r="Y119" s="140"/>
-      <c r="Z119" s="140"/>
-      <c r="AA119" s="140"/>
-      <c r="AB119" s="140"/>
-      <c r="AC119" s="140"/>
-      <c r="AD119" s="140"/>
-      <c r="AE119" s="148"/>
+      <c r="V119" s="101"/>
+      <c r="W119" s="102"/>
+      <c r="X119" s="102"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="102"/>
+      <c r="AB119" s="102"/>
+      <c r="AC119" s="102"/>
+      <c r="AD119" s="102"/>
+      <c r="AE119" s="110"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16740,8 +16740,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="83"/>
-      <c r="AU119" s="85"/>
+      <c r="AT119" s="155"/>
+      <c r="AU119" s="157"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -16753,7 +16753,7 @@
       <c r="CB119" s="37"/>
     </row>
     <row r="120" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B120" s="94">
+      <c r="B120" s="115">
         <f>IF(B118="","",B118+7)</f>
         <v>43425</v>
       </c>
@@ -16772,11 +16772,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L120" s="126" t="str">
+      <c r="L120" s="113" t="str">
         <f>IF(K120="","",AT120)</f>
         <v/>
       </c>
-      <c r="M120" s="90" t="str">
+      <c r="M120" s="117" t="str">
         <f ca="1">IF(AV120="","",IF(L120="","",AU120))</f>
         <v/>
       </c>
@@ -16791,25 +16791,25 @@
       <c r="S120" s="36"/>
       <c r="T120" s="36"/>
       <c r="U120" s="36"/>
-      <c r="V120" s="128" t="str">
+      <c r="V120" s="76" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"No Weight Change",IF(K122&gt;K114,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W120" s="129"/>
-      <c r="X120" s="129"/>
-      <c r="Y120" s="129"/>
-      <c r="Z120" s="129"/>
-      <c r="AA120" s="129"/>
+      <c r="W120" s="77"/>
+      <c r="X120" s="77"/>
+      <c r="Y120" s="77"/>
+      <c r="Z120" s="77"/>
+      <c r="AA120" s="77"/>
       <c r="AB120" s="42" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"",IF(K122&gt;K114,K122-K114,K114-K122)))</f>
         <v/>
       </c>
-      <c r="AC120" s="160" t="str">
+      <c r="AC120" s="78" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD120" s="161"/>
-      <c r="AE120" s="162"/>
+      <c r="AD120" s="79"/>
+      <c r="AE120" s="80"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="56">
         <f>AG118+1</f>
@@ -16863,11 +16863,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT120" s="82" t="str">
+      <c r="AT120" s="158" t="str">
         <f>IF(AS120="","",AS120-AS118)</f>
         <v/>
       </c>
-      <c r="AU120" s="84" t="str">
+      <c r="AU120" s="159" t="str">
         <f ca="1">IF(AV120="","",IF(AT120="","",MROUND(AV120,5)))</f>
         <v/>
       </c>
@@ -16886,7 +16886,7 @@
       <c r="CB120" s="37"/>
     </row>
     <row r="121" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B121" s="93"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16902,8 +16902,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L121" s="125"/>
-      <c r="M121" s="89"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="118"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="36"/>
@@ -16912,25 +16912,25 @@
       <c r="S121" s="36"/>
       <c r="T121" s="36"/>
       <c r="U121" s="36"/>
-      <c r="V121" s="130" t="str">
+      <c r="V121" s="81" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W121" s="131"/>
-      <c r="X121" s="131"/>
-      <c r="Y121" s="131"/>
-      <c r="Z121" s="131"/>
-      <c r="AA121" s="132" t="str">
+      <c r="W121" s="82"/>
+      <c r="X121" s="82"/>
+      <c r="Y121" s="82"/>
+      <c r="Z121" s="82"/>
+      <c r="AA121" s="83" t="str">
         <f ca="1">IF(V121="","",AB120/4)</f>
         <v/>
       </c>
-      <c r="AB121" s="133"/>
-      <c r="AC121" s="134" t="str">
+      <c r="AB121" s="84"/>
+      <c r="AC121" s="85" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD121" s="135"/>
-      <c r="AE121" s="136"/>
+      <c r="AD121" s="86"/>
+      <c r="AE121" s="87"/>
       <c r="AF121" s="36"/>
       <c r="AG121" s="56">
         <f>AG120+0.5</f>
@@ -16984,8 +16984,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT121" s="83"/>
-      <c r="AU121" s="85"/>
+      <c r="AT121" s="155"/>
+      <c r="AU121" s="157"/>
       <c r="AY121" s="35"/>
       <c r="AZ121" s="35"/>
       <c r="BA121" s="51"/>
@@ -16997,7 +16997,7 @@
       <c r="CB121" s="37"/>
     </row>
     <row r="122" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B122" s="94">
+      <c r="B122" s="115">
         <f>IF(B120="","",B120+7)</f>
         <v>43432</v>
       </c>
@@ -17016,11 +17016,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L122" s="126" t="str">
+      <c r="L122" s="113" t="str">
         <f>IF(K122="","",AT122)</f>
         <v/>
       </c>
-      <c r="M122" s="90" t="str">
+      <c r="M122" s="117" t="str">
         <f ca="1">IF(AV122="","",IF(L122="","",AU122))</f>
         <v/>
       </c>
@@ -17035,25 +17035,25 @@
       <c r="S122" s="36"/>
       <c r="T122" s="36"/>
       <c r="U122" s="36"/>
-      <c r="V122" s="149" t="str">
+      <c r="V122" s="88" t="str">
         <f ca="1">IF(AA121="","","You have")</f>
         <v/>
       </c>
-      <c r="W122" s="150"/>
-      <c r="X122" s="150"/>
-      <c r="Y122" s="150"/>
-      <c r="Z122" s="153" t="str">
+      <c r="W122" s="89"/>
+      <c r="X122" s="89"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="92" t="str">
         <f ca="1">IF(AA121="","",IF(K122&gt;$F$7,K122-$F$7,$F$7-K122))</f>
         <v/>
       </c>
-      <c r="AA122" s="155" t="str">
+      <c r="AA122" s="94" t="str">
         <f ca="1">IF(AA121="","",IF(AA121="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB122" s="156"/>
-      <c r="AC122" s="156"/>
-      <c r="AD122" s="156"/>
-      <c r="AE122" s="157"/>
+      <c r="AB122" s="95"/>
+      <c r="AC122" s="95"/>
+      <c r="AD122" s="95"/>
+      <c r="AE122" s="96"/>
       <c r="AF122" s="36"/>
       <c r="AG122" s="56">
         <f>AG120+1</f>
@@ -17107,11 +17107,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT122" s="82" t="str">
+      <c r="AT122" s="158" t="str">
         <f>IF(AS122="","",AS122-AS120)</f>
         <v/>
       </c>
-      <c r="AU122" s="84" t="str">
+      <c r="AU122" s="159" t="str">
         <f ca="1">IF(AV122="","",IF(AT122="","",MROUND(AV122,5)))</f>
         <v/>
       </c>
@@ -17130,7 +17130,7 @@
       <c r="CB122" s="37"/>
     </row>
     <row r="123" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B123" s="95"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -17146,8 +17146,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L123" s="127"/>
-      <c r="M123" s="91"/>
+      <c r="L123" s="114"/>
+      <c r="M123" s="120"/>
       <c r="N123" s="36"/>
       <c r="O123" s="36"/>
       <c r="P123" s="36"/>
@@ -17156,16 +17156,16 @@
       <c r="S123" s="36"/>
       <c r="T123" s="36"/>
       <c r="U123" s="36"/>
-      <c r="V123" s="151"/>
-      <c r="W123" s="152"/>
-      <c r="X123" s="152"/>
-      <c r="Y123" s="152"/>
-      <c r="Z123" s="154"/>
-      <c r="AA123" s="158"/>
-      <c r="AB123" s="158"/>
-      <c r="AC123" s="158"/>
-      <c r="AD123" s="158"/>
-      <c r="AE123" s="159"/>
+      <c r="V123" s="90"/>
+      <c r="W123" s="91"/>
+      <c r="X123" s="91"/>
+      <c r="Y123" s="91"/>
+      <c r="Z123" s="93"/>
+      <c r="AA123" s="97"/>
+      <c r="AB123" s="97"/>
+      <c r="AC123" s="97"/>
+      <c r="AD123" s="97"/>
+      <c r="AE123" s="98"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="56">
         <f>AG122+0.5</f>
@@ -17216,8 +17216,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT123" s="83"/>
-      <c r="AU123" s="85"/>
+      <c r="AT123" s="155"/>
+      <c r="AU123" s="157"/>
       <c r="AY123" s="35"/>
       <c r="AZ123" s="35"/>
       <c r="BA123" s="51"/>
@@ -17682,6 +17682,459 @@
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AT122:AT123"/>
+    <mergeCell ref="AU122:AU123"/>
+    <mergeCell ref="AT112:AT113"/>
+    <mergeCell ref="AU112:AU113"/>
+    <mergeCell ref="AT114:AT115"/>
+    <mergeCell ref="AU114:AU115"/>
+    <mergeCell ref="AT116:AT117"/>
+    <mergeCell ref="AU116:AU117"/>
+    <mergeCell ref="AT118:AT119"/>
+    <mergeCell ref="AU118:AU119"/>
+    <mergeCell ref="AT120:AT121"/>
+    <mergeCell ref="AU120:AU121"/>
+    <mergeCell ref="AT102:AT103"/>
+    <mergeCell ref="AU102:AU103"/>
+    <mergeCell ref="AT104:AT105"/>
+    <mergeCell ref="AU104:AU105"/>
+    <mergeCell ref="AT106:AT107"/>
+    <mergeCell ref="AU106:AU107"/>
+    <mergeCell ref="AT108:AT109"/>
+    <mergeCell ref="AU108:AU109"/>
+    <mergeCell ref="AT110:AT111"/>
+    <mergeCell ref="AU110:AU111"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AT98:AT99"/>
+    <mergeCell ref="AU98:AU99"/>
+    <mergeCell ref="AT100:AT101"/>
+    <mergeCell ref="AU100:AU101"/>
+    <mergeCell ref="AT82:AT83"/>
+    <mergeCell ref="AU82:AU83"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AU72:AU73"/>
+    <mergeCell ref="AT74:AT75"/>
+    <mergeCell ref="AU74:AU75"/>
+    <mergeCell ref="AT76:AT77"/>
+    <mergeCell ref="AU76:AU77"/>
+    <mergeCell ref="AT78:AT79"/>
+    <mergeCell ref="AU78:AU79"/>
+    <mergeCell ref="AT80:AT81"/>
+    <mergeCell ref="AU80:AU81"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AU62:AU63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AU66:AU67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AU68:AU69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AU70:AU71"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AU56:AU57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AU58:AU59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AU60:AU61"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AU42:AU43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AU44:AU45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AU46:AU47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AU48:AU49"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AU50:AU51"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AU40:AU41"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="V42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AE43"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="V26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AE27"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AE39"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="X30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AE31"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="V66:Y67"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AE55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AE59"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AE35"/>
+    <mergeCell ref="X70:Z71"/>
+    <mergeCell ref="AA70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="V72:AA72"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AE47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="V50:Y51"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="AA50:AE51"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V74:Y75"/>
+    <mergeCell ref="Z74:Z75"/>
+    <mergeCell ref="AA74:AE75"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="V78:W79"/>
+    <mergeCell ref="X78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="V80:AA80"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="V82:Y83"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="AA82:AE83"/>
+    <mergeCell ref="V86:W87"/>
+    <mergeCell ref="X86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AE87"/>
+    <mergeCell ref="V88:AA88"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="V90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AE91"/>
+    <mergeCell ref="V94:W95"/>
+    <mergeCell ref="X94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AE95"/>
+    <mergeCell ref="V96:AA96"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="V97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="AC97:AE97"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="AA98:AE99"/>
+    <mergeCell ref="V102:W103"/>
+    <mergeCell ref="X102:Z103"/>
+    <mergeCell ref="AA102:AA103"/>
+    <mergeCell ref="AB102:AE103"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="V106:Y107"/>
+    <mergeCell ref="Z106:Z107"/>
+    <mergeCell ref="AA106:AE107"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AE111"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="V120:AA120"/>
@@ -17706,459 +18159,6 @@
     <mergeCell ref="AB118:AE119"/>
     <mergeCell ref="V104:AA104"/>
     <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="V105:Z105"/>
-    <mergeCell ref="AA105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="V106:Y107"/>
-    <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="AA106:AE107"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AE111"/>
-    <mergeCell ref="V96:AA96"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="V97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="AC97:AE97"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="AA98:AE99"/>
-    <mergeCell ref="V102:W103"/>
-    <mergeCell ref="X102:Z103"/>
-    <mergeCell ref="AA102:AA103"/>
-    <mergeCell ref="AB102:AE103"/>
-    <mergeCell ref="V88:AA88"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="V90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AE91"/>
-    <mergeCell ref="V94:W95"/>
-    <mergeCell ref="X94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AE95"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="V82:Y83"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="AA82:AE83"/>
-    <mergeCell ref="V86:W87"/>
-    <mergeCell ref="X86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AE87"/>
-    <mergeCell ref="V74:Y75"/>
-    <mergeCell ref="Z74:Z75"/>
-    <mergeCell ref="AA74:AE75"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="V78:W79"/>
-    <mergeCell ref="X78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
-    <mergeCell ref="V80:AA80"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AE35"/>
-    <mergeCell ref="X70:Z71"/>
-    <mergeCell ref="AA70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="V72:AA72"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AE47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="V50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AE51"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="V66:Y67"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AE67"/>
-    <mergeCell ref="V70:W71"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AE55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AE59"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AE43"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="V26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AE27"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AE39"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AE31"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AU42:AU43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AU44:AU45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AU46:AU47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AU48:AU49"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AU50:AU51"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AU56:AU57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AU58:AU59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AU60:AU61"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AU62:AU63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AU64:AU65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AU66:AU67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AU68:AU69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AU70:AU71"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AU72:AU73"/>
-    <mergeCell ref="AT74:AT75"/>
-    <mergeCell ref="AU74:AU75"/>
-    <mergeCell ref="AT76:AT77"/>
-    <mergeCell ref="AU76:AU77"/>
-    <mergeCell ref="AT78:AT79"/>
-    <mergeCell ref="AU78:AU79"/>
-    <mergeCell ref="AT80:AT81"/>
-    <mergeCell ref="AU80:AU81"/>
-    <mergeCell ref="AT82:AT83"/>
-    <mergeCell ref="AU82:AU83"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AT108:AT109"/>
-    <mergeCell ref="AU108:AU109"/>
-    <mergeCell ref="AT110:AT111"/>
-    <mergeCell ref="AU110:AU111"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AT98:AT99"/>
-    <mergeCell ref="AU98:AU99"/>
-    <mergeCell ref="AT100:AT101"/>
-    <mergeCell ref="AU100:AU101"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="AT122:AT123"/>
-    <mergeCell ref="AU122:AU123"/>
-    <mergeCell ref="AT112:AT113"/>
-    <mergeCell ref="AU112:AU113"/>
-    <mergeCell ref="AT114:AT115"/>
-    <mergeCell ref="AU114:AU115"/>
-    <mergeCell ref="AT116:AT117"/>
-    <mergeCell ref="AU116:AU117"/>
-    <mergeCell ref="AT118:AT119"/>
-    <mergeCell ref="AU118:AU119"/>
-    <mergeCell ref="AT120:AT121"/>
-    <mergeCell ref="AU120:AU121"/>
-    <mergeCell ref="AT102:AT103"/>
-    <mergeCell ref="AU102:AU103"/>
-    <mergeCell ref="AT104:AT105"/>
-    <mergeCell ref="AU104:AU105"/>
-    <mergeCell ref="AT106:AT107"/>
-    <mergeCell ref="AU106:AU107"/>
   </mergeCells>
   <conditionalFormatting sqref="V18:AE19 V26:AE27">
     <cfRule type="expression" dxfId="38" priority="42">

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -3217,7 +3217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="M22" s="90">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="69"/>
@@ -5328,11 +5328,11 @@
       </c>
       <c r="AU22" s="84">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="AV22" s="35">
         <f ca="1">IF(AH23&lt;7,AV20,IF(AH22&lt;7,AV20,((K23+(((-L22)*$AV$7)/AH23)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY22" s="35"/>
       <c r="AZ22" s="35"/>
@@ -5351,7 +5351,7 @@
         <v>Cal.</v>
       </c>
       <c r="D23" s="17">
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
@@ -5361,7 +5361,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="L23" s="125"/>
       <c r="M23" s="89"/>
@@ -5406,35 +5406,35 @@
       </c>
       <c r="AL23" s="64">
         <f t="shared" si="11"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AM23" s="65">
         <f t="shared" si="2"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AN23" s="65">
         <f t="shared" si="3"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AO23" s="65">
         <f t="shared" si="4"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AP23" s="65">
         <f t="shared" si="5"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AQ23" s="65">
         <f t="shared" si="6"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AR23" s="66">
         <f t="shared" si="7"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AS23" s="39">
         <f t="shared" si="8"/>
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="AT23" s="83"/>
       <c r="AU23" s="85"/>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="AV24" s="35">
         <f ca="1">IF(AH25&lt;7,AV22,IF(AH24&lt;7,AV22,((K25+(((-L24)*$AV$7)/AH25)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY24" s="35"/>
       <c r="AZ24" s="35"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY26" s="35"/>
       <c r="AZ26" s="35"/>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY28" s="35"/>
       <c r="AZ28" s="35"/>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15707,7 +15707,7 @@
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15942,7 +15942,7 @@
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2659.0476190476206</v>
+        <v>2653.2142857142876</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,55 +1079,130 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1136,14 +1211,41 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1286,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,143 +1301,38 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="96"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="96"/>
+      <c r="M2" s="134"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="111">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="150">
         <v>43047</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="97" t="str">
+      <c r="G3" s="151"/>
+      <c r="H3" s="135" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
         <v>43082</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="O3" s="74" t="s">
+      <c r="M3" s="138"/>
+      <c r="O3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="153"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,24 +3382,24 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="74" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="str">
+      <c r="G4" s="153"/>
+      <c r="H4" s="74" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
         <v>188</v>
@@ -3409,17 +3409,17 @@
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="79" t="str">
+      <c r="O4" s="74" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="78"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3463,24 +3463,24 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="79" t="str">
+      <c r="B5" s="74" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="109" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="102" t="str">
+      <c r="G5" s="149"/>
+      <c r="H5" s="140" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
         <v>You've Lost</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
         <v>0.59999999999999432</v>
@@ -3490,13 +3490,13 @@
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="79" t="str">
+      <c r="O5" s="74" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="79" t="str">
+      <c r="B6" s="74" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,13 +3566,13 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="102" t="str">
+      <c r="H6" s="140" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
         <v>2750</v>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="74" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="116" t="str">
+      <c r="H7" s="126" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118">
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
         <v>43099.5</v>
       </c>
-      <c r="M7" s="119"/>
+      <c r="M7" s="129"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="142" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,13 +3699,13 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="114" t="str">
+      <c r="H8" s="124" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
         <v>1750</v>
@@ -3715,12 +3715,12 @@
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="120" t="str">
+      <c r="B9" s="130" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3769,14 +3769,14 @@
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
         <v>2.5</v>
       </c>
-      <c r="I9" s="122" t="str">
+      <c r="I9" s="132" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="92">
+      <c r="B12" s="121">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L12" s="111">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="122">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="86">
+      <c r="AT12" s="154">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="87">
+      <c r="AU12" s="156">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="85"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="157"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94">
+      <c r="B14" s="115">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="126">
+      <c r="L14" s="113">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="117">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="137" t="str">
+      <c r="V14" s="99" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="141">
+      <c r="W14" s="100"/>
+      <c r="X14" s="103">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143" t="str">
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="105" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="144">
+      <c r="AB14" s="106">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="147"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="109"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="86">
+      <c r="AT14" s="154">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="87">
+      <c r="AU14" s="156">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="93"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="148"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="110"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="85"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="157"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="94">
+      <c r="B16" s="115">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="113">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="117">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="128" t="str">
+      <c r="V16" s="76" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="160" t="str">
+      <c r="AC16" s="78" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="82">
+      <c r="AT16" s="158">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="84">
+      <c r="AU16" s="159">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="93"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="130" t="str">
+      <c r="V17" s="81" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132">
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="134" t="str">
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="85" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="85"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="157"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="94">
+      <c r="B18" s="115">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="113">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="117">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="149" t="str">
+      <c r="V18" s="88" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="153">
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="92">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="155" t="str">
+      <c r="AA18" s="94" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="82">
+      <c r="AT18" s="158">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="84">
+      <c r="AU18" s="159">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="113"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="91"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="159"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="85"/>
+      <c r="AT19" s="155"/>
+      <c r="AU19" s="157"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="92">
+      <c r="B20" s="121">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4987,11 +4987,11 @@
         <f t="shared" si="0"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="111">
         <f>IF(K20="","",AT20)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="122">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3105</v>
       </c>
@@ -5075,11 +5075,11 @@
         <f t="shared" si="8"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="AT20" s="82">
+      <c r="AT20" s="158">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="AU20" s="84">
+      <c r="AU20" s="159">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3105</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="93"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5128,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5194,8 +5194,8 @@
         <f t="shared" si="8"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="85"/>
+      <c r="AT21" s="155"/>
+      <c r="AU21" s="157"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5207,7 +5207,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="94">
+      <c r="B22" s="115">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5232,11 +5232,11 @@
         <f t="shared" si="0"/>
         <v>187.99999999999997</v>
       </c>
-      <c r="L22" s="126">
+      <c r="L22" s="113">
         <f>IF(K22="","",AT22)</f>
         <v>0.17142857142852108</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="117">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v>2740</v>
       </c>
@@ -5251,28 +5251,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="137" t="str">
+      <c r="V22" s="99" t="str">
         <f ca="1">IF(M26="","","From")</f>
         <v/>
       </c>
-      <c r="W22" s="138"/>
-      <c r="X22" s="141" t="str">
+      <c r="W22" s="100"/>
+      <c r="X22" s="103" t="str">
         <f ca="1">IF(M26="","",B20)</f>
         <v/>
       </c>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="143" t="str">
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105" t="str">
         <f ca="1">IF(M26="","","to")</f>
         <v/>
       </c>
-      <c r="AB22" s="144" t="str">
+      <c r="AB22" s="106" t="str">
         <f ca="1">IF(M26="","",B26)</f>
         <v/>
       </c>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="147"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="109"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5326,17 +5326,17 @@
         <f t="shared" si="8"/>
         <v>187.99999999999997</v>
       </c>
-      <c r="AT22" s="82">
+      <c r="AT22" s="158">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v>0.17142857142852108</v>
       </c>
-      <c r="AU22" s="84">
+      <c r="AU22" s="159">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v>2740</v>
       </c>
       <c r="AV22" s="35">
         <f ca="1">IF(AH23&lt;7,AV20,IF(AH22&lt;7,AV20,((K23+(((-L22)*$AV$7)/AH23)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY22" s="35"/>
       <c r="AZ22" s="35"/>
@@ -5349,7 +5349,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="93"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5361,7 +5361,7 @@
         <v>2210</v>
       </c>
       <c r="F23" s="71">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71"/>
@@ -5369,10 +5369,10 @@
       <c r="J23" s="7"/>
       <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>2205</v>
-      </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="89"/>
+        <v>2197.8571428571427</v>
+      </c>
+      <c r="L23" s="112"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5381,16 +5381,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="148"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5422,30 +5422,30 @@
       </c>
       <c r="AN23" s="65">
         <f t="shared" si="3"/>
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="AO23" s="65">
         <f t="shared" si="4"/>
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="AP23" s="65">
         <f t="shared" si="5"/>
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="AQ23" s="65">
         <f t="shared" si="6"/>
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="AR23" s="66">
         <f t="shared" si="7"/>
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="AS23" s="39">
         <f t="shared" si="8"/>
-        <v>2205</v>
-      </c>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="85"/>
+        <v>2197.8571428571427</v>
+      </c>
+      <c r="AT23" s="155"/>
+      <c r="AU23" s="157"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5457,7 +5457,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="94">
+      <c r="B24" s="115">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5476,11 +5476,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="126" t="str">
+      <c r="L24" s="113" t="str">
         <f>IF(K24="","",AT24)</f>
         <v/>
       </c>
-      <c r="M24" s="90" t="str">
+      <c r="M24" s="117" t="str">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v/>
       </c>
@@ -5495,25 +5495,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="128" t="str">
+      <c r="V24" s="76" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="42" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
         <v/>
       </c>
-      <c r="AC24" s="160" t="str">
+      <c r="AC24" s="78" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5567,17 +5567,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT24" s="82" t="str">
+      <c r="AT24" s="158" t="str">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v/>
       </c>
-      <c r="AU24" s="84" t="str">
+      <c r="AU24" s="159" t="str">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v/>
       </c>
       <c r="AV24" s="35">
         <f ca="1">IF(AH25&lt;7,AV22,IF(AH24&lt;7,AV22,((K25+(((-L24)*$AV$7)/AH25)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY24" s="35"/>
       <c r="AZ24" s="35"/>
@@ -5590,7 +5590,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="93"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5606,8 +5606,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="89"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="118"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5616,25 +5616,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="130" t="str">
+      <c r="V25" s="81" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="132" t="str">
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83" t="str">
         <f ca="1">IF(V25="","",AB24/4)</f>
         <v/>
       </c>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134" t="str">
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="87"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5688,8 +5688,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="85"/>
+      <c r="AT25" s="155"/>
+      <c r="AU25" s="157"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5701,7 +5701,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="94">
+      <c r="B26" s="115">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5720,11 +5720,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="126" t="str">
+      <c r="L26" s="113" t="str">
         <f>IF(K26="","",AT26)</f>
         <v/>
       </c>
-      <c r="M26" s="90" t="str">
+      <c r="M26" s="117" t="str">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
         <v/>
       </c>
@@ -5739,25 +5739,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="149" t="str">
+      <c r="V26" s="88" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
         <v/>
       </c>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="153" t="str">
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="92" t="str">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
         <v/>
       </c>
-      <c r="AA26" s="155" t="str">
+      <c r="AA26" s="94" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5811,17 +5811,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT26" s="82" t="str">
+      <c r="AT26" s="158" t="str">
         <f>IF(AS26="","",AS26-AS24)</f>
         <v/>
       </c>
-      <c r="AU26" s="84" t="str">
+      <c r="AU26" s="159" t="str">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
         <v/>
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY26" s="35"/>
       <c r="AZ26" s="35"/>
@@ -5834,7 +5834,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5850,8 +5850,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5860,16 +5860,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5923,8 +5923,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="85"/>
+      <c r="AT27" s="155"/>
+      <c r="AU27" s="157"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5936,7 +5936,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="92">
+      <c r="B28" s="121">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5955,11 +5955,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="124" t="str">
+      <c r="L28" s="111" t="str">
         <f>IF(K28="","",AT28)</f>
         <v/>
       </c>
-      <c r="M28" s="88" t="str">
+      <c r="M28" s="122" t="str">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
         <v/>
       </c>
@@ -6037,17 +6037,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT28" s="82" t="str">
+      <c r="AT28" s="158" t="str">
         <f>IF(AS28="","",AS28-AS26)</f>
         <v/>
       </c>
-      <c r="AU28" s="84" t="str">
+      <c r="AU28" s="159" t="str">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
         <v/>
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY28" s="35"/>
       <c r="AZ28" s="35"/>
@@ -6060,7 +6060,7 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="93"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6076,8 +6076,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="89"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6149,8 +6149,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="85"/>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="157"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6162,7 +6162,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="94">
+      <c r="B30" s="115">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6181,11 +6181,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="126" t="str">
+      <c r="L30" s="113" t="str">
         <f>IF(K30="","",AT30)</f>
         <v/>
       </c>
-      <c r="M30" s="90" t="str">
+      <c r="M30" s="117" t="str">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v/>
       </c>
@@ -6200,28 +6200,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="137" t="str">
+      <c r="V30" s="99" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="138"/>
-      <c r="X30" s="141" t="str">
+      <c r="W30" s="100"/>
+      <c r="X30" s="103" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="143" t="str">
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="105" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="144" t="str">
+      <c r="AB30" s="106" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="147"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6275,17 +6275,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT30" s="82" t="str">
+      <c r="AT30" s="158" t="str">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v/>
       </c>
-      <c r="AU30" s="84" t="str">
+      <c r="AU30" s="159" t="str">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v/>
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6298,7 +6298,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="93"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6314,8 +6314,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="89"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="118"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6324,16 +6324,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="148"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="110"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6387,8 +6387,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="85"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="157"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6400,7 +6400,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="94">
+      <c r="B32" s="115">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6419,11 +6419,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="126" t="str">
+      <c r="L32" s="113" t="str">
         <f>IF(K32="","",AT32)</f>
         <v/>
       </c>
-      <c r="M32" s="90" t="str">
+      <c r="M32" s="117" t="str">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
         <v/>
       </c>
@@ -6438,25 +6438,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="128" t="str">
+      <c r="V32" s="76" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="160" t="str">
+      <c r="AC32" s="78" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6510,17 +6510,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT32" s="82" t="str">
+      <c r="AT32" s="158" t="str">
         <f>IF(AS32="","",AS32-AS30)</f>
         <v/>
       </c>
-      <c r="AU32" s="84" t="str">
+      <c r="AU32" s="159" t="str">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
         <v/>
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6533,7 +6533,7 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6549,8 +6549,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="89"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="118"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6559,25 +6559,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="130" t="str">
+      <c r="V33" s="81" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132" t="str">
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134" t="str">
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="85" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6631,8 +6631,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="85"/>
+      <c r="AT33" s="155"/>
+      <c r="AU33" s="157"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6644,7 +6644,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="94">
+      <c r="B34" s="115">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6663,11 +6663,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="126" t="str">
+      <c r="L34" s="113" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="90" t="str">
+      <c r="M34" s="117" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6682,25 +6682,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="149" t="str">
+      <c r="V34" s="88" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="150"/>
-      <c r="X34" s="150"/>
-      <c r="Y34" s="150"/>
-      <c r="Z34" s="153" t="str">
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="92" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="155" t="str">
+      <c r="AA34" s="94" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="157"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="96"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6754,17 +6754,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="82" t="str">
+      <c r="AT34" s="158" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="84" t="str">
+      <c r="AU34" s="159" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6777,7 +6777,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="95"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6793,8 +6793,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6803,16 +6803,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="159"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6866,8 +6866,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="85"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="157"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6879,7 +6879,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="92">
+      <c r="B36" s="121">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6898,11 +6898,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="124" t="str">
+      <c r="L36" s="111" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="88" t="str">
+      <c r="M36" s="122" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -6980,17 +6980,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="82" t="str">
+      <c r="AT36" s="158" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="84" t="str">
+      <c r="AU36" s="159" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7003,7 +7003,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7019,8 +7019,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="89"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7092,8 +7092,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="83"/>
-      <c r="AU37" s="85"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="157"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7105,7 +7105,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="94">
+      <c r="B38" s="115">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7124,11 +7124,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="126" t="str">
+      <c r="L38" s="113" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="90" t="str">
+      <c r="M38" s="117" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7143,28 +7143,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="137" t="str">
+      <c r="V38" s="99" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="138"/>
-      <c r="X38" s="141" t="str">
+      <c r="W38" s="100"/>
+      <c r="X38" s="103" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="142"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="143" t="str">
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="144" t="str">
+      <c r="AB38" s="106" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="147"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="109"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7218,17 +7218,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="82" t="str">
+      <c r="AT38" s="158" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="84" t="str">
+      <c r="AU38" s="159" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7241,7 +7241,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7257,8 +7257,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="89"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="118"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7267,16 +7267,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="140"/>
-      <c r="AA39" s="140"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="148"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+      <c r="AA39" s="102"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="110"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7330,8 +7330,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="83"/>
-      <c r="AU39" s="85"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="157"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7343,7 +7343,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="94">
+      <c r="B40" s="115">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7362,11 +7362,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="126" t="str">
+      <c r="L40" s="113" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="90" t="str">
+      <c r="M40" s="117" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7381,25 +7381,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="128" t="str">
+      <c r="V40" s="76" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="129"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="160" t="str">
+      <c r="AC40" s="78" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="162"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7453,17 +7453,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="82" t="str">
+      <c r="AT40" s="158" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="84" t="str">
+      <c r="AU40" s="159" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7476,7 +7476,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7492,8 +7492,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="89"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7502,25 +7502,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="130" t="str">
+      <c r="V41" s="81" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="132" t="str">
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="83" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="134" t="str">
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="85" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="135"/>
-      <c r="AE41" s="136"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="87"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7574,8 +7574,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="85"/>
+      <c r="AT41" s="155"/>
+      <c r="AU41" s="157"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7587,7 +7587,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="94">
+      <c r="B42" s="115">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7606,11 +7606,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="126" t="str">
+      <c r="L42" s="113" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="90" t="str">
+      <c r="M42" s="117" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7625,25 +7625,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="149" t="str">
+      <c r="V42" s="88" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="150"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="153" t="str">
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="92" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="155" t="str">
+      <c r="AA42" s="94" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="156"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="157"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="96"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7697,17 +7697,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="82" t="str">
+      <c r="AT42" s="158" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="84" t="str">
+      <c r="AU42" s="159" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7720,7 +7720,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="95"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7736,8 +7736,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="127"/>
-      <c r="M43" s="91"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7746,16 +7746,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="158"/>
-      <c r="AE43" s="159"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="98"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7809,8 +7809,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="85"/>
+      <c r="AT43" s="155"/>
+      <c r="AU43" s="157"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7822,7 +7822,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="92">
+      <c r="B44" s="121">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7841,11 +7841,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="124" t="str">
+      <c r="L44" s="111" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="88" t="str">
+      <c r="M44" s="122" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7923,17 +7923,17 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="82" t="str">
+      <c r="AT44" s="158" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="84" t="str">
+      <c r="AU44" s="159" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -7946,7 +7946,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7962,8 +7962,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="125"/>
-      <c r="M45" s="89"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="118"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8035,8 +8035,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="85"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="157"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8048,7 +8048,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="94">
+      <c r="B46" s="115">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8067,11 +8067,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="126" t="str">
+      <c r="L46" s="113" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="90" t="str">
+      <c r="M46" s="117" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8086,28 +8086,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="137" t="str">
+      <c r="V46" s="99" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="138"/>
-      <c r="X46" s="141" t="str">
+      <c r="W46" s="100"/>
+      <c r="X46" s="103" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="142"/>
-      <c r="AA46" s="143" t="str">
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="105" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="144" t="str">
+      <c r="AB46" s="106" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="145"/>
-      <c r="AD46" s="146"/>
-      <c r="AE46" s="147"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="109"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8161,17 +8161,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="82" t="str">
+      <c r="AT46" s="158" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="84" t="str">
+      <c r="AU46" s="159" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8184,7 +8184,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8200,8 +8200,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="125"/>
-      <c r="M47" s="89"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="118"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8210,16 +8210,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="140"/>
-      <c r="X47" s="140"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="148"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="102"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="110"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8273,8 +8273,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="83"/>
-      <c r="AU47" s="85"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="157"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8286,7 +8286,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="94">
+      <c r="B48" s="115">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8305,11 +8305,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="126" t="str">
+      <c r="L48" s="113" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="90" t="str">
+      <c r="M48" s="117" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8324,25 +8324,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="128" t="str">
+      <c r="V48" s="76" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="160" t="str">
+      <c r="AC48" s="78" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="162"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8396,17 +8396,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="82" t="str">
+      <c r="AT48" s="158" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="84" t="str">
+      <c r="AU48" s="159" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8419,7 +8419,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8435,8 +8435,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="125"/>
-      <c r="M49" s="89"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="118"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8445,25 +8445,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="130" t="str">
+      <c r="V49" s="81" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="132" t="str">
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="83" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="134" t="str">
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="135"/>
-      <c r="AE49" s="136"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="87"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8517,8 +8517,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="85"/>
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="157"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8530,7 +8530,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="94">
+      <c r="B50" s="115">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8549,11 +8549,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="126" t="str">
+      <c r="L50" s="113" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="90" t="str">
+      <c r="M50" s="117" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8568,25 +8568,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="149" t="str">
+      <c r="V50" s="88" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="150"/>
-      <c r="X50" s="150"/>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="153" t="str">
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="92" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="155" t="str">
+      <c r="AA50" s="94" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-      <c r="AD50" s="156"/>
-      <c r="AE50" s="157"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="96"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8640,17 +8640,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="82" t="str">
+      <c r="AT50" s="158" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="84" t="str">
+      <c r="AU50" s="159" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8663,7 +8663,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="95"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8679,8 +8679,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="127"/>
-      <c r="M51" s="91"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8689,16 +8689,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="152"/>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
-      <c r="AC51" s="158"/>
-      <c r="AD51" s="158"/>
-      <c r="AE51" s="159"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="98"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8752,8 +8752,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="83"/>
-      <c r="AU51" s="85"/>
+      <c r="AT51" s="155"/>
+      <c r="AU51" s="157"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8765,7 +8765,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="92">
+      <c r="B52" s="121">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8784,11 +8784,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="124" t="str">
+      <c r="L52" s="111" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="88" t="str">
+      <c r="M52" s="122" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8866,17 +8866,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="82" t="str">
+      <c r="AT52" s="158" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="84" t="str">
+      <c r="AU52" s="159" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8889,7 +8889,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="93"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8905,8 +8905,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="125"/>
-      <c r="M53" s="89"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="118"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -8978,8 +8978,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="85"/>
+      <c r="AT53" s="155"/>
+      <c r="AU53" s="157"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -8991,7 +8991,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="94">
+      <c r="B54" s="115">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -9010,11 +9010,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="126" t="str">
+      <c r="L54" s="113" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="90" t="str">
+      <c r="M54" s="117" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9029,28 +9029,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="137" t="str">
+      <c r="V54" s="99" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="138"/>
-      <c r="X54" s="141" t="str">
+      <c r="W54" s="100"/>
+      <c r="X54" s="103" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="143" t="str">
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="105" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="144" t="str">
+      <c r="AB54" s="106" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="145"/>
-      <c r="AD54" s="146"/>
-      <c r="AE54" s="147"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="109"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9104,17 +9104,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="82" t="str">
+      <c r="AT54" s="158" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="84" t="str">
+      <c r="AU54" s="159" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9127,7 +9127,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9143,8 +9143,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="125"/>
-      <c r="M55" s="89"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="118"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9153,16 +9153,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="140"/>
-      <c r="X55" s="140"/>
-      <c r="Y55" s="140"/>
-      <c r="Z55" s="140"/>
-      <c r="AA55" s="140"/>
-      <c r="AB55" s="140"/>
-      <c r="AC55" s="140"/>
-      <c r="AD55" s="140"/>
-      <c r="AE55" s="148"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="102"/>
+      <c r="AC55" s="102"/>
+      <c r="AD55" s="102"/>
+      <c r="AE55" s="110"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9216,8 +9216,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="83"/>
-      <c r="AU55" s="85"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="157"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9229,7 +9229,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="94">
+      <c r="B56" s="115">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9248,11 +9248,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="126" t="str">
+      <c r="L56" s="113" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="90" t="str">
+      <c r="M56" s="117" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9267,25 +9267,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="128" t="str">
+      <c r="V56" s="76" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="129"/>
-      <c r="X56" s="129"/>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="160" t="str">
+      <c r="AC56" s="78" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="162"/>
+      <c r="AD56" s="79"/>
+      <c r="AE56" s="80"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9339,17 +9339,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="82" t="str">
+      <c r="AT56" s="158" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="84" t="str">
+      <c r="AU56" s="159" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9362,7 +9362,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9378,8 +9378,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="125"/>
-      <c r="M57" s="89"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="118"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9388,25 +9388,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="130" t="str">
+      <c r="V57" s="81" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="131"/>
-      <c r="X57" s="131"/>
-      <c r="Y57" s="131"/>
-      <c r="Z57" s="131"/>
-      <c r="AA57" s="132" t="str">
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="83" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="133"/>
-      <c r="AC57" s="134" t="str">
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="85" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="136"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="87"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9460,8 +9460,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="83"/>
-      <c r="AU57" s="85"/>
+      <c r="AT57" s="155"/>
+      <c r="AU57" s="157"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9473,7 +9473,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="94">
+      <c r="B58" s="115">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9492,11 +9492,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="126" t="str">
+      <c r="L58" s="113" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="90" t="str">
+      <c r="M58" s="117" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9511,25 +9511,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="149" t="str">
+      <c r="V58" s="88" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="150"/>
-      <c r="X58" s="150"/>
-      <c r="Y58" s="150"/>
-      <c r="Z58" s="153" t="str">
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="92" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="155" t="str">
+      <c r="AA58" s="94" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="156"/>
-      <c r="AC58" s="156"/>
-      <c r="AD58" s="156"/>
-      <c r="AE58" s="157"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="96"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9583,17 +9583,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="82" t="str">
+      <c r="AT58" s="158" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="84" t="str">
+      <c r="AU58" s="159" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9606,7 +9606,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="95"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9622,8 +9622,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="127"/>
-      <c r="M59" s="91"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="120"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9632,16 +9632,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="152"/>
-      <c r="X59" s="152"/>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="158"/>
-      <c r="AB59" s="158"/>
-      <c r="AC59" s="158"/>
-      <c r="AD59" s="158"/>
-      <c r="AE59" s="159"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="98"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9695,8 +9695,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="83"/>
-      <c r="AU59" s="85"/>
+      <c r="AT59" s="155"/>
+      <c r="AU59" s="157"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9708,7 +9708,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="92">
+      <c r="B60" s="121">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9727,11 +9727,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="124" t="str">
+      <c r="L60" s="111" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="88" t="str">
+      <c r="M60" s="122" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9809,17 +9809,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="82" t="str">
+      <c r="AT60" s="158" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="84" t="str">
+      <c r="AU60" s="159" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9832,7 +9832,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9848,8 +9848,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="125"/>
-      <c r="M61" s="89"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="118"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9921,8 +9921,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="83"/>
-      <c r="AU61" s="85"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="157"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -9934,7 +9934,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="94">
+      <c r="B62" s="115">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -9953,11 +9953,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="126" t="str">
+      <c r="L62" s="113" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="90" t="str">
+      <c r="M62" s="117" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -9972,28 +9972,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="137" t="str">
+      <c r="V62" s="99" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="138"/>
-      <c r="X62" s="141" t="str">
+      <c r="W62" s="100"/>
+      <c r="X62" s="103" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="142"/>
-      <c r="Z62" s="142"/>
-      <c r="AA62" s="143" t="str">
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="105" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="144" t="str">
+      <c r="AB62" s="106" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="146"/>
-      <c r="AE62" s="147"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="109"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10047,17 +10047,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="82" t="str">
+      <c r="AT62" s="158" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="84" t="str">
+      <c r="AU62" s="159" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10070,7 +10070,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10086,8 +10086,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="125"/>
-      <c r="M63" s="89"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="118"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10096,16 +10096,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="139"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="140"/>
-      <c r="Y63" s="140"/>
-      <c r="Z63" s="140"/>
-      <c r="AA63" s="140"/>
-      <c r="AB63" s="140"/>
-      <c r="AC63" s="140"/>
-      <c r="AD63" s="140"/>
-      <c r="AE63" s="148"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="110"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10159,8 +10159,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="83"/>
-      <c r="AU63" s="85"/>
+      <c r="AT63" s="155"/>
+      <c r="AU63" s="157"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10172,7 +10172,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="94">
+      <c r="B64" s="115">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10191,11 +10191,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="126" t="str">
+      <c r="L64" s="113" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="90" t="str">
+      <c r="M64" s="117" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10210,25 +10210,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="128" t="str">
+      <c r="V64" s="76" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="129"/>
-      <c r="X64" s="129"/>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="129"/>
-      <c r="AA64" s="129"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="160" t="str">
+      <c r="AC64" s="78" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="161"/>
-      <c r="AE64" s="162"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="80"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10282,17 +10282,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="82" t="str">
+      <c r="AT64" s="158" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="84" t="str">
+      <c r="AU64" s="159" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10305,7 +10305,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="93"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10321,8 +10321,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="125"/>
-      <c r="M65" s="89"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="118"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10331,25 +10331,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="130" t="str">
+      <c r="V65" s="81" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="132" t="str">
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="83" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="133"/>
-      <c r="AC65" s="134" t="str">
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="85" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="135"/>
-      <c r="AE65" s="136"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="87"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10403,8 +10403,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="85"/>
+      <c r="AT65" s="155"/>
+      <c r="AU65" s="157"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10416,7 +10416,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="94">
+      <c r="B66" s="115">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10435,11 +10435,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="126" t="str">
+      <c r="L66" s="113" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="90" t="str">
+      <c r="M66" s="117" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10454,25 +10454,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="149" t="str">
+      <c r="V66" s="88" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="150"/>
-      <c r="X66" s="150"/>
-      <c r="Y66" s="150"/>
-      <c r="Z66" s="153" t="str">
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="92" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="155" t="str">
+      <c r="AA66" s="94" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="156"/>
-      <c r="AC66" s="156"/>
-      <c r="AD66" s="156"/>
-      <c r="AE66" s="157"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="96"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10526,17 +10526,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="82" t="str">
+      <c r="AT66" s="158" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="84" t="str">
+      <c r="AU66" s="159" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10549,7 +10549,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="95"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10565,8 +10565,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="127"/>
-      <c r="M67" s="91"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10575,16 +10575,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="151"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="152"/>
-      <c r="Y67" s="152"/>
-      <c r="Z67" s="154"/>
-      <c r="AA67" s="158"/>
-      <c r="AB67" s="158"/>
-      <c r="AC67" s="158"/>
-      <c r="AD67" s="158"/>
-      <c r="AE67" s="159"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="98"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10638,8 +10638,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="83"/>
-      <c r="AU67" s="85"/>
+      <c r="AT67" s="155"/>
+      <c r="AU67" s="157"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10651,7 +10651,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="92">
+      <c r="B68" s="121">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10670,11 +10670,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="124" t="str">
+      <c r="L68" s="111" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="88" t="str">
+      <c r="M68" s="122" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10752,17 +10752,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="82" t="str">
+      <c r="AT68" s="158" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="84" t="str">
+      <c r="AU68" s="159" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10775,7 +10775,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10791,8 +10791,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="125"/>
-      <c r="M69" s="89"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="118"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10864,8 +10864,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="83"/>
-      <c r="AU69" s="85"/>
+      <c r="AT69" s="155"/>
+      <c r="AU69" s="157"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10877,7 +10877,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="94">
+      <c r="B70" s="115">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10896,11 +10896,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="126" t="str">
+      <c r="L70" s="113" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="90" t="str">
+      <c r="M70" s="117" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10915,28 +10915,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="137" t="str">
+      <c r="V70" s="99" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="138"/>
-      <c r="X70" s="141" t="str">
+      <c r="W70" s="100"/>
+      <c r="X70" s="103" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="142"/>
-      <c r="Z70" s="142"/>
-      <c r="AA70" s="143" t="str">
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="105" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="144" t="str">
+      <c r="AB70" s="106" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="145"/>
-      <c r="AD70" s="146"/>
-      <c r="AE70" s="147"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="109"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -10990,17 +10990,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="82" t="str">
+      <c r="AT70" s="158" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="84" t="str">
+      <c r="AU70" s="159" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11013,7 +11013,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11029,8 +11029,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="125"/>
-      <c r="M71" s="89"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="118"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11039,16 +11039,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="139"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="140"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="140"/>
-      <c r="AA71" s="140"/>
-      <c r="AB71" s="140"/>
-      <c r="AC71" s="140"/>
-      <c r="AD71" s="140"/>
-      <c r="AE71" s="148"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+      <c r="AA71" s="102"/>
+      <c r="AB71" s="102"/>
+      <c r="AC71" s="102"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="110"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11102,8 +11102,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="83"/>
-      <c r="AU71" s="85"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="157"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11115,7 +11115,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="94">
+      <c r="B72" s="115">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11134,11 +11134,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="126" t="str">
+      <c r="L72" s="113" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="90" t="str">
+      <c r="M72" s="117" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11153,25 +11153,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="128" t="str">
+      <c r="V72" s="76" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="129"/>
-      <c r="X72" s="129"/>
-      <c r="Y72" s="129"/>
-      <c r="Z72" s="129"/>
-      <c r="AA72" s="129"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="160" t="str">
+      <c r="AC72" s="78" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="161"/>
-      <c r="AE72" s="162"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="80"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11225,17 +11225,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="82" t="str">
+      <c r="AT72" s="158" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="84" t="str">
+      <c r="AU72" s="159" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11248,7 +11248,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11264,8 +11264,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="125"/>
-      <c r="M73" s="89"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="118"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11274,25 +11274,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="130" t="str">
+      <c r="V73" s="81" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="131"/>
-      <c r="X73" s="131"/>
-      <c r="Y73" s="131"/>
-      <c r="Z73" s="131"/>
-      <c r="AA73" s="132" t="str">
+      <c r="W73" s="82"/>
+      <c r="X73" s="82"/>
+      <c r="Y73" s="82"/>
+      <c r="Z73" s="82"/>
+      <c r="AA73" s="83" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="133"/>
-      <c r="AC73" s="134" t="str">
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="85" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="135"/>
-      <c r="AE73" s="136"/>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="87"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11346,8 +11346,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="83"/>
-      <c r="AU73" s="85"/>
+      <c r="AT73" s="155"/>
+      <c r="AU73" s="157"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11359,7 +11359,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="94">
+      <c r="B74" s="115">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11378,11 +11378,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="126" t="str">
+      <c r="L74" s="113" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="90" t="str">
+      <c r="M74" s="117" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11397,25 +11397,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="149" t="str">
+      <c r="V74" s="88" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="150"/>
-      <c r="X74" s="150"/>
-      <c r="Y74" s="150"/>
-      <c r="Z74" s="153" t="str">
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="92" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="155" t="str">
+      <c r="AA74" s="94" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="156"/>
-      <c r="AC74" s="156"/>
-      <c r="AD74" s="156"/>
-      <c r="AE74" s="157"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="96"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11469,17 +11469,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="82" t="str">
+      <c r="AT74" s="158" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="84" t="str">
+      <c r="AU74" s="159" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11492,7 +11492,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11508,8 +11508,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="127"/>
-      <c r="M75" s="91"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11518,16 +11518,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="151"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="154"/>
-      <c r="AA75" s="158"/>
-      <c r="AB75" s="158"/>
-      <c r="AC75" s="158"/>
-      <c r="AD75" s="158"/>
-      <c r="AE75" s="159"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="91"/>
+      <c r="X75" s="91"/>
+      <c r="Y75" s="91"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="98"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11581,8 +11581,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="83"/>
-      <c r="AU75" s="85"/>
+      <c r="AT75" s="155"/>
+      <c r="AU75" s="157"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11594,7 +11594,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="92">
+      <c r="B76" s="121">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11613,11 +11613,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="124" t="str">
+      <c r="L76" s="111" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="88" t="str">
+      <c r="M76" s="122" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11695,17 +11695,17 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="82" t="str">
+      <c r="AT76" s="158" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="84" t="str">
+      <c r="AU76" s="159" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11718,7 +11718,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11734,8 +11734,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="125"/>
-      <c r="M77" s="89"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="118"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11807,8 +11807,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="83"/>
-      <c r="AU77" s="85"/>
+      <c r="AT77" s="155"/>
+      <c r="AU77" s="157"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11820,7 +11820,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="94">
+      <c r="B78" s="115">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11839,11 +11839,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="126" t="str">
+      <c r="L78" s="113" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="90" t="str">
+      <c r="M78" s="117" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11858,28 +11858,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="137" t="str">
+      <c r="V78" s="99" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="138"/>
-      <c r="X78" s="141" t="str">
+      <c r="W78" s="100"/>
+      <c r="X78" s="103" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="142"/>
-      <c r="Z78" s="142"/>
-      <c r="AA78" s="143" t="str">
+      <c r="Y78" s="104"/>
+      <c r="Z78" s="104"/>
+      <c r="AA78" s="105" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="144" t="str">
+      <c r="AB78" s="106" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="145"/>
-      <c r="AD78" s="146"/>
-      <c r="AE78" s="147"/>
+      <c r="AC78" s="107"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="109"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11933,17 +11933,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="82" t="str">
+      <c r="AT78" s="158" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="84" t="str">
+      <c r="AU78" s="159" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -11956,7 +11956,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -11972,8 +11972,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="125"/>
-      <c r="M79" s="89"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="118"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -11982,16 +11982,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="140"/>
-      <c r="X79" s="140"/>
-      <c r="Y79" s="140"/>
-      <c r="Z79" s="140"/>
-      <c r="AA79" s="140"/>
-      <c r="AB79" s="140"/>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="140"/>
-      <c r="AE79" s="148"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="102"/>
+      <c r="AA79" s="102"/>
+      <c r="AB79" s="102"/>
+      <c r="AC79" s="102"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="110"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12045,8 +12045,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="83"/>
-      <c r="AU79" s="85"/>
+      <c r="AT79" s="155"/>
+      <c r="AU79" s="157"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12058,7 +12058,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="94">
+      <c r="B80" s="115">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12077,11 +12077,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="126" t="str">
+      <c r="L80" s="113" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="90" t="str">
+      <c r="M80" s="117" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12096,25 +12096,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="128" t="str">
+      <c r="V80" s="76" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="129"/>
-      <c r="X80" s="129"/>
-      <c r="Y80" s="129"/>
-      <c r="Z80" s="129"/>
-      <c r="AA80" s="129"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="160" t="str">
+      <c r="AC80" s="78" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="161"/>
-      <c r="AE80" s="162"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="80"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12168,17 +12168,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="82" t="str">
+      <c r="AT80" s="158" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="84" t="str">
+      <c r="AU80" s="159" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12191,7 +12191,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12207,8 +12207,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="125"/>
-      <c r="M81" s="89"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="118"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12217,25 +12217,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="130" t="str">
+      <c r="V81" s="81" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="131"/>
-      <c r="X81" s="131"/>
-      <c r="Y81" s="131"/>
-      <c r="Z81" s="131"/>
-      <c r="AA81" s="132" t="str">
+      <c r="W81" s="82"/>
+      <c r="X81" s="82"/>
+      <c r="Y81" s="82"/>
+      <c r="Z81" s="82"/>
+      <c r="AA81" s="83" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="133"/>
-      <c r="AC81" s="134" t="str">
+      <c r="AB81" s="84"/>
+      <c r="AC81" s="85" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="135"/>
-      <c r="AE81" s="136"/>
+      <c r="AD81" s="86"/>
+      <c r="AE81" s="87"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12289,8 +12289,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="83"/>
-      <c r="AU81" s="85"/>
+      <c r="AT81" s="155"/>
+      <c r="AU81" s="157"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12302,7 +12302,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="94">
+      <c r="B82" s="115">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12321,11 +12321,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="126" t="str">
+      <c r="L82" s="113" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="90" t="str">
+      <c r="M82" s="117" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12340,25 +12340,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="149" t="str">
+      <c r="V82" s="88" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="150"/>
-      <c r="X82" s="150"/>
-      <c r="Y82" s="150"/>
-      <c r="Z82" s="153" t="str">
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="92" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="155" t="str">
+      <c r="AA82" s="94" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="156"/>
-      <c r="AC82" s="156"/>
-      <c r="AD82" s="156"/>
-      <c r="AE82" s="157"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="96"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12412,17 +12412,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="82" t="str">
+      <c r="AT82" s="158" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="84" t="str">
+      <c r="AU82" s="159" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12435,7 +12435,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="95"/>
+      <c r="B83" s="119"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12451,8 +12451,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="127"/>
-      <c r="M83" s="91"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="120"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12461,16 +12461,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="151"/>
-      <c r="W83" s="152"/>
-      <c r="X83" s="152"/>
-      <c r="Y83" s="152"/>
-      <c r="Z83" s="154"/>
-      <c r="AA83" s="158"/>
-      <c r="AB83" s="158"/>
-      <c r="AC83" s="158"/>
-      <c r="AD83" s="158"/>
-      <c r="AE83" s="159"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="98"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12524,8 +12524,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="83"/>
-      <c r="AU83" s="85"/>
+      <c r="AT83" s="155"/>
+      <c r="AU83" s="157"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12537,7 +12537,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="92">
+      <c r="B84" s="121">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12556,11 +12556,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="124" t="str">
+      <c r="L84" s="111" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="88" t="str">
+      <c r="M84" s="122" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12638,17 +12638,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="82" t="str">
+      <c r="AT84" s="158" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="84" t="str">
+      <c r="AU84" s="159" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12661,7 +12661,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12677,8 +12677,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="125"/>
-      <c r="M85" s="89"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="118"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12750,8 +12750,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="83"/>
-      <c r="AU85" s="85"/>
+      <c r="AT85" s="155"/>
+      <c r="AU85" s="157"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12763,7 +12763,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="94">
+      <c r="B86" s="115">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12782,11 +12782,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="126" t="str">
+      <c r="L86" s="113" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="90" t="str">
+      <c r="M86" s="117" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12801,28 +12801,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="137" t="str">
+      <c r="V86" s="99" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="138"/>
-      <c r="X86" s="141" t="str">
+      <c r="W86" s="100"/>
+      <c r="X86" s="103" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="142"/>
-      <c r="Z86" s="142"/>
-      <c r="AA86" s="143" t="str">
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
+      <c r="AA86" s="105" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="144" t="str">
+      <c r="AB86" s="106" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="145"/>
-      <c r="AD86" s="146"/>
-      <c r="AE86" s="147"/>
+      <c r="AC86" s="107"/>
+      <c r="AD86" s="108"/>
+      <c r="AE86" s="109"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12876,17 +12876,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="82" t="str">
+      <c r="AT86" s="158" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="84" t="str">
+      <c r="AU86" s="159" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12899,7 +12899,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="93"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12915,8 +12915,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="125"/>
-      <c r="M87" s="89"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="118"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -12925,16 +12925,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="139"/>
-      <c r="W87" s="140"/>
-      <c r="X87" s="140"/>
-      <c r="Y87" s="140"/>
-      <c r="Z87" s="140"/>
-      <c r="AA87" s="140"/>
-      <c r="AB87" s="140"/>
-      <c r="AC87" s="140"/>
-      <c r="AD87" s="140"/>
-      <c r="AE87" s="148"/>
+      <c r="V87" s="101"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
+      <c r="AB87" s="102"/>
+      <c r="AC87" s="102"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="110"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -12988,8 +12988,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="83"/>
-      <c r="AU87" s="85"/>
+      <c r="AT87" s="155"/>
+      <c r="AU87" s="157"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -13001,7 +13001,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="94">
+      <c r="B88" s="115">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13020,11 +13020,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="126" t="str">
+      <c r="L88" s="113" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="90" t="str">
+      <c r="M88" s="117" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13039,25 +13039,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="128" t="str">
+      <c r="V88" s="76" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="129"/>
-      <c r="X88" s="129"/>
-      <c r="Y88" s="129"/>
-      <c r="Z88" s="129"/>
-      <c r="AA88" s="129"/>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+      <c r="Y88" s="77"/>
+      <c r="Z88" s="77"/>
+      <c r="AA88" s="77"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="160" t="str">
+      <c r="AC88" s="78" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="161"/>
-      <c r="AE88" s="162"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="80"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13111,17 +13111,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="82" t="str">
+      <c r="AT88" s="158" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="84" t="str">
+      <c r="AU88" s="159" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13134,7 +13134,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13150,8 +13150,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="125"/>
-      <c r="M89" s="89"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="118"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13160,25 +13160,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="130" t="str">
+      <c r="V89" s="81" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="131"/>
-      <c r="X89" s="131"/>
-      <c r="Y89" s="131"/>
-      <c r="Z89" s="131"/>
-      <c r="AA89" s="132" t="str">
+      <c r="W89" s="82"/>
+      <c r="X89" s="82"/>
+      <c r="Y89" s="82"/>
+      <c r="Z89" s="82"/>
+      <c r="AA89" s="83" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="133"/>
-      <c r="AC89" s="134" t="str">
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="135"/>
-      <c r="AE89" s="136"/>
+      <c r="AD89" s="86"/>
+      <c r="AE89" s="87"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13232,8 +13232,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="83"/>
-      <c r="AU89" s="85"/>
+      <c r="AT89" s="155"/>
+      <c r="AU89" s="157"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13245,7 +13245,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="94">
+      <c r="B90" s="115">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13264,11 +13264,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="126" t="str">
+      <c r="L90" s="113" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="90" t="str">
+      <c r="M90" s="117" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13283,25 +13283,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="149" t="str">
+      <c r="V90" s="88" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="150"/>
-      <c r="X90" s="150"/>
-      <c r="Y90" s="150"/>
-      <c r="Z90" s="153" t="str">
+      <c r="W90" s="89"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="92" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="155" t="str">
+      <c r="AA90" s="94" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="156"/>
-      <c r="AC90" s="156"/>
-      <c r="AD90" s="156"/>
-      <c r="AE90" s="157"/>
+      <c r="AB90" s="95"/>
+      <c r="AC90" s="95"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="96"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13355,17 +13355,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="82" t="str">
+      <c r="AT90" s="158" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="84" t="str">
+      <c r="AU90" s="159" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13378,7 +13378,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="95"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13394,8 +13394,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="127"/>
-      <c r="M91" s="91"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13404,16 +13404,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="151"/>
-      <c r="W91" s="152"/>
-      <c r="X91" s="152"/>
-      <c r="Y91" s="152"/>
-      <c r="Z91" s="154"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158"/>
-      <c r="AC91" s="158"/>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="159"/>
+      <c r="V91" s="90"/>
+      <c r="W91" s="91"/>
+      <c r="X91" s="91"/>
+      <c r="Y91" s="91"/>
+      <c r="Z91" s="93"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="98"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13467,8 +13467,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="83"/>
-      <c r="AU91" s="85"/>
+      <c r="AT91" s="155"/>
+      <c r="AU91" s="157"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13480,7 +13480,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="92">
+      <c r="B92" s="121">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13499,11 +13499,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="124" t="str">
+      <c r="L92" s="111" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="88" t="str">
+      <c r="M92" s="122" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13581,17 +13581,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="82" t="str">
+      <c r="AT92" s="158" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="84" t="str">
+      <c r="AU92" s="159" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13604,7 +13604,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13620,8 +13620,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="125"/>
-      <c r="M93" s="89"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="118"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13693,8 +13693,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="83"/>
-      <c r="AU93" s="85"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="157"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13706,7 +13706,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="94">
+      <c r="B94" s="115">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13725,11 +13725,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="126" t="str">
+      <c r="L94" s="113" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="90" t="str">
+      <c r="M94" s="117" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13744,28 +13744,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="137" t="str">
+      <c r="V94" s="99" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="138"/>
-      <c r="X94" s="141" t="str">
+      <c r="W94" s="100"/>
+      <c r="X94" s="103" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="142"/>
-      <c r="Z94" s="142"/>
-      <c r="AA94" s="143" t="str">
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+      <c r="AA94" s="105" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="144" t="str">
+      <c r="AB94" s="106" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="145"/>
-      <c r="AD94" s="146"/>
-      <c r="AE94" s="147"/>
+      <c r="AC94" s="107"/>
+      <c r="AD94" s="108"/>
+      <c r="AE94" s="109"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13819,17 +13819,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="82" t="str">
+      <c r="AT94" s="158" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="84" t="str">
+      <c r="AU94" s="159" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13842,7 +13842,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
+      <c r="B95" s="116"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13858,8 +13858,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="125"/>
-      <c r="M95" s="89"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="118"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13868,16 +13868,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="139"/>
-      <c r="W95" s="140"/>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="140"/>
-      <c r="AD95" s="140"/>
-      <c r="AE95" s="148"/>
+      <c r="V95" s="101"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="102"/>
+      <c r="AA95" s="102"/>
+      <c r="AB95" s="102"/>
+      <c r="AC95" s="102"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="110"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13931,8 +13931,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="85"/>
+      <c r="AT95" s="155"/>
+      <c r="AU95" s="157"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -13944,7 +13944,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="94">
+      <c r="B96" s="115">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -13963,11 +13963,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="126" t="str">
+      <c r="L96" s="113" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="90" t="str">
+      <c r="M96" s="117" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -13982,25 +13982,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="128" t="str">
+      <c r="V96" s="76" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="129"/>
-      <c r="X96" s="129"/>
-      <c r="Y96" s="129"/>
-      <c r="Z96" s="129"/>
-      <c r="AA96" s="129"/>
+      <c r="W96" s="77"/>
+      <c r="X96" s="77"/>
+      <c r="Y96" s="77"/>
+      <c r="Z96" s="77"/>
+      <c r="AA96" s="77"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="160" t="str">
+      <c r="AC96" s="78" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="161"/>
-      <c r="AE96" s="162"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="80"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14054,17 +14054,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="82" t="str">
+      <c r="AT96" s="158" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="84" t="str">
+      <c r="AU96" s="159" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14077,7 +14077,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="93"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14093,8 +14093,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="125"/>
-      <c r="M97" s="89"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="118"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14103,25 +14103,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="130" t="str">
+      <c r="V97" s="81" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="131"/>
-      <c r="X97" s="131"/>
-      <c r="Y97" s="131"/>
-      <c r="Z97" s="131"/>
-      <c r="AA97" s="132" t="str">
+      <c r="W97" s="82"/>
+      <c r="X97" s="82"/>
+      <c r="Y97" s="82"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="83" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="133"/>
-      <c r="AC97" s="134" t="str">
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="85" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="135"/>
-      <c r="AE97" s="136"/>
+      <c r="AD97" s="86"/>
+      <c r="AE97" s="87"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14175,8 +14175,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="83"/>
-      <c r="AU97" s="85"/>
+      <c r="AT97" s="155"/>
+      <c r="AU97" s="157"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14188,7 +14188,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="94">
+      <c r="B98" s="115">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14207,11 +14207,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="126" t="str">
+      <c r="L98" s="113" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="90" t="str">
+      <c r="M98" s="117" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14226,25 +14226,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="149" t="str">
+      <c r="V98" s="88" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="150"/>
-      <c r="X98" s="150"/>
-      <c r="Y98" s="150"/>
-      <c r="Z98" s="153" t="str">
+      <c r="W98" s="89"/>
+      <c r="X98" s="89"/>
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="92" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="155" t="str">
+      <c r="AA98" s="94" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="156"/>
-      <c r="AC98" s="156"/>
-      <c r="AD98" s="156"/>
-      <c r="AE98" s="157"/>
+      <c r="AB98" s="95"/>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="96"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14298,17 +14298,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="82" t="str">
+      <c r="AT98" s="158" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="84" t="str">
+      <c r="AU98" s="159" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14321,7 +14321,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="95"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14337,8 +14337,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="127"/>
-      <c r="M99" s="91"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="120"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14347,16 +14347,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="151"/>
-      <c r="W99" s="152"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="152"/>
-      <c r="Z99" s="154"/>
-      <c r="AA99" s="158"/>
-      <c r="AB99" s="158"/>
-      <c r="AC99" s="158"/>
-      <c r="AD99" s="158"/>
-      <c r="AE99" s="159"/>
+      <c r="V99" s="90"/>
+      <c r="W99" s="91"/>
+      <c r="X99" s="91"/>
+      <c r="Y99" s="91"/>
+      <c r="Z99" s="93"/>
+      <c r="AA99" s="97"/>
+      <c r="AB99" s="97"/>
+      <c r="AC99" s="97"/>
+      <c r="AD99" s="97"/>
+      <c r="AE99" s="98"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14410,8 +14410,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="83"/>
-      <c r="AU99" s="85"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="157"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14423,7 +14423,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="92">
+      <c r="B100" s="121">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14442,11 +14442,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="124" t="str">
+      <c r="L100" s="111" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="88" t="str">
+      <c r="M100" s="122" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14524,17 +14524,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="82" t="str">
+      <c r="AT100" s="158" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="84" t="str">
+      <c r="AU100" s="159" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14547,7 +14547,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14563,8 +14563,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="89"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="118"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14636,8 +14636,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="83"/>
-      <c r="AU101" s="85"/>
+      <c r="AT101" s="155"/>
+      <c r="AU101" s="157"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14649,7 +14649,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="94">
+      <c r="B102" s="115">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14668,11 +14668,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="126" t="str">
+      <c r="L102" s="113" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="90" t="str">
+      <c r="M102" s="117" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14687,28 +14687,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="137" t="str">
+      <c r="V102" s="99" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="138"/>
-      <c r="X102" s="141" t="str">
+      <c r="W102" s="100"/>
+      <c r="X102" s="103" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="142"/>
-      <c r="Z102" s="142"/>
-      <c r="AA102" s="143" t="str">
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="105" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="144" t="str">
+      <c r="AB102" s="106" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="145"/>
-      <c r="AD102" s="146"/>
-      <c r="AE102" s="147"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="108"/>
+      <c r="AE102" s="109"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14762,17 +14762,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="82" t="str">
+      <c r="AT102" s="158" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="84" t="str">
+      <c r="AU102" s="159" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14785,7 +14785,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14801,8 +14801,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="89"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="118"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14811,16 +14811,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="140"/>
-      <c r="X103" s="140"/>
-      <c r="Y103" s="140"/>
-      <c r="Z103" s="140"/>
-      <c r="AA103" s="140"/>
-      <c r="AB103" s="140"/>
-      <c r="AC103" s="140"/>
-      <c r="AD103" s="140"/>
-      <c r="AE103" s="148"/>
+      <c r="V103" s="101"/>
+      <c r="W103" s="102"/>
+      <c r="X103" s="102"/>
+      <c r="Y103" s="102"/>
+      <c r="Z103" s="102"/>
+      <c r="AA103" s="102"/>
+      <c r="AB103" s="102"/>
+      <c r="AC103" s="102"/>
+      <c r="AD103" s="102"/>
+      <c r="AE103" s="110"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14874,8 +14874,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="83"/>
-      <c r="AU103" s="85"/>
+      <c r="AT103" s="155"/>
+      <c r="AU103" s="157"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14887,7 +14887,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="94">
+      <c r="B104" s="115">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14906,11 +14906,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="126" t="str">
+      <c r="L104" s="113" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="90" t="str">
+      <c r="M104" s="117" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -14925,25 +14925,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="128" t="str">
+      <c r="V104" s="76" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="129"/>
-      <c r="X104" s="129"/>
-      <c r="Y104" s="129"/>
-      <c r="Z104" s="129"/>
-      <c r="AA104" s="129"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="160" t="str">
+      <c r="AC104" s="78" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="161"/>
-      <c r="AE104" s="162"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="80"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -14997,17 +14997,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="82" t="str">
+      <c r="AT104" s="158" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="84" t="str">
+      <c r="AU104" s="159" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15020,7 +15020,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15036,8 +15036,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="89"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="118"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15046,25 +15046,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="130" t="str">
+      <c r="V105" s="81" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="131"/>
-      <c r="X105" s="131"/>
-      <c r="Y105" s="131"/>
-      <c r="Z105" s="131"/>
-      <c r="AA105" s="132" t="str">
+      <c r="W105" s="82"/>
+      <c r="X105" s="82"/>
+      <c r="Y105" s="82"/>
+      <c r="Z105" s="82"/>
+      <c r="AA105" s="83" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="133"/>
-      <c r="AC105" s="134" t="str">
+      <c r="AB105" s="84"/>
+      <c r="AC105" s="85" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="135"/>
-      <c r="AE105" s="136"/>
+      <c r="AD105" s="86"/>
+      <c r="AE105" s="87"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15118,8 +15118,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="83"/>
-      <c r="AU105" s="85"/>
+      <c r="AT105" s="155"/>
+      <c r="AU105" s="157"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15131,7 +15131,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="94">
+      <c r="B106" s="115">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15150,11 +15150,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="126" t="str">
+      <c r="L106" s="113" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="90" t="str">
+      <c r="M106" s="117" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15169,25 +15169,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="149" t="str">
+      <c r="V106" s="88" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="150"/>
-      <c r="X106" s="150"/>
-      <c r="Y106" s="150"/>
-      <c r="Z106" s="153" t="str">
+      <c r="W106" s="89"/>
+      <c r="X106" s="89"/>
+      <c r="Y106" s="89"/>
+      <c r="Z106" s="92" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="155" t="str">
+      <c r="AA106" s="94" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="156"/>
-      <c r="AC106" s="156"/>
-      <c r="AD106" s="156"/>
-      <c r="AE106" s="157"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="96"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15241,17 +15241,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="82" t="str">
+      <c r="AT106" s="158" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="84" t="str">
+      <c r="AU106" s="159" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15264,7 +15264,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="95"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15280,8 +15280,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="127"/>
-      <c r="M107" s="91"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="120"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15290,16 +15290,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="151"/>
-      <c r="W107" s="152"/>
-      <c r="X107" s="152"/>
-      <c r="Y107" s="152"/>
-      <c r="Z107" s="154"/>
-      <c r="AA107" s="158"/>
-      <c r="AB107" s="158"/>
-      <c r="AC107" s="158"/>
-      <c r="AD107" s="158"/>
-      <c r="AE107" s="159"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="91"/>
+      <c r="X107" s="91"/>
+      <c r="Y107" s="91"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="97"/>
+      <c r="AB107" s="97"/>
+      <c r="AC107" s="97"/>
+      <c r="AD107" s="97"/>
+      <c r="AE107" s="98"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15353,8 +15353,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="83"/>
-      <c r="AU107" s="85"/>
+      <c r="AT107" s="155"/>
+      <c r="AU107" s="157"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15366,7 +15366,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="92">
+      <c r="B108" s="121">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15385,11 +15385,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="124" t="str">
+      <c r="L108" s="111" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="88" t="str">
+      <c r="M108" s="122" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15467,17 +15467,17 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="82" t="str">
+      <c r="AT108" s="158" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="84" t="str">
+      <c r="AU108" s="159" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15490,7 +15490,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="93"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15506,8 +15506,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="125"/>
-      <c r="M109" s="89"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="118"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15579,8 +15579,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="83"/>
-      <c r="AU109" s="85"/>
+      <c r="AT109" s="155"/>
+      <c r="AU109" s="157"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15592,7 +15592,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="94">
+      <c r="B110" s="115">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15611,11 +15611,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="126" t="str">
+      <c r="L110" s="113" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="90" t="str">
+      <c r="M110" s="117" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15630,28 +15630,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="137" t="str">
+      <c r="V110" s="99" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="138"/>
-      <c r="X110" s="141" t="str">
+      <c r="W110" s="100"/>
+      <c r="X110" s="103" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="142"/>
-      <c r="Z110" s="142"/>
-      <c r="AA110" s="143" t="str">
+      <c r="Y110" s="104"/>
+      <c r="Z110" s="104"/>
+      <c r="AA110" s="105" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="144" t="str">
+      <c r="AB110" s="106" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="145"/>
-      <c r="AD110" s="146"/>
-      <c r="AE110" s="147"/>
+      <c r="AC110" s="107"/>
+      <c r="AD110" s="108"/>
+      <c r="AE110" s="109"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15705,17 +15705,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="82" t="str">
+      <c r="AT110" s="158" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="84" t="str">
+      <c r="AU110" s="159" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15728,7 +15728,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
+      <c r="B111" s="116"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15744,8 +15744,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="125"/>
-      <c r="M111" s="89"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="118"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15754,16 +15754,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="140"/>
-      <c r="X111" s="140"/>
-      <c r="Y111" s="140"/>
-      <c r="Z111" s="140"/>
-      <c r="AA111" s="140"/>
-      <c r="AB111" s="140"/>
-      <c r="AC111" s="140"/>
-      <c r="AD111" s="140"/>
-      <c r="AE111" s="148"/>
+      <c r="V111" s="101"/>
+      <c r="W111" s="102"/>
+      <c r="X111" s="102"/>
+      <c r="Y111" s="102"/>
+      <c r="Z111" s="102"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="110"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15817,8 +15817,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="83"/>
-      <c r="AU111" s="85"/>
+      <c r="AT111" s="155"/>
+      <c r="AU111" s="157"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15830,7 +15830,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="94">
+      <c r="B112" s="115">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15849,11 +15849,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="126" t="str">
+      <c r="L112" s="113" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="90" t="str">
+      <c r="M112" s="117" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15868,25 +15868,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="128" t="str">
+      <c r="V112" s="76" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="129"/>
-      <c r="X112" s="129"/>
-      <c r="Y112" s="129"/>
-      <c r="Z112" s="129"/>
-      <c r="AA112" s="129"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="160" t="str">
+      <c r="AC112" s="78" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="161"/>
-      <c r="AE112" s="162"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="80"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15940,17 +15940,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="82" t="str">
+      <c r="AT112" s="158" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="84" t="str">
+      <c r="AU112" s="159" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -15963,7 +15963,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15979,8 +15979,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="125"/>
-      <c r="M113" s="89"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="118"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -15989,25 +15989,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="130" t="str">
+      <c r="V113" s="81" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="131"/>
-      <c r="X113" s="131"/>
-      <c r="Y113" s="131"/>
-      <c r="Z113" s="131"/>
-      <c r="AA113" s="132" t="str">
+      <c r="W113" s="82"/>
+      <c r="X113" s="82"/>
+      <c r="Y113" s="82"/>
+      <c r="Z113" s="82"/>
+      <c r="AA113" s="83" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="133"/>
-      <c r="AC113" s="134" t="str">
+      <c r="AB113" s="84"/>
+      <c r="AC113" s="85" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="135"/>
-      <c r="AE113" s="136"/>
+      <c r="AD113" s="86"/>
+      <c r="AE113" s="87"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16061,8 +16061,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="83"/>
-      <c r="AU113" s="85"/>
+      <c r="AT113" s="155"/>
+      <c r="AU113" s="157"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16074,7 +16074,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="94">
+      <c r="B114" s="115">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16093,11 +16093,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="126" t="str">
+      <c r="L114" s="113" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="90" t="str">
+      <c r="M114" s="117" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16112,25 +16112,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="149" t="str">
+      <c r="V114" s="88" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="150"/>
-      <c r="X114" s="150"/>
-      <c r="Y114" s="150"/>
-      <c r="Z114" s="153" t="str">
+      <c r="W114" s="89"/>
+      <c r="X114" s="89"/>
+      <c r="Y114" s="89"/>
+      <c r="Z114" s="92" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="155" t="str">
+      <c r="AA114" s="94" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="156"/>
-      <c r="AC114" s="156"/>
-      <c r="AD114" s="156"/>
-      <c r="AE114" s="157"/>
+      <c r="AB114" s="95"/>
+      <c r="AC114" s="95"/>
+      <c r="AD114" s="95"/>
+      <c r="AE114" s="96"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16184,17 +16184,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="82" t="str">
+      <c r="AT114" s="158" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="84" t="str">
+      <c r="AU114" s="159" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16207,7 +16207,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="95"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16223,8 +16223,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="127"/>
-      <c r="M115" s="91"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="120"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16233,16 +16233,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="151"/>
-      <c r="W115" s="152"/>
-      <c r="X115" s="152"/>
-      <c r="Y115" s="152"/>
-      <c r="Z115" s="154"/>
-      <c r="AA115" s="158"/>
-      <c r="AB115" s="158"/>
-      <c r="AC115" s="158"/>
-      <c r="AD115" s="158"/>
-      <c r="AE115" s="159"/>
+      <c r="V115" s="90"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="93"/>
+      <c r="AA115" s="97"/>
+      <c r="AB115" s="97"/>
+      <c r="AC115" s="97"/>
+      <c r="AD115" s="97"/>
+      <c r="AE115" s="98"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16296,8 +16296,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="83"/>
-      <c r="AU115" s="85"/>
+      <c r="AT115" s="155"/>
+      <c r="AU115" s="157"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16309,7 +16309,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="92">
+      <c r="B116" s="121">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16328,11 +16328,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="124" t="str">
+      <c r="L116" s="111" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="88" t="str">
+      <c r="M116" s="122" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16410,17 +16410,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="82" t="str">
+      <c r="AT116" s="158" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="84" t="str">
+      <c r="AU116" s="159" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16433,7 +16433,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
+      <c r="B117" s="116"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16449,8 +16449,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="125"/>
-      <c r="M117" s="89"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="118"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16522,8 +16522,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="83"/>
-      <c r="AU117" s="85"/>
+      <c r="AT117" s="155"/>
+      <c r="AU117" s="157"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16535,7 +16535,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="94">
+      <c r="B118" s="115">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16554,11 +16554,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="126" t="str">
+      <c r="L118" s="113" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="90" t="str">
+      <c r="M118" s="117" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16573,28 +16573,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="137" t="str">
+      <c r="V118" s="99" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="138"/>
-      <c r="X118" s="141" t="str">
+      <c r="W118" s="100"/>
+      <c r="X118" s="103" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="142"/>
-      <c r="Z118" s="142"/>
-      <c r="AA118" s="143" t="str">
+      <c r="Y118" s="104"/>
+      <c r="Z118" s="104"/>
+      <c r="AA118" s="105" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="144" t="str">
+      <c r="AB118" s="106" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="145"/>
-      <c r="AD118" s="146"/>
-      <c r="AE118" s="147"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="108"/>
+      <c r="AE118" s="109"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16648,17 +16648,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="82" t="str">
+      <c r="AT118" s="158" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="84" t="str">
+      <c r="AU118" s="159" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16671,7 +16671,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="93"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16687,8 +16687,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="125"/>
-      <c r="M119" s="89"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="118"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16697,16 +16697,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="139"/>
-      <c r="W119" s="140"/>
-      <c r="X119" s="140"/>
-      <c r="Y119" s="140"/>
-      <c r="Z119" s="140"/>
-      <c r="AA119" s="140"/>
-      <c r="AB119" s="140"/>
-      <c r="AC119" s="140"/>
-      <c r="AD119" s="140"/>
-      <c r="AE119" s="148"/>
+      <c r="V119" s="101"/>
+      <c r="W119" s="102"/>
+      <c r="X119" s="102"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="102"/>
+      <c r="AB119" s="102"/>
+      <c r="AC119" s="102"/>
+      <c r="AD119" s="102"/>
+      <c r="AE119" s="110"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16760,8 +16760,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="83"/>
-      <c r="AU119" s="85"/>
+      <c r="AT119" s="155"/>
+      <c r="AU119" s="157"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -16773,7 +16773,7 @@
       <c r="CB119" s="37"/>
     </row>
     <row r="120" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B120" s="94">
+      <c r="B120" s="115">
         <f>IF(B118="","",B118+7)</f>
         <v>43425</v>
       </c>
@@ -16792,11 +16792,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L120" s="126" t="str">
+      <c r="L120" s="113" t="str">
         <f>IF(K120="","",AT120)</f>
         <v/>
       </c>
-      <c r="M120" s="90" t="str">
+      <c r="M120" s="117" t="str">
         <f ca="1">IF(AV120="","",IF(L120="","",AU120))</f>
         <v/>
       </c>
@@ -16811,25 +16811,25 @@
       <c r="S120" s="36"/>
       <c r="T120" s="36"/>
       <c r="U120" s="36"/>
-      <c r="V120" s="128" t="str">
+      <c r="V120" s="76" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"No Weight Change",IF(K122&gt;K114,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W120" s="129"/>
-      <c r="X120" s="129"/>
-      <c r="Y120" s="129"/>
-      <c r="Z120" s="129"/>
-      <c r="AA120" s="129"/>
+      <c r="W120" s="77"/>
+      <c r="X120" s="77"/>
+      <c r="Y120" s="77"/>
+      <c r="Z120" s="77"/>
+      <c r="AA120" s="77"/>
       <c r="AB120" s="42" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"",IF(K122&gt;K114,K122-K114,K114-K122)))</f>
         <v/>
       </c>
-      <c r="AC120" s="160" t="str">
+      <c r="AC120" s="78" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD120" s="161"/>
-      <c r="AE120" s="162"/>
+      <c r="AD120" s="79"/>
+      <c r="AE120" s="80"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="56">
         <f>AG118+1</f>
@@ -16883,17 +16883,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT120" s="82" t="str">
+      <c r="AT120" s="158" t="str">
         <f>IF(AS120="","",AS120-AS118)</f>
         <v/>
       </c>
-      <c r="AU120" s="84" t="str">
+      <c r="AU120" s="159" t="str">
         <f ca="1">IF(AV120="","",IF(AT120="","",MROUND(AV120,5)))</f>
         <v/>
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -16906,7 +16906,7 @@
       <c r="CB120" s="37"/>
     </row>
     <row r="121" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B121" s="93"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16922,8 +16922,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L121" s="125"/>
-      <c r="M121" s="89"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="118"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="36"/>
@@ -16932,25 +16932,25 @@
       <c r="S121" s="36"/>
       <c r="T121" s="36"/>
       <c r="U121" s="36"/>
-      <c r="V121" s="130" t="str">
+      <c r="V121" s="81" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W121" s="131"/>
-      <c r="X121" s="131"/>
-      <c r="Y121" s="131"/>
-      <c r="Z121" s="131"/>
-      <c r="AA121" s="132" t="str">
+      <c r="W121" s="82"/>
+      <c r="X121" s="82"/>
+      <c r="Y121" s="82"/>
+      <c r="Z121" s="82"/>
+      <c r="AA121" s="83" t="str">
         <f ca="1">IF(V121="","",AB120/4)</f>
         <v/>
       </c>
-      <c r="AB121" s="133"/>
-      <c r="AC121" s="134" t="str">
+      <c r="AB121" s="84"/>
+      <c r="AC121" s="85" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD121" s="135"/>
-      <c r="AE121" s="136"/>
+      <c r="AD121" s="86"/>
+      <c r="AE121" s="87"/>
       <c r="AF121" s="36"/>
       <c r="AG121" s="56">
         <f>AG120+0.5</f>
@@ -17004,8 +17004,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT121" s="83"/>
-      <c r="AU121" s="85"/>
+      <c r="AT121" s="155"/>
+      <c r="AU121" s="157"/>
       <c r="AY121" s="35"/>
       <c r="AZ121" s="35"/>
       <c r="BA121" s="51"/>
@@ -17017,7 +17017,7 @@
       <c r="CB121" s="37"/>
     </row>
     <row r="122" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B122" s="94">
+      <c r="B122" s="115">
         <f>IF(B120="","",B120+7)</f>
         <v>43432</v>
       </c>
@@ -17036,11 +17036,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L122" s="126" t="str">
+      <c r="L122" s="113" t="str">
         <f>IF(K122="","",AT122)</f>
         <v/>
       </c>
-      <c r="M122" s="90" t="str">
+      <c r="M122" s="117" t="str">
         <f ca="1">IF(AV122="","",IF(L122="","",AU122))</f>
         <v/>
       </c>
@@ -17055,25 +17055,25 @@
       <c r="S122" s="36"/>
       <c r="T122" s="36"/>
       <c r="U122" s="36"/>
-      <c r="V122" s="149" t="str">
+      <c r="V122" s="88" t="str">
         <f ca="1">IF(AA121="","","You have")</f>
         <v/>
       </c>
-      <c r="W122" s="150"/>
-      <c r="X122" s="150"/>
-      <c r="Y122" s="150"/>
-      <c r="Z122" s="153" t="str">
+      <c r="W122" s="89"/>
+      <c r="X122" s="89"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="92" t="str">
         <f ca="1">IF(AA121="","",IF(K122&gt;$F$7,K122-$F$7,$F$7-K122))</f>
         <v/>
       </c>
-      <c r="AA122" s="155" t="str">
+      <c r="AA122" s="94" t="str">
         <f ca="1">IF(AA121="","",IF(AA121="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB122" s="156"/>
-      <c r="AC122" s="156"/>
-      <c r="AD122" s="156"/>
-      <c r="AE122" s="157"/>
+      <c r="AB122" s="95"/>
+      <c r="AC122" s="95"/>
+      <c r="AD122" s="95"/>
+      <c r="AE122" s="96"/>
       <c r="AF122" s="36"/>
       <c r="AG122" s="56">
         <f>AG120+1</f>
@@ -17127,17 +17127,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT122" s="82" t="str">
+      <c r="AT122" s="158" t="str">
         <f>IF(AS122="","",AS122-AS120)</f>
         <v/>
       </c>
-      <c r="AU122" s="84" t="str">
+      <c r="AU122" s="159" t="str">
         <f ca="1">IF(AV122="","",IF(AT122="","",MROUND(AV122,5)))</f>
         <v/>
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17150,7 +17150,7 @@
       <c r="CB122" s="37"/>
     </row>
     <row r="123" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B123" s="95"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -17166,8 +17166,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L123" s="127"/>
-      <c r="M123" s="91"/>
+      <c r="L123" s="114"/>
+      <c r="M123" s="120"/>
       <c r="N123" s="36"/>
       <c r="O123" s="36"/>
       <c r="P123" s="36"/>
@@ -17176,16 +17176,16 @@
       <c r="S123" s="36"/>
       <c r="T123" s="36"/>
       <c r="U123" s="36"/>
-      <c r="V123" s="151"/>
-      <c r="W123" s="152"/>
-      <c r="X123" s="152"/>
-      <c r="Y123" s="152"/>
-      <c r="Z123" s="154"/>
-      <c r="AA123" s="158"/>
-      <c r="AB123" s="158"/>
-      <c r="AC123" s="158"/>
-      <c r="AD123" s="158"/>
-      <c r="AE123" s="159"/>
+      <c r="V123" s="90"/>
+      <c r="W123" s="91"/>
+      <c r="X123" s="91"/>
+      <c r="Y123" s="91"/>
+      <c r="Z123" s="93"/>
+      <c r="AA123" s="97"/>
+      <c r="AB123" s="97"/>
+      <c r="AC123" s="97"/>
+      <c r="AD123" s="97"/>
+      <c r="AE123" s="98"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="56">
         <f>AG122+0.5</f>
@@ -17236,8 +17236,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT123" s="83"/>
-      <c r="AU123" s="85"/>
+      <c r="AT123" s="155"/>
+      <c r="AU123" s="157"/>
       <c r="AY123" s="35"/>
       <c r="AZ123" s="35"/>
       <c r="BA123" s="51"/>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2741.5476190476234</v>
+        <v>2740.3571428571472</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>
@@ -17702,6 +17702,459 @@
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AT122:AT123"/>
+    <mergeCell ref="AU122:AU123"/>
+    <mergeCell ref="AT112:AT113"/>
+    <mergeCell ref="AU112:AU113"/>
+    <mergeCell ref="AT114:AT115"/>
+    <mergeCell ref="AU114:AU115"/>
+    <mergeCell ref="AT116:AT117"/>
+    <mergeCell ref="AU116:AU117"/>
+    <mergeCell ref="AT118:AT119"/>
+    <mergeCell ref="AU118:AU119"/>
+    <mergeCell ref="AT120:AT121"/>
+    <mergeCell ref="AU120:AU121"/>
+    <mergeCell ref="AT102:AT103"/>
+    <mergeCell ref="AU102:AU103"/>
+    <mergeCell ref="AT104:AT105"/>
+    <mergeCell ref="AU104:AU105"/>
+    <mergeCell ref="AT106:AT107"/>
+    <mergeCell ref="AU106:AU107"/>
+    <mergeCell ref="AT108:AT109"/>
+    <mergeCell ref="AU108:AU109"/>
+    <mergeCell ref="AT110:AT111"/>
+    <mergeCell ref="AU110:AU111"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AT98:AT99"/>
+    <mergeCell ref="AU98:AU99"/>
+    <mergeCell ref="AT100:AT101"/>
+    <mergeCell ref="AU100:AU101"/>
+    <mergeCell ref="AT82:AT83"/>
+    <mergeCell ref="AU82:AU83"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AU72:AU73"/>
+    <mergeCell ref="AT74:AT75"/>
+    <mergeCell ref="AU74:AU75"/>
+    <mergeCell ref="AT76:AT77"/>
+    <mergeCell ref="AU76:AU77"/>
+    <mergeCell ref="AT78:AT79"/>
+    <mergeCell ref="AU78:AU79"/>
+    <mergeCell ref="AT80:AT81"/>
+    <mergeCell ref="AU80:AU81"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AU62:AU63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AU66:AU67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AU68:AU69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AU70:AU71"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AU56:AU57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AU58:AU59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AU60:AU61"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AU42:AU43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AU44:AU45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AU46:AU47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AU48:AU49"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AU50:AU51"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AU40:AU41"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="V42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AE43"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="V26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AE27"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AE39"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="X30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AE31"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="V66:Y67"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AE55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AE59"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AE35"/>
+    <mergeCell ref="X70:Z71"/>
+    <mergeCell ref="AA70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="V72:AA72"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AE47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="V50:Y51"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="AA50:AE51"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V74:Y75"/>
+    <mergeCell ref="Z74:Z75"/>
+    <mergeCell ref="AA74:AE75"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="V78:W79"/>
+    <mergeCell ref="X78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="V80:AA80"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="V82:Y83"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="AA82:AE83"/>
+    <mergeCell ref="V86:W87"/>
+    <mergeCell ref="X86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AE87"/>
+    <mergeCell ref="V88:AA88"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="V90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AE91"/>
+    <mergeCell ref="V94:W95"/>
+    <mergeCell ref="X94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AE95"/>
+    <mergeCell ref="V96:AA96"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="V97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="AC97:AE97"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="AA98:AE99"/>
+    <mergeCell ref="V102:W103"/>
+    <mergeCell ref="X102:Z103"/>
+    <mergeCell ref="AA102:AA103"/>
+    <mergeCell ref="AB102:AE103"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="V106:Y107"/>
+    <mergeCell ref="Z106:Z107"/>
+    <mergeCell ref="AA106:AE107"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AE111"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="V120:AA120"/>
@@ -17726,459 +18179,6 @@
     <mergeCell ref="AB118:AE119"/>
     <mergeCell ref="V104:AA104"/>
     <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="V105:Z105"/>
-    <mergeCell ref="AA105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="V106:Y107"/>
-    <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="AA106:AE107"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AE111"/>
-    <mergeCell ref="V96:AA96"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="V97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="AC97:AE97"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="AA98:AE99"/>
-    <mergeCell ref="V102:W103"/>
-    <mergeCell ref="X102:Z103"/>
-    <mergeCell ref="AA102:AA103"/>
-    <mergeCell ref="AB102:AE103"/>
-    <mergeCell ref="V88:AA88"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="V90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AE91"/>
-    <mergeCell ref="V94:W95"/>
-    <mergeCell ref="X94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AE95"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="V82:Y83"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="AA82:AE83"/>
-    <mergeCell ref="V86:W87"/>
-    <mergeCell ref="X86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AE87"/>
-    <mergeCell ref="V74:Y75"/>
-    <mergeCell ref="Z74:Z75"/>
-    <mergeCell ref="AA74:AE75"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="V78:W79"/>
-    <mergeCell ref="X78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
-    <mergeCell ref="V80:AA80"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AE35"/>
-    <mergeCell ref="X70:Z71"/>
-    <mergeCell ref="AA70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="V72:AA72"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AE47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="V50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AE51"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="V66:Y67"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AE67"/>
-    <mergeCell ref="V70:W71"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AE55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AE59"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AE43"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="V26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AE27"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AE39"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AE31"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AU42:AU43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AU44:AU45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AU46:AU47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AU48:AU49"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AU50:AU51"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AU56:AU57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AU58:AU59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AU60:AU61"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AU62:AU63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AU64:AU65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AU66:AU67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AU68:AU69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AU70:AU71"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AU72:AU73"/>
-    <mergeCell ref="AT74:AT75"/>
-    <mergeCell ref="AU74:AU75"/>
-    <mergeCell ref="AT76:AT77"/>
-    <mergeCell ref="AU76:AU77"/>
-    <mergeCell ref="AT78:AT79"/>
-    <mergeCell ref="AU78:AU79"/>
-    <mergeCell ref="AT80:AT81"/>
-    <mergeCell ref="AU80:AU81"/>
-    <mergeCell ref="AT82:AT83"/>
-    <mergeCell ref="AU82:AU83"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AT108:AT109"/>
-    <mergeCell ref="AU108:AU109"/>
-    <mergeCell ref="AT110:AT111"/>
-    <mergeCell ref="AU110:AU111"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AT98:AT99"/>
-    <mergeCell ref="AU98:AU99"/>
-    <mergeCell ref="AT100:AT101"/>
-    <mergeCell ref="AU100:AU101"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="AT122:AT123"/>
-    <mergeCell ref="AU122:AU123"/>
-    <mergeCell ref="AT112:AT113"/>
-    <mergeCell ref="AU112:AU113"/>
-    <mergeCell ref="AT114:AT115"/>
-    <mergeCell ref="AU114:AU115"/>
-    <mergeCell ref="AT116:AT117"/>
-    <mergeCell ref="AU116:AU117"/>
-    <mergeCell ref="AT118:AT119"/>
-    <mergeCell ref="AU118:AU119"/>
-    <mergeCell ref="AT120:AT121"/>
-    <mergeCell ref="AU120:AU121"/>
-    <mergeCell ref="AT102:AT103"/>
-    <mergeCell ref="AU102:AU103"/>
-    <mergeCell ref="AT104:AT105"/>
-    <mergeCell ref="AU104:AU105"/>
-    <mergeCell ref="AT106:AT107"/>
-    <mergeCell ref="AU106:AU107"/>
   </mergeCells>
   <conditionalFormatting sqref="V18:AE19 V26:AE27">
     <cfRule type="expression" dxfId="38" priority="42">

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1693,310 +1693,310 @@
                   <c:v>187.82857142857145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>187.99999999999997</c:v>
+                  <c:v>187.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>188</c:v>
@@ -3217,7 +3217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,7 +3335,7 @@
       <c r="K3" s="136"/>
       <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="M3" s="138"/>
       <c r="O3" s="160" t="s">
@@ -3644,7 +3644,7 @@
       <c r="K7" s="127"/>
       <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43099.5</v>
+        <v>43100.5</v>
       </c>
       <c r="M7" s="129"/>
       <c r="N7" s="35"/>
@@ -5224,21 +5224,23 @@
       <c r="F22" s="71">
         <v>187.8</v>
       </c>
-      <c r="G22" s="71"/>
+      <c r="G22" s="71">
+        <v>187.4</v>
+      </c>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="7"/>
       <c r="K22" s="33">
         <f t="shared" si="0"/>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="L22" s="113">
         <f>IF(K22="","",AT22)</f>
-        <v>0.17142857142852108</v>
+        <v>-5.7142857142878256E-2</v>
       </c>
       <c r="M22" s="117">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
-        <v>2740</v>
+        <v>2760</v>
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="69"/>
@@ -5284,7 +5286,7 @@
       </c>
       <c r="AI22" s="35">
         <f>IF(K22="",AI20,K22)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ22" s="35">
         <f t="shared" si="9"/>
@@ -5308,35 +5310,35 @@
       </c>
       <c r="AO22" s="58">
         <f t="shared" si="4"/>
-        <v>187.8</v>
+        <v>187.4</v>
       </c>
       <c r="AP22" s="58">
         <f t="shared" si="5"/>
-        <v>187.8</v>
+        <v>187.4</v>
       </c>
       <c r="AQ22" s="58">
         <f t="shared" si="6"/>
-        <v>187.8</v>
+        <v>187.4</v>
       </c>
       <c r="AR22" s="59">
         <f t="shared" si="7"/>
-        <v>187.8</v>
+        <v>187.4</v>
       </c>
       <c r="AS22" s="61">
         <f t="shared" si="8"/>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AT22" s="158">
         <f>IF(AS22="","",AS22-AS20)</f>
-        <v>0.17142857142852108</v>
+        <v>-5.7142857142878256E-2</v>
       </c>
       <c r="AU22" s="159">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
-        <v>2740</v>
+        <v>2760</v>
       </c>
       <c r="AV22" s="35">
         <f ca="1">IF(AH23&lt;7,AV20,IF(AH22&lt;7,AV20,((K23+(((-L22)*$AV$7)/AH23)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY22" s="35"/>
       <c r="AZ22" s="35"/>
@@ -5363,13 +5365,15 @@
       <c r="F23" s="71">
         <v>2200</v>
       </c>
-      <c r="G23" s="71"/>
+      <c r="G23" s="71">
+        <v>2220</v>
+      </c>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="7"/>
       <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>2197.8571428571427</v>
+        <v>2209.2857142857142</v>
       </c>
       <c r="L23" s="112"/>
       <c r="M23" s="118"/>
@@ -5402,7 +5406,7 @@
       </c>
       <c r="AI23" s="35">
         <f>AI22</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ23" s="35">
         <f t="shared" si="9"/>
@@ -5426,23 +5430,23 @@
       </c>
       <c r="AO23" s="65">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>2220</v>
       </c>
       <c r="AP23" s="65">
         <f t="shared" si="5"/>
-        <v>2200</v>
+        <v>2220</v>
       </c>
       <c r="AQ23" s="65">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>2220</v>
       </c>
       <c r="AR23" s="66">
         <f t="shared" si="7"/>
-        <v>2200</v>
+        <v>2220</v>
       </c>
       <c r="AS23" s="39">
         <f t="shared" si="8"/>
-        <v>2197.8571428571427</v>
+        <v>2209.2857142857142</v>
       </c>
       <c r="AT23" s="155"/>
       <c r="AU23" s="157"/>
@@ -5525,7 +5529,7 @@
       </c>
       <c r="AI24" s="35">
         <f>IF(K24="",AI22,K24)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ24" s="35">
         <f t="shared" si="9"/>
@@ -5577,7 +5581,7 @@
       </c>
       <c r="AV24" s="35">
         <f ca="1">IF(AH25&lt;7,AV22,IF(AH24&lt;7,AV22,((K25+(((-L24)*$AV$7)/AH25)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY24" s="35"/>
       <c r="AZ24" s="35"/>
@@ -5646,7 +5650,7 @@
       </c>
       <c r="AI25" s="35">
         <f>AI24</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ25" s="35">
         <f t="shared" si="9"/>
@@ -5769,7 +5773,7 @@
       </c>
       <c r="AI26" s="35">
         <f>IF(K26="",AI24,K26)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ26" s="35">
         <f t="shared" si="9"/>
@@ -5821,7 +5825,7 @@
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY26" s="35"/>
       <c r="AZ26" s="35"/>
@@ -5881,7 +5885,7 @@
       </c>
       <c r="AI27" s="35">
         <f>AI26</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ27" s="35">
         <f t="shared" si="9"/>
@@ -5995,7 +5999,7 @@
       </c>
       <c r="AI28" s="35">
         <f>IF(K28="",AI26,K28)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ28" s="35">
         <f t="shared" si="9"/>
@@ -6047,7 +6051,7 @@
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY28" s="35"/>
       <c r="AZ28" s="35"/>
@@ -6107,7 +6111,7 @@
       </c>
       <c r="AI29" s="35">
         <f>AI28</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ29" s="35">
         <f t="shared" si="9"/>
@@ -6233,7 +6237,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6285,7 +6289,7 @@
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6345,7 +6349,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6468,7 +6472,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6520,7 +6524,7 @@
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6589,7 +6593,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6712,7 +6716,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6764,7 +6768,7 @@
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6824,7 +6828,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6938,7 +6942,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -6990,7 +6994,7 @@
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7050,7 +7054,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7176,7 +7180,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7228,7 +7232,7 @@
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7288,7 +7292,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7411,7 +7415,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7463,7 +7467,7 @@
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7532,7 +7536,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7655,7 +7659,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7707,7 +7711,7 @@
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7767,7 +7771,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7881,7 +7885,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7933,7 +7937,7 @@
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -7993,7 +7997,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8119,7 +8123,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8171,7 +8175,7 @@
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8231,7 +8235,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8354,7 +8358,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8406,7 +8410,7 @@
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8475,7 +8479,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8598,7 +8602,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8650,7 +8654,7 @@
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8710,7 +8714,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8824,7 +8828,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8876,7 +8880,7 @@
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8936,7 +8940,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9062,7 +9066,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9114,7 +9118,7 @@
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9174,7 +9178,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9297,7 +9301,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9349,7 +9353,7 @@
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9418,7 +9422,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9541,7 +9545,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9593,7 +9597,7 @@
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9653,7 +9657,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9767,7 +9771,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9819,7 +9823,7 @@
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9879,7 +9883,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -10005,7 +10009,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10057,7 +10061,7 @@
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10117,7 +10121,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10240,7 +10244,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10292,7 +10296,7 @@
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10361,7 +10365,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10484,7 +10488,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10536,7 +10540,7 @@
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10596,7 +10600,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10710,7 +10714,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10762,7 +10766,7 @@
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10822,7 +10826,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10948,7 +10952,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11000,7 +11004,7 @@
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11060,7 +11064,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11183,7 +11187,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11235,7 +11239,7 @@
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11304,7 +11308,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11427,7 +11431,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11479,7 +11483,7 @@
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11539,7 +11543,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11653,7 +11657,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11705,7 +11709,7 @@
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11765,7 +11769,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11891,7 +11895,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11943,7 +11947,7 @@
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12003,7 +12007,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12126,7 +12130,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12178,7 +12182,7 @@
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12247,7 +12251,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12370,7 +12374,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12422,7 +12426,7 @@
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12596,7 +12600,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12648,7 +12652,7 @@
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12708,7 +12712,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12834,7 +12838,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12886,7 +12890,7 @@
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12946,7 +12950,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13069,7 +13073,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13121,7 +13125,7 @@
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13190,7 +13194,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13313,7 +13317,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13365,7 +13369,7 @@
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13425,7 +13429,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13539,7 +13543,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13591,7 +13595,7 @@
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13651,7 +13655,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13777,7 +13781,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13829,7 +13833,7 @@
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13889,7 +13893,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14012,7 +14016,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14064,7 +14068,7 @@
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14133,7 +14137,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14256,7 +14260,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14308,7 +14312,7 @@
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14368,7 +14372,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14482,7 +14486,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14534,7 +14538,7 @@
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14594,7 +14598,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14720,7 +14724,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14772,7 +14776,7 @@
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14832,7 +14836,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14955,7 +14959,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15007,7 +15011,7 @@
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15076,7 +15080,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15199,7 +15203,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15251,7 +15255,7 @@
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15311,7 +15315,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15425,7 +15429,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15477,7 +15481,7 @@
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15537,7 +15541,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15663,7 +15667,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15715,7 +15719,7 @@
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15775,7 +15779,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15898,7 +15902,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -15950,7 +15954,7 @@
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16019,7 +16023,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16142,7 +16146,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16194,7 +16198,7 @@
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16254,7 +16258,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16368,7 +16372,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16420,7 +16424,7 @@
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16480,7 +16484,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16606,7 +16610,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16658,7 +16662,7 @@
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16718,7 +16722,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16841,7 +16845,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16893,7 +16897,7 @@
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -16962,7 +16966,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17085,7 +17089,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17137,7 +17141,7 @@
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17197,7 +17201,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>187.99999999999997</v>
+        <v>187.77142857142857</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17272,7 +17276,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2740.3571428571472</v>
+        <v>2761.3095238095252</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1693,313 +1693,313 @@
                   <c:v>187.82857142857145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>187.77142857142857</c:v>
+                  <c:v>187.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>188</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,8 +3216,8 @@
   <dimension ref="A1:CB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,7 +3335,7 @@
       <c r="K3" s="136"/>
       <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="M3" s="138"/>
       <c r="O3" s="160" t="s">
@@ -3402,7 +3402,7 @@
       <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>IF(L4="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
@@ -3433,7 +3433,7 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="35">
         <f>CEILING((((F7-L4)/F8)),0.5)</f>
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="AJ4" s="35"/>
       <c r="AQ4" s="44"/>
@@ -3483,7 +3483,7 @@
       <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
-        <v>0.59999999999999432</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>IF(L5="","",IF(H5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
@@ -3575,7 +3575,7 @@
       <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
-        <v>2750</v>
+        <v>2825</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>IF(H6="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day")))</f>
@@ -3644,7 +3644,7 @@
       <c r="K7" s="127"/>
       <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43100.5</v>
+        <v>43101.5</v>
       </c>
       <c r="M7" s="129"/>
       <c r="N7" s="35"/>
@@ -3708,7 +3708,7 @@
       <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
-        <v>1750</v>
+        <v>1825</v>
       </c>
       <c r="M8" s="31" t="str">
         <f ca="1">IF(L8="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day","")))</f>
@@ -5227,20 +5227,22 @@
       <c r="G22" s="71">
         <v>187.4</v>
       </c>
-      <c r="H22" s="71"/>
+      <c r="H22" s="71">
+        <v>186.6</v>
+      </c>
       <c r="I22" s="71"/>
       <c r="J22" s="7"/>
       <c r="K22" s="33">
         <f t="shared" si="0"/>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="L22" s="113">
         <f>IF(K22="","",AT22)</f>
-        <v>-5.7142857142878256E-2</v>
+        <v>-0.40000000000006253</v>
       </c>
       <c r="M22" s="117">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
-        <v>2760</v>
+        <v>2815</v>
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="69"/>
@@ -5286,7 +5288,7 @@
       </c>
       <c r="AI22" s="35">
         <f>IF(K22="",AI20,K22)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ22" s="35">
         <f t="shared" si="9"/>
@@ -5314,31 +5316,31 @@
       </c>
       <c r="AP22" s="58">
         <f t="shared" si="5"/>
-        <v>187.4</v>
+        <v>186.6</v>
       </c>
       <c r="AQ22" s="58">
         <f t="shared" si="6"/>
-        <v>187.4</v>
+        <v>186.6</v>
       </c>
       <c r="AR22" s="59">
         <f t="shared" si="7"/>
-        <v>187.4</v>
+        <v>186.6</v>
       </c>
       <c r="AS22" s="61">
         <f t="shared" si="8"/>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AT22" s="158">
         <f>IF(AS22="","",AS22-AS20)</f>
-        <v>-5.7142857142878256E-2</v>
+        <v>-0.40000000000006253</v>
       </c>
       <c r="AU22" s="159">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
-        <v>2760</v>
+        <v>2815</v>
       </c>
       <c r="AV22" s="35">
         <f ca="1">IF(AH23&lt;7,AV20,IF(AH22&lt;7,AV20,((K23+(((-L22)*$AV$7)/AH23)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY22" s="35"/>
       <c r="AZ22" s="35"/>
@@ -5368,12 +5370,14 @@
       <c r="G23" s="71">
         <v>2220</v>
       </c>
-      <c r="H23" s="71"/>
+      <c r="H23" s="71">
+        <v>2600</v>
+      </c>
       <c r="I23" s="71"/>
       <c r="J23" s="7"/>
       <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>2209.2857142857142</v>
+        <v>2372.1428571428573</v>
       </c>
       <c r="L23" s="112"/>
       <c r="M23" s="118"/>
@@ -5406,7 +5410,7 @@
       </c>
       <c r="AI23" s="35">
         <f>AI22</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ23" s="35">
         <f t="shared" si="9"/>
@@ -5434,19 +5438,19 @@
       </c>
       <c r="AP23" s="65">
         <f t="shared" si="5"/>
-        <v>2220</v>
+        <v>2600</v>
       </c>
       <c r="AQ23" s="65">
         <f t="shared" si="6"/>
-        <v>2220</v>
+        <v>2600</v>
       </c>
       <c r="AR23" s="66">
         <f t="shared" si="7"/>
-        <v>2220</v>
+        <v>2600</v>
       </c>
       <c r="AS23" s="39">
         <f t="shared" si="8"/>
-        <v>2209.2857142857142</v>
+        <v>2372.1428571428573</v>
       </c>
       <c r="AT23" s="155"/>
       <c r="AU23" s="157"/>
@@ -5529,7 +5533,7 @@
       </c>
       <c r="AI24" s="35">
         <f>IF(K24="",AI22,K24)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ24" s="35">
         <f t="shared" si="9"/>
@@ -5581,7 +5585,7 @@
       </c>
       <c r="AV24" s="35">
         <f ca="1">IF(AH25&lt;7,AV22,IF(AH24&lt;7,AV22,((K25+(((-L24)*$AV$7)/AH25)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY24" s="35"/>
       <c r="AZ24" s="35"/>
@@ -5650,7 +5654,7 @@
       </c>
       <c r="AI25" s="35">
         <f>AI24</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ25" s="35">
         <f t="shared" si="9"/>
@@ -5773,7 +5777,7 @@
       </c>
       <c r="AI26" s="35">
         <f>IF(K26="",AI24,K26)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ26" s="35">
         <f t="shared" si="9"/>
@@ -5825,7 +5829,7 @@
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY26" s="35"/>
       <c r="AZ26" s="35"/>
@@ -5885,7 +5889,7 @@
       </c>
       <c r="AI27" s="35">
         <f>AI26</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ27" s="35">
         <f t="shared" si="9"/>
@@ -5999,7 +6003,7 @@
       </c>
       <c r="AI28" s="35">
         <f>IF(K28="",AI26,K28)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ28" s="35">
         <f t="shared" si="9"/>
@@ -6051,7 +6055,7 @@
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY28" s="35"/>
       <c r="AZ28" s="35"/>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="AI29" s="35">
         <f>AI28</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ29" s="35">
         <f t="shared" si="9"/>
@@ -6237,7 +6241,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6289,7 +6293,7 @@
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6349,7 +6353,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6472,7 +6476,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6524,7 +6528,7 @@
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6593,7 +6597,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6716,7 +6720,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6768,7 +6772,7 @@
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6828,7 +6832,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -6994,7 +6998,7 @@
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7054,7 +7058,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7180,7 +7184,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7232,7 +7236,7 @@
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7292,7 +7296,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7415,7 +7419,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7467,7 +7471,7 @@
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7536,7 +7540,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7659,7 +7663,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7711,7 +7715,7 @@
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7771,7 +7775,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7885,7 +7889,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7937,7 +7941,7 @@
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -7997,7 +8001,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8123,7 +8127,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8175,7 +8179,7 @@
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8235,7 +8239,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8358,7 +8362,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8410,7 +8414,7 @@
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8479,7 +8483,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8602,7 +8606,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8654,7 +8658,7 @@
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8714,7 +8718,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8828,7 +8832,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8880,7 +8884,7 @@
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8940,7 +8944,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9066,7 +9070,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9118,7 +9122,7 @@
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9178,7 +9182,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9301,7 +9305,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9353,7 +9357,7 @@
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9422,7 +9426,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9545,7 +9549,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9597,7 +9601,7 @@
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9657,7 +9661,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9771,7 +9775,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9823,7 +9827,7 @@
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9883,7 +9887,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -10009,7 +10013,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10061,7 +10065,7 @@
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10121,7 +10125,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10244,7 +10248,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10296,7 +10300,7 @@
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10365,7 +10369,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10488,7 +10492,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10540,7 +10544,7 @@
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10600,7 +10604,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10714,7 +10718,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10766,7 +10770,7 @@
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10826,7 +10830,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10952,7 +10956,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11004,7 +11008,7 @@
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11064,7 +11068,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11187,7 +11191,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11239,7 +11243,7 @@
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11308,7 +11312,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11431,7 +11435,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11483,7 +11487,7 @@
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11543,7 +11547,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11657,7 +11661,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11709,7 +11713,7 @@
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11769,7 +11773,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11895,7 +11899,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11947,7 +11951,7 @@
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12007,7 +12011,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12130,7 +12134,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12182,7 +12186,7 @@
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12251,7 +12255,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12374,7 +12378,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12426,7 +12430,7 @@
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12600,7 +12604,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12652,7 +12656,7 @@
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12712,7 +12716,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12838,7 +12842,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12890,7 +12894,7 @@
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12950,7 +12954,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13073,7 +13077,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13125,7 +13129,7 @@
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13194,7 +13198,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13317,7 +13321,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13369,7 +13373,7 @@
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13429,7 +13433,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13543,7 +13547,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13595,7 +13599,7 @@
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13655,7 +13659,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13781,7 +13785,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13833,7 +13837,7 @@
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13893,7 +13897,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14016,7 +14020,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14068,7 +14072,7 @@
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14137,7 +14141,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14260,7 +14264,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14312,7 +14316,7 @@
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14372,7 +14376,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14486,7 +14490,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14538,7 +14542,7 @@
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14598,7 +14602,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14724,7 +14728,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14776,7 +14780,7 @@
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14836,7 +14840,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14959,7 +14963,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15011,7 +15015,7 @@
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15080,7 +15084,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15203,7 +15207,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15255,7 +15259,7 @@
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15315,7 +15319,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15429,7 +15433,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15481,7 +15485,7 @@
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15541,7 +15545,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15667,7 +15671,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15719,7 +15723,7 @@
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15779,7 +15783,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15902,7 +15906,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -15954,7 +15958,7 @@
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16023,7 +16027,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16146,7 +16150,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16198,7 +16202,7 @@
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16258,7 +16262,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16372,7 +16376,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16424,7 +16428,7 @@
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16484,7 +16488,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16610,7 +16614,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16662,7 +16666,7 @@
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16722,7 +16726,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16845,7 +16849,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16897,7 +16901,7 @@
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -16966,7 +16970,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17089,7 +17093,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17141,7 +17145,7 @@
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17201,7 +17205,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>187.77142857142857</v>
+        <v>187.42857142857139</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17265,7 +17269,7 @@
       </c>
       <c r="AI124" s="35">
         <f>MROUND(AI123,0.5)</f>
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="AJ124" s="35"/>
       <c r="AK124" s="35"/>
@@ -17276,7 +17280,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2761.3095238095252</v>
+        <v>2817.0238095238146</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1699,307 +1699,307 @@
                   <c:v>187.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>188.40000000000003</c:v>
+                  <c:v>189.22857142857146</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>188.5</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,8 +3216,8 @@
   <dimension ref="A1:CB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25:J25"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,7 +3335,7 @@
       <c r="K3" s="98"/>
       <c r="L3" s="99">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="M3" s="100"/>
       <c r="O3" s="74" t="s">
@@ -3402,7 +3402,7 @@
       <c r="K4" s="101"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
-        <v>188.5</v>
+        <v>189</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>IF(L4="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
@@ -3433,7 +3433,7 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="35">
         <f>CEILING((((F7-L4)/F8)),0.5)</f>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="AJ4" s="35"/>
       <c r="AQ4" s="44"/>
@@ -3476,14 +3476,14 @@
       <c r="G5" s="110"/>
       <c r="H5" s="102" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
-        <v>You've Lost</v>
+        <v>You've Gained</v>
       </c>
       <c r="I5" s="103"/>
       <c r="J5" s="103"/>
       <c r="K5" s="103"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
-        <v>9.9999999999994316E-2</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>IF(L5="","",IF(H5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
@@ -3575,7 +3575,7 @@
       <c r="K6" s="103"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
-        <v>2700</v>
+        <v>2675</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>IF(H6="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day")))</f>
@@ -3644,7 +3644,7 @@
       <c r="K7" s="117"/>
       <c r="L7" s="118">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43108</v>
+        <v>43110</v>
       </c>
       <c r="M7" s="119"/>
       <c r="N7" s="35"/>
@@ -3708,7 +3708,7 @@
       <c r="K8" s="115"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
-        <v>1700</v>
+        <v>1675</v>
       </c>
       <c r="M8" s="31" t="str">
         <f ca="1">IF(L8="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day","")))</f>
@@ -5484,23 +5484,27 @@
       <c r="D24" s="17">
         <v>188.4</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="71">
+        <v>190.2</v>
+      </c>
+      <c r="F24" s="71">
+        <v>189.2</v>
+      </c>
       <c r="G24" s="71"/>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="7"/>
       <c r="K24" s="33">
         <f t="shared" si="0"/>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="L24" s="126">
         <f>IF(K24="","",AT24)</f>
-        <v>1.1714285714285779</v>
+        <v>2</v>
       </c>
       <c r="M24" s="90">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="N24" s="36"/>
       <c r="O24" s="69"/>
@@ -5543,7 +5547,7 @@
       </c>
       <c r="AI24" s="35">
         <f>IF(K24="",AI22,K24)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ24" s="35">
         <f t="shared" si="9"/>
@@ -5559,43 +5563,43 @@
       </c>
       <c r="AM24" s="58">
         <f t="shared" si="2"/>
-        <v>188.4</v>
+        <v>190.2</v>
       </c>
       <c r="AN24" s="58">
         <f t="shared" si="3"/>
-        <v>188.4</v>
+        <v>189.2</v>
       </c>
       <c r="AO24" s="58">
         <f t="shared" si="4"/>
-        <v>188.4</v>
+        <v>189.2</v>
       </c>
       <c r="AP24" s="58">
         <f t="shared" si="5"/>
-        <v>188.4</v>
+        <v>189.2</v>
       </c>
       <c r="AQ24" s="58">
         <f t="shared" si="6"/>
-        <v>188.4</v>
+        <v>189.2</v>
       </c>
       <c r="AR24" s="59">
         <f t="shared" si="7"/>
-        <v>188.4</v>
+        <v>189.2</v>
       </c>
       <c r="AS24" s="61">
         <f t="shared" si="8"/>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AT24" s="82">
         <f>IF(AS24="","",AS24-AS22)</f>
-        <v>1.1714285714285779</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="84">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="AV24" s="35">
         <f ca="1">IF(AH25&lt;7,AV22,IF(AH24&lt;7,AV22,((K25+(((-L24)*$AV$7)/AH25)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY24" s="35"/>
       <c r="AZ24" s="35"/>
@@ -5614,17 +5618,21 @@
         <v>Cal.</v>
       </c>
       <c r="D25" s="17">
-        <v>2230</v>
-      </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+        <v>4500</v>
+      </c>
+      <c r="E25" s="71">
+        <v>2490</v>
+      </c>
+      <c r="F25" s="71">
+        <v>2220</v>
+      </c>
       <c r="G25" s="71"/>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
       <c r="J25" s="7"/>
       <c r="K25" s="40">
         <f t="shared" si="0"/>
-        <v>2230</v>
+        <v>2584.2857142857142</v>
       </c>
       <c r="L25" s="125"/>
       <c r="M25" s="89"/>
@@ -5666,7 +5674,7 @@
       </c>
       <c r="AI25" s="35">
         <f>AI24</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ25" s="35">
         <f t="shared" si="9"/>
@@ -5678,35 +5686,35 @@
       </c>
       <c r="AL25" s="64">
         <f t="shared" si="11"/>
-        <v>2230</v>
+        <v>4500</v>
       </c>
       <c r="AM25" s="65">
         <f t="shared" si="2"/>
-        <v>2230</v>
+        <v>2490</v>
       </c>
       <c r="AN25" s="65">
         <f t="shared" si="3"/>
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="AO25" s="65">
         <f t="shared" si="4"/>
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="AP25" s="65">
         <f t="shared" si="5"/>
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="AQ25" s="65">
         <f t="shared" si="6"/>
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="AR25" s="66">
         <f t="shared" si="7"/>
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="AS25" s="39">
         <f t="shared" si="8"/>
-        <v>2230</v>
+        <v>2584.2857142857142</v>
       </c>
       <c r="AT25" s="83"/>
       <c r="AU25" s="85"/>
@@ -5789,7 +5797,7 @@
       </c>
       <c r="AI26" s="35">
         <f>IF(K26="",AI24,K26)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ26" s="35">
         <f t="shared" si="9"/>
@@ -5841,7 +5849,7 @@
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY26" s="35"/>
       <c r="AZ26" s="35"/>
@@ -5901,7 +5909,7 @@
       </c>
       <c r="AI27" s="35">
         <f>AI26</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ27" s="35">
         <f t="shared" si="9"/>
@@ -6015,7 +6023,7 @@
       </c>
       <c r="AI28" s="35">
         <f>IF(K28="",AI26,K28)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ28" s="35">
         <f t="shared" si="9"/>
@@ -6067,7 +6075,7 @@
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY28" s="35"/>
       <c r="AZ28" s="35"/>
@@ -6127,7 +6135,7 @@
       </c>
       <c r="AI29" s="35">
         <f>AI28</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ29" s="35">
         <f t="shared" si="9"/>
@@ -6253,7 +6261,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6305,7 +6313,7 @@
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6365,7 +6373,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6488,7 +6496,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6540,7 +6548,7 @@
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6609,7 +6617,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6732,7 +6740,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6784,7 +6792,7 @@
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6958,7 +6966,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7010,7 +7018,7 @@
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7070,7 +7078,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7196,7 +7204,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7248,7 +7256,7 @@
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7308,7 +7316,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7431,7 +7439,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7483,7 +7491,7 @@
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7552,7 +7560,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7675,7 +7683,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7727,7 +7735,7 @@
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7787,7 +7795,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7901,7 +7909,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7953,7 +7961,7 @@
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -8013,7 +8021,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8139,7 +8147,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8191,7 +8199,7 @@
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8251,7 +8259,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8374,7 +8382,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8426,7 +8434,7 @@
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8495,7 +8503,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8618,7 +8626,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8670,7 +8678,7 @@
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8730,7 +8738,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8844,7 +8852,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8896,7 +8904,7 @@
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8956,7 +8964,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9082,7 +9090,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9134,7 +9142,7 @@
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9194,7 +9202,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9317,7 +9325,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9369,7 +9377,7 @@
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9438,7 +9446,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9561,7 +9569,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9613,7 +9621,7 @@
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9673,7 +9681,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9787,7 +9795,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9839,7 +9847,7 @@
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9899,7 +9907,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -10025,7 +10033,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10077,7 +10085,7 @@
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10137,7 +10145,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10260,7 +10268,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10312,7 +10320,7 @@
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10381,7 +10389,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10504,7 +10512,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10556,7 +10564,7 @@
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10616,7 +10624,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10730,7 +10738,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10782,7 +10790,7 @@
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10842,7 +10850,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10968,7 +10976,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11020,7 +11028,7 @@
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11080,7 +11088,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11203,7 +11211,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11255,7 +11263,7 @@
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11324,7 +11332,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11447,7 +11455,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11499,7 +11507,7 @@
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11559,7 +11567,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11673,7 +11681,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11725,7 +11733,7 @@
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11785,7 +11793,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11911,7 +11919,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11963,7 +11971,7 @@
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12023,7 +12031,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12146,7 +12154,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12198,7 +12206,7 @@
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12267,7 +12275,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12390,7 +12398,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12442,7 +12450,7 @@
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12502,7 +12510,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12616,7 +12624,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12668,7 +12676,7 @@
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12728,7 +12736,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12854,7 +12862,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12906,7 +12914,7 @@
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12966,7 +12974,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13089,7 +13097,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13141,7 +13149,7 @@
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13210,7 +13218,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13333,7 +13341,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13385,7 +13393,7 @@
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13445,7 +13453,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13559,7 +13567,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13611,7 +13619,7 @@
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13671,7 +13679,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13797,7 +13805,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13849,7 +13857,7 @@
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13909,7 +13917,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14032,7 +14040,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14084,7 +14092,7 @@
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14153,7 +14161,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14276,7 +14284,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14328,7 +14336,7 @@
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14388,7 +14396,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14502,7 +14510,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14554,7 +14562,7 @@
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14614,7 +14622,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14740,7 +14748,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14792,7 +14800,7 @@
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14852,7 +14860,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14975,7 +14983,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15027,7 +15035,7 @@
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15096,7 +15104,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15219,7 +15227,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15271,7 +15279,7 @@
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15331,7 +15339,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15445,7 +15453,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15497,7 +15505,7 @@
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15557,7 +15565,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15683,7 +15691,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15735,7 +15743,7 @@
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15795,7 +15803,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15918,7 +15926,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -15970,7 +15978,7 @@
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16039,7 +16047,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16162,7 +16170,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16214,7 +16222,7 @@
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16274,7 +16282,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16388,7 +16396,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16440,7 +16448,7 @@
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16500,7 +16508,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16626,7 +16634,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16678,7 +16686,7 @@
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16738,7 +16746,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16861,7 +16869,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16913,7 +16921,7 @@
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -16982,7 +16990,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17105,7 +17113,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17157,7 +17165,7 @@
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17217,7 +17225,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>188.40000000000003</v>
+        <v>189.22857142857146</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17281,7 +17289,7 @@
       </c>
       <c r="AI124" s="35">
         <f>MROUND(AI123,0.5)</f>
-        <v>188.5</v>
+        <v>189</v>
       </c>
       <c r="AJ124" s="35"/>
       <c r="AK124" s="35"/>
@@ -17292,7 +17300,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2691.3265306122444</v>
+        <v>2682.7551020408164</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,130 +1079,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1211,41 +1136,14 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,9 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,38 +1196,143 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,301 +1705,301 @@
                   <c:v>188.31428571428569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>188.31428571428569</c:v>
+                  <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>188.5</c:v>
+                  <c:v>190.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="134"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="134"/>
+      <c r="M2" s="96"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="150">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="111">
         <v>43047</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="135" t="str">
+      <c r="G3" s="112"/>
+      <c r="H3" s="97" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137">
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43090</v>
-      </c>
-      <c r="M3" s="138"/>
-      <c r="O3" s="160" t="s">
+        <v>43098</v>
+      </c>
+      <c r="M3" s="100"/>
+      <c r="O3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="152" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="153"/>
+      <c r="T3" s="78"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,44 +3382,44 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="79" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="152" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="74" t="str">
+      <c r="G4" s="78"/>
+      <c r="H4" s="79" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="139"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
-        <v>188.5</v>
+        <v>190.5</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>IF(L4="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="74" t="str">
+      <c r="O4" s="79" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="152" t="s">
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="153"/>
+      <c r="T4" s="78"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3433,7 +3433,7 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="35">
         <f>CEILING((((F7-L4)/F8)),0.5)</f>
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="AJ4" s="35"/>
       <c r="AQ4" s="44"/>
@@ -3463,40 +3463,40 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="79" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="140" t="str">
+      <c r="G5" s="110"/>
+      <c r="H5" s="102" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
-        <v>You've Lost</v>
-      </c>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
+        <v>You've Gained</v>
+      </c>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
-        <v>9.9999999999994316E-2</v>
+        <v>1.9000000000000057</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>IF(L5="","",IF(H5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="74" t="str">
+      <c r="O5" s="79" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="AE5" s="35"/>
       <c r="AF5" s="35">
         <f>CEILING((((L4-F7)/F8)),0.5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="35">
         <f>MROUND(F6*AW7,5)</f>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="79" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,13 +3566,13 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="140" t="str">
+      <c r="H6" s="102" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
         <v>2750</v>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="79" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="126" t="str">
+      <c r="H7" s="116" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128">
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43111</v>
-      </c>
-      <c r="M7" s="129"/>
+        <v>43126</v>
+      </c>
+      <c r="M7" s="119"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="142" t="str">
+      <c r="B8" s="104" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,13 +3699,13 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="124" t="str">
+      <c r="H8" s="114" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
         <v>1750</v>
@@ -3715,12 +3715,12 @@
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="130" t="str">
+      <c r="B9" s="120" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3767,16 +3767,16 @@
       </c>
       <c r="H9" s="29">
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="132" t="str">
+        <v>4</v>
+      </c>
+      <c r="I9" s="122" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="133"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="121">
+      <c r="B12" s="92">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="124">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="88">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="154">
+      <c r="AT12" s="86">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="156">
+      <c r="AU12" s="87">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="123"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="118"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="155"/>
-      <c r="AU13" s="157"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="85"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="115">
+      <c r="B14" s="94">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="126">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="117">
+      <c r="M14" s="90">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="99" t="str">
+      <c r="V14" s="137" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="100"/>
-      <c r="X14" s="103">
+      <c r="W14" s="138"/>
+      <c r="X14" s="141">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="105" t="str">
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="106">
+      <c r="AB14" s="144">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="109"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="147"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="154">
+      <c r="AT14" s="86">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="156">
+      <c r="AU14" s="87">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="116"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="118"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="110"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="148"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="155"/>
-      <c r="AU15" s="157"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="85"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="115">
+      <c r="B16" s="94">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="113">
+      <c r="L16" s="126">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="117">
+      <c r="M16" s="90">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="76" t="str">
+      <c r="V16" s="128" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="78" t="str">
+      <c r="AC16" s="160" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="80"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="162"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="158">
+      <c r="AT16" s="82">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="159">
+      <c r="AU16" s="84">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="116"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="118"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="81" t="str">
+      <c r="V17" s="130" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83">
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="132">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="85" t="str">
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="134" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="87"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="155"/>
-      <c r="AU17" s="157"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="85"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="115">
+      <c r="B18" s="94">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="113">
+      <c r="L18" s="126">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="117">
+      <c r="M18" s="90">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="88" t="str">
+      <c r="V18" s="149" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="92">
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="153">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="94" t="str">
+      <c r="AA18" s="155" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="157"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="158">
+      <c r="AT18" s="82">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="159">
+      <c r="AU18" s="84">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="123"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="91"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="98"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="158"/>
+      <c r="AD19" s="158"/>
+      <c r="AE19" s="159"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="155"/>
-      <c r="AU19" s="157"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="85"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="121">
+      <c r="B20" s="92">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4987,11 +4987,11 @@
         <f t="shared" si="0"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="L20" s="111">
+      <c r="L20" s="124">
         <f>IF(K20="","",AT20)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="M20" s="122">
+      <c r="M20" s="88">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3105</v>
       </c>
@@ -5075,11 +5075,11 @@
         <f t="shared" si="8"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="AT20" s="158">
+      <c r="AT20" s="82">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="AU20" s="159">
+      <c r="AU20" s="84">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3105</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="116"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5128,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="L21" s="112"/>
-      <c r="M21" s="118"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5194,8 +5194,8 @@
         <f t="shared" si="8"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="AT21" s="155"/>
-      <c r="AU21" s="157"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="85"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5207,7 +5207,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="115">
+      <c r="B22" s="94">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5240,11 +5240,11 @@
         <f t="shared" si="0"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="L22" s="113">
+      <c r="L22" s="126">
         <f>IF(K22="","",AT22)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="M22" s="117">
+      <c r="M22" s="90">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v>2865</v>
       </c>
@@ -5259,28 +5259,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="99" t="str">
+      <c r="V22" s="137" t="str">
         <f ca="1">IF(M26="","","From")</f>
-        <v/>
-      </c>
-      <c r="W22" s="100"/>
-      <c r="X22" s="103" t="str">
+        <v>From</v>
+      </c>
+      <c r="W22" s="138"/>
+      <c r="X22" s="141">
         <f ca="1">IF(M26="","",B20)</f>
-        <v/>
-      </c>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="105" t="str">
+        <v>43075</v>
+      </c>
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="143" t="str">
         <f ca="1">IF(M26="","","to")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="106" t="str">
+        <v>to</v>
+      </c>
+      <c r="AB22" s="144">
         <f ca="1">IF(M26="","",B26)</f>
-        <v/>
-      </c>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="109"/>
+        <v>43096</v>
+      </c>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="147"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5334,11 +5334,11 @@
         <f t="shared" si="8"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="AT22" s="158">
+      <c r="AT22" s="82">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="AU22" s="159">
+      <c r="AU22" s="84">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v>2865</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="116"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5387,8 +5387,8 @@
         <f t="shared" si="0"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="118"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="89"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5397,16 +5397,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="110"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="148"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5460,8 +5460,8 @@
         <f t="shared" si="8"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="AT23" s="155"/>
-      <c r="AU23" s="157"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="85"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5473,7 +5473,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="115">
+      <c r="B24" s="94">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5500,11 +5500,11 @@
         <f t="shared" si="0"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="L24" s="113">
+      <c r="L24" s="126">
         <f>IF(K24="","",AT24)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="M24" s="117">
+      <c r="M24" s="90">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v>2740</v>
       </c>
@@ -5519,25 +5519,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="76" t="str">
+      <c r="V24" s="128" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
-        <v/>
-      </c>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="42" t="str">
+        <v>You Lost:</v>
+      </c>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="42">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
-        <v/>
-      </c>
-      <c r="AC24" s="78" t="str">
+        <v>1.2489795918367577</v>
+      </c>
+      <c r="AC24" s="160" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
-        <v/>
-      </c>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="80"/>
+        <v>Lb</v>
+      </c>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="162"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5591,11 +5591,11 @@
         <f t="shared" si="8"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="AT24" s="158">
+      <c r="AT24" s="82">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="AU24" s="159">
+      <c r="AU24" s="84">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v>2740</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="116"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5638,8 +5638,8 @@
         <f t="shared" si="0"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="118"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="89"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5648,25 +5648,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="81" t="str">
+      <c r="V25" s="130" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
-        <v/>
-      </c>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83" t="str">
+        <v>At a Rate Of</v>
+      </c>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="132">
         <f ca="1">IF(V25="","",AB24/4)</f>
-        <v/>
-      </c>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="85" t="str">
+        <v>0.31224489795918942</v>
+      </c>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="134" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
-        <v/>
-      </c>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="87"/>
+        <v>Lb/Wk</v>
+      </c>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5720,8 +5720,8 @@
         <f t="shared" si="8"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="AT25" s="155"/>
-      <c r="AU25" s="157"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="85"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5733,7 +5733,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="115">
+      <c r="B26" s="94">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5745,20 +5745,22 @@
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
+      <c r="H26" s="71">
+        <v>193.4</v>
+      </c>
       <c r="I26" s="71"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="33" t="str">
+      <c r="K26" s="33">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L26" s="113" t="str">
+        <v>190.4938775510204</v>
+      </c>
+      <c r="L26" s="126">
         <f>IF(K26="","",AT26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="117" t="str">
+        <v>2.1795918367347156</v>
+      </c>
+      <c r="M26" s="90">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
-        <v/>
+        <v>2740</v>
       </c>
       <c r="N26" s="36"/>
       <c r="O26" s="69"/>
@@ -5771,25 +5773,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="88" t="str">
+      <c r="V26" s="149" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
-        <v/>
-      </c>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="92" t="str">
+        <v>You have</v>
+      </c>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="153">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
-        <v/>
-      </c>
-      <c r="AA26" s="94" t="str">
+        <v>7.4938775510204039</v>
+      </c>
+      <c r="AA26" s="155" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
-        <v/>
-      </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
+        <v>Lb to go!</v>
+      </c>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5797,11 +5799,11 @@
       </c>
       <c r="AH26" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="35">
         <f>IF(K26="",AI24,K26)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ26" s="35">
         <f t="shared" si="9"/>
@@ -5811,45 +5813,45 @@
         <f>IF($F$6&gt;$F$7,IF(AK24&gt;AJ26,AK24+$AJ$9,AJ26),IF($F$6&lt;$F$7,IF(AK24&lt;AJ26,AK24+$AJ$9,AJ26),AJ26))</f>
         <v>183</v>
       </c>
-      <c r="AL26" s="57" t="str">
+      <c r="AL26" s="57">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM26" s="58" t="str">
+        <v>188.31428571428569</v>
+      </c>
+      <c r="AM26" s="58">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN26" s="58" t="str">
+        <v>188.31428571428569</v>
+      </c>
+      <c r="AN26" s="58">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AO26" s="58" t="str">
+        <v>188.31428571428569</v>
+      </c>
+      <c r="AO26" s="58">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP26" s="58" t="str">
+        <v>188.31428571428569</v>
+      </c>
+      <c r="AP26" s="58">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ26" s="58" t="str">
+        <v>193.4</v>
+      </c>
+      <c r="AQ26" s="58">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AR26" s="59" t="str">
+        <v>193.4</v>
+      </c>
+      <c r="AR26" s="59">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS26" s="61" t="str">
+        <v>193.4</v>
+      </c>
+      <c r="AS26" s="61">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AT26" s="158" t="str">
+        <v>190.4938775510204</v>
+      </c>
+      <c r="AT26" s="82">
         <f>IF(AS26="","",AS26-AS24)</f>
-        <v/>
-      </c>
-      <c r="AU26" s="159" t="str">
+        <v>2.1795918367347156</v>
+      </c>
+      <c r="AU26" s="84">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
-        <v/>
+        <v>2740</v>
       </c>
       <c r="AV26" s="35">
         <f ca="1">IF(AH27&lt;7,AV24,IF(AH26&lt;7,AV24,((K27+(((-L26)*$AV$7)/AH27)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
@@ -5866,7 +5868,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="119"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5882,8 +5884,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="114"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5892,16 +5894,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="98"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="159"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5913,7 +5915,7 @@
       </c>
       <c r="AI27" s="35">
         <f>AI26</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ27" s="35">
         <f t="shared" si="9"/>
@@ -5955,8 +5957,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="155"/>
-      <c r="AU27" s="157"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="85"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5968,7 +5970,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="121">
+      <c r="B28" s="92">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5987,11 +5989,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="111" t="str">
+      <c r="L28" s="124" t="str">
         <f>IF(K28="","",AT28)</f>
         <v/>
       </c>
-      <c r="M28" s="122" t="str">
+      <c r="M28" s="88" t="str">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
         <v/>
       </c>
@@ -6027,7 +6029,7 @@
       </c>
       <c r="AI28" s="35">
         <f>IF(K28="",AI26,K28)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ28" s="35">
         <f t="shared" si="9"/>
@@ -6069,11 +6071,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT28" s="158" t="str">
+      <c r="AT28" s="82" t="str">
         <f>IF(AS28="","",AS28-AS26)</f>
         <v/>
       </c>
-      <c r="AU28" s="159" t="str">
+      <c r="AU28" s="84" t="str">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
         <v/>
       </c>
@@ -6092,7 +6094,7 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="116"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6108,8 +6110,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="118"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6139,7 +6141,7 @@
       </c>
       <c r="AI29" s="35">
         <f>AI28</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ29" s="35">
         <f t="shared" si="9"/>
@@ -6181,8 +6183,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT29" s="155"/>
-      <c r="AU29" s="157"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="85"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6194,7 +6196,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="115">
+      <c r="B30" s="94">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6213,11 +6215,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="113" t="str">
+      <c r="L30" s="126" t="str">
         <f>IF(K30="","",AT30)</f>
         <v/>
       </c>
-      <c r="M30" s="117" t="str">
+      <c r="M30" s="90" t="str">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v/>
       </c>
@@ -6232,28 +6234,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="99" t="str">
+      <c r="V30" s="137" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="100"/>
-      <c r="X30" s="103" t="str">
+      <c r="W30" s="138"/>
+      <c r="X30" s="141" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="105" t="str">
+      <c r="Y30" s="142"/>
+      <c r="Z30" s="142"/>
+      <c r="AA30" s="143" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="106" t="str">
+      <c r="AB30" s="144" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="109"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="147"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6265,7 +6267,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6307,11 +6309,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT30" s="158" t="str">
+      <c r="AT30" s="82" t="str">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v/>
       </c>
-      <c r="AU30" s="159" t="str">
+      <c r="AU30" s="84" t="str">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v/>
       </c>
@@ -6330,7 +6332,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="116"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6346,8 +6348,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="112"/>
-      <c r="M31" s="118"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6356,16 +6358,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="110"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="148"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6377,7 +6379,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6419,8 +6421,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT31" s="155"/>
-      <c r="AU31" s="157"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="85"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6432,7 +6434,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="115">
+      <c r="B32" s="94">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6451,11 +6453,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="113" t="str">
+      <c r="L32" s="126" t="str">
         <f>IF(K32="","",AT32)</f>
         <v/>
       </c>
-      <c r="M32" s="117" t="str">
+      <c r="M32" s="90" t="str">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
         <v/>
       </c>
@@ -6470,25 +6472,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="76" t="str">
+      <c r="V32" s="128" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="78" t="str">
+      <c r="AC32" s="160" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="80"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="162"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6500,7 +6502,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6542,11 +6544,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT32" s="158" t="str">
+      <c r="AT32" s="82" t="str">
         <f>IF(AS32="","",AS32-AS30)</f>
         <v/>
       </c>
-      <c r="AU32" s="159" t="str">
+      <c r="AU32" s="84" t="str">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
         <v/>
       </c>
@@ -6565,7 +6567,7 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="116"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6581,8 +6583,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="112"/>
-      <c r="M33" s="118"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="89"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6591,25 +6593,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="81" t="str">
+      <c r="V33" s="130" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="83" t="str">
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="132" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="85" t="str">
+      <c r="AB33" s="133"/>
+      <c r="AC33" s="134" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="87"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6621,7 +6623,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6663,8 +6665,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT33" s="155"/>
-      <c r="AU33" s="157"/>
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="85"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6676,7 +6678,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="115">
+      <c r="B34" s="94">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6695,11 +6697,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="113" t="str">
+      <c r="L34" s="126" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="117" t="str">
+      <c r="M34" s="90" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6714,25 +6716,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="88" t="str">
+      <c r="V34" s="149" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="92" t="str">
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="153" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="94" t="str">
+      <c r="AA34" s="155" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="96"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="156"/>
+      <c r="AD34" s="156"/>
+      <c r="AE34" s="157"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6744,7 +6746,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6786,11 +6788,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="158" t="str">
+      <c r="AT34" s="82" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="159" t="str">
+      <c r="AU34" s="84" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
@@ -6809,7 +6811,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="119"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6825,8 +6827,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="114"/>
-      <c r="M35" s="120"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6835,16 +6837,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="98"/>
+      <c r="V35" s="151"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="158"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="159"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6856,7 +6858,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6898,8 +6900,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="155"/>
-      <c r="AU35" s="157"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="85"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6911,7 +6913,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="121">
+      <c r="B36" s="92">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6930,11 +6932,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="111" t="str">
+      <c r="L36" s="124" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="122" t="str">
+      <c r="M36" s="88" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -6970,7 +6972,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7012,11 +7014,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="158" t="str">
+      <c r="AT36" s="82" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="159" t="str">
+      <c r="AU36" s="84" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
@@ -7035,7 +7037,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="116"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7051,8 +7053,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="112"/>
-      <c r="M37" s="118"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="89"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7082,7 +7084,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7124,8 +7126,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="155"/>
-      <c r="AU37" s="157"/>
+      <c r="AT37" s="83"/>
+      <c r="AU37" s="85"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7137,7 +7139,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="115">
+      <c r="B38" s="94">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7156,11 +7158,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="113" t="str">
+      <c r="L38" s="126" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="117" t="str">
+      <c r="M38" s="90" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7175,28 +7177,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="99" t="str">
+      <c r="V38" s="137" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="100"/>
-      <c r="X38" s="103" t="str">
+      <c r="W38" s="138"/>
+      <c r="X38" s="141" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="105" t="str">
+      <c r="Y38" s="142"/>
+      <c r="Z38" s="142"/>
+      <c r="AA38" s="143" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="106" t="str">
+      <c r="AB38" s="144" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="109"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="146"/>
+      <c r="AE38" s="147"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7208,7 +7210,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7250,11 +7252,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="158" t="str">
+      <c r="AT38" s="82" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="159" t="str">
+      <c r="AU38" s="84" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
@@ -7273,7 +7275,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="116"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7289,8 +7291,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="118"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="89"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7299,16 +7301,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="102"/>
-      <c r="AB39" s="102"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="102"/>
-      <c r="AE39" s="110"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="140"/>
+      <c r="AB39" s="140"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="148"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7320,7 +7322,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7362,8 +7364,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="155"/>
-      <c r="AU39" s="157"/>
+      <c r="AT39" s="83"/>
+      <c r="AU39" s="85"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7375,7 +7377,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="115">
+      <c r="B40" s="94">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7394,11 +7396,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="113" t="str">
+      <c r="L40" s="126" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="117" t="str">
+      <c r="M40" s="90" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7413,25 +7415,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="76" t="str">
+      <c r="V40" s="128" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="77"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="78" t="str">
+      <c r="AC40" s="160" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="80"/>
+      <c r="AD40" s="161"/>
+      <c r="AE40" s="162"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7443,7 +7445,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7485,11 +7487,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="158" t="str">
+      <c r="AT40" s="82" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="159" t="str">
+      <c r="AU40" s="84" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
@@ -7508,7 +7510,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="116"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7524,8 +7526,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="112"/>
-      <c r="M41" s="118"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7534,25 +7536,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="81" t="str">
+      <c r="V41" s="130" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="83" t="str">
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="131"/>
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="132" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="85" t="str">
+      <c r="AB41" s="133"/>
+      <c r="AC41" s="134" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="86"/>
-      <c r="AE41" s="87"/>
+      <c r="AD41" s="135"/>
+      <c r="AE41" s="136"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7564,7 +7566,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7606,8 +7608,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="155"/>
-      <c r="AU41" s="157"/>
+      <c r="AT41" s="83"/>
+      <c r="AU41" s="85"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7619,7 +7621,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="115">
+      <c r="B42" s="94">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7638,11 +7640,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="113" t="str">
+      <c r="L42" s="126" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="117" t="str">
+      <c r="M42" s="90" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7657,25 +7659,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="88" t="str">
+      <c r="V42" s="149" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="92" t="str">
+      <c r="W42" s="150"/>
+      <c r="X42" s="150"/>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="153" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="94" t="str">
+      <c r="AA42" s="155" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="96"/>
+      <c r="AB42" s="156"/>
+      <c r="AC42" s="156"/>
+      <c r="AD42" s="156"/>
+      <c r="AE42" s="157"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7687,7 +7689,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7729,11 +7731,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="158" t="str">
+      <c r="AT42" s="82" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="159" t="str">
+      <c r="AU42" s="84" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
@@ -7752,7 +7754,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="119"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7768,8 +7770,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="114"/>
-      <c r="M43" s="120"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7778,16 +7780,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="98"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="158"/>
+      <c r="AB43" s="158"/>
+      <c r="AC43" s="158"/>
+      <c r="AD43" s="158"/>
+      <c r="AE43" s="159"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7799,7 +7801,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7841,8 +7843,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="155"/>
-      <c r="AU43" s="157"/>
+      <c r="AT43" s="83"/>
+      <c r="AU43" s="85"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7854,7 +7856,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="121">
+      <c r="B44" s="92">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7873,11 +7875,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="111" t="str">
+      <c r="L44" s="124" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="122" t="str">
+      <c r="M44" s="88" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7955,11 +7957,11 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="158" t="str">
+      <c r="AT44" s="82" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="159" t="str">
+      <c r="AU44" s="84" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
@@ -7978,7 +7980,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="116"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7994,8 +7996,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="112"/>
-      <c r="M45" s="118"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="89"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8025,7 +8027,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8067,8 +8069,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="155"/>
-      <c r="AU45" s="157"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="85"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8080,7 +8082,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="115">
+      <c r="B46" s="94">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8099,11 +8101,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="113" t="str">
+      <c r="L46" s="126" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="117" t="str">
+      <c r="M46" s="90" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8118,28 +8120,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="99" t="str">
+      <c r="V46" s="137" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="100"/>
-      <c r="X46" s="103" t="str">
+      <c r="W46" s="138"/>
+      <c r="X46" s="141" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="105" t="str">
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="143" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="106" t="str">
+      <c r="AB46" s="144" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="107"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="109"/>
+      <c r="AC46" s="145"/>
+      <c r="AD46" s="146"/>
+      <c r="AE46" s="147"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8151,7 +8153,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8193,11 +8195,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="158" t="str">
+      <c r="AT46" s="82" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="159" t="str">
+      <c r="AU46" s="84" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
@@ -8216,7 +8218,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="116"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8232,8 +8234,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="112"/>
-      <c r="M47" s="118"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="89"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8242,16 +8244,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-      <c r="AA47" s="102"/>
-      <c r="AB47" s="102"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="102"/>
-      <c r="AE47" s="110"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="140"/>
+      <c r="X47" s="140"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="148"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8263,7 +8265,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8305,8 +8307,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="155"/>
-      <c r="AU47" s="157"/>
+      <c r="AT47" s="83"/>
+      <c r="AU47" s="85"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8318,7 +8320,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="115">
+      <c r="B48" s="94">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8337,11 +8339,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="113" t="str">
+      <c r="L48" s="126" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="117" t="str">
+      <c r="M48" s="90" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8356,25 +8358,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="76" t="str">
+      <c r="V48" s="128" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="77"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="78" t="str">
+      <c r="AC48" s="160" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="80"/>
+      <c r="AD48" s="161"/>
+      <c r="AE48" s="162"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8386,7 +8388,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8428,11 +8430,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="158" t="str">
+      <c r="AT48" s="82" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="159" t="str">
+      <c r="AU48" s="84" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
@@ -8451,7 +8453,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="116"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8467,8 +8469,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="112"/>
-      <c r="M49" s="118"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="89"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8477,25 +8479,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="81" t="str">
+      <c r="V49" s="130" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="83" t="str">
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="132" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="85" t="str">
+      <c r="AB49" s="133"/>
+      <c r="AC49" s="134" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="86"/>
-      <c r="AE49" s="87"/>
+      <c r="AD49" s="135"/>
+      <c r="AE49" s="136"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8507,7 +8509,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8549,8 +8551,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="155"/>
-      <c r="AU49" s="157"/>
+      <c r="AT49" s="83"/>
+      <c r="AU49" s="85"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8562,7 +8564,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="115">
+      <c r="B50" s="94">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8581,11 +8583,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="113" t="str">
+      <c r="L50" s="126" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="117" t="str">
+      <c r="M50" s="90" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8600,25 +8602,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="88" t="str">
+      <c r="V50" s="149" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="92" t="str">
+      <c r="W50" s="150"/>
+      <c r="X50" s="150"/>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="153" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="94" t="str">
+      <c r="AA50" s="155" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="95"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="95"/>
-      <c r="AE50" s="96"/>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="156"/>
+      <c r="AD50" s="156"/>
+      <c r="AE50" s="157"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8630,7 +8632,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8672,11 +8674,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="158" t="str">
+      <c r="AT50" s="82" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="159" t="str">
+      <c r="AU50" s="84" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
@@ -8695,7 +8697,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="119"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8711,8 +8713,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="114"/>
-      <c r="M51" s="120"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8721,16 +8723,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="91"/>
-      <c r="X51" s="91"/>
-      <c r="Y51" s="91"/>
-      <c r="Z51" s="93"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="98"/>
+      <c r="V51" s="151"/>
+      <c r="W51" s="152"/>
+      <c r="X51" s="152"/>
+      <c r="Y51" s="152"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="158"/>
+      <c r="AB51" s="158"/>
+      <c r="AC51" s="158"/>
+      <c r="AD51" s="158"/>
+      <c r="AE51" s="159"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8742,7 +8744,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8784,8 +8786,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="155"/>
-      <c r="AU51" s="157"/>
+      <c r="AT51" s="83"/>
+      <c r="AU51" s="85"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8797,7 +8799,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="121">
+      <c r="B52" s="92">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8816,11 +8818,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="111" t="str">
+      <c r="L52" s="124" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="122" t="str">
+      <c r="M52" s="88" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8856,7 +8858,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8898,11 +8900,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="158" t="str">
+      <c r="AT52" s="82" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="159" t="str">
+      <c r="AU52" s="84" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
@@ -8921,7 +8923,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="116"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8937,8 +8939,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="112"/>
-      <c r="M53" s="118"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -8968,7 +8970,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9010,8 +9012,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="155"/>
-      <c r="AU53" s="157"/>
+      <c r="AT53" s="83"/>
+      <c r="AU53" s="85"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -9023,7 +9025,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="115">
+      <c r="B54" s="94">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -9042,11 +9044,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="113" t="str">
+      <c r="L54" s="126" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="117" t="str">
+      <c r="M54" s="90" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9061,28 +9063,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="99" t="str">
+      <c r="V54" s="137" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="100"/>
-      <c r="X54" s="103" t="str">
+      <c r="W54" s="138"/>
+      <c r="X54" s="141" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="105" t="str">
+      <c r="Y54" s="142"/>
+      <c r="Z54" s="142"/>
+      <c r="AA54" s="143" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="106" t="str">
+      <c r="AB54" s="144" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="108"/>
-      <c r="AE54" s="109"/>
+      <c r="AC54" s="145"/>
+      <c r="AD54" s="146"/>
+      <c r="AE54" s="147"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9094,7 +9096,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9136,11 +9138,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="158" t="str">
+      <c r="AT54" s="82" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="159" t="str">
+      <c r="AU54" s="84" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
@@ -9159,7 +9161,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="116"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9175,8 +9177,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="112"/>
-      <c r="M55" s="118"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="89"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9185,16 +9187,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="102"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="102"/>
-      <c r="AA55" s="102"/>
-      <c r="AB55" s="102"/>
-      <c r="AC55" s="102"/>
-      <c r="AD55" s="102"/>
-      <c r="AE55" s="110"/>
+      <c r="V55" s="139"/>
+      <c r="W55" s="140"/>
+      <c r="X55" s="140"/>
+      <c r="Y55" s="140"/>
+      <c r="Z55" s="140"/>
+      <c r="AA55" s="140"/>
+      <c r="AB55" s="140"/>
+      <c r="AC55" s="140"/>
+      <c r="AD55" s="140"/>
+      <c r="AE55" s="148"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9206,7 +9208,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9248,8 +9250,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="155"/>
-      <c r="AU55" s="157"/>
+      <c r="AT55" s="83"/>
+      <c r="AU55" s="85"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9261,7 +9263,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="115">
+      <c r="B56" s="94">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9280,11 +9282,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="113" t="str">
+      <c r="L56" s="126" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="117" t="str">
+      <c r="M56" s="90" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9299,25 +9301,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="76" t="str">
+      <c r="V56" s="128" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="77"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="77"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="77"/>
+      <c r="W56" s="129"/>
+      <c r="X56" s="129"/>
+      <c r="Y56" s="129"/>
+      <c r="Z56" s="129"/>
+      <c r="AA56" s="129"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="78" t="str">
+      <c r="AC56" s="160" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="79"/>
-      <c r="AE56" s="80"/>
+      <c r="AD56" s="161"/>
+      <c r="AE56" s="162"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9329,7 +9331,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9371,11 +9373,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="158" t="str">
+      <c r="AT56" s="82" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="159" t="str">
+      <c r="AU56" s="84" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
@@ -9394,7 +9396,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="116"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9410,8 +9412,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="112"/>
-      <c r="M57" s="118"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="89"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9420,25 +9422,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="81" t="str">
+      <c r="V57" s="130" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="83" t="str">
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="132" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="85" t="str">
+      <c r="AB57" s="133"/>
+      <c r="AC57" s="134" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="86"/>
-      <c r="AE57" s="87"/>
+      <c r="AD57" s="135"/>
+      <c r="AE57" s="136"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9450,7 +9452,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9492,8 +9494,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="155"/>
-      <c r="AU57" s="157"/>
+      <c r="AT57" s="83"/>
+      <c r="AU57" s="85"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9505,7 +9507,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="115">
+      <c r="B58" s="94">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9524,11 +9526,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="113" t="str">
+      <c r="L58" s="126" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="117" t="str">
+      <c r="M58" s="90" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9543,25 +9545,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="88" t="str">
+      <c r="V58" s="149" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="89"/>
-      <c r="X58" s="89"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="92" t="str">
+      <c r="W58" s="150"/>
+      <c r="X58" s="150"/>
+      <c r="Y58" s="150"/>
+      <c r="Z58" s="153" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="94" t="str">
+      <c r="AA58" s="155" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="96"/>
+      <c r="AB58" s="156"/>
+      <c r="AC58" s="156"/>
+      <c r="AD58" s="156"/>
+      <c r="AE58" s="157"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9573,7 +9575,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9615,11 +9617,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="158" t="str">
+      <c r="AT58" s="82" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="159" t="str">
+      <c r="AU58" s="84" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
@@ -9638,7 +9640,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="119"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9654,8 +9656,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="114"/>
-      <c r="M59" s="120"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="91"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9664,16 +9666,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="90"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="93"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="97"/>
-      <c r="AC59" s="97"/>
-      <c r="AD59" s="97"/>
-      <c r="AE59" s="98"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="152"/>
+      <c r="X59" s="152"/>
+      <c r="Y59" s="152"/>
+      <c r="Z59" s="154"/>
+      <c r="AA59" s="158"/>
+      <c r="AB59" s="158"/>
+      <c r="AC59" s="158"/>
+      <c r="AD59" s="158"/>
+      <c r="AE59" s="159"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9685,7 +9687,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9727,8 +9729,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="155"/>
-      <c r="AU59" s="157"/>
+      <c r="AT59" s="83"/>
+      <c r="AU59" s="85"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9740,7 +9742,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="121">
+      <c r="B60" s="92">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9759,11 +9761,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="111" t="str">
+      <c r="L60" s="124" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="122" t="str">
+      <c r="M60" s="88" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9799,7 +9801,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9841,11 +9843,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="158" t="str">
+      <c r="AT60" s="82" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="159" t="str">
+      <c r="AU60" s="84" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
@@ -9864,7 +9866,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="116"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9880,8 +9882,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="112"/>
-      <c r="M61" s="118"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="89"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9911,7 +9913,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -9953,8 +9955,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="155"/>
-      <c r="AU61" s="157"/>
+      <c r="AT61" s="83"/>
+      <c r="AU61" s="85"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -9966,7 +9968,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="115">
+      <c r="B62" s="94">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -9985,11 +9987,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="113" t="str">
+      <c r="L62" s="126" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="117" t="str">
+      <c r="M62" s="90" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -10004,28 +10006,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="99" t="str">
+      <c r="V62" s="137" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="100"/>
-      <c r="X62" s="103" t="str">
+      <c r="W62" s="138"/>
+      <c r="X62" s="141" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="104"/>
-      <c r="Z62" s="104"/>
-      <c r="AA62" s="105" t="str">
+      <c r="Y62" s="142"/>
+      <c r="Z62" s="142"/>
+      <c r="AA62" s="143" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="106" t="str">
+      <c r="AB62" s="144" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="107"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="109"/>
+      <c r="AC62" s="145"/>
+      <c r="AD62" s="146"/>
+      <c r="AE62" s="147"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10037,7 +10039,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10079,11 +10081,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="158" t="str">
+      <c r="AT62" s="82" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="159" t="str">
+      <c r="AU62" s="84" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
@@ -10102,7 +10104,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="116"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10118,8 +10120,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="112"/>
-      <c r="M63" s="118"/>
+      <c r="L63" s="125"/>
+      <c r="M63" s="89"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10128,16 +10130,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="101"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="102"/>
-      <c r="Z63" s="102"/>
-      <c r="AA63" s="102"/>
-      <c r="AB63" s="102"/>
-      <c r="AC63" s="102"/>
-      <c r="AD63" s="102"/>
-      <c r="AE63" s="110"/>
+      <c r="V63" s="139"/>
+      <c r="W63" s="140"/>
+      <c r="X63" s="140"/>
+      <c r="Y63" s="140"/>
+      <c r="Z63" s="140"/>
+      <c r="AA63" s="140"/>
+      <c r="AB63" s="140"/>
+      <c r="AC63" s="140"/>
+      <c r="AD63" s="140"/>
+      <c r="AE63" s="148"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10149,7 +10151,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10191,8 +10193,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="155"/>
-      <c r="AU63" s="157"/>
+      <c r="AT63" s="83"/>
+      <c r="AU63" s="85"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10204,7 +10206,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="115">
+      <c r="B64" s="94">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10223,11 +10225,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="113" t="str">
+      <c r="L64" s="126" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="117" t="str">
+      <c r="M64" s="90" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10242,25 +10244,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="76" t="str">
+      <c r="V64" s="128" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="77"/>
-      <c r="X64" s="77"/>
-      <c r="Y64" s="77"/>
-      <c r="Z64" s="77"/>
-      <c r="AA64" s="77"/>
+      <c r="W64" s="129"/>
+      <c r="X64" s="129"/>
+      <c r="Y64" s="129"/>
+      <c r="Z64" s="129"/>
+      <c r="AA64" s="129"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="78" t="str">
+      <c r="AC64" s="160" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="79"/>
-      <c r="AE64" s="80"/>
+      <c r="AD64" s="161"/>
+      <c r="AE64" s="162"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10272,7 +10274,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10314,11 +10316,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="158" t="str">
+      <c r="AT64" s="82" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="159" t="str">
+      <c r="AU64" s="84" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
@@ -10337,7 +10339,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="116"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10353,8 +10355,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="112"/>
-      <c r="M65" s="118"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="89"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10363,25 +10365,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="81" t="str">
+      <c r="V65" s="130" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="82"/>
-      <c r="X65" s="82"/>
-      <c r="Y65" s="82"/>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="83" t="str">
+      <c r="W65" s="131"/>
+      <c r="X65" s="131"/>
+      <c r="Y65" s="131"/>
+      <c r="Z65" s="131"/>
+      <c r="AA65" s="132" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="85" t="str">
+      <c r="AB65" s="133"/>
+      <c r="AC65" s="134" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="86"/>
-      <c r="AE65" s="87"/>
+      <c r="AD65" s="135"/>
+      <c r="AE65" s="136"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10393,7 +10395,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10435,8 +10437,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="155"/>
-      <c r="AU65" s="157"/>
+      <c r="AT65" s="83"/>
+      <c r="AU65" s="85"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10448,7 +10450,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="115">
+      <c r="B66" s="94">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10467,11 +10469,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="113" t="str">
+      <c r="L66" s="126" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="117" t="str">
+      <c r="M66" s="90" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10486,25 +10488,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="88" t="str">
+      <c r="V66" s="149" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="89"/>
-      <c r="X66" s="89"/>
-      <c r="Y66" s="89"/>
-      <c r="Z66" s="92" t="str">
+      <c r="W66" s="150"/>
+      <c r="X66" s="150"/>
+      <c r="Y66" s="150"/>
+      <c r="Z66" s="153" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="94" t="str">
+      <c r="AA66" s="155" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="95"/>
-      <c r="AC66" s="95"/>
-      <c r="AD66" s="95"/>
-      <c r="AE66" s="96"/>
+      <c r="AB66" s="156"/>
+      <c r="AC66" s="156"/>
+      <c r="AD66" s="156"/>
+      <c r="AE66" s="157"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10516,7 +10518,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10558,11 +10560,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="158" t="str">
+      <c r="AT66" s="82" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="159" t="str">
+      <c r="AU66" s="84" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
@@ -10581,7 +10583,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="119"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10597,8 +10599,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="114"/>
-      <c r="M67" s="120"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="91"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10607,16 +10609,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="91"/>
-      <c r="X67" s="91"/>
-      <c r="Y67" s="91"/>
-      <c r="Z67" s="93"/>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
-      <c r="AE67" s="98"/>
+      <c r="V67" s="151"/>
+      <c r="W67" s="152"/>
+      <c r="X67" s="152"/>
+      <c r="Y67" s="152"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="158"/>
+      <c r="AB67" s="158"/>
+      <c r="AC67" s="158"/>
+      <c r="AD67" s="158"/>
+      <c r="AE67" s="159"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10628,7 +10630,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10670,8 +10672,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="155"/>
-      <c r="AU67" s="157"/>
+      <c r="AT67" s="83"/>
+      <c r="AU67" s="85"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10683,7 +10685,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="121">
+      <c r="B68" s="92">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10702,11 +10704,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="111" t="str">
+      <c r="L68" s="124" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="122" t="str">
+      <c r="M68" s="88" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10742,7 +10744,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10784,11 +10786,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="158" t="str">
+      <c r="AT68" s="82" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="159" t="str">
+      <c r="AU68" s="84" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
@@ -10807,7 +10809,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="116"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10823,8 +10825,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="112"/>
-      <c r="M69" s="118"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="89"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10854,7 +10856,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10896,8 +10898,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="155"/>
-      <c r="AU69" s="157"/>
+      <c r="AT69" s="83"/>
+      <c r="AU69" s="85"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10909,7 +10911,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="115">
+      <c r="B70" s="94">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10928,11 +10930,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="113" t="str">
+      <c r="L70" s="126" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="117" t="str">
+      <c r="M70" s="90" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10947,28 +10949,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="99" t="str">
+      <c r="V70" s="137" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="100"/>
-      <c r="X70" s="103" t="str">
+      <c r="W70" s="138"/>
+      <c r="X70" s="141" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="104"/>
-      <c r="Z70" s="104"/>
-      <c r="AA70" s="105" t="str">
+      <c r="Y70" s="142"/>
+      <c r="Z70" s="142"/>
+      <c r="AA70" s="143" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="106" t="str">
+      <c r="AB70" s="144" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="107"/>
-      <c r="AD70" s="108"/>
-      <c r="AE70" s="109"/>
+      <c r="AC70" s="145"/>
+      <c r="AD70" s="146"/>
+      <c r="AE70" s="147"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -10980,7 +10982,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11022,11 +11024,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="158" t="str">
+      <c r="AT70" s="82" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="159" t="str">
+      <c r="AU70" s="84" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
@@ -11045,7 +11047,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="116"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11061,8 +11063,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="112"/>
-      <c r="M71" s="118"/>
+      <c r="L71" s="125"/>
+      <c r="M71" s="89"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11071,16 +11073,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="101"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="102"/>
-      <c r="AD71" s="102"/>
-      <c r="AE71" s="110"/>
+      <c r="V71" s="139"/>
+      <c r="W71" s="140"/>
+      <c r="X71" s="140"/>
+      <c r="Y71" s="140"/>
+      <c r="Z71" s="140"/>
+      <c r="AA71" s="140"/>
+      <c r="AB71" s="140"/>
+      <c r="AC71" s="140"/>
+      <c r="AD71" s="140"/>
+      <c r="AE71" s="148"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11092,7 +11094,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11134,8 +11136,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="155"/>
-      <c r="AU71" s="157"/>
+      <c r="AT71" s="83"/>
+      <c r="AU71" s="85"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11147,7 +11149,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="115">
+      <c r="B72" s="94">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11166,11 +11168,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="113" t="str">
+      <c r="L72" s="126" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="117" t="str">
+      <c r="M72" s="90" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11185,25 +11187,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="76" t="str">
+      <c r="V72" s="128" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="77"/>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="77"/>
-      <c r="Z72" s="77"/>
-      <c r="AA72" s="77"/>
+      <c r="W72" s="129"/>
+      <c r="X72" s="129"/>
+      <c r="Y72" s="129"/>
+      <c r="Z72" s="129"/>
+      <c r="AA72" s="129"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="78" t="str">
+      <c r="AC72" s="160" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="79"/>
-      <c r="AE72" s="80"/>
+      <c r="AD72" s="161"/>
+      <c r="AE72" s="162"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11215,7 +11217,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11257,11 +11259,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="158" t="str">
+      <c r="AT72" s="82" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="159" t="str">
+      <c r="AU72" s="84" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
@@ -11280,7 +11282,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="116"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11296,8 +11298,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="112"/>
-      <c r="M73" s="118"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="89"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11306,25 +11308,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="81" t="str">
+      <c r="V73" s="130" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="82"/>
-      <c r="X73" s="82"/>
-      <c r="Y73" s="82"/>
-      <c r="Z73" s="82"/>
-      <c r="AA73" s="83" t="str">
+      <c r="W73" s="131"/>
+      <c r="X73" s="131"/>
+      <c r="Y73" s="131"/>
+      <c r="Z73" s="131"/>
+      <c r="AA73" s="132" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="84"/>
-      <c r="AC73" s="85" t="str">
+      <c r="AB73" s="133"/>
+      <c r="AC73" s="134" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="86"/>
-      <c r="AE73" s="87"/>
+      <c r="AD73" s="135"/>
+      <c r="AE73" s="136"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11336,7 +11338,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11378,8 +11380,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="155"/>
-      <c r="AU73" s="157"/>
+      <c r="AT73" s="83"/>
+      <c r="AU73" s="85"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11391,7 +11393,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="115">
+      <c r="B74" s="94">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11410,11 +11412,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="113" t="str">
+      <c r="L74" s="126" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="117" t="str">
+      <c r="M74" s="90" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11429,25 +11431,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="88" t="str">
+      <c r="V74" s="149" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="92" t="str">
+      <c r="W74" s="150"/>
+      <c r="X74" s="150"/>
+      <c r="Y74" s="150"/>
+      <c r="Z74" s="153" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="94" t="str">
+      <c r="AA74" s="155" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="95"/>
-      <c r="AC74" s="95"/>
-      <c r="AD74" s="95"/>
-      <c r="AE74" s="96"/>
+      <c r="AB74" s="156"/>
+      <c r="AC74" s="156"/>
+      <c r="AD74" s="156"/>
+      <c r="AE74" s="157"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11459,7 +11461,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11501,11 +11503,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="158" t="str">
+      <c r="AT74" s="82" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="159" t="str">
+      <c r="AU74" s="84" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
@@ -11524,7 +11526,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="119"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11540,8 +11542,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="114"/>
-      <c r="M75" s="120"/>
+      <c r="L75" s="127"/>
+      <c r="M75" s="91"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11550,16 +11552,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="91"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="91"/>
-      <c r="Z75" s="93"/>
-      <c r="AA75" s="97"/>
-      <c r="AB75" s="97"/>
-      <c r="AC75" s="97"/>
-      <c r="AD75" s="97"/>
-      <c r="AE75" s="98"/>
+      <c r="V75" s="151"/>
+      <c r="W75" s="152"/>
+      <c r="X75" s="152"/>
+      <c r="Y75" s="152"/>
+      <c r="Z75" s="154"/>
+      <c r="AA75" s="158"/>
+      <c r="AB75" s="158"/>
+      <c r="AC75" s="158"/>
+      <c r="AD75" s="158"/>
+      <c r="AE75" s="159"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11571,7 +11573,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11613,8 +11615,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="155"/>
-      <c r="AU75" s="157"/>
+      <c r="AT75" s="83"/>
+      <c r="AU75" s="85"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11626,7 +11628,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="121">
+      <c r="B76" s="92">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11645,11 +11647,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="111" t="str">
+      <c r="L76" s="124" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="122" t="str">
+      <c r="M76" s="88" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11685,7 +11687,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11727,11 +11729,11 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="158" t="str">
+      <c r="AT76" s="82" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="159" t="str">
+      <c r="AU76" s="84" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
@@ -11750,7 +11752,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="116"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11766,8 +11768,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="112"/>
-      <c r="M77" s="118"/>
+      <c r="L77" s="125"/>
+      <c r="M77" s="89"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11797,7 +11799,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11839,8 +11841,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="155"/>
-      <c r="AU77" s="157"/>
+      <c r="AT77" s="83"/>
+      <c r="AU77" s="85"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11852,7 +11854,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="115">
+      <c r="B78" s="94">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11871,11 +11873,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="113" t="str">
+      <c r="L78" s="126" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="117" t="str">
+      <c r="M78" s="90" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11890,28 +11892,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="99" t="str">
+      <c r="V78" s="137" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="100"/>
-      <c r="X78" s="103" t="str">
+      <c r="W78" s="138"/>
+      <c r="X78" s="141" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="104"/>
-      <c r="Z78" s="104"/>
-      <c r="AA78" s="105" t="str">
+      <c r="Y78" s="142"/>
+      <c r="Z78" s="142"/>
+      <c r="AA78" s="143" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="106" t="str">
+      <c r="AB78" s="144" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="107"/>
-      <c r="AD78" s="108"/>
-      <c r="AE78" s="109"/>
+      <c r="AC78" s="145"/>
+      <c r="AD78" s="146"/>
+      <c r="AE78" s="147"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11923,7 +11925,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11965,11 +11967,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="158" t="str">
+      <c r="AT78" s="82" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="159" t="str">
+      <c r="AU78" s="84" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
@@ -11988,7 +11990,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="116"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12004,8 +12006,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="112"/>
-      <c r="M79" s="118"/>
+      <c r="L79" s="125"/>
+      <c r="M79" s="89"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -12014,16 +12016,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="101"/>
-      <c r="W79" s="102"/>
-      <c r="X79" s="102"/>
-      <c r="Y79" s="102"/>
-      <c r="Z79" s="102"/>
-      <c r="AA79" s="102"/>
-      <c r="AB79" s="102"/>
-      <c r="AC79" s="102"/>
-      <c r="AD79" s="102"/>
-      <c r="AE79" s="110"/>
+      <c r="V79" s="139"/>
+      <c r="W79" s="140"/>
+      <c r="X79" s="140"/>
+      <c r="Y79" s="140"/>
+      <c r="Z79" s="140"/>
+      <c r="AA79" s="140"/>
+      <c r="AB79" s="140"/>
+      <c r="AC79" s="140"/>
+      <c r="AD79" s="140"/>
+      <c r="AE79" s="148"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12035,7 +12037,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12077,8 +12079,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="155"/>
-      <c r="AU79" s="157"/>
+      <c r="AT79" s="83"/>
+      <c r="AU79" s="85"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12090,7 +12092,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="115">
+      <c r="B80" s="94">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12109,11 +12111,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="113" t="str">
+      <c r="L80" s="126" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="117" t="str">
+      <c r="M80" s="90" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12128,25 +12130,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="76" t="str">
+      <c r="V80" s="128" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="77"/>
-      <c r="X80" s="77"/>
-      <c r="Y80" s="77"/>
-      <c r="Z80" s="77"/>
-      <c r="AA80" s="77"/>
+      <c r="W80" s="129"/>
+      <c r="X80" s="129"/>
+      <c r="Y80" s="129"/>
+      <c r="Z80" s="129"/>
+      <c r="AA80" s="129"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="78" t="str">
+      <c r="AC80" s="160" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="79"/>
-      <c r="AE80" s="80"/>
+      <c r="AD80" s="161"/>
+      <c r="AE80" s="162"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12158,7 +12160,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12200,11 +12202,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="158" t="str">
+      <c r="AT80" s="82" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="159" t="str">
+      <c r="AU80" s="84" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
@@ -12223,7 +12225,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="116"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12239,8 +12241,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="112"/>
-      <c r="M81" s="118"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="89"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12249,25 +12251,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="81" t="str">
+      <c r="V81" s="130" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="82"/>
-      <c r="X81" s="82"/>
-      <c r="Y81" s="82"/>
-      <c r="Z81" s="82"/>
-      <c r="AA81" s="83" t="str">
+      <c r="W81" s="131"/>
+      <c r="X81" s="131"/>
+      <c r="Y81" s="131"/>
+      <c r="Z81" s="131"/>
+      <c r="AA81" s="132" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="84"/>
-      <c r="AC81" s="85" t="str">
+      <c r="AB81" s="133"/>
+      <c r="AC81" s="134" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="86"/>
-      <c r="AE81" s="87"/>
+      <c r="AD81" s="135"/>
+      <c r="AE81" s="136"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12279,7 +12281,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12321,8 +12323,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="155"/>
-      <c r="AU81" s="157"/>
+      <c r="AT81" s="83"/>
+      <c r="AU81" s="85"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12334,7 +12336,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="115">
+      <c r="B82" s="94">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12353,11 +12355,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="113" t="str">
+      <c r="L82" s="126" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="117" t="str">
+      <c r="M82" s="90" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12372,25 +12374,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="88" t="str">
+      <c r="V82" s="149" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="89"/>
-      <c r="X82" s="89"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="92" t="str">
+      <c r="W82" s="150"/>
+      <c r="X82" s="150"/>
+      <c r="Y82" s="150"/>
+      <c r="Z82" s="153" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="94" t="str">
+      <c r="AA82" s="155" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="95"/>
-      <c r="AC82" s="95"/>
-      <c r="AD82" s="95"/>
-      <c r="AE82" s="96"/>
+      <c r="AB82" s="156"/>
+      <c r="AC82" s="156"/>
+      <c r="AD82" s="156"/>
+      <c r="AE82" s="157"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12402,7 +12404,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12444,11 +12446,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="158" t="str">
+      <c r="AT82" s="82" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="159" t="str">
+      <c r="AU82" s="84" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
@@ -12467,7 +12469,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="119"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12483,8 +12485,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="114"/>
-      <c r="M83" s="120"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="91"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12493,16 +12495,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="90"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="93"/>
-      <c r="AA83" s="97"/>
-      <c r="AB83" s="97"/>
-      <c r="AC83" s="97"/>
-      <c r="AD83" s="97"/>
-      <c r="AE83" s="98"/>
+      <c r="V83" s="151"/>
+      <c r="W83" s="152"/>
+      <c r="X83" s="152"/>
+      <c r="Y83" s="152"/>
+      <c r="Z83" s="154"/>
+      <c r="AA83" s="158"/>
+      <c r="AB83" s="158"/>
+      <c r="AC83" s="158"/>
+      <c r="AD83" s="158"/>
+      <c r="AE83" s="159"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12514,7 +12516,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12556,8 +12558,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="155"/>
-      <c r="AU83" s="157"/>
+      <c r="AT83" s="83"/>
+      <c r="AU83" s="85"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12569,7 +12571,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="121">
+      <c r="B84" s="92">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12588,11 +12590,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="111" t="str">
+      <c r="L84" s="124" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="122" t="str">
+      <c r="M84" s="88" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12628,7 +12630,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12670,11 +12672,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="158" t="str">
+      <c r="AT84" s="82" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="159" t="str">
+      <c r="AU84" s="84" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
@@ -12693,7 +12695,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="116"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12709,8 +12711,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="112"/>
-      <c r="M85" s="118"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="89"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12740,7 +12742,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12782,8 +12784,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="155"/>
-      <c r="AU85" s="157"/>
+      <c r="AT85" s="83"/>
+      <c r="AU85" s="85"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12795,7 +12797,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="115">
+      <c r="B86" s="94">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12814,11 +12816,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="113" t="str">
+      <c r="L86" s="126" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="117" t="str">
+      <c r="M86" s="90" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12833,28 +12835,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="99" t="str">
+      <c r="V86" s="137" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="100"/>
-      <c r="X86" s="103" t="str">
+      <c r="W86" s="138"/>
+      <c r="X86" s="141" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="104"/>
-      <c r="Z86" s="104"/>
-      <c r="AA86" s="105" t="str">
+      <c r="Y86" s="142"/>
+      <c r="Z86" s="142"/>
+      <c r="AA86" s="143" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="106" t="str">
+      <c r="AB86" s="144" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="107"/>
-      <c r="AD86" s="108"/>
-      <c r="AE86" s="109"/>
+      <c r="AC86" s="145"/>
+      <c r="AD86" s="146"/>
+      <c r="AE86" s="147"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12866,7 +12868,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12908,11 +12910,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="158" t="str">
+      <c r="AT86" s="82" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="159" t="str">
+      <c r="AU86" s="84" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
@@ -12931,7 +12933,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="116"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12947,8 +12949,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="112"/>
-      <c r="M87" s="118"/>
+      <c r="L87" s="125"/>
+      <c r="M87" s="89"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -12957,16 +12959,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="101"/>
-      <c r="W87" s="102"/>
-      <c r="X87" s="102"/>
-      <c r="Y87" s="102"/>
-      <c r="Z87" s="102"/>
-      <c r="AA87" s="102"/>
-      <c r="AB87" s="102"/>
-      <c r="AC87" s="102"/>
-      <c r="AD87" s="102"/>
-      <c r="AE87" s="110"/>
+      <c r="V87" s="139"/>
+      <c r="W87" s="140"/>
+      <c r="X87" s="140"/>
+      <c r="Y87" s="140"/>
+      <c r="Z87" s="140"/>
+      <c r="AA87" s="140"/>
+      <c r="AB87" s="140"/>
+      <c r="AC87" s="140"/>
+      <c r="AD87" s="140"/>
+      <c r="AE87" s="148"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -12978,7 +12980,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13020,8 +13022,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="155"/>
-      <c r="AU87" s="157"/>
+      <c r="AT87" s="83"/>
+      <c r="AU87" s="85"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -13033,7 +13035,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="115">
+      <c r="B88" s="94">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13052,11 +13054,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="113" t="str">
+      <c r="L88" s="126" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="117" t="str">
+      <c r="M88" s="90" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13071,25 +13073,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="76" t="str">
+      <c r="V88" s="128" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="77"/>
-      <c r="X88" s="77"/>
-      <c r="Y88" s="77"/>
-      <c r="Z88" s="77"/>
-      <c r="AA88" s="77"/>
+      <c r="W88" s="129"/>
+      <c r="X88" s="129"/>
+      <c r="Y88" s="129"/>
+      <c r="Z88" s="129"/>
+      <c r="AA88" s="129"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="78" t="str">
+      <c r="AC88" s="160" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="80"/>
+      <c r="AD88" s="161"/>
+      <c r="AE88" s="162"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13101,7 +13103,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13143,11 +13145,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="158" t="str">
+      <c r="AT88" s="82" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="159" t="str">
+      <c r="AU88" s="84" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
@@ -13166,7 +13168,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="116"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13182,8 +13184,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="112"/>
-      <c r="M89" s="118"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="89"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13192,25 +13194,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="81" t="str">
+      <c r="V89" s="130" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="82"/>
-      <c r="X89" s="82"/>
-      <c r="Y89" s="82"/>
-      <c r="Z89" s="82"/>
-      <c r="AA89" s="83" t="str">
+      <c r="W89" s="131"/>
+      <c r="X89" s="131"/>
+      <c r="Y89" s="131"/>
+      <c r="Z89" s="131"/>
+      <c r="AA89" s="132" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="84"/>
-      <c r="AC89" s="85" t="str">
+      <c r="AB89" s="133"/>
+      <c r="AC89" s="134" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="86"/>
-      <c r="AE89" s="87"/>
+      <c r="AD89" s="135"/>
+      <c r="AE89" s="136"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13222,7 +13224,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13264,8 +13266,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="155"/>
-      <c r="AU89" s="157"/>
+      <c r="AT89" s="83"/>
+      <c r="AU89" s="85"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13277,7 +13279,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="115">
+      <c r="B90" s="94">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13296,11 +13298,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="113" t="str">
+      <c r="L90" s="126" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="117" t="str">
+      <c r="M90" s="90" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13315,25 +13317,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="88" t="str">
+      <c r="V90" s="149" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="89"/>
-      <c r="X90" s="89"/>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="92" t="str">
+      <c r="W90" s="150"/>
+      <c r="X90" s="150"/>
+      <c r="Y90" s="150"/>
+      <c r="Z90" s="153" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="94" t="str">
+      <c r="AA90" s="155" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="95"/>
-      <c r="AC90" s="95"/>
-      <c r="AD90" s="95"/>
-      <c r="AE90" s="96"/>
+      <c r="AB90" s="156"/>
+      <c r="AC90" s="156"/>
+      <c r="AD90" s="156"/>
+      <c r="AE90" s="157"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13345,7 +13347,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13387,11 +13389,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="158" t="str">
+      <c r="AT90" s="82" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="159" t="str">
+      <c r="AU90" s="84" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
@@ -13410,7 +13412,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="119"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13426,8 +13428,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="114"/>
-      <c r="M91" s="120"/>
+      <c r="L91" s="127"/>
+      <c r="M91" s="91"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13436,16 +13438,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="90"/>
-      <c r="W91" s="91"/>
-      <c r="X91" s="91"/>
-      <c r="Y91" s="91"/>
-      <c r="Z91" s="93"/>
-      <c r="AA91" s="97"/>
-      <c r="AB91" s="97"/>
-      <c r="AC91" s="97"/>
-      <c r="AD91" s="97"/>
-      <c r="AE91" s="98"/>
+      <c r="V91" s="151"/>
+      <c r="W91" s="152"/>
+      <c r="X91" s="152"/>
+      <c r="Y91" s="152"/>
+      <c r="Z91" s="154"/>
+      <c r="AA91" s="158"/>
+      <c r="AB91" s="158"/>
+      <c r="AC91" s="158"/>
+      <c r="AD91" s="158"/>
+      <c r="AE91" s="159"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13457,7 +13459,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13499,8 +13501,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="155"/>
-      <c r="AU91" s="157"/>
+      <c r="AT91" s="83"/>
+      <c r="AU91" s="85"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13512,7 +13514,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="121">
+      <c r="B92" s="92">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13531,11 +13533,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="111" t="str">
+      <c r="L92" s="124" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="122" t="str">
+      <c r="M92" s="88" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13571,7 +13573,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13613,11 +13615,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="158" t="str">
+      <c r="AT92" s="82" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="159" t="str">
+      <c r="AU92" s="84" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
@@ -13636,7 +13638,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="116"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13652,8 +13654,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="112"/>
-      <c r="M93" s="118"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="89"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13683,7 +13685,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13725,8 +13727,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="157"/>
+      <c r="AT93" s="83"/>
+      <c r="AU93" s="85"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13738,7 +13740,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="115">
+      <c r="B94" s="94">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13757,11 +13759,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="113" t="str">
+      <c r="L94" s="126" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="117" t="str">
+      <c r="M94" s="90" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13776,28 +13778,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="99" t="str">
+      <c r="V94" s="137" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="100"/>
-      <c r="X94" s="103" t="str">
+      <c r="W94" s="138"/>
+      <c r="X94" s="141" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="104"/>
-      <c r="Z94" s="104"/>
-      <c r="AA94" s="105" t="str">
+      <c r="Y94" s="142"/>
+      <c r="Z94" s="142"/>
+      <c r="AA94" s="143" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="106" t="str">
+      <c r="AB94" s="144" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="107"/>
-      <c r="AD94" s="108"/>
-      <c r="AE94" s="109"/>
+      <c r="AC94" s="145"/>
+      <c r="AD94" s="146"/>
+      <c r="AE94" s="147"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13809,7 +13811,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13851,11 +13853,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="158" t="str">
+      <c r="AT94" s="82" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="159" t="str">
+      <c r="AU94" s="84" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
@@ -13874,7 +13876,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="116"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13890,8 +13892,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="112"/>
-      <c r="M95" s="118"/>
+      <c r="L95" s="125"/>
+      <c r="M95" s="89"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13900,16 +13902,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="101"/>
-      <c r="W95" s="102"/>
-      <c r="X95" s="102"/>
-      <c r="Y95" s="102"/>
-      <c r="Z95" s="102"/>
-      <c r="AA95" s="102"/>
-      <c r="AB95" s="102"/>
-      <c r="AC95" s="102"/>
-      <c r="AD95" s="102"/>
-      <c r="AE95" s="110"/>
+      <c r="V95" s="139"/>
+      <c r="W95" s="140"/>
+      <c r="X95" s="140"/>
+      <c r="Y95" s="140"/>
+      <c r="Z95" s="140"/>
+      <c r="AA95" s="140"/>
+      <c r="AB95" s="140"/>
+      <c r="AC95" s="140"/>
+      <c r="AD95" s="140"/>
+      <c r="AE95" s="148"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13921,7 +13923,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -13963,8 +13965,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="155"/>
-      <c r="AU95" s="157"/>
+      <c r="AT95" s="83"/>
+      <c r="AU95" s="85"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -13976,7 +13978,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="115">
+      <c r="B96" s="94">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -13995,11 +13997,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="113" t="str">
+      <c r="L96" s="126" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="117" t="str">
+      <c r="M96" s="90" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -14014,25 +14016,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="76" t="str">
+      <c r="V96" s="128" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="77"/>
-      <c r="X96" s="77"/>
-      <c r="Y96" s="77"/>
-      <c r="Z96" s="77"/>
-      <c r="AA96" s="77"/>
+      <c r="W96" s="129"/>
+      <c r="X96" s="129"/>
+      <c r="Y96" s="129"/>
+      <c r="Z96" s="129"/>
+      <c r="AA96" s="129"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="78" t="str">
+      <c r="AC96" s="160" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="79"/>
-      <c r="AE96" s="80"/>
+      <c r="AD96" s="161"/>
+      <c r="AE96" s="162"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14044,7 +14046,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14086,11 +14088,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="158" t="str">
+      <c r="AT96" s="82" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="159" t="str">
+      <c r="AU96" s="84" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
@@ -14109,7 +14111,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="116"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14125,8 +14127,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="112"/>
-      <c r="M97" s="118"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="89"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14135,25 +14137,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="81" t="str">
+      <c r="V97" s="130" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="82"/>
-      <c r="X97" s="82"/>
-      <c r="Y97" s="82"/>
-      <c r="Z97" s="82"/>
-      <c r="AA97" s="83" t="str">
+      <c r="W97" s="131"/>
+      <c r="X97" s="131"/>
+      <c r="Y97" s="131"/>
+      <c r="Z97" s="131"/>
+      <c r="AA97" s="132" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="84"/>
-      <c r="AC97" s="85" t="str">
+      <c r="AB97" s="133"/>
+      <c r="AC97" s="134" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="86"/>
-      <c r="AE97" s="87"/>
+      <c r="AD97" s="135"/>
+      <c r="AE97" s="136"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14165,7 +14167,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14207,8 +14209,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="155"/>
-      <c r="AU97" s="157"/>
+      <c r="AT97" s="83"/>
+      <c r="AU97" s="85"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14220,7 +14222,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="115">
+      <c r="B98" s="94">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14239,11 +14241,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="113" t="str">
+      <c r="L98" s="126" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="117" t="str">
+      <c r="M98" s="90" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14258,25 +14260,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="88" t="str">
+      <c r="V98" s="149" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="89"/>
-      <c r="X98" s="89"/>
-      <c r="Y98" s="89"/>
-      <c r="Z98" s="92" t="str">
+      <c r="W98" s="150"/>
+      <c r="X98" s="150"/>
+      <c r="Y98" s="150"/>
+      <c r="Z98" s="153" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="94" t="str">
+      <c r="AA98" s="155" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="95"/>
-      <c r="AC98" s="95"/>
-      <c r="AD98" s="95"/>
-      <c r="AE98" s="96"/>
+      <c r="AB98" s="156"/>
+      <c r="AC98" s="156"/>
+      <c r="AD98" s="156"/>
+      <c r="AE98" s="157"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14288,7 +14290,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14330,11 +14332,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="158" t="str">
+      <c r="AT98" s="82" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="159" t="str">
+      <c r="AU98" s="84" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
@@ -14353,7 +14355,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="119"/>
+      <c r="B99" s="95"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14369,8 +14371,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="114"/>
-      <c r="M99" s="120"/>
+      <c r="L99" s="127"/>
+      <c r="M99" s="91"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14379,16 +14381,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="90"/>
-      <c r="W99" s="91"/>
-      <c r="X99" s="91"/>
-      <c r="Y99" s="91"/>
-      <c r="Z99" s="93"/>
-      <c r="AA99" s="97"/>
-      <c r="AB99" s="97"/>
-      <c r="AC99" s="97"/>
-      <c r="AD99" s="97"/>
-      <c r="AE99" s="98"/>
+      <c r="V99" s="151"/>
+      <c r="W99" s="152"/>
+      <c r="X99" s="152"/>
+      <c r="Y99" s="152"/>
+      <c r="Z99" s="154"/>
+      <c r="AA99" s="158"/>
+      <c r="AB99" s="158"/>
+      <c r="AC99" s="158"/>
+      <c r="AD99" s="158"/>
+      <c r="AE99" s="159"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14400,7 +14402,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14442,8 +14444,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="157"/>
+      <c r="AT99" s="83"/>
+      <c r="AU99" s="85"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14455,7 +14457,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="121">
+      <c r="B100" s="92">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14474,11 +14476,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="111" t="str">
+      <c r="L100" s="124" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="122" t="str">
+      <c r="M100" s="88" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14514,7 +14516,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14556,11 +14558,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="158" t="str">
+      <c r="AT100" s="82" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="159" t="str">
+      <c r="AU100" s="84" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
@@ -14579,7 +14581,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="116"/>
+      <c r="B101" s="93"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14595,8 +14597,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="112"/>
-      <c r="M101" s="118"/>
+      <c r="L101" s="125"/>
+      <c r="M101" s="89"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14626,7 +14628,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14668,8 +14670,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="155"/>
-      <c r="AU101" s="157"/>
+      <c r="AT101" s="83"/>
+      <c r="AU101" s="85"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14681,7 +14683,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="115">
+      <c r="B102" s="94">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14700,11 +14702,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="113" t="str">
+      <c r="L102" s="126" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="117" t="str">
+      <c r="M102" s="90" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14719,28 +14721,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="99" t="str">
+      <c r="V102" s="137" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="100"/>
-      <c r="X102" s="103" t="str">
+      <c r="W102" s="138"/>
+      <c r="X102" s="141" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="104"/>
-      <c r="Z102" s="104"/>
-      <c r="AA102" s="105" t="str">
+      <c r="Y102" s="142"/>
+      <c r="Z102" s="142"/>
+      <c r="AA102" s="143" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="106" t="str">
+      <c r="AB102" s="144" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="107"/>
-      <c r="AD102" s="108"/>
-      <c r="AE102" s="109"/>
+      <c r="AC102" s="145"/>
+      <c r="AD102" s="146"/>
+      <c r="AE102" s="147"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14752,7 +14754,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14794,11 +14796,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="158" t="str">
+      <c r="AT102" s="82" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="159" t="str">
+      <c r="AU102" s="84" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
@@ -14817,7 +14819,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="116"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14833,8 +14835,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="112"/>
-      <c r="M103" s="118"/>
+      <c r="L103" s="125"/>
+      <c r="M103" s="89"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14843,16 +14845,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="101"/>
-      <c r="W103" s="102"/>
-      <c r="X103" s="102"/>
-      <c r="Y103" s="102"/>
-      <c r="Z103" s="102"/>
-      <c r="AA103" s="102"/>
-      <c r="AB103" s="102"/>
-      <c r="AC103" s="102"/>
-      <c r="AD103" s="102"/>
-      <c r="AE103" s="110"/>
+      <c r="V103" s="139"/>
+      <c r="W103" s="140"/>
+      <c r="X103" s="140"/>
+      <c r="Y103" s="140"/>
+      <c r="Z103" s="140"/>
+      <c r="AA103" s="140"/>
+      <c r="AB103" s="140"/>
+      <c r="AC103" s="140"/>
+      <c r="AD103" s="140"/>
+      <c r="AE103" s="148"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14864,7 +14866,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14906,8 +14908,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="155"/>
-      <c r="AU103" s="157"/>
+      <c r="AT103" s="83"/>
+      <c r="AU103" s="85"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14919,7 +14921,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="115">
+      <c r="B104" s="94">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14938,11 +14940,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="113" t="str">
+      <c r="L104" s="126" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="117" t="str">
+      <c r="M104" s="90" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -14957,25 +14959,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="76" t="str">
+      <c r="V104" s="128" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="77"/>
-      <c r="X104" s="77"/>
-      <c r="Y104" s="77"/>
-      <c r="Z104" s="77"/>
-      <c r="AA104" s="77"/>
+      <c r="W104" s="129"/>
+      <c r="X104" s="129"/>
+      <c r="Y104" s="129"/>
+      <c r="Z104" s="129"/>
+      <c r="AA104" s="129"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="78" t="str">
+      <c r="AC104" s="160" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="79"/>
-      <c r="AE104" s="80"/>
+      <c r="AD104" s="161"/>
+      <c r="AE104" s="162"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -14987,7 +14989,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15029,11 +15031,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="158" t="str">
+      <c r="AT104" s="82" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="159" t="str">
+      <c r="AU104" s="84" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
@@ -15052,7 +15054,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="116"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15068,8 +15070,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="112"/>
-      <c r="M105" s="118"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="89"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15078,25 +15080,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="81" t="str">
+      <c r="V105" s="130" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="82"/>
-      <c r="X105" s="82"/>
-      <c r="Y105" s="82"/>
-      <c r="Z105" s="82"/>
-      <c r="AA105" s="83" t="str">
+      <c r="W105" s="131"/>
+      <c r="X105" s="131"/>
+      <c r="Y105" s="131"/>
+      <c r="Z105" s="131"/>
+      <c r="AA105" s="132" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="84"/>
-      <c r="AC105" s="85" t="str">
+      <c r="AB105" s="133"/>
+      <c r="AC105" s="134" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="86"/>
-      <c r="AE105" s="87"/>
+      <c r="AD105" s="135"/>
+      <c r="AE105" s="136"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15108,7 +15110,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15150,8 +15152,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="155"/>
-      <c r="AU105" s="157"/>
+      <c r="AT105" s="83"/>
+      <c r="AU105" s="85"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15163,7 +15165,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="115">
+      <c r="B106" s="94">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15182,11 +15184,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="113" t="str">
+      <c r="L106" s="126" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="117" t="str">
+      <c r="M106" s="90" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15201,25 +15203,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="88" t="str">
+      <c r="V106" s="149" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="89"/>
-      <c r="X106" s="89"/>
-      <c r="Y106" s="89"/>
-      <c r="Z106" s="92" t="str">
+      <c r="W106" s="150"/>
+      <c r="X106" s="150"/>
+      <c r="Y106" s="150"/>
+      <c r="Z106" s="153" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="94" t="str">
+      <c r="AA106" s="155" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="95"/>
-      <c r="AC106" s="95"/>
-      <c r="AD106" s="95"/>
-      <c r="AE106" s="96"/>
+      <c r="AB106" s="156"/>
+      <c r="AC106" s="156"/>
+      <c r="AD106" s="156"/>
+      <c r="AE106" s="157"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15231,7 +15233,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15273,11 +15275,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="158" t="str">
+      <c r="AT106" s="82" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="159" t="str">
+      <c r="AU106" s="84" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
@@ -15296,7 +15298,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="119"/>
+      <c r="B107" s="95"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15312,8 +15314,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="114"/>
-      <c r="M107" s="120"/>
+      <c r="L107" s="127"/>
+      <c r="M107" s="91"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15322,16 +15324,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="90"/>
-      <c r="W107" s="91"/>
-      <c r="X107" s="91"/>
-      <c r="Y107" s="91"/>
-      <c r="Z107" s="93"/>
-      <c r="AA107" s="97"/>
-      <c r="AB107" s="97"/>
-      <c r="AC107" s="97"/>
-      <c r="AD107" s="97"/>
-      <c r="AE107" s="98"/>
+      <c r="V107" s="151"/>
+      <c r="W107" s="152"/>
+      <c r="X107" s="152"/>
+      <c r="Y107" s="152"/>
+      <c r="Z107" s="154"/>
+      <c r="AA107" s="158"/>
+      <c r="AB107" s="158"/>
+      <c r="AC107" s="158"/>
+      <c r="AD107" s="158"/>
+      <c r="AE107" s="159"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15343,7 +15345,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15385,8 +15387,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="155"/>
-      <c r="AU107" s="157"/>
+      <c r="AT107" s="83"/>
+      <c r="AU107" s="85"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15398,7 +15400,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="121">
+      <c r="B108" s="92">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15417,11 +15419,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="111" t="str">
+      <c r="L108" s="124" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="122" t="str">
+      <c r="M108" s="88" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15457,7 +15459,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15499,11 +15501,11 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="158" t="str">
+      <c r="AT108" s="82" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="159" t="str">
+      <c r="AU108" s="84" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
@@ -15522,7 +15524,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="116"/>
+      <c r="B109" s="93"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15538,8 +15540,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="112"/>
-      <c r="M109" s="118"/>
+      <c r="L109" s="125"/>
+      <c r="M109" s="89"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15569,7 +15571,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15611,8 +15613,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="155"/>
-      <c r="AU109" s="157"/>
+      <c r="AT109" s="83"/>
+      <c r="AU109" s="85"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15624,7 +15626,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="115">
+      <c r="B110" s="94">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15643,11 +15645,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="113" t="str">
+      <c r="L110" s="126" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="117" t="str">
+      <c r="M110" s="90" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15662,28 +15664,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="99" t="str">
+      <c r="V110" s="137" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="100"/>
-      <c r="X110" s="103" t="str">
+      <c r="W110" s="138"/>
+      <c r="X110" s="141" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="104"/>
-      <c r="Z110" s="104"/>
-      <c r="AA110" s="105" t="str">
+      <c r="Y110" s="142"/>
+      <c r="Z110" s="142"/>
+      <c r="AA110" s="143" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="106" t="str">
+      <c r="AB110" s="144" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="107"/>
-      <c r="AD110" s="108"/>
-      <c r="AE110" s="109"/>
+      <c r="AC110" s="145"/>
+      <c r="AD110" s="146"/>
+      <c r="AE110" s="147"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15695,7 +15697,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15737,11 +15739,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="158" t="str">
+      <c r="AT110" s="82" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="159" t="str">
+      <c r="AU110" s="84" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
@@ -15760,7 +15762,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="116"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15776,8 +15778,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="112"/>
-      <c r="M111" s="118"/>
+      <c r="L111" s="125"/>
+      <c r="M111" s="89"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15786,16 +15788,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="101"/>
-      <c r="W111" s="102"/>
-      <c r="X111" s="102"/>
-      <c r="Y111" s="102"/>
-      <c r="Z111" s="102"/>
-      <c r="AA111" s="102"/>
-      <c r="AB111" s="102"/>
-      <c r="AC111" s="102"/>
-      <c r="AD111" s="102"/>
-      <c r="AE111" s="110"/>
+      <c r="V111" s="139"/>
+      <c r="W111" s="140"/>
+      <c r="X111" s="140"/>
+      <c r="Y111" s="140"/>
+      <c r="Z111" s="140"/>
+      <c r="AA111" s="140"/>
+      <c r="AB111" s="140"/>
+      <c r="AC111" s="140"/>
+      <c r="AD111" s="140"/>
+      <c r="AE111" s="148"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15807,7 +15809,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15849,8 +15851,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="155"/>
-      <c r="AU111" s="157"/>
+      <c r="AT111" s="83"/>
+      <c r="AU111" s="85"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15862,7 +15864,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="115">
+      <c r="B112" s="94">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15881,11 +15883,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="113" t="str">
+      <c r="L112" s="126" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="117" t="str">
+      <c r="M112" s="90" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15900,25 +15902,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="76" t="str">
+      <c r="V112" s="128" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="77"/>
-      <c r="X112" s="77"/>
-      <c r="Y112" s="77"/>
-      <c r="Z112" s="77"/>
-      <c r="AA112" s="77"/>
+      <c r="W112" s="129"/>
+      <c r="X112" s="129"/>
+      <c r="Y112" s="129"/>
+      <c r="Z112" s="129"/>
+      <c r="AA112" s="129"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="78" t="str">
+      <c r="AC112" s="160" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="79"/>
-      <c r="AE112" s="80"/>
+      <c r="AD112" s="161"/>
+      <c r="AE112" s="162"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15930,7 +15932,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -15972,11 +15974,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="158" t="str">
+      <c r="AT112" s="82" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="159" t="str">
+      <c r="AU112" s="84" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
@@ -15995,7 +15997,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="116"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16011,8 +16013,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="112"/>
-      <c r="M113" s="118"/>
+      <c r="L113" s="125"/>
+      <c r="M113" s="89"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -16021,25 +16023,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="81" t="str">
+      <c r="V113" s="130" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="82"/>
-      <c r="X113" s="82"/>
-      <c r="Y113" s="82"/>
-      <c r="Z113" s="82"/>
-      <c r="AA113" s="83" t="str">
+      <c r="W113" s="131"/>
+      <c r="X113" s="131"/>
+      <c r="Y113" s="131"/>
+      <c r="Z113" s="131"/>
+      <c r="AA113" s="132" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="84"/>
-      <c r="AC113" s="85" t="str">
+      <c r="AB113" s="133"/>
+      <c r="AC113" s="134" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="86"/>
-      <c r="AE113" s="87"/>
+      <c r="AD113" s="135"/>
+      <c r="AE113" s="136"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16051,7 +16053,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16093,8 +16095,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="155"/>
-      <c r="AU113" s="157"/>
+      <c r="AT113" s="83"/>
+      <c r="AU113" s="85"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16106,7 +16108,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="115">
+      <c r="B114" s="94">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16125,11 +16127,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="113" t="str">
+      <c r="L114" s="126" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="117" t="str">
+      <c r="M114" s="90" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16144,25 +16146,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="88" t="str">
+      <c r="V114" s="149" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="89"/>
-      <c r="X114" s="89"/>
-      <c r="Y114" s="89"/>
-      <c r="Z114" s="92" t="str">
+      <c r="W114" s="150"/>
+      <c r="X114" s="150"/>
+      <c r="Y114" s="150"/>
+      <c r="Z114" s="153" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="94" t="str">
+      <c r="AA114" s="155" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="95"/>
-      <c r="AC114" s="95"/>
-      <c r="AD114" s="95"/>
-      <c r="AE114" s="96"/>
+      <c r="AB114" s="156"/>
+      <c r="AC114" s="156"/>
+      <c r="AD114" s="156"/>
+      <c r="AE114" s="157"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16174,7 +16176,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16216,11 +16218,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="158" t="str">
+      <c r="AT114" s="82" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="159" t="str">
+      <c r="AU114" s="84" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
@@ -16239,7 +16241,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="119"/>
+      <c r="B115" s="95"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16255,8 +16257,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="114"/>
-      <c r="M115" s="120"/>
+      <c r="L115" s="127"/>
+      <c r="M115" s="91"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16265,16 +16267,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="90"/>
-      <c r="W115" s="91"/>
-      <c r="X115" s="91"/>
-      <c r="Y115" s="91"/>
-      <c r="Z115" s="93"/>
-      <c r="AA115" s="97"/>
-      <c r="AB115" s="97"/>
-      <c r="AC115" s="97"/>
-      <c r="AD115" s="97"/>
-      <c r="AE115" s="98"/>
+      <c r="V115" s="151"/>
+      <c r="W115" s="152"/>
+      <c r="X115" s="152"/>
+      <c r="Y115" s="152"/>
+      <c r="Z115" s="154"/>
+      <c r="AA115" s="158"/>
+      <c r="AB115" s="158"/>
+      <c r="AC115" s="158"/>
+      <c r="AD115" s="158"/>
+      <c r="AE115" s="159"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16286,7 +16288,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16328,8 +16330,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="155"/>
-      <c r="AU115" s="157"/>
+      <c r="AT115" s="83"/>
+      <c r="AU115" s="85"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16341,7 +16343,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="121">
+      <c r="B116" s="92">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16360,11 +16362,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="111" t="str">
+      <c r="L116" s="124" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="122" t="str">
+      <c r="M116" s="88" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16400,7 +16402,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16442,11 +16444,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="158" t="str">
+      <c r="AT116" s="82" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="159" t="str">
+      <c r="AU116" s="84" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
@@ -16465,7 +16467,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="116"/>
+      <c r="B117" s="93"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16481,8 +16483,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="112"/>
-      <c r="M117" s="118"/>
+      <c r="L117" s="125"/>
+      <c r="M117" s="89"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16512,7 +16514,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16554,8 +16556,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="155"/>
-      <c r="AU117" s="157"/>
+      <c r="AT117" s="83"/>
+      <c r="AU117" s="85"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16567,7 +16569,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="115">
+      <c r="B118" s="94">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16586,11 +16588,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="113" t="str">
+      <c r="L118" s="126" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="117" t="str">
+      <c r="M118" s="90" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16605,28 +16607,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="99" t="str">
+      <c r="V118" s="137" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="100"/>
-      <c r="X118" s="103" t="str">
+      <c r="W118" s="138"/>
+      <c r="X118" s="141" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="104"/>
-      <c r="Z118" s="104"/>
-      <c r="AA118" s="105" t="str">
+      <c r="Y118" s="142"/>
+      <c r="Z118" s="142"/>
+      <c r="AA118" s="143" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="106" t="str">
+      <c r="AB118" s="144" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="107"/>
-      <c r="AD118" s="108"/>
-      <c r="AE118" s="109"/>
+      <c r="AC118" s="145"/>
+      <c r="AD118" s="146"/>
+      <c r="AE118" s="147"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16638,7 +16640,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16680,11 +16682,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="158" t="str">
+      <c r="AT118" s="82" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="159" t="str">
+      <c r="AU118" s="84" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
@@ -16703,7 +16705,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="116"/>
+      <c r="B119" s="93"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16719,8 +16721,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="112"/>
-      <c r="M119" s="118"/>
+      <c r="L119" s="125"/>
+      <c r="M119" s="89"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16729,16 +16731,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="101"/>
-      <c r="W119" s="102"/>
-      <c r="X119" s="102"/>
-      <c r="Y119" s="102"/>
-      <c r="Z119" s="102"/>
-      <c r="AA119" s="102"/>
-      <c r="AB119" s="102"/>
-      <c r="AC119" s="102"/>
-      <c r="AD119" s="102"/>
-      <c r="AE119" s="110"/>
+      <c r="V119" s="139"/>
+      <c r="W119" s="140"/>
+      <c r="X119" s="140"/>
+      <c r="Y119" s="140"/>
+      <c r="Z119" s="140"/>
+      <c r="AA119" s="140"/>
+      <c r="AB119" s="140"/>
+      <c r="AC119" s="140"/>
+      <c r="AD119" s="140"/>
+      <c r="AE119" s="148"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16750,7 +16752,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16792,8 +16794,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="155"/>
-      <c r="AU119" s="157"/>
+      <c r="AT119" s="83"/>
+      <c r="AU119" s="85"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -16805,7 +16807,7 @@
       <c r="CB119" s="37"/>
     </row>
     <row r="120" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B120" s="115">
+      <c r="B120" s="94">
         <f>IF(B118="","",B118+7)</f>
         <v>43425</v>
       </c>
@@ -16824,11 +16826,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L120" s="113" t="str">
+      <c r="L120" s="126" t="str">
         <f>IF(K120="","",AT120)</f>
         <v/>
       </c>
-      <c r="M120" s="117" t="str">
+      <c r="M120" s="90" t="str">
         <f ca="1">IF(AV120="","",IF(L120="","",AU120))</f>
         <v/>
       </c>
@@ -16843,25 +16845,25 @@
       <c r="S120" s="36"/>
       <c r="T120" s="36"/>
       <c r="U120" s="36"/>
-      <c r="V120" s="76" t="str">
+      <c r="V120" s="128" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"No Weight Change",IF(K122&gt;K114,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W120" s="77"/>
-      <c r="X120" s="77"/>
-      <c r="Y120" s="77"/>
-      <c r="Z120" s="77"/>
-      <c r="AA120" s="77"/>
+      <c r="W120" s="129"/>
+      <c r="X120" s="129"/>
+      <c r="Y120" s="129"/>
+      <c r="Z120" s="129"/>
+      <c r="AA120" s="129"/>
       <c r="AB120" s="42" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"",IF(K122&gt;K114,K122-K114,K114-K122)))</f>
         <v/>
       </c>
-      <c r="AC120" s="78" t="str">
+      <c r="AC120" s="160" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD120" s="79"/>
-      <c r="AE120" s="80"/>
+      <c r="AD120" s="161"/>
+      <c r="AE120" s="162"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="56">
         <f>AG118+1</f>
@@ -16873,7 +16875,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16915,11 +16917,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT120" s="158" t="str">
+      <c r="AT120" s="82" t="str">
         <f>IF(AS120="","",AS120-AS118)</f>
         <v/>
       </c>
-      <c r="AU120" s="159" t="str">
+      <c r="AU120" s="84" t="str">
         <f ca="1">IF(AV120="","",IF(AT120="","",MROUND(AV120,5)))</f>
         <v/>
       </c>
@@ -16938,7 +16940,7 @@
       <c r="CB120" s="37"/>
     </row>
     <row r="121" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B121" s="116"/>
+      <c r="B121" s="93"/>
       <c r="C121" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16954,8 +16956,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L121" s="112"/>
-      <c r="M121" s="118"/>
+      <c r="L121" s="125"/>
+      <c r="M121" s="89"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="36"/>
@@ -16964,25 +16966,25 @@
       <c r="S121" s="36"/>
       <c r="T121" s="36"/>
       <c r="U121" s="36"/>
-      <c r="V121" s="81" t="str">
+      <c r="V121" s="130" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W121" s="82"/>
-      <c r="X121" s="82"/>
-      <c r="Y121" s="82"/>
-      <c r="Z121" s="82"/>
-      <c r="AA121" s="83" t="str">
+      <c r="W121" s="131"/>
+      <c r="X121" s="131"/>
+      <c r="Y121" s="131"/>
+      <c r="Z121" s="131"/>
+      <c r="AA121" s="132" t="str">
         <f ca="1">IF(V121="","",AB120/4)</f>
         <v/>
       </c>
-      <c r="AB121" s="84"/>
-      <c r="AC121" s="85" t="str">
+      <c r="AB121" s="133"/>
+      <c r="AC121" s="134" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD121" s="86"/>
-      <c r="AE121" s="87"/>
+      <c r="AD121" s="135"/>
+      <c r="AE121" s="136"/>
       <c r="AF121" s="36"/>
       <c r="AG121" s="56">
         <f>AG120+0.5</f>
@@ -16994,7 +16996,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17036,8 +17038,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT121" s="155"/>
-      <c r="AU121" s="157"/>
+      <c r="AT121" s="83"/>
+      <c r="AU121" s="85"/>
       <c r="AY121" s="35"/>
       <c r="AZ121" s="35"/>
       <c r="BA121" s="51"/>
@@ -17049,7 +17051,7 @@
       <c r="CB121" s="37"/>
     </row>
     <row r="122" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B122" s="115">
+      <c r="B122" s="94">
         <f>IF(B120="","",B120+7)</f>
         <v>43432</v>
       </c>
@@ -17068,11 +17070,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L122" s="113" t="str">
+      <c r="L122" s="126" t="str">
         <f>IF(K122="","",AT122)</f>
         <v/>
       </c>
-      <c r="M122" s="117" t="str">
+      <c r="M122" s="90" t="str">
         <f ca="1">IF(AV122="","",IF(L122="","",AU122))</f>
         <v/>
       </c>
@@ -17087,25 +17089,25 @@
       <c r="S122" s="36"/>
       <c r="T122" s="36"/>
       <c r="U122" s="36"/>
-      <c r="V122" s="88" t="str">
+      <c r="V122" s="149" t="str">
         <f ca="1">IF(AA121="","","You have")</f>
         <v/>
       </c>
-      <c r="W122" s="89"/>
-      <c r="X122" s="89"/>
-      <c r="Y122" s="89"/>
-      <c r="Z122" s="92" t="str">
+      <c r="W122" s="150"/>
+      <c r="X122" s="150"/>
+      <c r="Y122" s="150"/>
+      <c r="Z122" s="153" t="str">
         <f ca="1">IF(AA121="","",IF(K122&gt;$F$7,K122-$F$7,$F$7-K122))</f>
         <v/>
       </c>
-      <c r="AA122" s="94" t="str">
+      <c r="AA122" s="155" t="str">
         <f ca="1">IF(AA121="","",IF(AA121="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB122" s="95"/>
-      <c r="AC122" s="95"/>
-      <c r="AD122" s="95"/>
-      <c r="AE122" s="96"/>
+      <c r="AB122" s="156"/>
+      <c r="AC122" s="156"/>
+      <c r="AD122" s="156"/>
+      <c r="AE122" s="157"/>
       <c r="AF122" s="36"/>
       <c r="AG122" s="56">
         <f>AG120+1</f>
@@ -17117,7 +17119,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17159,11 +17161,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT122" s="158" t="str">
+      <c r="AT122" s="82" t="str">
         <f>IF(AS122="","",AS122-AS120)</f>
         <v/>
       </c>
-      <c r="AU122" s="159" t="str">
+      <c r="AU122" s="84" t="str">
         <f ca="1">IF(AV122="","",IF(AT122="","",MROUND(AV122,5)))</f>
         <v/>
       </c>
@@ -17182,7 +17184,7 @@
       <c r="CB122" s="37"/>
     </row>
     <row r="123" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B123" s="119"/>
+      <c r="B123" s="95"/>
       <c r="C123" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -17198,8 +17200,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L123" s="114"/>
-      <c r="M123" s="120"/>
+      <c r="L123" s="127"/>
+      <c r="M123" s="91"/>
       <c r="N123" s="36"/>
       <c r="O123" s="36"/>
       <c r="P123" s="36"/>
@@ -17208,16 +17210,16 @@
       <c r="S123" s="36"/>
       <c r="T123" s="36"/>
       <c r="U123" s="36"/>
-      <c r="V123" s="90"/>
-      <c r="W123" s="91"/>
-      <c r="X123" s="91"/>
-      <c r="Y123" s="91"/>
-      <c r="Z123" s="93"/>
-      <c r="AA123" s="97"/>
-      <c r="AB123" s="97"/>
-      <c r="AC123" s="97"/>
-      <c r="AD123" s="97"/>
-      <c r="AE123" s="98"/>
+      <c r="V123" s="151"/>
+      <c r="W123" s="152"/>
+      <c r="X123" s="152"/>
+      <c r="Y123" s="152"/>
+      <c r="Z123" s="154"/>
+      <c r="AA123" s="158"/>
+      <c r="AB123" s="158"/>
+      <c r="AC123" s="158"/>
+      <c r="AD123" s="158"/>
+      <c r="AE123" s="159"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="56">
         <f>AG122+0.5</f>
@@ -17229,7 +17231,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>188.31428571428569</v>
+        <v>190.4938775510204</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17268,8 +17270,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT123" s="155"/>
-      <c r="AU123" s="157"/>
+      <c r="AT123" s="83"/>
+      <c r="AU123" s="85"/>
       <c r="AY123" s="35"/>
       <c r="AZ123" s="35"/>
       <c r="BA123" s="51"/>
@@ -17293,7 +17295,7 @@
       </c>
       <c r="AI124" s="35">
         <f>MROUND(AI123,0.5)</f>
-        <v>188.5</v>
+        <v>190.5</v>
       </c>
       <c r="AJ124" s="35"/>
       <c r="AK124" s="35"/>
@@ -17734,6 +17736,459 @@
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="V120:AA120"/>
+    <mergeCell ref="AC120:AE120"/>
+    <mergeCell ref="V121:Z121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AE121"/>
+    <mergeCell ref="V122:Y123"/>
+    <mergeCell ref="Z122:Z123"/>
+    <mergeCell ref="AA122:AE123"/>
+    <mergeCell ref="V112:AA112"/>
+    <mergeCell ref="AC112:AE112"/>
+    <mergeCell ref="V113:Z113"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="V114:Y115"/>
+    <mergeCell ref="Z114:Z115"/>
+    <mergeCell ref="AA114:AE115"/>
+    <mergeCell ref="V118:W119"/>
+    <mergeCell ref="X118:Z119"/>
+    <mergeCell ref="AA118:AA119"/>
+    <mergeCell ref="AB118:AE119"/>
+    <mergeCell ref="V104:AA104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="V106:Y107"/>
+    <mergeCell ref="Z106:Z107"/>
+    <mergeCell ref="AA106:AE107"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AE111"/>
+    <mergeCell ref="V96:AA96"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="V97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="AC97:AE97"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="AA98:AE99"/>
+    <mergeCell ref="V102:W103"/>
+    <mergeCell ref="X102:Z103"/>
+    <mergeCell ref="AA102:AA103"/>
+    <mergeCell ref="AB102:AE103"/>
+    <mergeCell ref="V88:AA88"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="V90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AE91"/>
+    <mergeCell ref="V94:W95"/>
+    <mergeCell ref="X94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AE95"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="V82:Y83"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="AA82:AE83"/>
+    <mergeCell ref="V86:W87"/>
+    <mergeCell ref="X86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AE87"/>
+    <mergeCell ref="V74:Y75"/>
+    <mergeCell ref="Z74:Z75"/>
+    <mergeCell ref="AA74:AE75"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="V78:W79"/>
+    <mergeCell ref="X78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="V80:AA80"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AE35"/>
+    <mergeCell ref="X70:Z71"/>
+    <mergeCell ref="AA70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="V72:AA72"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AE47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="V50:Y51"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="AA50:AE51"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="V66:Y67"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AE55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AE59"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="V42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AE43"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="V26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AE27"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AE39"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="X30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AE31"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AU40:AU41"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AU42:AU43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AU44:AU45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AU46:AU47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AU48:AU49"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AU50:AU51"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AU56:AU57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AU58:AU59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AU60:AU61"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AU62:AU63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AU66:AU67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AU68:AU69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AU70:AU71"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AU72:AU73"/>
+    <mergeCell ref="AT74:AT75"/>
+    <mergeCell ref="AU74:AU75"/>
+    <mergeCell ref="AT76:AT77"/>
+    <mergeCell ref="AU76:AU77"/>
+    <mergeCell ref="AT78:AT79"/>
+    <mergeCell ref="AU78:AU79"/>
+    <mergeCell ref="AT80:AT81"/>
+    <mergeCell ref="AU80:AU81"/>
+    <mergeCell ref="AT82:AT83"/>
+    <mergeCell ref="AU82:AU83"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AT108:AT109"/>
+    <mergeCell ref="AU108:AU109"/>
+    <mergeCell ref="AT110:AT111"/>
+    <mergeCell ref="AU110:AU111"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AT98:AT99"/>
+    <mergeCell ref="AU98:AU99"/>
+    <mergeCell ref="AT100:AT101"/>
+    <mergeCell ref="AU100:AU101"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:T3"/>
@@ -17758,459 +18213,6 @@
     <mergeCell ref="AU104:AU105"/>
     <mergeCell ref="AT106:AT107"/>
     <mergeCell ref="AU106:AU107"/>
-    <mergeCell ref="AT108:AT109"/>
-    <mergeCell ref="AU108:AU109"/>
-    <mergeCell ref="AT110:AT111"/>
-    <mergeCell ref="AU110:AU111"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AT98:AT99"/>
-    <mergeCell ref="AU98:AU99"/>
-    <mergeCell ref="AT100:AT101"/>
-    <mergeCell ref="AU100:AU101"/>
-    <mergeCell ref="AT82:AT83"/>
-    <mergeCell ref="AU82:AU83"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AU72:AU73"/>
-    <mergeCell ref="AT74:AT75"/>
-    <mergeCell ref="AU74:AU75"/>
-    <mergeCell ref="AT76:AT77"/>
-    <mergeCell ref="AU76:AU77"/>
-    <mergeCell ref="AT78:AT79"/>
-    <mergeCell ref="AU78:AU79"/>
-    <mergeCell ref="AT80:AT81"/>
-    <mergeCell ref="AU80:AU81"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AU62:AU63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AU64:AU65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AU66:AU67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AU68:AU69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AU70:AU71"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AU56:AU57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AU58:AU59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AU60:AU61"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AU42:AU43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AU44:AU45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AU46:AU47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AU48:AU49"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AU50:AU51"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AE43"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="V26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AE27"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AE39"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AE31"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="V66:Y67"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AE67"/>
-    <mergeCell ref="V70:W71"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AE55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AE59"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AE35"/>
-    <mergeCell ref="X70:Z71"/>
-    <mergeCell ref="AA70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="V72:AA72"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AE47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="V50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AE51"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V74:Y75"/>
-    <mergeCell ref="Z74:Z75"/>
-    <mergeCell ref="AA74:AE75"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="V78:W79"/>
-    <mergeCell ref="X78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
-    <mergeCell ref="V80:AA80"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="V82:Y83"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="AA82:AE83"/>
-    <mergeCell ref="V86:W87"/>
-    <mergeCell ref="X86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AE87"/>
-    <mergeCell ref="V88:AA88"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="V90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AE91"/>
-    <mergeCell ref="V94:W95"/>
-    <mergeCell ref="X94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AE95"/>
-    <mergeCell ref="V96:AA96"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="V97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="AC97:AE97"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="AA98:AE99"/>
-    <mergeCell ref="V102:W103"/>
-    <mergeCell ref="X102:Z103"/>
-    <mergeCell ref="AA102:AA103"/>
-    <mergeCell ref="AB102:AE103"/>
-    <mergeCell ref="V105:Z105"/>
-    <mergeCell ref="AA105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="V106:Y107"/>
-    <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="AA106:AE107"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AE111"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="V120:AA120"/>
-    <mergeCell ref="AC120:AE120"/>
-    <mergeCell ref="V121:Z121"/>
-    <mergeCell ref="AA121:AB121"/>
-    <mergeCell ref="AC121:AE121"/>
-    <mergeCell ref="V122:Y123"/>
-    <mergeCell ref="Z122:Z123"/>
-    <mergeCell ref="AA122:AE123"/>
-    <mergeCell ref="V112:AA112"/>
-    <mergeCell ref="AC112:AE112"/>
-    <mergeCell ref="V113:Z113"/>
-    <mergeCell ref="AA113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="V114:Y115"/>
-    <mergeCell ref="Z114:Z115"/>
-    <mergeCell ref="AA114:AE115"/>
-    <mergeCell ref="V118:W119"/>
-    <mergeCell ref="X118:Z119"/>
-    <mergeCell ref="AA118:AA119"/>
-    <mergeCell ref="AB118:AE119"/>
-    <mergeCell ref="V104:AA104"/>
-    <mergeCell ref="AC104:AE104"/>
   </mergeCells>
   <conditionalFormatting sqref="V18:AE19 V26:AE27">
     <cfRule type="expression" dxfId="38" priority="42">

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,55 +1079,130 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1136,14 +1211,41 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1286,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,143 +1301,38 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1711,295 +1711,295 @@
                   <c:v>190.4938775510204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>190.4938775510204</c:v>
+                  <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>190.5</c:v>
+                  <c:v>189.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="96"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="96"/>
+      <c r="M2" s="134"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="111">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="150">
         <v>43047</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="97" t="str">
+      <c r="G3" s="151"/>
+      <c r="H3" s="135" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43098</v>
-      </c>
-      <c r="M3" s="100"/>
-      <c r="O3" s="74" t="s">
+        <v>43105</v>
+      </c>
+      <c r="M3" s="138"/>
+      <c r="O3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="153"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,44 +3382,44 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="74" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="str">
+      <c r="G4" s="153"/>
+      <c r="H4" s="74" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>IF(L4="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="79" t="str">
+      <c r="O4" s="74" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="78"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3433,7 +3433,7 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="35">
         <f>CEILING((((F7-L4)/F8)),0.5)</f>
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="AJ4" s="35"/>
       <c r="AQ4" s="44"/>
@@ -3463,40 +3463,40 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="79" t="str">
+      <c r="B5" s="74" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="109" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="102" t="str">
+      <c r="G5" s="149"/>
+      <c r="H5" s="140" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
         <v>You've Gained</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
-        <v>1.9000000000000057</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>IF(L5="","",IF(H5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="79" t="str">
+      <c r="O5" s="74" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="AE5" s="35"/>
       <c r="AF5" s="35">
         <f>CEILING((((L4-F7)/F8)),0.5)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AI5" s="35">
         <f>MROUND(F6*AW7,5)</f>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="79" t="str">
+      <c r="B6" s="74" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,13 +3566,13 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="102" t="str">
+      <c r="H6" s="140" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
         <v>2750</v>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="74" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="116" t="str">
+      <c r="H7" s="126" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118">
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43126</v>
-      </c>
-      <c r="M7" s="119"/>
+        <v>43129.5</v>
+      </c>
+      <c r="M7" s="129"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="142" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,13 +3699,13 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="114" t="str">
+      <c r="H8" s="124" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
         <v>1750</v>
@@ -3715,12 +3715,12 @@
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="120" t="str">
+      <c r="B9" s="130" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3767,16 +3767,16 @@
       </c>
       <c r="H9" s="29">
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="122" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="132" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="92">
+      <c r="B12" s="121">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L12" s="111">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="122">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="86">
+      <c r="AT12" s="154">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="87">
+      <c r="AU12" s="156">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="85"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="157"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94">
+      <c r="B14" s="115">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="126">
+      <c r="L14" s="113">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="117">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="137" t="str">
+      <c r="V14" s="99" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="141">
+      <c r="W14" s="100"/>
+      <c r="X14" s="103">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143" t="str">
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="105" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="144">
+      <c r="AB14" s="106">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="147"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="109"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="86">
+      <c r="AT14" s="154">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="87">
+      <c r="AU14" s="156">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="93"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="148"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="110"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="85"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="157"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="94">
+      <c r="B16" s="115">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="113">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="117">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="128" t="str">
+      <c r="V16" s="76" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="160" t="str">
+      <c r="AC16" s="78" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="82">
+      <c r="AT16" s="158">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="84">
+      <c r="AU16" s="159">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="93"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="130" t="str">
+      <c r="V17" s="81" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132">
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="134" t="str">
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="85" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="85"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="157"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="94">
+      <c r="B18" s="115">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="113">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="117">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="149" t="str">
+      <c r="V18" s="88" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="153">
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="92">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="155" t="str">
+      <c r="AA18" s="94" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="82">
+      <c r="AT18" s="158">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="84">
+      <c r="AU18" s="159">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="113"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="91"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="159"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="85"/>
+      <c r="AT19" s="155"/>
+      <c r="AU19" s="157"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="92">
+      <c r="B20" s="121">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4987,11 +4987,11 @@
         <f t="shared" si="0"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="111">
         <f>IF(K20="","",AT20)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="122">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3105</v>
       </c>
@@ -5075,11 +5075,11 @@
         <f t="shared" si="8"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="AT20" s="82">
+      <c r="AT20" s="158">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="AU20" s="84">
+      <c r="AU20" s="159">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3105</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="93"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5128,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5194,8 +5194,8 @@
         <f t="shared" si="8"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="85"/>
+      <c r="AT21" s="155"/>
+      <c r="AU21" s="157"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5207,7 +5207,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="94">
+      <c r="B22" s="115">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5240,11 +5240,11 @@
         <f t="shared" si="0"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="L22" s="126">
+      <c r="L22" s="113">
         <f>IF(K22="","",AT22)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="117">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v>2865</v>
       </c>
@@ -5259,28 +5259,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="137" t="str">
+      <c r="V22" s="99" t="str">
         <f ca="1">IF(M26="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W22" s="138"/>
-      <c r="X22" s="141">
+      <c r="W22" s="100"/>
+      <c r="X22" s="103">
         <f ca="1">IF(M26="","",B20)</f>
         <v>43075</v>
       </c>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="143" t="str">
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105" t="str">
         <f ca="1">IF(M26="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB22" s="144">
+      <c r="AB22" s="106">
         <f ca="1">IF(M26="","",B26)</f>
         <v>43096</v>
       </c>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="147"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="109"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5334,11 +5334,11 @@
         <f t="shared" si="8"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="AT22" s="82">
+      <c r="AT22" s="158">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="AU22" s="84">
+      <c r="AU22" s="159">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v>2865</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="93"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5387,8 +5387,8 @@
         <f t="shared" si="0"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="89"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5397,16 +5397,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="148"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5460,8 +5460,8 @@
         <f t="shared" si="8"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="85"/>
+      <c r="AT23" s="155"/>
+      <c r="AU23" s="157"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5473,7 +5473,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="94">
+      <c r="B24" s="115">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5500,11 +5500,11 @@
         <f t="shared" si="0"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="L24" s="126">
+      <c r="L24" s="113">
         <f>IF(K24="","",AT24)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="M24" s="90">
+      <c r="M24" s="117">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v>2740</v>
       </c>
@@ -5519,25 +5519,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="128" t="str">
+      <c r="V24" s="76" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
         <v>You Lost:</v>
       </c>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="42">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
         <v>1.2489795918367577</v>
       </c>
-      <c r="AC24" s="160" t="str">
+      <c r="AC24" s="78" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5591,11 +5591,11 @@
         <f t="shared" si="8"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="AT24" s="82">
+      <c r="AT24" s="158">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="AU24" s="84">
+      <c r="AU24" s="159">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v>2740</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="93"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5638,8 +5638,8 @@
         <f t="shared" si="0"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="89"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="118"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5648,25 +5648,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="130" t="str">
+      <c r="V25" s="81" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="132">
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83">
         <f ca="1">IF(V25="","",AB24/4)</f>
         <v>0.31224489795918942</v>
       </c>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134" t="str">
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="87"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5720,8 +5720,8 @@
         <f t="shared" si="8"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="85"/>
+      <c r="AT25" s="155"/>
+      <c r="AU25" s="157"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5733,7 +5733,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="94">
+      <c r="B26" s="115">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5754,11 +5754,11 @@
         <f t="shared" si="0"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="L26" s="126">
+      <c r="L26" s="113">
         <f>IF(K26="","",AT26)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="117">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
         <v>2740</v>
       </c>
@@ -5773,25 +5773,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="149" t="str">
+      <c r="V26" s="88" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="153">
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="92">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
         <v>7.4938775510204039</v>
       </c>
-      <c r="AA26" s="155" t="str">
+      <c r="AA26" s="94" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5845,11 +5845,11 @@
         <f t="shared" si="8"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="AT26" s="82">
+      <c r="AT26" s="158">
         <f>IF(AS26="","",AS26-AS24)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="AU26" s="84">
+      <c r="AU26" s="159">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
         <v>2740</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5884,8 +5884,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5894,16 +5894,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5957,8 +5957,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="85"/>
+      <c r="AT27" s="155"/>
+      <c r="AU27" s="157"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5970,7 +5970,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="92">
+      <c r="B28" s="121">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5980,22 +5980,28 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="F28" s="16">
+        <v>190</v>
+      </c>
+      <c r="G28" s="16">
+        <v>189.6</v>
+      </c>
+      <c r="H28" s="16">
+        <v>188.4</v>
+      </c>
       <c r="I28" s="16"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="32" t="str">
+      <c r="K28" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L28" s="124" t="str">
+        <v>189.39825072886302</v>
+      </c>
+      <c r="L28" s="111">
         <f>IF(K28="","",AT28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="88" t="str">
+        <v>-1.095626822157385</v>
+      </c>
+      <c r="M28" s="122">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
-        <v/>
+        <v>2740</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="69"/>
@@ -6025,11 +6031,11 @@
       </c>
       <c r="AH28" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI28" s="35">
         <f>IF(K28="",AI26,K28)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ28" s="35">
         <f t="shared" si="9"/>
@@ -6039,45 +6045,45 @@
         <f>IF($F$6&gt;$F$7,IF(AK26&gt;AJ28,AK26+$AJ$9,AJ28),IF($F$6&lt;$F$7,IF(AK26&lt;AJ28,AK26+$AJ$9,AJ28),AJ28))</f>
         <v>183</v>
       </c>
-      <c r="AL28" s="57" t="str">
+      <c r="AL28" s="57">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM28" s="58" t="str">
+        <v>190.4938775510204</v>
+      </c>
+      <c r="AM28" s="58">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN28" s="58" t="str">
+        <v>190.4938775510204</v>
+      </c>
+      <c r="AN28" s="58">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AO28" s="58" t="str">
+        <v>190</v>
+      </c>
+      <c r="AO28" s="58">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP28" s="58" t="str">
+        <v>189.6</v>
+      </c>
+      <c r="AP28" s="58">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="58" t="str">
+        <v>188.4</v>
+      </c>
+      <c r="AQ28" s="58">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AR28" s="59" t="str">
+        <v>188.4</v>
+      </c>
+      <c r="AR28" s="59">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS28" s="61" t="str">
+        <v>188.4</v>
+      </c>
+      <c r="AS28" s="61">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AT28" s="82" t="str">
+        <v>189.39825072886302</v>
+      </c>
+      <c r="AT28" s="158">
         <f>IF(AS28="","",AS28-AS26)</f>
-        <v/>
-      </c>
-      <c r="AU28" s="84" t="str">
+        <v>-1.095626822157385</v>
+      </c>
+      <c r="AU28" s="159">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
-        <v/>
+        <v>2740</v>
       </c>
       <c r="AV28" s="35">
         <f ca="1">IF(AH29&lt;7,AV26,IF(AH28&lt;7,AV26,((K29+(((-L28)*$AV$7)/AH29)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
@@ -6094,24 +6100,30 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="93"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
+      <c r="F29" s="71">
+        <v>1970</v>
+      </c>
+      <c r="G29" s="71">
+        <v>1920</v>
+      </c>
+      <c r="H29" s="71">
+        <v>1920</v>
+      </c>
       <c r="I29" s="71"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="40" t="str">
+      <c r="K29" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="89"/>
+        <v>1930</v>
+      </c>
+      <c r="L29" s="112"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6137,11 +6149,11 @@
       </c>
       <c r="AH29" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI29" s="35">
         <f>AI28</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ29" s="35">
         <f t="shared" si="9"/>
@@ -6159,32 +6171,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AN29" s="65" t="str">
+      <c r="AN29" s="65">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AO29" s="65" t="str">
+        <v>1970</v>
+      </c>
+      <c r="AO29" s="65">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP29" s="65" t="str">
+        <v>1920</v>
+      </c>
+      <c r="AP29" s="65">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="65" t="str">
+        <v>1920</v>
+      </c>
+      <c r="AQ29" s="65">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AR29" s="66" t="str">
+        <v>1920</v>
+      </c>
+      <c r="AR29" s="66">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS29" s="39" t="str">
+        <v>1920</v>
+      </c>
+      <c r="AS29" s="39">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="85"/>
+        <v>1930</v>
+      </c>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="157"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6196,7 +6208,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="94">
+      <c r="B30" s="115">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6215,11 +6227,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="126" t="str">
+      <c r="L30" s="113" t="str">
         <f>IF(K30="","",AT30)</f>
         <v/>
       </c>
-      <c r="M30" s="90" t="str">
+      <c r="M30" s="117" t="str">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v/>
       </c>
@@ -6234,28 +6246,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="137" t="str">
+      <c r="V30" s="99" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="138"/>
-      <c r="X30" s="141" t="str">
+      <c r="W30" s="100"/>
+      <c r="X30" s="103" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="143" t="str">
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="105" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="144" t="str">
+      <c r="AB30" s="106" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="147"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6267,7 +6279,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6309,11 +6321,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT30" s="82" t="str">
+      <c r="AT30" s="158" t="str">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v/>
       </c>
-      <c r="AU30" s="84" t="str">
+      <c r="AU30" s="159" t="str">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v/>
       </c>
@@ -6332,7 +6344,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="93"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6348,8 +6360,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="89"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="118"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6358,16 +6370,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="148"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="110"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6379,7 +6391,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6421,8 +6433,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="85"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="157"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6434,7 +6446,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="94">
+      <c r="B32" s="115">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6453,11 +6465,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="126" t="str">
+      <c r="L32" s="113" t="str">
         <f>IF(K32="","",AT32)</f>
         <v/>
       </c>
-      <c r="M32" s="90" t="str">
+      <c r="M32" s="117" t="str">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
         <v/>
       </c>
@@ -6472,25 +6484,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="128" t="str">
+      <c r="V32" s="76" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="160" t="str">
+      <c r="AC32" s="78" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6502,7 +6514,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6544,11 +6556,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT32" s="82" t="str">
+      <c r="AT32" s="158" t="str">
         <f>IF(AS32="","",AS32-AS30)</f>
         <v/>
       </c>
-      <c r="AU32" s="84" t="str">
+      <c r="AU32" s="159" t="str">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
         <v/>
       </c>
@@ -6567,7 +6579,7 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6583,8 +6595,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="89"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="118"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6593,25 +6605,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="130" t="str">
+      <c r="V33" s="81" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132" t="str">
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134" t="str">
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="85" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6623,7 +6635,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6665,8 +6677,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="85"/>
+      <c r="AT33" s="155"/>
+      <c r="AU33" s="157"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6678,7 +6690,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="94">
+      <c r="B34" s="115">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6697,11 +6709,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="126" t="str">
+      <c r="L34" s="113" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="90" t="str">
+      <c r="M34" s="117" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6716,25 +6728,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="149" t="str">
+      <c r="V34" s="88" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="150"/>
-      <c r="X34" s="150"/>
-      <c r="Y34" s="150"/>
-      <c r="Z34" s="153" t="str">
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="92" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="155" t="str">
+      <c r="AA34" s="94" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="157"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="96"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6746,7 +6758,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6788,11 +6800,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="82" t="str">
+      <c r="AT34" s="158" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="84" t="str">
+      <c r="AU34" s="159" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
@@ -6811,7 +6823,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="95"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6827,8 +6839,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6837,16 +6849,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="159"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6858,7 +6870,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6900,8 +6912,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="85"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="157"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6913,7 +6925,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="92">
+      <c r="B36" s="121">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6932,11 +6944,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="124" t="str">
+      <c r="L36" s="111" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="88" t="str">
+      <c r="M36" s="122" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -6972,7 +6984,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7014,11 +7026,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="82" t="str">
+      <c r="AT36" s="158" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="84" t="str">
+      <c r="AU36" s="159" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
@@ -7037,7 +7049,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7053,8 +7065,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="89"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7084,7 +7096,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7126,8 +7138,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="83"/>
-      <c r="AU37" s="85"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="157"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7139,7 +7151,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="94">
+      <c r="B38" s="115">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7158,11 +7170,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="126" t="str">
+      <c r="L38" s="113" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="90" t="str">
+      <c r="M38" s="117" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7177,28 +7189,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="137" t="str">
+      <c r="V38" s="99" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="138"/>
-      <c r="X38" s="141" t="str">
+      <c r="W38" s="100"/>
+      <c r="X38" s="103" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="142"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="143" t="str">
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="144" t="str">
+      <c r="AB38" s="106" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="147"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="109"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7210,7 +7222,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7252,11 +7264,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="82" t="str">
+      <c r="AT38" s="158" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="84" t="str">
+      <c r="AU38" s="159" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
@@ -7275,7 +7287,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7291,8 +7303,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="89"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="118"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7301,16 +7313,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="140"/>
-      <c r="AA39" s="140"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="148"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+      <c r="AA39" s="102"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="110"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7322,7 +7334,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7364,8 +7376,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="83"/>
-      <c r="AU39" s="85"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="157"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7377,7 +7389,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="94">
+      <c r="B40" s="115">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7396,11 +7408,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="126" t="str">
+      <c r="L40" s="113" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="90" t="str">
+      <c r="M40" s="117" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7415,25 +7427,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="128" t="str">
+      <c r="V40" s="76" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="129"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="160" t="str">
+      <c r="AC40" s="78" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="162"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7445,7 +7457,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7487,11 +7499,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="82" t="str">
+      <c r="AT40" s="158" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="84" t="str">
+      <c r="AU40" s="159" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
@@ -7510,7 +7522,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7526,8 +7538,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="89"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7536,25 +7548,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="130" t="str">
+      <c r="V41" s="81" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="132" t="str">
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="83" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="134" t="str">
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="85" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="135"/>
-      <c r="AE41" s="136"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="87"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7566,7 +7578,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7608,8 +7620,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="85"/>
+      <c r="AT41" s="155"/>
+      <c r="AU41" s="157"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7621,7 +7633,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="94">
+      <c r="B42" s="115">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7640,11 +7652,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="126" t="str">
+      <c r="L42" s="113" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="90" t="str">
+      <c r="M42" s="117" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7659,25 +7671,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="149" t="str">
+      <c r="V42" s="88" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="150"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="153" t="str">
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="92" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="155" t="str">
+      <c r="AA42" s="94" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="156"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="157"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="96"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7689,7 +7701,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7731,11 +7743,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="82" t="str">
+      <c r="AT42" s="158" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="84" t="str">
+      <c r="AU42" s="159" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
@@ -7754,7 +7766,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="95"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7770,8 +7782,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="127"/>
-      <c r="M43" s="91"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7780,16 +7792,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="158"/>
-      <c r="AE43" s="159"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="98"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7801,7 +7813,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7843,8 +7855,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="85"/>
+      <c r="AT43" s="155"/>
+      <c r="AU43" s="157"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7856,7 +7868,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="92">
+      <c r="B44" s="121">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7875,11 +7887,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="124" t="str">
+      <c r="L44" s="111" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="88" t="str">
+      <c r="M44" s="122" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7915,7 +7927,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7957,11 +7969,11 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="82" t="str">
+      <c r="AT44" s="158" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="84" t="str">
+      <c r="AU44" s="159" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
@@ -7980,7 +7992,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7996,8 +8008,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="125"/>
-      <c r="M45" s="89"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="118"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8027,7 +8039,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8069,8 +8081,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="85"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="157"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8082,7 +8094,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="94">
+      <c r="B46" s="115">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8101,11 +8113,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="126" t="str">
+      <c r="L46" s="113" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="90" t="str">
+      <c r="M46" s="117" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8120,28 +8132,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="137" t="str">
+      <c r="V46" s="99" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="138"/>
-      <c r="X46" s="141" t="str">
+      <c r="W46" s="100"/>
+      <c r="X46" s="103" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="142"/>
-      <c r="AA46" s="143" t="str">
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="105" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="144" t="str">
+      <c r="AB46" s="106" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="145"/>
-      <c r="AD46" s="146"/>
-      <c r="AE46" s="147"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="109"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8153,7 +8165,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8195,11 +8207,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="82" t="str">
+      <c r="AT46" s="158" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="84" t="str">
+      <c r="AU46" s="159" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
@@ -8218,7 +8230,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8234,8 +8246,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="125"/>
-      <c r="M47" s="89"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="118"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8244,16 +8256,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="140"/>
-      <c r="X47" s="140"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="148"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="102"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="110"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8265,7 +8277,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8307,8 +8319,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="83"/>
-      <c r="AU47" s="85"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="157"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8320,7 +8332,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="94">
+      <c r="B48" s="115">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8339,11 +8351,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="126" t="str">
+      <c r="L48" s="113" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="90" t="str">
+      <c r="M48" s="117" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8358,25 +8370,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="128" t="str">
+      <c r="V48" s="76" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="160" t="str">
+      <c r="AC48" s="78" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="162"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8388,7 +8400,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8430,11 +8442,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="82" t="str">
+      <c r="AT48" s="158" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="84" t="str">
+      <c r="AU48" s="159" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
@@ -8453,7 +8465,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8469,8 +8481,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="125"/>
-      <c r="M49" s="89"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="118"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8479,25 +8491,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="130" t="str">
+      <c r="V49" s="81" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="132" t="str">
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="83" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="134" t="str">
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="135"/>
-      <c r="AE49" s="136"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="87"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8509,7 +8521,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8551,8 +8563,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="85"/>
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="157"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8564,7 +8576,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="94">
+      <c r="B50" s="115">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8583,11 +8595,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="126" t="str">
+      <c r="L50" s="113" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="90" t="str">
+      <c r="M50" s="117" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8602,25 +8614,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="149" t="str">
+      <c r="V50" s="88" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="150"/>
-      <c r="X50" s="150"/>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="153" t="str">
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="92" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="155" t="str">
+      <c r="AA50" s="94" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-      <c r="AD50" s="156"/>
-      <c r="AE50" s="157"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="96"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8632,7 +8644,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8674,11 +8686,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="82" t="str">
+      <c r="AT50" s="158" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="84" t="str">
+      <c r="AU50" s="159" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
@@ -8697,7 +8709,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="95"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8713,8 +8725,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="127"/>
-      <c r="M51" s="91"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8723,16 +8735,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="152"/>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
-      <c r="AC51" s="158"/>
-      <c r="AD51" s="158"/>
-      <c r="AE51" s="159"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="98"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8744,7 +8756,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8786,8 +8798,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="83"/>
-      <c r="AU51" s="85"/>
+      <c r="AT51" s="155"/>
+      <c r="AU51" s="157"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8799,7 +8811,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="92">
+      <c r="B52" s="121">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8818,11 +8830,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="124" t="str">
+      <c r="L52" s="111" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="88" t="str">
+      <c r="M52" s="122" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8858,7 +8870,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8900,11 +8912,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="82" t="str">
+      <c r="AT52" s="158" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="84" t="str">
+      <c r="AU52" s="159" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
@@ -8923,7 +8935,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="93"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8939,8 +8951,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="125"/>
-      <c r="M53" s="89"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="118"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -8970,7 +8982,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9012,8 +9024,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="85"/>
+      <c r="AT53" s="155"/>
+      <c r="AU53" s="157"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -9025,7 +9037,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="94">
+      <c r="B54" s="115">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -9044,11 +9056,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="126" t="str">
+      <c r="L54" s="113" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="90" t="str">
+      <c r="M54" s="117" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9063,28 +9075,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="137" t="str">
+      <c r="V54" s="99" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="138"/>
-      <c r="X54" s="141" t="str">
+      <c r="W54" s="100"/>
+      <c r="X54" s="103" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="143" t="str">
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="105" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="144" t="str">
+      <c r="AB54" s="106" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="145"/>
-      <c r="AD54" s="146"/>
-      <c r="AE54" s="147"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="109"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9096,7 +9108,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9138,11 +9150,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="82" t="str">
+      <c r="AT54" s="158" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="84" t="str">
+      <c r="AU54" s="159" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
@@ -9161,7 +9173,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9177,8 +9189,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="125"/>
-      <c r="M55" s="89"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="118"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9187,16 +9199,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="140"/>
-      <c r="X55" s="140"/>
-      <c r="Y55" s="140"/>
-      <c r="Z55" s="140"/>
-      <c r="AA55" s="140"/>
-      <c r="AB55" s="140"/>
-      <c r="AC55" s="140"/>
-      <c r="AD55" s="140"/>
-      <c r="AE55" s="148"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="102"/>
+      <c r="AC55" s="102"/>
+      <c r="AD55" s="102"/>
+      <c r="AE55" s="110"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9208,7 +9220,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9250,8 +9262,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="83"/>
-      <c r="AU55" s="85"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="157"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9263,7 +9275,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="94">
+      <c r="B56" s="115">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9282,11 +9294,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="126" t="str">
+      <c r="L56" s="113" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="90" t="str">
+      <c r="M56" s="117" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9301,25 +9313,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="128" t="str">
+      <c r="V56" s="76" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="129"/>
-      <c r="X56" s="129"/>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="160" t="str">
+      <c r="AC56" s="78" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="162"/>
+      <c r="AD56" s="79"/>
+      <c r="AE56" s="80"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9331,7 +9343,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9373,11 +9385,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="82" t="str">
+      <c r="AT56" s="158" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="84" t="str">
+      <c r="AU56" s="159" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
@@ -9396,7 +9408,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9412,8 +9424,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="125"/>
-      <c r="M57" s="89"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="118"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9422,25 +9434,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="130" t="str">
+      <c r="V57" s="81" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="131"/>
-      <c r="X57" s="131"/>
-      <c r="Y57" s="131"/>
-      <c r="Z57" s="131"/>
-      <c r="AA57" s="132" t="str">
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="83" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="133"/>
-      <c r="AC57" s="134" t="str">
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="85" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="136"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="87"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9452,7 +9464,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9494,8 +9506,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="83"/>
-      <c r="AU57" s="85"/>
+      <c r="AT57" s="155"/>
+      <c r="AU57" s="157"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9507,7 +9519,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="94">
+      <c r="B58" s="115">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9526,11 +9538,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="126" t="str">
+      <c r="L58" s="113" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="90" t="str">
+      <c r="M58" s="117" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9545,25 +9557,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="149" t="str">
+      <c r="V58" s="88" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="150"/>
-      <c r="X58" s="150"/>
-      <c r="Y58" s="150"/>
-      <c r="Z58" s="153" t="str">
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="92" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="155" t="str">
+      <c r="AA58" s="94" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="156"/>
-      <c r="AC58" s="156"/>
-      <c r="AD58" s="156"/>
-      <c r="AE58" s="157"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="96"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9575,7 +9587,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9617,11 +9629,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="82" t="str">
+      <c r="AT58" s="158" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="84" t="str">
+      <c r="AU58" s="159" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
@@ -9640,7 +9652,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="95"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9656,8 +9668,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="127"/>
-      <c r="M59" s="91"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="120"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9666,16 +9678,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="152"/>
-      <c r="X59" s="152"/>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="158"/>
-      <c r="AB59" s="158"/>
-      <c r="AC59" s="158"/>
-      <c r="AD59" s="158"/>
-      <c r="AE59" s="159"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="98"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9687,7 +9699,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9729,8 +9741,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="83"/>
-      <c r="AU59" s="85"/>
+      <c r="AT59" s="155"/>
+      <c r="AU59" s="157"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9742,7 +9754,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="92">
+      <c r="B60" s="121">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9761,11 +9773,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="124" t="str">
+      <c r="L60" s="111" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="88" t="str">
+      <c r="M60" s="122" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9801,7 +9813,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9843,11 +9855,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="82" t="str">
+      <c r="AT60" s="158" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="84" t="str">
+      <c r="AU60" s="159" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
@@ -9866,7 +9878,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9882,8 +9894,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="125"/>
-      <c r="M61" s="89"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="118"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9913,7 +9925,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -9955,8 +9967,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="83"/>
-      <c r="AU61" s="85"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="157"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -9968,7 +9980,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="94">
+      <c r="B62" s="115">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -9987,11 +9999,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="126" t="str">
+      <c r="L62" s="113" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="90" t="str">
+      <c r="M62" s="117" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -10006,28 +10018,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="137" t="str">
+      <c r="V62" s="99" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="138"/>
-      <c r="X62" s="141" t="str">
+      <c r="W62" s="100"/>
+      <c r="X62" s="103" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="142"/>
-      <c r="Z62" s="142"/>
-      <c r="AA62" s="143" t="str">
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="105" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="144" t="str">
+      <c r="AB62" s="106" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="146"/>
-      <c r="AE62" s="147"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="109"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10039,7 +10051,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10081,11 +10093,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="82" t="str">
+      <c r="AT62" s="158" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="84" t="str">
+      <c r="AU62" s="159" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
@@ -10104,7 +10116,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10120,8 +10132,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="125"/>
-      <c r="M63" s="89"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="118"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10130,16 +10142,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="139"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="140"/>
-      <c r="Y63" s="140"/>
-      <c r="Z63" s="140"/>
-      <c r="AA63" s="140"/>
-      <c r="AB63" s="140"/>
-      <c r="AC63" s="140"/>
-      <c r="AD63" s="140"/>
-      <c r="AE63" s="148"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="110"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10151,7 +10163,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10193,8 +10205,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="83"/>
-      <c r="AU63" s="85"/>
+      <c r="AT63" s="155"/>
+      <c r="AU63" s="157"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10206,7 +10218,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="94">
+      <c r="B64" s="115">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10225,11 +10237,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="126" t="str">
+      <c r="L64" s="113" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="90" t="str">
+      <c r="M64" s="117" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10244,25 +10256,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="128" t="str">
+      <c r="V64" s="76" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="129"/>
-      <c r="X64" s="129"/>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="129"/>
-      <c r="AA64" s="129"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="160" t="str">
+      <c r="AC64" s="78" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="161"/>
-      <c r="AE64" s="162"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="80"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10274,7 +10286,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10316,11 +10328,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="82" t="str">
+      <c r="AT64" s="158" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="84" t="str">
+      <c r="AU64" s="159" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
@@ -10339,7 +10351,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="93"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10355,8 +10367,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="125"/>
-      <c r="M65" s="89"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="118"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10365,25 +10377,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="130" t="str">
+      <c r="V65" s="81" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="132" t="str">
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="83" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="133"/>
-      <c r="AC65" s="134" t="str">
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="85" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="135"/>
-      <c r="AE65" s="136"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="87"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10395,7 +10407,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10437,8 +10449,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="85"/>
+      <c r="AT65" s="155"/>
+      <c r="AU65" s="157"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10450,7 +10462,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="94">
+      <c r="B66" s="115">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10469,11 +10481,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="126" t="str">
+      <c r="L66" s="113" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="90" t="str">
+      <c r="M66" s="117" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10488,25 +10500,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="149" t="str">
+      <c r="V66" s="88" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="150"/>
-      <c r="X66" s="150"/>
-      <c r="Y66" s="150"/>
-      <c r="Z66" s="153" t="str">
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="92" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="155" t="str">
+      <c r="AA66" s="94" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="156"/>
-      <c r="AC66" s="156"/>
-      <c r="AD66" s="156"/>
-      <c r="AE66" s="157"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="96"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10518,7 +10530,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10560,11 +10572,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="82" t="str">
+      <c r="AT66" s="158" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="84" t="str">
+      <c r="AU66" s="159" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
@@ -10583,7 +10595,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="95"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10599,8 +10611,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="127"/>
-      <c r="M67" s="91"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10609,16 +10621,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="151"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="152"/>
-      <c r="Y67" s="152"/>
-      <c r="Z67" s="154"/>
-      <c r="AA67" s="158"/>
-      <c r="AB67" s="158"/>
-      <c r="AC67" s="158"/>
-      <c r="AD67" s="158"/>
-      <c r="AE67" s="159"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="98"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10630,7 +10642,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10672,8 +10684,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="83"/>
-      <c r="AU67" s="85"/>
+      <c r="AT67" s="155"/>
+      <c r="AU67" s="157"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10685,7 +10697,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="92">
+      <c r="B68" s="121">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10704,11 +10716,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="124" t="str">
+      <c r="L68" s="111" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="88" t="str">
+      <c r="M68" s="122" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10744,7 +10756,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10786,11 +10798,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="82" t="str">
+      <c r="AT68" s="158" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="84" t="str">
+      <c r="AU68" s="159" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
@@ -10809,7 +10821,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10825,8 +10837,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="125"/>
-      <c r="M69" s="89"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="118"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10856,7 +10868,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10898,8 +10910,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="83"/>
-      <c r="AU69" s="85"/>
+      <c r="AT69" s="155"/>
+      <c r="AU69" s="157"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10911,7 +10923,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="94">
+      <c r="B70" s="115">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10930,11 +10942,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="126" t="str">
+      <c r="L70" s="113" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="90" t="str">
+      <c r="M70" s="117" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10949,28 +10961,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="137" t="str">
+      <c r="V70" s="99" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="138"/>
-      <c r="X70" s="141" t="str">
+      <c r="W70" s="100"/>
+      <c r="X70" s="103" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="142"/>
-      <c r="Z70" s="142"/>
-      <c r="AA70" s="143" t="str">
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="105" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="144" t="str">
+      <c r="AB70" s="106" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="145"/>
-      <c r="AD70" s="146"/>
-      <c r="AE70" s="147"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="109"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -10982,7 +10994,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11024,11 +11036,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="82" t="str">
+      <c r="AT70" s="158" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="84" t="str">
+      <c r="AU70" s="159" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
@@ -11047,7 +11059,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11063,8 +11075,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="125"/>
-      <c r="M71" s="89"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="118"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11073,16 +11085,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="139"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="140"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="140"/>
-      <c r="AA71" s="140"/>
-      <c r="AB71" s="140"/>
-      <c r="AC71" s="140"/>
-      <c r="AD71" s="140"/>
-      <c r="AE71" s="148"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+      <c r="AA71" s="102"/>
+      <c r="AB71" s="102"/>
+      <c r="AC71" s="102"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="110"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11094,7 +11106,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11136,8 +11148,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="83"/>
-      <c r="AU71" s="85"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="157"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11149,7 +11161,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="94">
+      <c r="B72" s="115">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11168,11 +11180,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="126" t="str">
+      <c r="L72" s="113" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="90" t="str">
+      <c r="M72" s="117" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11187,25 +11199,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="128" t="str">
+      <c r="V72" s="76" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="129"/>
-      <c r="X72" s="129"/>
-      <c r="Y72" s="129"/>
-      <c r="Z72" s="129"/>
-      <c r="AA72" s="129"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="160" t="str">
+      <c r="AC72" s="78" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="161"/>
-      <c r="AE72" s="162"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="80"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11217,7 +11229,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11259,11 +11271,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="82" t="str">
+      <c r="AT72" s="158" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="84" t="str">
+      <c r="AU72" s="159" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
@@ -11282,7 +11294,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11298,8 +11310,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="125"/>
-      <c r="M73" s="89"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="118"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11308,25 +11320,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="130" t="str">
+      <c r="V73" s="81" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="131"/>
-      <c r="X73" s="131"/>
-      <c r="Y73" s="131"/>
-      <c r="Z73" s="131"/>
-      <c r="AA73" s="132" t="str">
+      <c r="W73" s="82"/>
+      <c r="X73" s="82"/>
+      <c r="Y73" s="82"/>
+      <c r="Z73" s="82"/>
+      <c r="AA73" s="83" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="133"/>
-      <c r="AC73" s="134" t="str">
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="85" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="135"/>
-      <c r="AE73" s="136"/>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="87"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11338,7 +11350,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11380,8 +11392,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="83"/>
-      <c r="AU73" s="85"/>
+      <c r="AT73" s="155"/>
+      <c r="AU73" s="157"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11393,7 +11405,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="94">
+      <c r="B74" s="115">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11412,11 +11424,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="126" t="str">
+      <c r="L74" s="113" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="90" t="str">
+      <c r="M74" s="117" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11431,25 +11443,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="149" t="str">
+      <c r="V74" s="88" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="150"/>
-      <c r="X74" s="150"/>
-      <c r="Y74" s="150"/>
-      <c r="Z74" s="153" t="str">
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="92" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="155" t="str">
+      <c r="AA74" s="94" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="156"/>
-      <c r="AC74" s="156"/>
-      <c r="AD74" s="156"/>
-      <c r="AE74" s="157"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="96"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11461,7 +11473,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11503,11 +11515,11 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="82" t="str">
+      <c r="AT74" s="158" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="84" t="str">
+      <c r="AU74" s="159" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
@@ -11526,7 +11538,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11542,8 +11554,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="127"/>
-      <c r="M75" s="91"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11552,16 +11564,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="151"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="154"/>
-      <c r="AA75" s="158"/>
-      <c r="AB75" s="158"/>
-      <c r="AC75" s="158"/>
-      <c r="AD75" s="158"/>
-      <c r="AE75" s="159"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="91"/>
+      <c r="X75" s="91"/>
+      <c r="Y75" s="91"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="98"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11573,7 +11585,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11615,8 +11627,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="83"/>
-      <c r="AU75" s="85"/>
+      <c r="AT75" s="155"/>
+      <c r="AU75" s="157"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11628,7 +11640,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="92">
+      <c r="B76" s="121">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11647,11 +11659,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="124" t="str">
+      <c r="L76" s="111" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="88" t="str">
+      <c r="M76" s="122" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11687,7 +11699,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11729,11 +11741,11 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="82" t="str">
+      <c r="AT76" s="158" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="84" t="str">
+      <c r="AU76" s="159" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
@@ -11752,7 +11764,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11768,8 +11780,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="125"/>
-      <c r="M77" s="89"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="118"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11799,7 +11811,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11841,8 +11853,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="83"/>
-      <c r="AU77" s="85"/>
+      <c r="AT77" s="155"/>
+      <c r="AU77" s="157"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11854,7 +11866,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="94">
+      <c r="B78" s="115">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11873,11 +11885,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="126" t="str">
+      <c r="L78" s="113" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="90" t="str">
+      <c r="M78" s="117" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11892,28 +11904,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="137" t="str">
+      <c r="V78" s="99" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="138"/>
-      <c r="X78" s="141" t="str">
+      <c r="W78" s="100"/>
+      <c r="X78" s="103" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="142"/>
-      <c r="Z78" s="142"/>
-      <c r="AA78" s="143" t="str">
+      <c r="Y78" s="104"/>
+      <c r="Z78" s="104"/>
+      <c r="AA78" s="105" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="144" t="str">
+      <c r="AB78" s="106" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="145"/>
-      <c r="AD78" s="146"/>
-      <c r="AE78" s="147"/>
+      <c r="AC78" s="107"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="109"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11925,7 +11937,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11967,11 +11979,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="82" t="str">
+      <c r="AT78" s="158" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="84" t="str">
+      <c r="AU78" s="159" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
@@ -11990,7 +12002,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12006,8 +12018,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="125"/>
-      <c r="M79" s="89"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="118"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -12016,16 +12028,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="140"/>
-      <c r="X79" s="140"/>
-      <c r="Y79" s="140"/>
-      <c r="Z79" s="140"/>
-      <c r="AA79" s="140"/>
-      <c r="AB79" s="140"/>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="140"/>
-      <c r="AE79" s="148"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="102"/>
+      <c r="AA79" s="102"/>
+      <c r="AB79" s="102"/>
+      <c r="AC79" s="102"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="110"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12037,7 +12049,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12079,8 +12091,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="83"/>
-      <c r="AU79" s="85"/>
+      <c r="AT79" s="155"/>
+      <c r="AU79" s="157"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12092,7 +12104,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="94">
+      <c r="B80" s="115">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12111,11 +12123,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="126" t="str">
+      <c r="L80" s="113" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="90" t="str">
+      <c r="M80" s="117" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12130,25 +12142,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="128" t="str">
+      <c r="V80" s="76" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="129"/>
-      <c r="X80" s="129"/>
-      <c r="Y80" s="129"/>
-      <c r="Z80" s="129"/>
-      <c r="AA80" s="129"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="160" t="str">
+      <c r="AC80" s="78" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="161"/>
-      <c r="AE80" s="162"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="80"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12160,7 +12172,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12202,11 +12214,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="82" t="str">
+      <c r="AT80" s="158" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="84" t="str">
+      <c r="AU80" s="159" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
@@ -12225,7 +12237,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12241,8 +12253,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="125"/>
-      <c r="M81" s="89"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="118"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12251,25 +12263,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="130" t="str">
+      <c r="V81" s="81" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="131"/>
-      <c r="X81" s="131"/>
-      <c r="Y81" s="131"/>
-      <c r="Z81" s="131"/>
-      <c r="AA81" s="132" t="str">
+      <c r="W81" s="82"/>
+      <c r="X81" s="82"/>
+      <c r="Y81" s="82"/>
+      <c r="Z81" s="82"/>
+      <c r="AA81" s="83" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="133"/>
-      <c r="AC81" s="134" t="str">
+      <c r="AB81" s="84"/>
+      <c r="AC81" s="85" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="135"/>
-      <c r="AE81" s="136"/>
+      <c r="AD81" s="86"/>
+      <c r="AE81" s="87"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12281,7 +12293,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12323,8 +12335,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="83"/>
-      <c r="AU81" s="85"/>
+      <c r="AT81" s="155"/>
+      <c r="AU81" s="157"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12336,7 +12348,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="94">
+      <c r="B82" s="115">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12355,11 +12367,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="126" t="str">
+      <c r="L82" s="113" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="90" t="str">
+      <c r="M82" s="117" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12374,25 +12386,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="149" t="str">
+      <c r="V82" s="88" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="150"/>
-      <c r="X82" s="150"/>
-      <c r="Y82" s="150"/>
-      <c r="Z82" s="153" t="str">
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="92" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="155" t="str">
+      <c r="AA82" s="94" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="156"/>
-      <c r="AC82" s="156"/>
-      <c r="AD82" s="156"/>
-      <c r="AE82" s="157"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="96"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12404,7 +12416,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12446,11 +12458,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="82" t="str">
+      <c r="AT82" s="158" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="84" t="str">
+      <c r="AU82" s="159" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
@@ -12469,7 +12481,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="95"/>
+      <c r="B83" s="119"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12485,8 +12497,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="127"/>
-      <c r="M83" s="91"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="120"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12495,16 +12507,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="151"/>
-      <c r="W83" s="152"/>
-      <c r="X83" s="152"/>
-      <c r="Y83" s="152"/>
-      <c r="Z83" s="154"/>
-      <c r="AA83" s="158"/>
-      <c r="AB83" s="158"/>
-      <c r="AC83" s="158"/>
-      <c r="AD83" s="158"/>
-      <c r="AE83" s="159"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="98"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12516,7 +12528,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12558,8 +12570,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="83"/>
-      <c r="AU83" s="85"/>
+      <c r="AT83" s="155"/>
+      <c r="AU83" s="157"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12571,7 +12583,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="92">
+      <c r="B84" s="121">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12590,11 +12602,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="124" t="str">
+      <c r="L84" s="111" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="88" t="str">
+      <c r="M84" s="122" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12630,7 +12642,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12672,11 +12684,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="82" t="str">
+      <c r="AT84" s="158" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="84" t="str">
+      <c r="AU84" s="159" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
@@ -12695,7 +12707,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12711,8 +12723,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="125"/>
-      <c r="M85" s="89"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="118"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12742,7 +12754,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12784,8 +12796,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="83"/>
-      <c r="AU85" s="85"/>
+      <c r="AT85" s="155"/>
+      <c r="AU85" s="157"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12797,7 +12809,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="94">
+      <c r="B86" s="115">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12816,11 +12828,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="126" t="str">
+      <c r="L86" s="113" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="90" t="str">
+      <c r="M86" s="117" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12835,28 +12847,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="137" t="str">
+      <c r="V86" s="99" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="138"/>
-      <c r="X86" s="141" t="str">
+      <c r="W86" s="100"/>
+      <c r="X86" s="103" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="142"/>
-      <c r="Z86" s="142"/>
-      <c r="AA86" s="143" t="str">
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
+      <c r="AA86" s="105" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="144" t="str">
+      <c r="AB86" s="106" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="145"/>
-      <c r="AD86" s="146"/>
-      <c r="AE86" s="147"/>
+      <c r="AC86" s="107"/>
+      <c r="AD86" s="108"/>
+      <c r="AE86" s="109"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12868,7 +12880,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12910,11 +12922,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="82" t="str">
+      <c r="AT86" s="158" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="84" t="str">
+      <c r="AU86" s="159" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
@@ -12933,7 +12945,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="93"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12949,8 +12961,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="125"/>
-      <c r="M87" s="89"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="118"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -12959,16 +12971,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="139"/>
-      <c r="W87" s="140"/>
-      <c r="X87" s="140"/>
-      <c r="Y87" s="140"/>
-      <c r="Z87" s="140"/>
-      <c r="AA87" s="140"/>
-      <c r="AB87" s="140"/>
-      <c r="AC87" s="140"/>
-      <c r="AD87" s="140"/>
-      <c r="AE87" s="148"/>
+      <c r="V87" s="101"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
+      <c r="AB87" s="102"/>
+      <c r="AC87" s="102"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="110"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -12980,7 +12992,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13022,8 +13034,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="83"/>
-      <c r="AU87" s="85"/>
+      <c r="AT87" s="155"/>
+      <c r="AU87" s="157"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -13035,7 +13047,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="94">
+      <c r="B88" s="115">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13054,11 +13066,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="126" t="str">
+      <c r="L88" s="113" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="90" t="str">
+      <c r="M88" s="117" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13073,25 +13085,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="128" t="str">
+      <c r="V88" s="76" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="129"/>
-      <c r="X88" s="129"/>
-      <c r="Y88" s="129"/>
-      <c r="Z88" s="129"/>
-      <c r="AA88" s="129"/>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+      <c r="Y88" s="77"/>
+      <c r="Z88" s="77"/>
+      <c r="AA88" s="77"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="160" t="str">
+      <c r="AC88" s="78" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="161"/>
-      <c r="AE88" s="162"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="80"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13103,7 +13115,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13145,11 +13157,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="82" t="str">
+      <c r="AT88" s="158" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="84" t="str">
+      <c r="AU88" s="159" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
@@ -13168,7 +13180,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13184,8 +13196,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="125"/>
-      <c r="M89" s="89"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="118"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13194,25 +13206,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="130" t="str">
+      <c r="V89" s="81" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="131"/>
-      <c r="X89" s="131"/>
-      <c r="Y89" s="131"/>
-      <c r="Z89" s="131"/>
-      <c r="AA89" s="132" t="str">
+      <c r="W89" s="82"/>
+      <c r="X89" s="82"/>
+      <c r="Y89" s="82"/>
+      <c r="Z89" s="82"/>
+      <c r="AA89" s="83" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="133"/>
-      <c r="AC89" s="134" t="str">
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="135"/>
-      <c r="AE89" s="136"/>
+      <c r="AD89" s="86"/>
+      <c r="AE89" s="87"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13224,7 +13236,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13266,8 +13278,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="83"/>
-      <c r="AU89" s="85"/>
+      <c r="AT89" s="155"/>
+      <c r="AU89" s="157"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13279,7 +13291,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="94">
+      <c r="B90" s="115">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13298,11 +13310,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="126" t="str">
+      <c r="L90" s="113" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="90" t="str">
+      <c r="M90" s="117" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13317,25 +13329,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="149" t="str">
+      <c r="V90" s="88" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="150"/>
-      <c r="X90" s="150"/>
-      <c r="Y90" s="150"/>
-      <c r="Z90" s="153" t="str">
+      <c r="W90" s="89"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="92" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="155" t="str">
+      <c r="AA90" s="94" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="156"/>
-      <c r="AC90" s="156"/>
-      <c r="AD90" s="156"/>
-      <c r="AE90" s="157"/>
+      <c r="AB90" s="95"/>
+      <c r="AC90" s="95"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="96"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13347,7 +13359,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13389,11 +13401,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="82" t="str">
+      <c r="AT90" s="158" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="84" t="str">
+      <c r="AU90" s="159" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
@@ -13412,7 +13424,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="95"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13428,8 +13440,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="127"/>
-      <c r="M91" s="91"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13438,16 +13450,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="151"/>
-      <c r="W91" s="152"/>
-      <c r="X91" s="152"/>
-      <c r="Y91" s="152"/>
-      <c r="Z91" s="154"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158"/>
-      <c r="AC91" s="158"/>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="159"/>
+      <c r="V91" s="90"/>
+      <c r="W91" s="91"/>
+      <c r="X91" s="91"/>
+      <c r="Y91" s="91"/>
+      <c r="Z91" s="93"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="98"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13459,7 +13471,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13501,8 +13513,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="83"/>
-      <c r="AU91" s="85"/>
+      <c r="AT91" s="155"/>
+      <c r="AU91" s="157"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13514,7 +13526,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="92">
+      <c r="B92" s="121">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13533,11 +13545,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="124" t="str">
+      <c r="L92" s="111" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="88" t="str">
+      <c r="M92" s="122" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13573,7 +13585,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13615,11 +13627,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="82" t="str">
+      <c r="AT92" s="158" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="84" t="str">
+      <c r="AU92" s="159" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
@@ -13638,7 +13650,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13654,8 +13666,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="125"/>
-      <c r="M93" s="89"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="118"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13685,7 +13697,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13727,8 +13739,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="83"/>
-      <c r="AU93" s="85"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="157"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13740,7 +13752,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="94">
+      <c r="B94" s="115">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13759,11 +13771,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="126" t="str">
+      <c r="L94" s="113" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="90" t="str">
+      <c r="M94" s="117" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13778,28 +13790,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="137" t="str">
+      <c r="V94" s="99" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="138"/>
-      <c r="X94" s="141" t="str">
+      <c r="W94" s="100"/>
+      <c r="X94" s="103" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="142"/>
-      <c r="Z94" s="142"/>
-      <c r="AA94" s="143" t="str">
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+      <c r="AA94" s="105" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="144" t="str">
+      <c r="AB94" s="106" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="145"/>
-      <c r="AD94" s="146"/>
-      <c r="AE94" s="147"/>
+      <c r="AC94" s="107"/>
+      <c r="AD94" s="108"/>
+      <c r="AE94" s="109"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13811,7 +13823,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13853,11 +13865,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="82" t="str">
+      <c r="AT94" s="158" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="84" t="str">
+      <c r="AU94" s="159" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
@@ -13876,7 +13888,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
+      <c r="B95" s="116"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13892,8 +13904,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="125"/>
-      <c r="M95" s="89"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="118"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13902,16 +13914,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="139"/>
-      <c r="W95" s="140"/>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="140"/>
-      <c r="AD95" s="140"/>
-      <c r="AE95" s="148"/>
+      <c r="V95" s="101"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="102"/>
+      <c r="AA95" s="102"/>
+      <c r="AB95" s="102"/>
+      <c r="AC95" s="102"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="110"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13923,7 +13935,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -13965,8 +13977,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="85"/>
+      <c r="AT95" s="155"/>
+      <c r="AU95" s="157"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -13978,7 +13990,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="94">
+      <c r="B96" s="115">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -13997,11 +14009,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="126" t="str">
+      <c r="L96" s="113" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="90" t="str">
+      <c r="M96" s="117" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -14016,25 +14028,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="128" t="str">
+      <c r="V96" s="76" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="129"/>
-      <c r="X96" s="129"/>
-      <c r="Y96" s="129"/>
-      <c r="Z96" s="129"/>
-      <c r="AA96" s="129"/>
+      <c r="W96" s="77"/>
+      <c r="X96" s="77"/>
+      <c r="Y96" s="77"/>
+      <c r="Z96" s="77"/>
+      <c r="AA96" s="77"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="160" t="str">
+      <c r="AC96" s="78" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="161"/>
-      <c r="AE96" s="162"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="80"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14046,7 +14058,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14088,11 +14100,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="82" t="str">
+      <c r="AT96" s="158" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="84" t="str">
+      <c r="AU96" s="159" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
@@ -14111,7 +14123,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="93"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14127,8 +14139,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="125"/>
-      <c r="M97" s="89"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="118"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14137,25 +14149,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="130" t="str">
+      <c r="V97" s="81" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="131"/>
-      <c r="X97" s="131"/>
-      <c r="Y97" s="131"/>
-      <c r="Z97" s="131"/>
-      <c r="AA97" s="132" t="str">
+      <c r="W97" s="82"/>
+      <c r="X97" s="82"/>
+      <c r="Y97" s="82"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="83" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="133"/>
-      <c r="AC97" s="134" t="str">
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="85" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="135"/>
-      <c r="AE97" s="136"/>
+      <c r="AD97" s="86"/>
+      <c r="AE97" s="87"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14167,7 +14179,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14209,8 +14221,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="83"/>
-      <c r="AU97" s="85"/>
+      <c r="AT97" s="155"/>
+      <c r="AU97" s="157"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14222,7 +14234,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="94">
+      <c r="B98" s="115">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14241,11 +14253,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="126" t="str">
+      <c r="L98" s="113" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="90" t="str">
+      <c r="M98" s="117" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14260,25 +14272,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="149" t="str">
+      <c r="V98" s="88" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="150"/>
-      <c r="X98" s="150"/>
-      <c r="Y98" s="150"/>
-      <c r="Z98" s="153" t="str">
+      <c r="W98" s="89"/>
+      <c r="X98" s="89"/>
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="92" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="155" t="str">
+      <c r="AA98" s="94" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="156"/>
-      <c r="AC98" s="156"/>
-      <c r="AD98" s="156"/>
-      <c r="AE98" s="157"/>
+      <c r="AB98" s="95"/>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="96"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14290,7 +14302,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14332,11 +14344,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="82" t="str">
+      <c r="AT98" s="158" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="84" t="str">
+      <c r="AU98" s="159" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
@@ -14355,7 +14367,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="95"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14371,8 +14383,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="127"/>
-      <c r="M99" s="91"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="120"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14381,16 +14393,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="151"/>
-      <c r="W99" s="152"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="152"/>
-      <c r="Z99" s="154"/>
-      <c r="AA99" s="158"/>
-      <c r="AB99" s="158"/>
-      <c r="AC99" s="158"/>
-      <c r="AD99" s="158"/>
-      <c r="AE99" s="159"/>
+      <c r="V99" s="90"/>
+      <c r="W99" s="91"/>
+      <c r="X99" s="91"/>
+      <c r="Y99" s="91"/>
+      <c r="Z99" s="93"/>
+      <c r="AA99" s="97"/>
+      <c r="AB99" s="97"/>
+      <c r="AC99" s="97"/>
+      <c r="AD99" s="97"/>
+      <c r="AE99" s="98"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14402,7 +14414,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14444,8 +14456,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="83"/>
-      <c r="AU99" s="85"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="157"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14457,7 +14469,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="92">
+      <c r="B100" s="121">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14476,11 +14488,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="124" t="str">
+      <c r="L100" s="111" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="88" t="str">
+      <c r="M100" s="122" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14516,7 +14528,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14558,11 +14570,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="82" t="str">
+      <c r="AT100" s="158" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="84" t="str">
+      <c r="AU100" s="159" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
@@ -14581,7 +14593,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14597,8 +14609,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="89"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="118"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14628,7 +14640,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14670,8 +14682,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="83"/>
-      <c r="AU101" s="85"/>
+      <c r="AT101" s="155"/>
+      <c r="AU101" s="157"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14683,7 +14695,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="94">
+      <c r="B102" s="115">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14702,11 +14714,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="126" t="str">
+      <c r="L102" s="113" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="90" t="str">
+      <c r="M102" s="117" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14721,28 +14733,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="137" t="str">
+      <c r="V102" s="99" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="138"/>
-      <c r="X102" s="141" t="str">
+      <c r="W102" s="100"/>
+      <c r="X102" s="103" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="142"/>
-      <c r="Z102" s="142"/>
-      <c r="AA102" s="143" t="str">
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="105" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="144" t="str">
+      <c r="AB102" s="106" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="145"/>
-      <c r="AD102" s="146"/>
-      <c r="AE102" s="147"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="108"/>
+      <c r="AE102" s="109"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14754,7 +14766,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14796,11 +14808,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="82" t="str">
+      <c r="AT102" s="158" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="84" t="str">
+      <c r="AU102" s="159" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
@@ -14819,7 +14831,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14835,8 +14847,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="89"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="118"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14845,16 +14857,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="140"/>
-      <c r="X103" s="140"/>
-      <c r="Y103" s="140"/>
-      <c r="Z103" s="140"/>
-      <c r="AA103" s="140"/>
-      <c r="AB103" s="140"/>
-      <c r="AC103" s="140"/>
-      <c r="AD103" s="140"/>
-      <c r="AE103" s="148"/>
+      <c r="V103" s="101"/>
+      <c r="W103" s="102"/>
+      <c r="X103" s="102"/>
+      <c r="Y103" s="102"/>
+      <c r="Z103" s="102"/>
+      <c r="AA103" s="102"/>
+      <c r="AB103" s="102"/>
+      <c r="AC103" s="102"/>
+      <c r="AD103" s="102"/>
+      <c r="AE103" s="110"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14866,7 +14878,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14908,8 +14920,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="83"/>
-      <c r="AU103" s="85"/>
+      <c r="AT103" s="155"/>
+      <c r="AU103" s="157"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14921,7 +14933,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="94">
+      <c r="B104" s="115">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14940,11 +14952,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="126" t="str">
+      <c r="L104" s="113" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="90" t="str">
+      <c r="M104" s="117" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -14959,25 +14971,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="128" t="str">
+      <c r="V104" s="76" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="129"/>
-      <c r="X104" s="129"/>
-      <c r="Y104" s="129"/>
-      <c r="Z104" s="129"/>
-      <c r="AA104" s="129"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="160" t="str">
+      <c r="AC104" s="78" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="161"/>
-      <c r="AE104" s="162"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="80"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -14989,7 +15001,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15031,11 +15043,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="82" t="str">
+      <c r="AT104" s="158" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="84" t="str">
+      <c r="AU104" s="159" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
@@ -15054,7 +15066,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15070,8 +15082,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="89"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="118"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15080,25 +15092,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="130" t="str">
+      <c r="V105" s="81" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="131"/>
-      <c r="X105" s="131"/>
-      <c r="Y105" s="131"/>
-      <c r="Z105" s="131"/>
-      <c r="AA105" s="132" t="str">
+      <c r="W105" s="82"/>
+      <c r="X105" s="82"/>
+      <c r="Y105" s="82"/>
+      <c r="Z105" s="82"/>
+      <c r="AA105" s="83" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="133"/>
-      <c r="AC105" s="134" t="str">
+      <c r="AB105" s="84"/>
+      <c r="AC105" s="85" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="135"/>
-      <c r="AE105" s="136"/>
+      <c r="AD105" s="86"/>
+      <c r="AE105" s="87"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15110,7 +15122,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15152,8 +15164,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="83"/>
-      <c r="AU105" s="85"/>
+      <c r="AT105" s="155"/>
+      <c r="AU105" s="157"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15165,7 +15177,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="94">
+      <c r="B106" s="115">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15184,11 +15196,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="126" t="str">
+      <c r="L106" s="113" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="90" t="str">
+      <c r="M106" s="117" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15203,25 +15215,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="149" t="str">
+      <c r="V106" s="88" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="150"/>
-      <c r="X106" s="150"/>
-      <c r="Y106" s="150"/>
-      <c r="Z106" s="153" t="str">
+      <c r="W106" s="89"/>
+      <c r="X106" s="89"/>
+      <c r="Y106" s="89"/>
+      <c r="Z106" s="92" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="155" t="str">
+      <c r="AA106" s="94" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="156"/>
-      <c r="AC106" s="156"/>
-      <c r="AD106" s="156"/>
-      <c r="AE106" s="157"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="96"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15233,7 +15245,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15275,11 +15287,11 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="82" t="str">
+      <c r="AT106" s="158" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="84" t="str">
+      <c r="AU106" s="159" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
@@ -15298,7 +15310,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="95"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15314,8 +15326,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="127"/>
-      <c r="M107" s="91"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="120"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15324,16 +15336,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="151"/>
-      <c r="W107" s="152"/>
-      <c r="X107" s="152"/>
-      <c r="Y107" s="152"/>
-      <c r="Z107" s="154"/>
-      <c r="AA107" s="158"/>
-      <c r="AB107" s="158"/>
-      <c r="AC107" s="158"/>
-      <c r="AD107" s="158"/>
-      <c r="AE107" s="159"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="91"/>
+      <c r="X107" s="91"/>
+      <c r="Y107" s="91"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="97"/>
+      <c r="AB107" s="97"/>
+      <c r="AC107" s="97"/>
+      <c r="AD107" s="97"/>
+      <c r="AE107" s="98"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15345,7 +15357,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15387,8 +15399,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="83"/>
-      <c r="AU107" s="85"/>
+      <c r="AT107" s="155"/>
+      <c r="AU107" s="157"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15400,7 +15412,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="92">
+      <c r="B108" s="121">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15419,11 +15431,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="124" t="str">
+      <c r="L108" s="111" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="88" t="str">
+      <c r="M108" s="122" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15459,7 +15471,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15501,11 +15513,11 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="82" t="str">
+      <c r="AT108" s="158" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="84" t="str">
+      <c r="AU108" s="159" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
@@ -15524,7 +15536,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="93"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15540,8 +15552,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="125"/>
-      <c r="M109" s="89"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="118"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15571,7 +15583,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15613,8 +15625,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="83"/>
-      <c r="AU109" s="85"/>
+      <c r="AT109" s="155"/>
+      <c r="AU109" s="157"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15626,7 +15638,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="94">
+      <c r="B110" s="115">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15645,11 +15657,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="126" t="str">
+      <c r="L110" s="113" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="90" t="str">
+      <c r="M110" s="117" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15664,28 +15676,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="137" t="str">
+      <c r="V110" s="99" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="138"/>
-      <c r="X110" s="141" t="str">
+      <c r="W110" s="100"/>
+      <c r="X110" s="103" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="142"/>
-      <c r="Z110" s="142"/>
-      <c r="AA110" s="143" t="str">
+      <c r="Y110" s="104"/>
+      <c r="Z110" s="104"/>
+      <c r="AA110" s="105" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="144" t="str">
+      <c r="AB110" s="106" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="145"/>
-      <c r="AD110" s="146"/>
-      <c r="AE110" s="147"/>
+      <c r="AC110" s="107"/>
+      <c r="AD110" s="108"/>
+      <c r="AE110" s="109"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15697,7 +15709,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15739,11 +15751,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="82" t="str">
+      <c r="AT110" s="158" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="84" t="str">
+      <c r="AU110" s="159" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
@@ -15762,7 +15774,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
+      <c r="B111" s="116"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15778,8 +15790,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="125"/>
-      <c r="M111" s="89"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="118"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15788,16 +15800,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="140"/>
-      <c r="X111" s="140"/>
-      <c r="Y111" s="140"/>
-      <c r="Z111" s="140"/>
-      <c r="AA111" s="140"/>
-      <c r="AB111" s="140"/>
-      <c r="AC111" s="140"/>
-      <c r="AD111" s="140"/>
-      <c r="AE111" s="148"/>
+      <c r="V111" s="101"/>
+      <c r="W111" s="102"/>
+      <c r="X111" s="102"/>
+      <c r="Y111" s="102"/>
+      <c r="Z111" s="102"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="110"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15809,7 +15821,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15851,8 +15863,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="83"/>
-      <c r="AU111" s="85"/>
+      <c r="AT111" s="155"/>
+      <c r="AU111" s="157"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15864,7 +15876,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="94">
+      <c r="B112" s="115">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15883,11 +15895,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="126" t="str">
+      <c r="L112" s="113" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="90" t="str">
+      <c r="M112" s="117" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15902,25 +15914,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="128" t="str">
+      <c r="V112" s="76" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="129"/>
-      <c r="X112" s="129"/>
-      <c r="Y112" s="129"/>
-      <c r="Z112" s="129"/>
-      <c r="AA112" s="129"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="160" t="str">
+      <c r="AC112" s="78" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="161"/>
-      <c r="AE112" s="162"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="80"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15932,7 +15944,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -15974,11 +15986,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="82" t="str">
+      <c r="AT112" s="158" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="84" t="str">
+      <c r="AU112" s="159" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
@@ -15997,7 +16009,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16013,8 +16025,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="125"/>
-      <c r="M113" s="89"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="118"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -16023,25 +16035,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="130" t="str">
+      <c r="V113" s="81" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="131"/>
-      <c r="X113" s="131"/>
-      <c r="Y113" s="131"/>
-      <c r="Z113" s="131"/>
-      <c r="AA113" s="132" t="str">
+      <c r="W113" s="82"/>
+      <c r="X113" s="82"/>
+      <c r="Y113" s="82"/>
+      <c r="Z113" s="82"/>
+      <c r="AA113" s="83" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="133"/>
-      <c r="AC113" s="134" t="str">
+      <c r="AB113" s="84"/>
+      <c r="AC113" s="85" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="135"/>
-      <c r="AE113" s="136"/>
+      <c r="AD113" s="86"/>
+      <c r="AE113" s="87"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16053,7 +16065,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16095,8 +16107,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="83"/>
-      <c r="AU113" s="85"/>
+      <c r="AT113" s="155"/>
+      <c r="AU113" s="157"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16108,7 +16120,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="94">
+      <c r="B114" s="115">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16127,11 +16139,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="126" t="str">
+      <c r="L114" s="113" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="90" t="str">
+      <c r="M114" s="117" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16146,25 +16158,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="149" t="str">
+      <c r="V114" s="88" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="150"/>
-      <c r="X114" s="150"/>
-      <c r="Y114" s="150"/>
-      <c r="Z114" s="153" t="str">
+      <c r="W114" s="89"/>
+      <c r="X114" s="89"/>
+      <c r="Y114" s="89"/>
+      <c r="Z114" s="92" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="155" t="str">
+      <c r="AA114" s="94" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="156"/>
-      <c r="AC114" s="156"/>
-      <c r="AD114" s="156"/>
-      <c r="AE114" s="157"/>
+      <c r="AB114" s="95"/>
+      <c r="AC114" s="95"/>
+      <c r="AD114" s="95"/>
+      <c r="AE114" s="96"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16176,7 +16188,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16218,11 +16230,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="82" t="str">
+      <c r="AT114" s="158" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="84" t="str">
+      <c r="AU114" s="159" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
@@ -16241,7 +16253,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="95"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16257,8 +16269,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="127"/>
-      <c r="M115" s="91"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="120"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16267,16 +16279,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="151"/>
-      <c r="W115" s="152"/>
-      <c r="X115" s="152"/>
-      <c r="Y115" s="152"/>
-      <c r="Z115" s="154"/>
-      <c r="AA115" s="158"/>
-      <c r="AB115" s="158"/>
-      <c r="AC115" s="158"/>
-      <c r="AD115" s="158"/>
-      <c r="AE115" s="159"/>
+      <c r="V115" s="90"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="93"/>
+      <c r="AA115" s="97"/>
+      <c r="AB115" s="97"/>
+      <c r="AC115" s="97"/>
+      <c r="AD115" s="97"/>
+      <c r="AE115" s="98"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16288,7 +16300,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16330,8 +16342,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="83"/>
-      <c r="AU115" s="85"/>
+      <c r="AT115" s="155"/>
+      <c r="AU115" s="157"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16343,7 +16355,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="92">
+      <c r="B116" s="121">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16362,11 +16374,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="124" t="str">
+      <c r="L116" s="111" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="88" t="str">
+      <c r="M116" s="122" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16402,7 +16414,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16444,11 +16456,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="82" t="str">
+      <c r="AT116" s="158" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="84" t="str">
+      <c r="AU116" s="159" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
@@ -16467,7 +16479,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
+      <c r="B117" s="116"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16483,8 +16495,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="125"/>
-      <c r="M117" s="89"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="118"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16514,7 +16526,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16556,8 +16568,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="83"/>
-      <c r="AU117" s="85"/>
+      <c r="AT117" s="155"/>
+      <c r="AU117" s="157"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16569,7 +16581,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="94">
+      <c r="B118" s="115">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16588,11 +16600,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="126" t="str">
+      <c r="L118" s="113" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="90" t="str">
+      <c r="M118" s="117" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16607,28 +16619,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="137" t="str">
+      <c r="V118" s="99" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="138"/>
-      <c r="X118" s="141" t="str">
+      <c r="W118" s="100"/>
+      <c r="X118" s="103" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="142"/>
-      <c r="Z118" s="142"/>
-      <c r="AA118" s="143" t="str">
+      <c r="Y118" s="104"/>
+      <c r="Z118" s="104"/>
+      <c r="AA118" s="105" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="144" t="str">
+      <c r="AB118" s="106" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="145"/>
-      <c r="AD118" s="146"/>
-      <c r="AE118" s="147"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="108"/>
+      <c r="AE118" s="109"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16640,7 +16652,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16682,11 +16694,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="82" t="str">
+      <c r="AT118" s="158" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="84" t="str">
+      <c r="AU118" s="159" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
@@ -16705,7 +16717,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="93"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16721,8 +16733,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="125"/>
-      <c r="M119" s="89"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="118"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16731,16 +16743,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="139"/>
-      <c r="W119" s="140"/>
-      <c r="X119" s="140"/>
-      <c r="Y119" s="140"/>
-      <c r="Z119" s="140"/>
-      <c r="AA119" s="140"/>
-      <c r="AB119" s="140"/>
-      <c r="AC119" s="140"/>
-      <c r="AD119" s="140"/>
-      <c r="AE119" s="148"/>
+      <c r="V119" s="101"/>
+      <c r="W119" s="102"/>
+      <c r="X119" s="102"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="102"/>
+      <c r="AB119" s="102"/>
+      <c r="AC119" s="102"/>
+      <c r="AD119" s="102"/>
+      <c r="AE119" s="110"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16752,7 +16764,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16794,8 +16806,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="83"/>
-      <c r="AU119" s="85"/>
+      <c r="AT119" s="155"/>
+      <c r="AU119" s="157"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -16807,7 +16819,7 @@
       <c r="CB119" s="37"/>
     </row>
     <row r="120" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B120" s="94">
+      <c r="B120" s="115">
         <f>IF(B118="","",B118+7)</f>
         <v>43425</v>
       </c>
@@ -16826,11 +16838,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L120" s="126" t="str">
+      <c r="L120" s="113" t="str">
         <f>IF(K120="","",AT120)</f>
         <v/>
       </c>
-      <c r="M120" s="90" t="str">
+      <c r="M120" s="117" t="str">
         <f ca="1">IF(AV120="","",IF(L120="","",AU120))</f>
         <v/>
       </c>
@@ -16845,25 +16857,25 @@
       <c r="S120" s="36"/>
       <c r="T120" s="36"/>
       <c r="U120" s="36"/>
-      <c r="V120" s="128" t="str">
+      <c r="V120" s="76" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"No Weight Change",IF(K122&gt;K114,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W120" s="129"/>
-      <c r="X120" s="129"/>
-      <c r="Y120" s="129"/>
-      <c r="Z120" s="129"/>
-      <c r="AA120" s="129"/>
+      <c r="W120" s="77"/>
+      <c r="X120" s="77"/>
+      <c r="Y120" s="77"/>
+      <c r="Z120" s="77"/>
+      <c r="AA120" s="77"/>
       <c r="AB120" s="42" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"",IF(K122&gt;K114,K122-K114,K114-K122)))</f>
         <v/>
       </c>
-      <c r="AC120" s="160" t="str">
+      <c r="AC120" s="78" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD120" s="161"/>
-      <c r="AE120" s="162"/>
+      <c r="AD120" s="79"/>
+      <c r="AE120" s="80"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="56">
         <f>AG118+1</f>
@@ -16875,7 +16887,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16917,11 +16929,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT120" s="82" t="str">
+      <c r="AT120" s="158" t="str">
         <f>IF(AS120="","",AS120-AS118)</f>
         <v/>
       </c>
-      <c r="AU120" s="84" t="str">
+      <c r="AU120" s="159" t="str">
         <f ca="1">IF(AV120="","",IF(AT120="","",MROUND(AV120,5)))</f>
         <v/>
       </c>
@@ -16940,7 +16952,7 @@
       <c r="CB120" s="37"/>
     </row>
     <row r="121" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B121" s="93"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16956,8 +16968,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L121" s="125"/>
-      <c r="M121" s="89"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="118"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="36"/>
@@ -16966,25 +16978,25 @@
       <c r="S121" s="36"/>
       <c r="T121" s="36"/>
       <c r="U121" s="36"/>
-      <c r="V121" s="130" t="str">
+      <c r="V121" s="81" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W121" s="131"/>
-      <c r="X121" s="131"/>
-      <c r="Y121" s="131"/>
-      <c r="Z121" s="131"/>
-      <c r="AA121" s="132" t="str">
+      <c r="W121" s="82"/>
+      <c r="X121" s="82"/>
+      <c r="Y121" s="82"/>
+      <c r="Z121" s="82"/>
+      <c r="AA121" s="83" t="str">
         <f ca="1">IF(V121="","",AB120/4)</f>
         <v/>
       </c>
-      <c r="AB121" s="133"/>
-      <c r="AC121" s="134" t="str">
+      <c r="AB121" s="84"/>
+      <c r="AC121" s="85" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD121" s="135"/>
-      <c r="AE121" s="136"/>
+      <c r="AD121" s="86"/>
+      <c r="AE121" s="87"/>
       <c r="AF121" s="36"/>
       <c r="AG121" s="56">
         <f>AG120+0.5</f>
@@ -16996,7 +17008,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17038,8 +17050,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT121" s="83"/>
-      <c r="AU121" s="85"/>
+      <c r="AT121" s="155"/>
+      <c r="AU121" s="157"/>
       <c r="AY121" s="35"/>
       <c r="AZ121" s="35"/>
       <c r="BA121" s="51"/>
@@ -17051,7 +17063,7 @@
       <c r="CB121" s="37"/>
     </row>
     <row r="122" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B122" s="94">
+      <c r="B122" s="115">
         <f>IF(B120="","",B120+7)</f>
         <v>43432</v>
       </c>
@@ -17070,11 +17082,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L122" s="126" t="str">
+      <c r="L122" s="113" t="str">
         <f>IF(K122="","",AT122)</f>
         <v/>
       </c>
-      <c r="M122" s="90" t="str">
+      <c r="M122" s="117" t="str">
         <f ca="1">IF(AV122="","",IF(L122="","",AU122))</f>
         <v/>
       </c>
@@ -17089,25 +17101,25 @@
       <c r="S122" s="36"/>
       <c r="T122" s="36"/>
       <c r="U122" s="36"/>
-      <c r="V122" s="149" t="str">
+      <c r="V122" s="88" t="str">
         <f ca="1">IF(AA121="","","You have")</f>
         <v/>
       </c>
-      <c r="W122" s="150"/>
-      <c r="X122" s="150"/>
-      <c r="Y122" s="150"/>
-      <c r="Z122" s="153" t="str">
+      <c r="W122" s="89"/>
+      <c r="X122" s="89"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="92" t="str">
         <f ca="1">IF(AA121="","",IF(K122&gt;$F$7,K122-$F$7,$F$7-K122))</f>
         <v/>
       </c>
-      <c r="AA122" s="155" t="str">
+      <c r="AA122" s="94" t="str">
         <f ca="1">IF(AA121="","",IF(AA121="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB122" s="156"/>
-      <c r="AC122" s="156"/>
-      <c r="AD122" s="156"/>
-      <c r="AE122" s="157"/>
+      <c r="AB122" s="95"/>
+      <c r="AC122" s="95"/>
+      <c r="AD122" s="95"/>
+      <c r="AE122" s="96"/>
       <c r="AF122" s="36"/>
       <c r="AG122" s="56">
         <f>AG120+1</f>
@@ -17119,7 +17131,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17161,11 +17173,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT122" s="82" t="str">
+      <c r="AT122" s="158" t="str">
         <f>IF(AS122="","",AS122-AS120)</f>
         <v/>
       </c>
-      <c r="AU122" s="84" t="str">
+      <c r="AU122" s="159" t="str">
         <f ca="1">IF(AV122="","",IF(AT122="","",MROUND(AV122,5)))</f>
         <v/>
       </c>
@@ -17184,7 +17196,7 @@
       <c r="CB122" s="37"/>
     </row>
     <row r="123" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B123" s="95"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -17200,8 +17212,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L123" s="127"/>
-      <c r="M123" s="91"/>
+      <c r="L123" s="114"/>
+      <c r="M123" s="120"/>
       <c r="N123" s="36"/>
       <c r="O123" s="36"/>
       <c r="P123" s="36"/>
@@ -17210,16 +17222,16 @@
       <c r="S123" s="36"/>
       <c r="T123" s="36"/>
       <c r="U123" s="36"/>
-      <c r="V123" s="151"/>
-      <c r="W123" s="152"/>
-      <c r="X123" s="152"/>
-      <c r="Y123" s="152"/>
-      <c r="Z123" s="154"/>
-      <c r="AA123" s="158"/>
-      <c r="AB123" s="158"/>
-      <c r="AC123" s="158"/>
-      <c r="AD123" s="158"/>
-      <c r="AE123" s="159"/>
+      <c r="V123" s="90"/>
+      <c r="W123" s="91"/>
+      <c r="X123" s="91"/>
+      <c r="Y123" s="91"/>
+      <c r="Z123" s="93"/>
+      <c r="AA123" s="97"/>
+      <c r="AB123" s="97"/>
+      <c r="AC123" s="97"/>
+      <c r="AD123" s="97"/>
+      <c r="AE123" s="98"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="56">
         <f>AG122+0.5</f>
@@ -17231,7 +17243,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>190.4938775510204</v>
+        <v>189.39825072886302</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17270,8 +17282,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT123" s="83"/>
-      <c r="AU123" s="85"/>
+      <c r="AT123" s="155"/>
+      <c r="AU123" s="157"/>
       <c r="AY123" s="35"/>
       <c r="AZ123" s="35"/>
       <c r="BA123" s="51"/>
@@ -17295,7 +17307,7 @@
       </c>
       <c r="AI124" s="35">
         <f>MROUND(AI123,0.5)</f>
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="AJ124" s="35"/>
       <c r="AK124" s="35"/>
@@ -17736,6 +17748,459 @@
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AT122:AT123"/>
+    <mergeCell ref="AU122:AU123"/>
+    <mergeCell ref="AT112:AT113"/>
+    <mergeCell ref="AU112:AU113"/>
+    <mergeCell ref="AT114:AT115"/>
+    <mergeCell ref="AU114:AU115"/>
+    <mergeCell ref="AT116:AT117"/>
+    <mergeCell ref="AU116:AU117"/>
+    <mergeCell ref="AT118:AT119"/>
+    <mergeCell ref="AU118:AU119"/>
+    <mergeCell ref="AT120:AT121"/>
+    <mergeCell ref="AU120:AU121"/>
+    <mergeCell ref="AT102:AT103"/>
+    <mergeCell ref="AU102:AU103"/>
+    <mergeCell ref="AT104:AT105"/>
+    <mergeCell ref="AU104:AU105"/>
+    <mergeCell ref="AT106:AT107"/>
+    <mergeCell ref="AU106:AU107"/>
+    <mergeCell ref="AT108:AT109"/>
+    <mergeCell ref="AU108:AU109"/>
+    <mergeCell ref="AT110:AT111"/>
+    <mergeCell ref="AU110:AU111"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AT98:AT99"/>
+    <mergeCell ref="AU98:AU99"/>
+    <mergeCell ref="AT100:AT101"/>
+    <mergeCell ref="AU100:AU101"/>
+    <mergeCell ref="AT82:AT83"/>
+    <mergeCell ref="AU82:AU83"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AU72:AU73"/>
+    <mergeCell ref="AT74:AT75"/>
+    <mergeCell ref="AU74:AU75"/>
+    <mergeCell ref="AT76:AT77"/>
+    <mergeCell ref="AU76:AU77"/>
+    <mergeCell ref="AT78:AT79"/>
+    <mergeCell ref="AU78:AU79"/>
+    <mergeCell ref="AT80:AT81"/>
+    <mergeCell ref="AU80:AU81"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AU62:AU63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AU66:AU67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AU68:AU69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AU70:AU71"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AU56:AU57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AU58:AU59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AU60:AU61"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AU42:AU43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AU44:AU45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AU46:AU47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AU48:AU49"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AU50:AU51"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AU40:AU41"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="V42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AE43"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="V26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AE27"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AE39"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="X30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AE31"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="V66:Y67"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AE55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AE59"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AE35"/>
+    <mergeCell ref="X70:Z71"/>
+    <mergeCell ref="AA70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="V72:AA72"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AE47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="V50:Y51"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="AA50:AE51"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V74:Y75"/>
+    <mergeCell ref="Z74:Z75"/>
+    <mergeCell ref="AA74:AE75"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="V78:W79"/>
+    <mergeCell ref="X78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="V80:AA80"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="V82:Y83"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="AA82:AE83"/>
+    <mergeCell ref="V86:W87"/>
+    <mergeCell ref="X86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AE87"/>
+    <mergeCell ref="V88:AA88"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="V90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AE91"/>
+    <mergeCell ref="V94:W95"/>
+    <mergeCell ref="X94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AE95"/>
+    <mergeCell ref="V96:AA96"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="V97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="AC97:AE97"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="AA98:AE99"/>
+    <mergeCell ref="V102:W103"/>
+    <mergeCell ref="X102:Z103"/>
+    <mergeCell ref="AA102:AA103"/>
+    <mergeCell ref="AB102:AE103"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="V106:Y107"/>
+    <mergeCell ref="Z106:Z107"/>
+    <mergeCell ref="AA106:AE107"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AE111"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="V120:AA120"/>
@@ -17760,459 +18225,6 @@
     <mergeCell ref="AB118:AE119"/>
     <mergeCell ref="V104:AA104"/>
     <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="V105:Z105"/>
-    <mergeCell ref="AA105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="V106:Y107"/>
-    <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="AA106:AE107"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AE111"/>
-    <mergeCell ref="V96:AA96"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="V97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="AC97:AE97"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="AA98:AE99"/>
-    <mergeCell ref="V102:W103"/>
-    <mergeCell ref="X102:Z103"/>
-    <mergeCell ref="AA102:AA103"/>
-    <mergeCell ref="AB102:AE103"/>
-    <mergeCell ref="V88:AA88"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="V90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AE91"/>
-    <mergeCell ref="V94:W95"/>
-    <mergeCell ref="X94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AE95"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="V82:Y83"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="AA82:AE83"/>
-    <mergeCell ref="V86:W87"/>
-    <mergeCell ref="X86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AE87"/>
-    <mergeCell ref="V74:Y75"/>
-    <mergeCell ref="Z74:Z75"/>
-    <mergeCell ref="AA74:AE75"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="V78:W79"/>
-    <mergeCell ref="X78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
-    <mergeCell ref="V80:AA80"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AE35"/>
-    <mergeCell ref="X70:Z71"/>
-    <mergeCell ref="AA70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="V72:AA72"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AE47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="V50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AE51"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="V66:Y67"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AE67"/>
-    <mergeCell ref="V70:W71"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AE55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AE59"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AE43"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="V26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AE27"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AE39"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AE31"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AU42:AU43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AU44:AU45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AU46:AU47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AU48:AU49"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AU50:AU51"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AU56:AU57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AU58:AU59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AU60:AU61"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AU62:AU63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AU64:AU65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AU66:AU67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AU68:AU69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AU70:AU71"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AU72:AU73"/>
-    <mergeCell ref="AT74:AT75"/>
-    <mergeCell ref="AU74:AU75"/>
-    <mergeCell ref="AT76:AT77"/>
-    <mergeCell ref="AU76:AU77"/>
-    <mergeCell ref="AT78:AT79"/>
-    <mergeCell ref="AU78:AU79"/>
-    <mergeCell ref="AT80:AT81"/>
-    <mergeCell ref="AU80:AU81"/>
-    <mergeCell ref="AT82:AT83"/>
-    <mergeCell ref="AU82:AU83"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AT108:AT109"/>
-    <mergeCell ref="AU108:AU109"/>
-    <mergeCell ref="AT110:AT111"/>
-    <mergeCell ref="AU110:AU111"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AT98:AT99"/>
-    <mergeCell ref="AU98:AU99"/>
-    <mergeCell ref="AT100:AT101"/>
-    <mergeCell ref="AU100:AU101"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="AT122:AT123"/>
-    <mergeCell ref="AU122:AU123"/>
-    <mergeCell ref="AT112:AT113"/>
-    <mergeCell ref="AU112:AU113"/>
-    <mergeCell ref="AT114:AT115"/>
-    <mergeCell ref="AU114:AU115"/>
-    <mergeCell ref="AT116:AT117"/>
-    <mergeCell ref="AU116:AU117"/>
-    <mergeCell ref="AT118:AT119"/>
-    <mergeCell ref="AU118:AU119"/>
-    <mergeCell ref="AT120:AT121"/>
-    <mergeCell ref="AU120:AU121"/>
-    <mergeCell ref="AT102:AT103"/>
-    <mergeCell ref="AU102:AU103"/>
-    <mergeCell ref="AT104:AT105"/>
-    <mergeCell ref="AU104:AU105"/>
-    <mergeCell ref="AT106:AT107"/>
-    <mergeCell ref="AU106:AU107"/>
   </mergeCells>
   <conditionalFormatting sqref="V18:AE19 V26:AE27">
     <cfRule type="expression" dxfId="38" priority="42">

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1717,289 +1717,289 @@
                   <c:v>189.39825072886302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>187.7428571428571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>187.7428571428571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>189.85714285714286</c:v>
+                  <c:v>185.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>190</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,8 +3216,8 @@
   <dimension ref="A1:CB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,7 +3335,7 @@
       <c r="K3" s="136"/>
       <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43109</v>
+        <v>43112</v>
       </c>
       <c r="M3" s="138"/>
       <c r="O3" s="160" t="s">
@@ -3402,7 +3402,7 @@
       <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>IF(L4="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
@@ -3433,7 +3433,7 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="35">
         <f>CEILING((((F7-L4)/F8)),0.5)</f>
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AJ4" s="35"/>
       <c r="AQ4" s="44"/>
@@ -3476,14 +3476,14 @@
       <c r="G5" s="149"/>
       <c r="H5" s="140" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
-        <v>You've Gained</v>
+        <v>You've Lost</v>
       </c>
       <c r="I5" s="141"/>
       <c r="J5" s="141"/>
       <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
-        <v>1.4000000000000057</v>
+        <v>2.5999999999999943</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>IF(L5="","",IF(H5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
@@ -3517,7 +3517,7 @@
       <c r="AE5" s="35"/>
       <c r="AF5" s="35">
         <f>CEILING((((L4-F7)/F8)),0.5)</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI5" s="35">
         <f>MROUND(F6*AW7,5)</f>
@@ -3575,7 +3575,7 @@
       <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
-        <v>2700</v>
+        <v>2825</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>IF(H6="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day")))</f>
@@ -3644,7 +3644,7 @@
       <c r="K7" s="127"/>
       <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43133.5</v>
+        <v>43122.5</v>
       </c>
       <c r="M7" s="129"/>
       <c r="N7" s="35"/>
@@ -3708,7 +3708,7 @@
       <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
-        <v>1700</v>
+        <v>1825</v>
       </c>
       <c r="M8" s="31" t="str">
         <f ca="1">IF(L8="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day","")))</f>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H9" s="29">
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="132" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
@@ -6222,22 +6222,32 @@
       <c r="E30" s="71">
         <v>190</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="7"/>
+      <c r="F30" s="71">
+        <v>188.8</v>
+      </c>
+      <c r="G30" s="71">
+        <v>189</v>
+      </c>
+      <c r="H30" s="71">
+        <v>186.8</v>
+      </c>
+      <c r="I30" s="71">
+        <v>185</v>
+      </c>
+      <c r="J30" s="7">
+        <v>185.6</v>
+      </c>
       <c r="K30" s="33">
         <f t="shared" si="0"/>
-        <v>189.85714285714286</v>
+        <v>187.7428571428571</v>
       </c>
       <c r="L30" s="113">
         <f>IF(K30="","",AT30)</f>
-        <v>0.45889212827984238</v>
+        <v>-1.6553935860059141</v>
       </c>
       <c r="M30" s="117">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
-        <v>2710</v>
+        <v>2830</v>
       </c>
       <c r="N30" s="36"/>
       <c r="O30" s="69"/>
@@ -6283,7 +6293,7 @@
       </c>
       <c r="AI30" s="35">
         <f>IF(K30="",AI28,K30)</f>
-        <v>189.85714285714286</v>
+        <v>187.7428571428571</v>
       </c>
       <c r="AJ30" s="35">
         <f t="shared" si="9"/>
@@ -6303,39 +6313,39 @@
       </c>
       <c r="AN30" s="58">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>188.8</v>
       </c>
       <c r="AO30" s="58">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP30" s="58">
         <f t="shared" si="5"/>
-        <v>190</v>
+        <v>186.8</v>
       </c>
       <c r="AQ30" s="58">
         <f t="shared" si="6"/>
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AR30" s="59">
         <f t="shared" si="7"/>
-        <v>190</v>
+        <v>185.6</v>
       </c>
       <c r="AS30" s="61">
         <f t="shared" si="8"/>
-        <v>189.85714285714286</v>
+        <v>187.7428571428571</v>
       </c>
       <c r="AT30" s="158">
         <f>IF(AS30="","",AS30-AS28)</f>
-        <v>0.45889212827984238</v>
+        <v>-1.6553935860059141</v>
       </c>
       <c r="AU30" s="159">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
-        <v>2710</v>
+        <v>2830</v>
       </c>
       <c r="AV30" s="35">
         <f ca="1">IF(AH31&lt;7,AV28,IF(AH30&lt;7,AV28,((K31+(((-L30)*$AV$7)/AH31)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY30" s="35"/>
       <c r="AZ30" s="35"/>
@@ -6359,14 +6369,24 @@
       <c r="E31" s="71">
         <v>1920</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="7"/>
+      <c r="F31" s="71">
+        <v>1920</v>
+      </c>
+      <c r="G31" s="71">
+        <v>1920</v>
+      </c>
+      <c r="H31" s="71">
+        <v>1920</v>
+      </c>
+      <c r="I31" s="71">
+        <v>2140</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2720</v>
+      </c>
       <c r="K31" s="40">
         <f t="shared" si="0"/>
-        <v>1920.7142857142858</v>
+        <v>2066.4285714285716</v>
       </c>
       <c r="L31" s="112"/>
       <c r="M31" s="118"/>
@@ -6399,7 +6419,7 @@
       </c>
       <c r="AI31" s="35">
         <f>AI30</f>
-        <v>189.85714285714286</v>
+        <v>187.7428571428571</v>
       </c>
       <c r="AJ31" s="35">
         <f t="shared" si="9"/>
@@ -6431,15 +6451,15 @@
       </c>
       <c r="AQ31" s="65">
         <f t="shared" si="6"/>
-        <v>1920</v>
+        <v>2140</v>
       </c>
       <c r="AR31" s="66">
         <f t="shared" si="7"/>
-        <v>1920</v>
+        <v>2720</v>
       </c>
       <c r="AS31" s="39">
         <f t="shared" si="8"/>
-        <v>1920.7142857142858</v>
+        <v>2066.4285714285716</v>
       </c>
       <c r="AT31" s="155"/>
       <c r="AU31" s="157"/>
@@ -6462,24 +6482,26 @@
         <f t="shared" si="10"/>
         <v>Weight</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="17">
+        <v>185.8</v>
+      </c>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="33" t="str">
+      <c r="K32" s="33">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L32" s="113" t="str">
+        <v>185.79999999999998</v>
+      </c>
+      <c r="L32" s="113">
         <f>IF(K32="","",AT32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="117" t="str">
+        <v>-1.9428571428571217</v>
+      </c>
+      <c r="M32" s="117">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
-        <v/>
+        <v>2830</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="69"/>
@@ -6518,11 +6540,11 @@
       </c>
       <c r="AH32" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6532,49 +6554,49 @@
         <f>IF($F$6&gt;$F$7,IF(AK30&gt;AJ32,AK30+$AJ$9,AJ32),IF($F$6&lt;$F$7,IF(AK30&lt;AJ32,AK30+$AJ$9,AJ32),AJ32))</f>
         <v>183</v>
       </c>
-      <c r="AL32" s="57" t="str">
+      <c r="AL32" s="57">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM32" s="58" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AM32" s="58">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN32" s="58" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AN32" s="58">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AO32" s="58" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AO32" s="58">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP32" s="58" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AP32" s="58">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="58" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AQ32" s="58">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AR32" s="59" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AR32" s="59">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS32" s="61" t="str">
+        <v>185.8</v>
+      </c>
+      <c r="AS32" s="61">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AT32" s="158" t="str">
+        <v>185.79999999999998</v>
+      </c>
+      <c r="AT32" s="158">
         <f>IF(AS32="","",AS32-AS30)</f>
-        <v/>
-      </c>
-      <c r="AU32" s="159" t="str">
+        <v>-1.9428571428571217</v>
+      </c>
+      <c r="AU32" s="159">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
-        <v/>
+        <v>2830</v>
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6643,7 +6665,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6766,7 +6788,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6818,7 +6840,7 @@
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6878,7 +6900,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6992,7 +7014,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7044,7 +7066,7 @@
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7104,7 +7126,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7230,7 +7252,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7282,7 +7304,7 @@
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7342,7 +7364,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7465,7 +7487,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7517,7 +7539,7 @@
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7586,7 +7608,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7709,7 +7731,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7761,7 +7783,7 @@
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7821,7 +7843,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7935,7 +7957,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7987,7 +8009,7 @@
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -8047,7 +8069,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8173,7 +8195,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8225,7 +8247,7 @@
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8285,7 +8307,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8408,7 +8430,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8460,7 +8482,7 @@
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8529,7 +8551,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8652,7 +8674,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8704,7 +8726,7 @@
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8764,7 +8786,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8878,7 +8900,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8930,7 +8952,7 @@
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8990,7 +9012,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9116,7 +9138,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9168,7 +9190,7 @@
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9228,7 +9250,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9351,7 +9373,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9403,7 +9425,7 @@
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9472,7 +9494,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9595,7 +9617,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9647,7 +9669,7 @@
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9707,7 +9729,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9821,7 +9843,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9873,7 +9895,7 @@
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9933,7 +9955,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -10059,7 +10081,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10111,7 +10133,7 @@
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10171,7 +10193,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10294,7 +10316,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10346,7 +10368,7 @@
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10415,7 +10437,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10538,7 +10560,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10590,7 +10612,7 @@
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10650,7 +10672,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10764,7 +10786,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10816,7 +10838,7 @@
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10876,7 +10898,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -11002,7 +11024,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11054,7 +11076,7 @@
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11114,7 +11136,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11237,7 +11259,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11289,7 +11311,7 @@
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11358,7 +11380,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11481,7 +11503,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11533,7 +11555,7 @@
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11593,7 +11615,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11707,7 +11729,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11759,7 +11781,7 @@
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11819,7 +11841,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11945,7 +11967,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -11997,7 +12019,7 @@
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12057,7 +12079,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12180,7 +12202,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12232,7 +12254,7 @@
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12301,7 +12323,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12424,7 +12446,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12476,7 +12498,7 @@
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12536,7 +12558,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12650,7 +12672,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12702,7 +12724,7 @@
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12762,7 +12784,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12888,7 +12910,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12940,7 +12962,7 @@
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -13000,7 +13022,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13123,7 +13145,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13175,7 +13197,7 @@
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13244,7 +13266,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13367,7 +13389,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13419,7 +13441,7 @@
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13479,7 +13501,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13593,7 +13615,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13645,7 +13667,7 @@
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13705,7 +13727,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13831,7 +13853,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13883,7 +13905,7 @@
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13943,7 +13965,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14066,7 +14088,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14118,7 +14140,7 @@
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14187,7 +14209,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14310,7 +14332,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14362,7 +14384,7 @@
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14422,7 +14444,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14536,7 +14558,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14588,7 +14610,7 @@
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14648,7 +14670,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14774,7 +14796,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14826,7 +14848,7 @@
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14886,7 +14908,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -15009,7 +15031,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15061,7 +15083,7 @@
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15130,7 +15152,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15253,7 +15275,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15305,7 +15327,7 @@
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15365,7 +15387,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15479,7 +15501,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15531,7 +15553,7 @@
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15591,7 +15613,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15717,7 +15739,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15769,7 +15791,7 @@
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15829,7 +15851,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15952,7 +15974,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -16004,7 +16026,7 @@
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16073,7 +16095,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16196,7 +16218,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16248,7 +16270,7 @@
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16308,7 +16330,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16422,7 +16444,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16474,7 +16496,7 @@
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16534,7 +16556,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16660,7 +16682,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16712,7 +16734,7 @@
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16772,7 +16794,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16895,7 +16917,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16947,7 +16969,7 @@
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -17016,7 +17038,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17139,7 +17161,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17191,7 +17213,7 @@
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17251,7 +17273,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>189.85714285714286</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17315,7 +17337,7 @@
       </c>
       <c r="AI124" s="35">
         <f>MROUND(AI123,0.5)</f>
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AJ124" s="35"/>
       <c r="AK124" s="35"/>
@@ -17326,7 +17348,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2710.6268221574364</v>
+        <v>2830.9125364431529</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,130 +1079,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1211,41 +1136,14 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,9 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,38 +1196,143 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,280 +1723,280 @@
                   <c:v>187.7428571428571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>185.79999999999998</c:v>
+                  <c:v>185.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>186</c:v>
@@ -3216,8 +3216,8 @@
   <dimension ref="A1:CB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="134"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="134"/>
+      <c r="M2" s="96"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="150">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="111">
         <v>43047</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="135" t="str">
+      <c r="G3" s="112"/>
+      <c r="H3" s="97" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137">
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43112</v>
-      </c>
-      <c r="M3" s="138"/>
-      <c r="O3" s="160" t="s">
+        <v>43116</v>
+      </c>
+      <c r="M3" s="100"/>
+      <c r="O3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="152" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="153"/>
+      <c r="T3" s="78"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,24 +3382,24 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="79" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="152" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="74" t="str">
+      <c r="G4" s="78"/>
+      <c r="H4" s="79" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="139"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
         <v>186</v>
@@ -3409,17 +3409,17 @@
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="74" t="str">
+      <c r="O4" s="79" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="152" t="s">
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="153"/>
+      <c r="T4" s="78"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3463,24 +3463,24 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="79" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="140" t="str">
+      <c r="G5" s="110"/>
+      <c r="H5" s="102" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
         <v>You've Lost</v>
       </c>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
         <v>2.5999999999999943</v>
@@ -3490,13 +3490,13 @@
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="74" t="str">
+      <c r="O5" s="79" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="79" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,16 +3566,16 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="140" t="str">
+      <c r="H6" s="102" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
-        <v>2825</v>
+        <v>2850</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>IF(H6="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day")))</f>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="79" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="126" t="str">
+      <c r="H7" s="116" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128">
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43122.5</v>
-      </c>
-      <c r="M7" s="129"/>
+        <v>43126.5</v>
+      </c>
+      <c r="M7" s="119"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="142" t="str">
+      <c r="B8" s="104" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,28 +3699,28 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="124" t="str">
+      <c r="H8" s="114" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="M8" s="31" t="str">
         <f ca="1">IF(L8="","",IF(F5="Cal.","Cal/Day",IF(F5="Kj","Kj/Day","")))</f>
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="130" t="str">
+      <c r="B9" s="120" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3769,14 +3769,14 @@
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
         <v>1.5</v>
       </c>
-      <c r="I9" s="132" t="str">
+      <c r="I9" s="122" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="133"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="121">
+      <c r="B12" s="92">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="124">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="88">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="154">
+      <c r="AT12" s="86">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="156">
+      <c r="AU12" s="87">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="123"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="118"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="155"/>
-      <c r="AU13" s="157"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="85"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="115">
+      <c r="B14" s="94">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="126">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="117">
+      <c r="M14" s="90">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="99" t="str">
+      <c r="V14" s="137" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="100"/>
-      <c r="X14" s="103">
+      <c r="W14" s="138"/>
+      <c r="X14" s="141">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="105" t="str">
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="143" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="106">
+      <c r="AB14" s="144">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="109"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="147"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="154">
+      <c r="AT14" s="86">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="156">
+      <c r="AU14" s="87">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="116"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="112"/>
-      <c r="M15" s="118"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="110"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="148"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="155"/>
-      <c r="AU15" s="157"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="85"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="115">
+      <c r="B16" s="94">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="113">
+      <c r="L16" s="126">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="117">
+      <c r="M16" s="90">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="76" t="str">
+      <c r="V16" s="128" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="78" t="str">
+      <c r="AC16" s="160" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="80"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="162"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="158">
+      <c r="AT16" s="82">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="159">
+      <c r="AU16" s="84">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="116"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="118"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="81" t="str">
+      <c r="V17" s="130" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83">
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="132">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="85" t="str">
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="134" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="87"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="155"/>
-      <c r="AU17" s="157"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="85"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="115">
+      <c r="B18" s="94">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="113">
+      <c r="L18" s="126">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="117">
+      <c r="M18" s="90">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="88" t="str">
+      <c r="V18" s="149" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="92">
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="153">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="94" t="str">
+      <c r="AA18" s="155" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="157"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="158">
+      <c r="AT18" s="82">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="159">
+      <c r="AU18" s="84">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="123"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="91"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="98"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="158"/>
+      <c r="AD19" s="158"/>
+      <c r="AE19" s="159"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="155"/>
-      <c r="AU19" s="157"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="85"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="121">
+      <c r="B20" s="92">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4987,11 +4987,11 @@
         <f t="shared" si="0"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="L20" s="111">
+      <c r="L20" s="124">
         <f>IF(K20="","",AT20)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="M20" s="122">
+      <c r="M20" s="88">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3105</v>
       </c>
@@ -5075,11 +5075,11 @@
         <f t="shared" si="8"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="AT20" s="158">
+      <c r="AT20" s="82">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="AU20" s="159">
+      <c r="AU20" s="84">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3105</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="116"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5128,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="L21" s="112"/>
-      <c r="M21" s="118"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5194,8 +5194,8 @@
         <f t="shared" si="8"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="AT21" s="155"/>
-      <c r="AU21" s="157"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="85"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5207,7 +5207,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="115">
+      <c r="B22" s="94">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5240,11 +5240,11 @@
         <f t="shared" si="0"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="L22" s="113">
+      <c r="L22" s="126">
         <f>IF(K22="","",AT22)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="M22" s="117">
+      <c r="M22" s="90">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v>2865</v>
       </c>
@@ -5259,28 +5259,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="99" t="str">
+      <c r="V22" s="137" t="str">
         <f ca="1">IF(M26="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W22" s="100"/>
-      <c r="X22" s="103">
+      <c r="W22" s="138"/>
+      <c r="X22" s="141">
         <f ca="1">IF(M26="","",B20)</f>
         <v>43075</v>
       </c>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="105" t="str">
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="143" t="str">
         <f ca="1">IF(M26="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB22" s="106">
+      <c r="AB22" s="144">
         <f ca="1">IF(M26="","",B26)</f>
         <v>43096</v>
       </c>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="109"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="147"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5334,11 +5334,11 @@
         <f t="shared" si="8"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="AT22" s="158">
+      <c r="AT22" s="82">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="AU22" s="159">
+      <c r="AU22" s="84">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v>2865</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="116"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5387,8 +5387,8 @@
         <f t="shared" si="0"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="118"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="89"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5397,16 +5397,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="110"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="148"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5460,8 +5460,8 @@
         <f t="shared" si="8"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="AT23" s="155"/>
-      <c r="AU23" s="157"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="85"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5473,7 +5473,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="115">
+      <c r="B24" s="94">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5500,11 +5500,11 @@
         <f t="shared" si="0"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="L24" s="113">
+      <c r="L24" s="126">
         <f>IF(K24="","",AT24)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="M24" s="117">
+      <c r="M24" s="90">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v>2740</v>
       </c>
@@ -5519,25 +5519,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="76" t="str">
+      <c r="V24" s="128" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
         <v>You Lost:</v>
       </c>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
       <c r="AB24" s="42">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
         <v>1.2489795918367577</v>
       </c>
-      <c r="AC24" s="78" t="str">
+      <c r="AC24" s="160" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="80"/>
+      <c r="AD24" s="161"/>
+      <c r="AE24" s="162"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5591,11 +5591,11 @@
         <f t="shared" si="8"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="AT24" s="158">
+      <c r="AT24" s="82">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="AU24" s="159">
+      <c r="AU24" s="84">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v>2740</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="116"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5638,8 +5638,8 @@
         <f t="shared" si="0"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="118"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="89"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5648,25 +5648,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="81" t="str">
+      <c r="V25" s="130" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83">
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="132">
         <f ca="1">IF(V25="","",AB24/4)</f>
         <v>0.31224489795918942</v>
       </c>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="85" t="str">
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="134" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="87"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5720,8 +5720,8 @@
         <f t="shared" si="8"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="AT25" s="155"/>
-      <c r="AU25" s="157"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="85"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5733,7 +5733,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="115">
+      <c r="B26" s="94">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5754,11 +5754,11 @@
         <f t="shared" si="0"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="L26" s="113">
+      <c r="L26" s="126">
         <f>IF(K26="","",AT26)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="M26" s="117">
+      <c r="M26" s="90">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
         <v>2740</v>
       </c>
@@ -5773,25 +5773,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="88" t="str">
+      <c r="V26" s="149" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="92">
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="153">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
         <v>7.4938775510204039</v>
       </c>
-      <c r="AA26" s="94" t="str">
+      <c r="AA26" s="155" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5845,11 +5845,11 @@
         <f t="shared" si="8"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="AT26" s="158">
+      <c r="AT26" s="82">
         <f>IF(AS26="","",AS26-AS24)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="AU26" s="159">
+      <c r="AU26" s="84">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
         <v>2740</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="119"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5884,8 +5884,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="114"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5894,16 +5894,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="98"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="159"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5957,8 +5957,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="155"/>
-      <c r="AU27" s="157"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="85"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5970,7 +5970,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="121">
+      <c r="B28" s="92">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5995,11 +5995,11 @@
         <f t="shared" si="0"/>
         <v>189.39825072886302</v>
       </c>
-      <c r="L28" s="111">
+      <c r="L28" s="124">
         <f>IF(K28="","",AT28)</f>
         <v>-1.095626822157385</v>
       </c>
-      <c r="M28" s="122">
+      <c r="M28" s="88">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
         <v>2740</v>
       </c>
@@ -6077,11 +6077,11 @@
         <f t="shared" si="8"/>
         <v>189.39825072886302</v>
       </c>
-      <c r="AT28" s="158">
+      <c r="AT28" s="82">
         <f>IF(AS28="","",AS28-AS26)</f>
         <v>-1.095626822157385</v>
       </c>
-      <c r="AU28" s="159">
+      <c r="AU28" s="84">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
         <v>2740</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="116"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6122,8 +6122,8 @@
         <f t="shared" si="0"/>
         <v>1942</v>
       </c>
-      <c r="L29" s="112"/>
-      <c r="M29" s="118"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6195,8 +6195,8 @@
         <f t="shared" si="8"/>
         <v>1942</v>
       </c>
-      <c r="AT29" s="155"/>
-      <c r="AU29" s="157"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="85"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6208,7 +6208,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="115">
+      <c r="B30" s="94">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6241,11 +6241,11 @@
         <f t="shared" si="0"/>
         <v>187.7428571428571</v>
       </c>
-      <c r="L30" s="113">
+      <c r="L30" s="126">
         <f>IF(K30="","",AT30)</f>
         <v>-1.6553935860059141</v>
       </c>
-      <c r="M30" s="117">
+      <c r="M30" s="90">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v>2830</v>
       </c>
@@ -6260,28 +6260,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="99" t="str">
+      <c r="V30" s="137" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="100"/>
-      <c r="X30" s="103" t="str">
+      <c r="W30" s="138"/>
+      <c r="X30" s="141" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="105" t="str">
+      <c r="Y30" s="142"/>
+      <c r="Z30" s="142"/>
+      <c r="AA30" s="143" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="106" t="str">
+      <c r="AB30" s="144" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="109"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="147"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6335,11 +6335,11 @@
         <f t="shared" si="8"/>
         <v>187.7428571428571</v>
       </c>
-      <c r="AT30" s="158">
+      <c r="AT30" s="82">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v>-1.6553935860059141</v>
       </c>
-      <c r="AU30" s="159">
+      <c r="AU30" s="84">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v>2830</v>
       </c>
@@ -6358,7 +6358,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="116"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6388,8 +6388,8 @@
         <f t="shared" si="0"/>
         <v>2066.4285714285716</v>
       </c>
-      <c r="L31" s="112"/>
-      <c r="M31" s="118"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6398,16 +6398,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="110"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="148"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6461,8 +6461,8 @@
         <f t="shared" si="8"/>
         <v>2066.4285714285716</v>
       </c>
-      <c r="AT31" s="155"/>
-      <c r="AU31" s="157"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="85"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6474,7 +6474,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="115">
+      <c r="B32" s="94">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6485,7 +6485,9 @@
       <c r="D32" s="17">
         <v>185.8</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="71">
+        <v>186</v>
+      </c>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
@@ -6493,15 +6495,15 @@
       <c r="J32" s="7"/>
       <c r="K32" s="33">
         <f t="shared" si="0"/>
-        <v>185.79999999999998</v>
-      </c>
-      <c r="L32" s="113">
+        <v>185.97142857142856</v>
+      </c>
+      <c r="L32" s="126">
         <f>IF(K32="","",AT32)</f>
-        <v>-1.9428571428571217</v>
-      </c>
-      <c r="M32" s="117">
+        <v>-1.7714285714285438</v>
+      </c>
+      <c r="M32" s="90">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
-        <v>2830</v>
+        <v>2840</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="69"/>
@@ -6514,25 +6516,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="76" t="str">
+      <c r="V32" s="128" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="78" t="str">
+      <c r="AC32" s="160" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="80"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="162"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6544,7 +6546,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6560,43 +6562,43 @@
       </c>
       <c r="AM32" s="58">
         <f t="shared" si="2"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AN32" s="58">
         <f t="shared" si="3"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AO32" s="58">
         <f t="shared" si="4"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AP32" s="58">
         <f t="shared" si="5"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AQ32" s="58">
         <f t="shared" si="6"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AR32" s="59">
         <f t="shared" si="7"/>
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="AS32" s="61">
         <f t="shared" si="8"/>
-        <v>185.79999999999998</v>
-      </c>
-      <c r="AT32" s="158">
+        <v>185.97142857142856</v>
+      </c>
+      <c r="AT32" s="82">
         <f>IF(AS32="","",AS32-AS30)</f>
-        <v>-1.9428571428571217</v>
-      </c>
-      <c r="AU32" s="159">
+        <v>-1.7714285714285438</v>
+      </c>
+      <c r="AU32" s="84">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
-        <v>2830</v>
+        <v>2840</v>
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6609,24 +6611,28 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="116"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="71"/>
+      <c r="D33" s="17">
+        <v>2279</v>
+      </c>
+      <c r="E33" s="71">
+        <v>2060</v>
+      </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="40" t="str">
+      <c r="K33" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L33" s="112"/>
-      <c r="M33" s="118"/>
+        <v>2091.2857142857142</v>
+      </c>
+      <c r="L33" s="125"/>
+      <c r="M33" s="89"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6635,25 +6641,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="81" t="str">
+      <c r="V33" s="130" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="83" t="str">
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="132" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="85" t="str">
+      <c r="AB33" s="133"/>
+      <c r="AC33" s="134" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="87"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6661,11 +6667,11 @@
       </c>
       <c r="AH33" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6675,40 +6681,40 @@
         <f>IF($AJ$9=0,0,(AK32+AK34)/2)</f>
         <v>183</v>
       </c>
-      <c r="AL33" s="64" t="str">
+      <c r="AL33" s="64">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM33" s="65" t="str">
+        <v>2279</v>
+      </c>
+      <c r="AM33" s="65">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN33" s="65" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AN33" s="65">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AO33" s="65" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AO33" s="65">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP33" s="65" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AP33" s="65">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="65" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AQ33" s="65">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AR33" s="66" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AR33" s="66">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS33" s="39" t="str">
+        <v>2060</v>
+      </c>
+      <c r="AS33" s="39">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AT33" s="155"/>
-      <c r="AU33" s="157"/>
+        <v>2091.2857142857142</v>
+      </c>
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="85"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6720,7 +6726,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="115">
+      <c r="B34" s="94">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6739,11 +6745,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="113" t="str">
+      <c r="L34" s="126" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="117" t="str">
+      <c r="M34" s="90" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6758,25 +6764,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="88" t="str">
+      <c r="V34" s="149" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="92" t="str">
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="153" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="94" t="str">
+      <c r="AA34" s="155" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="96"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="156"/>
+      <c r="AD34" s="156"/>
+      <c r="AE34" s="157"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6788,7 +6794,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6830,17 +6836,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="158" t="str">
+      <c r="AT34" s="82" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="159" t="str">
+      <c r="AU34" s="84" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6853,7 +6859,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="119"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6869,8 +6875,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="114"/>
-      <c r="M35" s="120"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6879,16 +6885,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="98"/>
+      <c r="V35" s="151"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="158"/>
+      <c r="AD35" s="158"/>
+      <c r="AE35" s="159"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6900,7 +6906,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6942,8 +6948,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="155"/>
-      <c r="AU35" s="157"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="85"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6955,7 +6961,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="121">
+      <c r="B36" s="92">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6974,11 +6980,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="111" t="str">
+      <c r="L36" s="124" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="122" t="str">
+      <c r="M36" s="88" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -7014,7 +7020,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7056,17 +7062,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="158" t="str">
+      <c r="AT36" s="82" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="159" t="str">
+      <c r="AU36" s="84" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7079,7 +7085,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="116"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7095,8 +7101,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="112"/>
-      <c r="M37" s="118"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="89"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7168,8 +7174,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="155"/>
-      <c r="AU37" s="157"/>
+      <c r="AT37" s="83"/>
+      <c r="AU37" s="85"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7181,7 +7187,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="115">
+      <c r="B38" s="94">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7200,11 +7206,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="113" t="str">
+      <c r="L38" s="126" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="117" t="str">
+      <c r="M38" s="90" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7219,28 +7225,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="99" t="str">
+      <c r="V38" s="137" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="100"/>
-      <c r="X38" s="103" t="str">
+      <c r="W38" s="138"/>
+      <c r="X38" s="141" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="105" t="str">
+      <c r="Y38" s="142"/>
+      <c r="Z38" s="142"/>
+      <c r="AA38" s="143" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="106" t="str">
+      <c r="AB38" s="144" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="109"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="146"/>
+      <c r="AE38" s="147"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7252,7 +7258,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7294,17 +7300,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="158" t="str">
+      <c r="AT38" s="82" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="159" t="str">
+      <c r="AU38" s="84" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7317,7 +7323,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="116"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7333,8 +7339,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="118"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="89"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7343,16 +7349,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="102"/>
-      <c r="AB39" s="102"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="102"/>
-      <c r="AE39" s="110"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="140"/>
+      <c r="AB39" s="140"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="148"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7364,7 +7370,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7406,8 +7412,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="155"/>
-      <c r="AU39" s="157"/>
+      <c r="AT39" s="83"/>
+      <c r="AU39" s="85"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7419,7 +7425,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="115">
+      <c r="B40" s="94">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7438,11 +7444,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="113" t="str">
+      <c r="L40" s="126" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="117" t="str">
+      <c r="M40" s="90" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7457,25 +7463,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="76" t="str">
+      <c r="V40" s="128" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="77"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="78" t="str">
+      <c r="AC40" s="160" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="80"/>
+      <c r="AD40" s="161"/>
+      <c r="AE40" s="162"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7487,7 +7493,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7529,17 +7535,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="158" t="str">
+      <c r="AT40" s="82" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="159" t="str">
+      <c r="AU40" s="84" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7552,7 +7558,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="116"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7568,8 +7574,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="112"/>
-      <c r="M41" s="118"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7578,25 +7584,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="81" t="str">
+      <c r="V41" s="130" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="83" t="str">
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="131"/>
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="132" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="85" t="str">
+      <c r="AB41" s="133"/>
+      <c r="AC41" s="134" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="86"/>
-      <c r="AE41" s="87"/>
+      <c r="AD41" s="135"/>
+      <c r="AE41" s="136"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7608,7 +7614,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7650,8 +7656,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="155"/>
-      <c r="AU41" s="157"/>
+      <c r="AT41" s="83"/>
+      <c r="AU41" s="85"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7663,7 +7669,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="115">
+      <c r="B42" s="94">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7682,11 +7688,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="113" t="str">
+      <c r="L42" s="126" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="117" t="str">
+      <c r="M42" s="90" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7701,25 +7707,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="88" t="str">
+      <c r="V42" s="149" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="92" t="str">
+      <c r="W42" s="150"/>
+      <c r="X42" s="150"/>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="153" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="94" t="str">
+      <c r="AA42" s="155" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="96"/>
+      <c r="AB42" s="156"/>
+      <c r="AC42" s="156"/>
+      <c r="AD42" s="156"/>
+      <c r="AE42" s="157"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7731,7 +7737,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7773,17 +7779,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="158" t="str">
+      <c r="AT42" s="82" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="159" t="str">
+      <c r="AU42" s="84" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7796,7 +7802,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="119"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7812,8 +7818,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="114"/>
-      <c r="M43" s="120"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7822,16 +7828,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="98"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="158"/>
+      <c r="AB43" s="158"/>
+      <c r="AC43" s="158"/>
+      <c r="AD43" s="158"/>
+      <c r="AE43" s="159"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7843,7 +7849,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7885,8 +7891,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="155"/>
-      <c r="AU43" s="157"/>
+      <c r="AT43" s="83"/>
+      <c r="AU43" s="85"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7898,7 +7904,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="121">
+      <c r="B44" s="92">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7917,11 +7923,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="111" t="str">
+      <c r="L44" s="124" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="122" t="str">
+      <c r="M44" s="88" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7957,7 +7963,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -7999,17 +8005,17 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="158" t="str">
+      <c r="AT44" s="82" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="159" t="str">
+      <c r="AU44" s="84" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -8022,7 +8028,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="116"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8038,8 +8044,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="112"/>
-      <c r="M45" s="118"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="89"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8069,7 +8075,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8111,8 +8117,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="155"/>
-      <c r="AU45" s="157"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="85"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8124,7 +8130,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="115">
+      <c r="B46" s="94">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8143,11 +8149,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="113" t="str">
+      <c r="L46" s="126" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="117" t="str">
+      <c r="M46" s="90" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8162,28 +8168,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="99" t="str">
+      <c r="V46" s="137" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="100"/>
-      <c r="X46" s="103" t="str">
+      <c r="W46" s="138"/>
+      <c r="X46" s="141" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="105" t="str">
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="143" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="106" t="str">
+      <c r="AB46" s="144" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="107"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="109"/>
+      <c r="AC46" s="145"/>
+      <c r="AD46" s="146"/>
+      <c r="AE46" s="147"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8195,7 +8201,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8237,17 +8243,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="158" t="str">
+      <c r="AT46" s="82" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="159" t="str">
+      <c r="AU46" s="84" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8260,7 +8266,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="116"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8276,8 +8282,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="112"/>
-      <c r="M47" s="118"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="89"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8286,16 +8292,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-      <c r="AA47" s="102"/>
-      <c r="AB47" s="102"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="102"/>
-      <c r="AE47" s="110"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="140"/>
+      <c r="X47" s="140"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="148"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8349,8 +8355,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="155"/>
-      <c r="AU47" s="157"/>
+      <c r="AT47" s="83"/>
+      <c r="AU47" s="85"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8362,7 +8368,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="115">
+      <c r="B48" s="94">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8381,11 +8387,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="113" t="str">
+      <c r="L48" s="126" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="117" t="str">
+      <c r="M48" s="90" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8400,25 +8406,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="76" t="str">
+      <c r="V48" s="128" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="77"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="78" t="str">
+      <c r="AC48" s="160" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="80"/>
+      <c r="AD48" s="161"/>
+      <c r="AE48" s="162"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8430,7 +8436,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8472,17 +8478,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="158" t="str">
+      <c r="AT48" s="82" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="159" t="str">
+      <c r="AU48" s="84" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8495,7 +8501,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="116"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8511,8 +8517,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="112"/>
-      <c r="M49" s="118"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="89"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8521,25 +8527,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="81" t="str">
+      <c r="V49" s="130" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="83" t="str">
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="132" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="85" t="str">
+      <c r="AB49" s="133"/>
+      <c r="AC49" s="134" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="86"/>
-      <c r="AE49" s="87"/>
+      <c r="AD49" s="135"/>
+      <c r="AE49" s="136"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8551,7 +8557,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8593,8 +8599,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="155"/>
-      <c r="AU49" s="157"/>
+      <c r="AT49" s="83"/>
+      <c r="AU49" s="85"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8606,7 +8612,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="115">
+      <c r="B50" s="94">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8625,11 +8631,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="113" t="str">
+      <c r="L50" s="126" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="117" t="str">
+      <c r="M50" s="90" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8644,25 +8650,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="88" t="str">
+      <c r="V50" s="149" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="92" t="str">
+      <c r="W50" s="150"/>
+      <c r="X50" s="150"/>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="153" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="94" t="str">
+      <c r="AA50" s="155" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="95"/>
-      <c r="AC50" s="95"/>
-      <c r="AD50" s="95"/>
-      <c r="AE50" s="96"/>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="156"/>
+      <c r="AD50" s="156"/>
+      <c r="AE50" s="157"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8674,7 +8680,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8716,17 +8722,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="158" t="str">
+      <c r="AT50" s="82" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="159" t="str">
+      <c r="AU50" s="84" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8739,7 +8745,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="119"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8755,8 +8761,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="114"/>
-      <c r="M51" s="120"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8765,16 +8771,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="91"/>
-      <c r="X51" s="91"/>
-      <c r="Y51" s="91"/>
-      <c r="Z51" s="93"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="98"/>
+      <c r="V51" s="151"/>
+      <c r="W51" s="152"/>
+      <c r="X51" s="152"/>
+      <c r="Y51" s="152"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="158"/>
+      <c r="AB51" s="158"/>
+      <c r="AC51" s="158"/>
+      <c r="AD51" s="158"/>
+      <c r="AE51" s="159"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8786,7 +8792,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8828,8 +8834,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="155"/>
-      <c r="AU51" s="157"/>
+      <c r="AT51" s="83"/>
+      <c r="AU51" s="85"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8841,7 +8847,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="121">
+      <c r="B52" s="92">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8860,11 +8866,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="111" t="str">
+      <c r="L52" s="124" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="122" t="str">
+      <c r="M52" s="88" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8900,7 +8906,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8942,17 +8948,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="158" t="str">
+      <c r="AT52" s="82" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="159" t="str">
+      <c r="AU52" s="84" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8965,7 +8971,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="116"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8981,8 +8987,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="112"/>
-      <c r="M53" s="118"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -9012,7 +9018,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9054,8 +9060,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="155"/>
-      <c r="AU53" s="157"/>
+      <c r="AT53" s="83"/>
+      <c r="AU53" s="85"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -9067,7 +9073,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="115">
+      <c r="B54" s="94">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -9086,11 +9092,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="113" t="str">
+      <c r="L54" s="126" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="117" t="str">
+      <c r="M54" s="90" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9105,28 +9111,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="99" t="str">
+      <c r="V54" s="137" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="100"/>
-      <c r="X54" s="103" t="str">
+      <c r="W54" s="138"/>
+      <c r="X54" s="141" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="105" t="str">
+      <c r="Y54" s="142"/>
+      <c r="Z54" s="142"/>
+      <c r="AA54" s="143" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="106" t="str">
+      <c r="AB54" s="144" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="108"/>
-      <c r="AE54" s="109"/>
+      <c r="AC54" s="145"/>
+      <c r="AD54" s="146"/>
+      <c r="AE54" s="147"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9138,7 +9144,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9180,17 +9186,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="158" t="str">
+      <c r="AT54" s="82" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="159" t="str">
+      <c r="AU54" s="84" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9203,7 +9209,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="116"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9219,8 +9225,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="112"/>
-      <c r="M55" s="118"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="89"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9229,16 +9235,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="102"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="102"/>
-      <c r="AA55" s="102"/>
-      <c r="AB55" s="102"/>
-      <c r="AC55" s="102"/>
-      <c r="AD55" s="102"/>
-      <c r="AE55" s="110"/>
+      <c r="V55" s="139"/>
+      <c r="W55" s="140"/>
+      <c r="X55" s="140"/>
+      <c r="Y55" s="140"/>
+      <c r="Z55" s="140"/>
+      <c r="AA55" s="140"/>
+      <c r="AB55" s="140"/>
+      <c r="AC55" s="140"/>
+      <c r="AD55" s="140"/>
+      <c r="AE55" s="148"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9250,7 +9256,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9292,8 +9298,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="155"/>
-      <c r="AU55" s="157"/>
+      <c r="AT55" s="83"/>
+      <c r="AU55" s="85"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9305,7 +9311,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="115">
+      <c r="B56" s="94">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9324,11 +9330,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="113" t="str">
+      <c r="L56" s="126" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="117" t="str">
+      <c r="M56" s="90" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9343,25 +9349,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="76" t="str">
+      <c r="V56" s="128" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="77"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="77"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="77"/>
+      <c r="W56" s="129"/>
+      <c r="X56" s="129"/>
+      <c r="Y56" s="129"/>
+      <c r="Z56" s="129"/>
+      <c r="AA56" s="129"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="78" t="str">
+      <c r="AC56" s="160" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="79"/>
-      <c r="AE56" s="80"/>
+      <c r="AD56" s="161"/>
+      <c r="AE56" s="162"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9373,7 +9379,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9415,17 +9421,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="158" t="str">
+      <c r="AT56" s="82" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="159" t="str">
+      <c r="AU56" s="84" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9438,7 +9444,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="116"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9454,8 +9460,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="112"/>
-      <c r="M57" s="118"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="89"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9464,25 +9470,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="81" t="str">
+      <c r="V57" s="130" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="83" t="str">
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="132" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="85" t="str">
+      <c r="AB57" s="133"/>
+      <c r="AC57" s="134" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="86"/>
-      <c r="AE57" s="87"/>
+      <c r="AD57" s="135"/>
+      <c r="AE57" s="136"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9494,7 +9500,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9536,8 +9542,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="155"/>
-      <c r="AU57" s="157"/>
+      <c r="AT57" s="83"/>
+      <c r="AU57" s="85"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9549,7 +9555,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="115">
+      <c r="B58" s="94">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9568,11 +9574,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="113" t="str">
+      <c r="L58" s="126" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="117" t="str">
+      <c r="M58" s="90" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9587,25 +9593,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="88" t="str">
+      <c r="V58" s="149" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="89"/>
-      <c r="X58" s="89"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="92" t="str">
+      <c r="W58" s="150"/>
+      <c r="X58" s="150"/>
+      <c r="Y58" s="150"/>
+      <c r="Z58" s="153" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="94" t="str">
+      <c r="AA58" s="155" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="96"/>
+      <c r="AB58" s="156"/>
+      <c r="AC58" s="156"/>
+      <c r="AD58" s="156"/>
+      <c r="AE58" s="157"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9617,7 +9623,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9659,17 +9665,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="158" t="str">
+      <c r="AT58" s="82" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="159" t="str">
+      <c r="AU58" s="84" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9682,7 +9688,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="119"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9698,8 +9704,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="114"/>
-      <c r="M59" s="120"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="91"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9708,16 +9714,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="90"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="93"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="97"/>
-      <c r="AC59" s="97"/>
-      <c r="AD59" s="97"/>
-      <c r="AE59" s="98"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="152"/>
+      <c r="X59" s="152"/>
+      <c r="Y59" s="152"/>
+      <c r="Z59" s="154"/>
+      <c r="AA59" s="158"/>
+      <c r="AB59" s="158"/>
+      <c r="AC59" s="158"/>
+      <c r="AD59" s="158"/>
+      <c r="AE59" s="159"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9729,7 +9735,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9771,8 +9777,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="155"/>
-      <c r="AU59" s="157"/>
+      <c r="AT59" s="83"/>
+      <c r="AU59" s="85"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9784,7 +9790,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="121">
+      <c r="B60" s="92">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9803,11 +9809,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="111" t="str">
+      <c r="L60" s="124" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="122" t="str">
+      <c r="M60" s="88" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9843,7 +9849,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9885,17 +9891,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="158" t="str">
+      <c r="AT60" s="82" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="159" t="str">
+      <c r="AU60" s="84" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9908,7 +9914,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="116"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9924,8 +9930,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="112"/>
-      <c r="M61" s="118"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="89"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9955,7 +9961,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -9997,8 +10003,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="155"/>
-      <c r="AU61" s="157"/>
+      <c r="AT61" s="83"/>
+      <c r="AU61" s="85"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -10010,7 +10016,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="115">
+      <c r="B62" s="94">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -10029,11 +10035,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="113" t="str">
+      <c r="L62" s="126" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="117" t="str">
+      <c r="M62" s="90" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -10048,28 +10054,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="99" t="str">
+      <c r="V62" s="137" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="100"/>
-      <c r="X62" s="103" t="str">
+      <c r="W62" s="138"/>
+      <c r="X62" s="141" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="104"/>
-      <c r="Z62" s="104"/>
-      <c r="AA62" s="105" t="str">
+      <c r="Y62" s="142"/>
+      <c r="Z62" s="142"/>
+      <c r="AA62" s="143" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="106" t="str">
+      <c r="AB62" s="144" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="107"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="109"/>
+      <c r="AC62" s="145"/>
+      <c r="AD62" s="146"/>
+      <c r="AE62" s="147"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10081,7 +10087,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10123,17 +10129,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="158" t="str">
+      <c r="AT62" s="82" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="159" t="str">
+      <c r="AU62" s="84" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10146,7 +10152,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="116"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10162,8 +10168,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="112"/>
-      <c r="M63" s="118"/>
+      <c r="L63" s="125"/>
+      <c r="M63" s="89"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10172,16 +10178,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="101"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="102"/>
-      <c r="Z63" s="102"/>
-      <c r="AA63" s="102"/>
-      <c r="AB63" s="102"/>
-      <c r="AC63" s="102"/>
-      <c r="AD63" s="102"/>
-      <c r="AE63" s="110"/>
+      <c r="V63" s="139"/>
+      <c r="W63" s="140"/>
+      <c r="X63" s="140"/>
+      <c r="Y63" s="140"/>
+      <c r="Z63" s="140"/>
+      <c r="AA63" s="140"/>
+      <c r="AB63" s="140"/>
+      <c r="AC63" s="140"/>
+      <c r="AD63" s="140"/>
+      <c r="AE63" s="148"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10193,7 +10199,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10235,8 +10241,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="155"/>
-      <c r="AU63" s="157"/>
+      <c r="AT63" s="83"/>
+      <c r="AU63" s="85"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10248,7 +10254,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="115">
+      <c r="B64" s="94">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10267,11 +10273,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="113" t="str">
+      <c r="L64" s="126" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="117" t="str">
+      <c r="M64" s="90" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10286,25 +10292,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="76" t="str">
+      <c r="V64" s="128" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="77"/>
-      <c r="X64" s="77"/>
-      <c r="Y64" s="77"/>
-      <c r="Z64" s="77"/>
-      <c r="AA64" s="77"/>
+      <c r="W64" s="129"/>
+      <c r="X64" s="129"/>
+      <c r="Y64" s="129"/>
+      <c r="Z64" s="129"/>
+      <c r="AA64" s="129"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="78" t="str">
+      <c r="AC64" s="160" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="79"/>
-      <c r="AE64" s="80"/>
+      <c r="AD64" s="161"/>
+      <c r="AE64" s="162"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10316,7 +10322,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10358,17 +10364,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="158" t="str">
+      <c r="AT64" s="82" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="159" t="str">
+      <c r="AU64" s="84" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10381,7 +10387,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="116"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10397,8 +10403,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="112"/>
-      <c r="M65" s="118"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="89"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10407,25 +10413,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="81" t="str">
+      <c r="V65" s="130" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="82"/>
-      <c r="X65" s="82"/>
-      <c r="Y65" s="82"/>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="83" t="str">
+      <c r="W65" s="131"/>
+      <c r="X65" s="131"/>
+      <c r="Y65" s="131"/>
+      <c r="Z65" s="131"/>
+      <c r="AA65" s="132" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="85" t="str">
+      <c r="AB65" s="133"/>
+      <c r="AC65" s="134" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="86"/>
-      <c r="AE65" s="87"/>
+      <c r="AD65" s="135"/>
+      <c r="AE65" s="136"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10437,7 +10443,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10479,8 +10485,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="155"/>
-      <c r="AU65" s="157"/>
+      <c r="AT65" s="83"/>
+      <c r="AU65" s="85"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10492,7 +10498,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="115">
+      <c r="B66" s="94">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10511,11 +10517,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="113" t="str">
+      <c r="L66" s="126" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="117" t="str">
+      <c r="M66" s="90" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10530,25 +10536,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="88" t="str">
+      <c r="V66" s="149" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="89"/>
-      <c r="X66" s="89"/>
-      <c r="Y66" s="89"/>
-      <c r="Z66" s="92" t="str">
+      <c r="W66" s="150"/>
+      <c r="X66" s="150"/>
+      <c r="Y66" s="150"/>
+      <c r="Z66" s="153" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="94" t="str">
+      <c r="AA66" s="155" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="95"/>
-      <c r="AC66" s="95"/>
-      <c r="AD66" s="95"/>
-      <c r="AE66" s="96"/>
+      <c r="AB66" s="156"/>
+      <c r="AC66" s="156"/>
+      <c r="AD66" s="156"/>
+      <c r="AE66" s="157"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10560,7 +10566,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10602,17 +10608,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="158" t="str">
+      <c r="AT66" s="82" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="159" t="str">
+      <c r="AU66" s="84" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10625,7 +10631,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="119"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10641,8 +10647,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="114"/>
-      <c r="M67" s="120"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="91"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10651,16 +10657,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="91"/>
-      <c r="X67" s="91"/>
-      <c r="Y67" s="91"/>
-      <c r="Z67" s="93"/>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
-      <c r="AE67" s="98"/>
+      <c r="V67" s="151"/>
+      <c r="W67" s="152"/>
+      <c r="X67" s="152"/>
+      <c r="Y67" s="152"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="158"/>
+      <c r="AB67" s="158"/>
+      <c r="AC67" s="158"/>
+      <c r="AD67" s="158"/>
+      <c r="AE67" s="159"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10672,7 +10678,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10714,8 +10720,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="155"/>
-      <c r="AU67" s="157"/>
+      <c r="AT67" s="83"/>
+      <c r="AU67" s="85"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10727,7 +10733,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="121">
+      <c r="B68" s="92">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10746,11 +10752,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="111" t="str">
+      <c r="L68" s="124" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="122" t="str">
+      <c r="M68" s="88" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10786,7 +10792,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10828,17 +10834,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="158" t="str">
+      <c r="AT68" s="82" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="159" t="str">
+      <c r="AU68" s="84" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10851,7 +10857,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="116"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10867,8 +10873,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="112"/>
-      <c r="M69" s="118"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="89"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10898,7 +10904,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10940,8 +10946,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="155"/>
-      <c r="AU69" s="157"/>
+      <c r="AT69" s="83"/>
+      <c r="AU69" s="85"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10953,7 +10959,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="115">
+      <c r="B70" s="94">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10972,11 +10978,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="113" t="str">
+      <c r="L70" s="126" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="117" t="str">
+      <c r="M70" s="90" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10991,28 +10997,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="99" t="str">
+      <c r="V70" s="137" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="100"/>
-      <c r="X70" s="103" t="str">
+      <c r="W70" s="138"/>
+      <c r="X70" s="141" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="104"/>
-      <c r="Z70" s="104"/>
-      <c r="AA70" s="105" t="str">
+      <c r="Y70" s="142"/>
+      <c r="Z70" s="142"/>
+      <c r="AA70" s="143" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="106" t="str">
+      <c r="AB70" s="144" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="107"/>
-      <c r="AD70" s="108"/>
-      <c r="AE70" s="109"/>
+      <c r="AC70" s="145"/>
+      <c r="AD70" s="146"/>
+      <c r="AE70" s="147"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -11024,7 +11030,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11066,17 +11072,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="158" t="str">
+      <c r="AT70" s="82" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="159" t="str">
+      <c r="AU70" s="84" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11089,7 +11095,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="116"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11105,8 +11111,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="112"/>
-      <c r="M71" s="118"/>
+      <c r="L71" s="125"/>
+      <c r="M71" s="89"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11115,16 +11121,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="101"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="102"/>
-      <c r="AD71" s="102"/>
-      <c r="AE71" s="110"/>
+      <c r="V71" s="139"/>
+      <c r="W71" s="140"/>
+      <c r="X71" s="140"/>
+      <c r="Y71" s="140"/>
+      <c r="Z71" s="140"/>
+      <c r="AA71" s="140"/>
+      <c r="AB71" s="140"/>
+      <c r="AC71" s="140"/>
+      <c r="AD71" s="140"/>
+      <c r="AE71" s="148"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11136,7 +11142,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11178,8 +11184,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="155"/>
-      <c r="AU71" s="157"/>
+      <c r="AT71" s="83"/>
+      <c r="AU71" s="85"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11191,7 +11197,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="115">
+      <c r="B72" s="94">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11210,11 +11216,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="113" t="str">
+      <c r="L72" s="126" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="117" t="str">
+      <c r="M72" s="90" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11229,25 +11235,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="76" t="str">
+      <c r="V72" s="128" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="77"/>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="77"/>
-      <c r="Z72" s="77"/>
-      <c r="AA72" s="77"/>
+      <c r="W72" s="129"/>
+      <c r="X72" s="129"/>
+      <c r="Y72" s="129"/>
+      <c r="Z72" s="129"/>
+      <c r="AA72" s="129"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="78" t="str">
+      <c r="AC72" s="160" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="79"/>
-      <c r="AE72" s="80"/>
+      <c r="AD72" s="161"/>
+      <c r="AE72" s="162"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11259,7 +11265,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11301,17 +11307,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="158" t="str">
+      <c r="AT72" s="82" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="159" t="str">
+      <c r="AU72" s="84" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11324,7 +11330,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="116"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11340,8 +11346,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="112"/>
-      <c r="M73" s="118"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="89"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11350,25 +11356,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="81" t="str">
+      <c r="V73" s="130" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="82"/>
-      <c r="X73" s="82"/>
-      <c r="Y73" s="82"/>
-      <c r="Z73" s="82"/>
-      <c r="AA73" s="83" t="str">
+      <c r="W73" s="131"/>
+      <c r="X73" s="131"/>
+      <c r="Y73" s="131"/>
+      <c r="Z73" s="131"/>
+      <c r="AA73" s="132" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="84"/>
-      <c r="AC73" s="85" t="str">
+      <c r="AB73" s="133"/>
+      <c r="AC73" s="134" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="86"/>
-      <c r="AE73" s="87"/>
+      <c r="AD73" s="135"/>
+      <c r="AE73" s="136"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11380,7 +11386,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11422,8 +11428,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="155"/>
-      <c r="AU73" s="157"/>
+      <c r="AT73" s="83"/>
+      <c r="AU73" s="85"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11435,7 +11441,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="115">
+      <c r="B74" s="94">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11454,11 +11460,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="113" t="str">
+      <c r="L74" s="126" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="117" t="str">
+      <c r="M74" s="90" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11473,25 +11479,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="88" t="str">
+      <c r="V74" s="149" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="92" t="str">
+      <c r="W74" s="150"/>
+      <c r="X74" s="150"/>
+      <c r="Y74" s="150"/>
+      <c r="Z74" s="153" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="94" t="str">
+      <c r="AA74" s="155" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="95"/>
-      <c r="AC74" s="95"/>
-      <c r="AD74" s="95"/>
-      <c r="AE74" s="96"/>
+      <c r="AB74" s="156"/>
+      <c r="AC74" s="156"/>
+      <c r="AD74" s="156"/>
+      <c r="AE74" s="157"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11503,7 +11509,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11545,17 +11551,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="158" t="str">
+      <c r="AT74" s="82" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="159" t="str">
+      <c r="AU74" s="84" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11568,7 +11574,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="119"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11584,8 +11590,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="114"/>
-      <c r="M75" s="120"/>
+      <c r="L75" s="127"/>
+      <c r="M75" s="91"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11594,16 +11600,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="91"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="91"/>
-      <c r="Z75" s="93"/>
-      <c r="AA75" s="97"/>
-      <c r="AB75" s="97"/>
-      <c r="AC75" s="97"/>
-      <c r="AD75" s="97"/>
-      <c r="AE75" s="98"/>
+      <c r="V75" s="151"/>
+      <c r="W75" s="152"/>
+      <c r="X75" s="152"/>
+      <c r="Y75" s="152"/>
+      <c r="Z75" s="154"/>
+      <c r="AA75" s="158"/>
+      <c r="AB75" s="158"/>
+      <c r="AC75" s="158"/>
+      <c r="AD75" s="158"/>
+      <c r="AE75" s="159"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11615,7 +11621,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11657,8 +11663,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="155"/>
-      <c r="AU75" s="157"/>
+      <c r="AT75" s="83"/>
+      <c r="AU75" s="85"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11670,7 +11676,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="121">
+      <c r="B76" s="92">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11689,11 +11695,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="111" t="str">
+      <c r="L76" s="124" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="122" t="str">
+      <c r="M76" s="88" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11729,7 +11735,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11771,17 +11777,17 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="158" t="str">
+      <c r="AT76" s="82" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="159" t="str">
+      <c r="AU76" s="84" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11794,7 +11800,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="116"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11810,8 +11816,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="112"/>
-      <c r="M77" s="118"/>
+      <c r="L77" s="125"/>
+      <c r="M77" s="89"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11841,7 +11847,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11883,8 +11889,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="155"/>
-      <c r="AU77" s="157"/>
+      <c r="AT77" s="83"/>
+      <c r="AU77" s="85"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11896,7 +11902,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="115">
+      <c r="B78" s="94">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11915,11 +11921,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="113" t="str">
+      <c r="L78" s="126" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="117" t="str">
+      <c r="M78" s="90" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11934,28 +11940,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="99" t="str">
+      <c r="V78" s="137" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="100"/>
-      <c r="X78" s="103" t="str">
+      <c r="W78" s="138"/>
+      <c r="X78" s="141" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="104"/>
-      <c r="Z78" s="104"/>
-      <c r="AA78" s="105" t="str">
+      <c r="Y78" s="142"/>
+      <c r="Z78" s="142"/>
+      <c r="AA78" s="143" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="106" t="str">
+      <c r="AB78" s="144" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="107"/>
-      <c r="AD78" s="108"/>
-      <c r="AE78" s="109"/>
+      <c r="AC78" s="145"/>
+      <c r="AD78" s="146"/>
+      <c r="AE78" s="147"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11967,7 +11973,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -12009,17 +12015,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="158" t="str">
+      <c r="AT78" s="82" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="159" t="str">
+      <c r="AU78" s="84" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12032,7 +12038,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="116"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12048,8 +12054,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="112"/>
-      <c r="M79" s="118"/>
+      <c r="L79" s="125"/>
+      <c r="M79" s="89"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -12058,16 +12064,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="101"/>
-      <c r="W79" s="102"/>
-      <c r="X79" s="102"/>
-      <c r="Y79" s="102"/>
-      <c r="Z79" s="102"/>
-      <c r="AA79" s="102"/>
-      <c r="AB79" s="102"/>
-      <c r="AC79" s="102"/>
-      <c r="AD79" s="102"/>
-      <c r="AE79" s="110"/>
+      <c r="V79" s="139"/>
+      <c r="W79" s="140"/>
+      <c r="X79" s="140"/>
+      <c r="Y79" s="140"/>
+      <c r="Z79" s="140"/>
+      <c r="AA79" s="140"/>
+      <c r="AB79" s="140"/>
+      <c r="AC79" s="140"/>
+      <c r="AD79" s="140"/>
+      <c r="AE79" s="148"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12079,7 +12085,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12121,8 +12127,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="155"/>
-      <c r="AU79" s="157"/>
+      <c r="AT79" s="83"/>
+      <c r="AU79" s="85"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12134,7 +12140,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="115">
+      <c r="B80" s="94">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12153,11 +12159,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="113" t="str">
+      <c r="L80" s="126" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="117" t="str">
+      <c r="M80" s="90" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12172,25 +12178,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="76" t="str">
+      <c r="V80" s="128" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="77"/>
-      <c r="X80" s="77"/>
-      <c r="Y80" s="77"/>
-      <c r="Z80" s="77"/>
-      <c r="AA80" s="77"/>
+      <c r="W80" s="129"/>
+      <c r="X80" s="129"/>
+      <c r="Y80" s="129"/>
+      <c r="Z80" s="129"/>
+      <c r="AA80" s="129"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="78" t="str">
+      <c r="AC80" s="160" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="79"/>
-      <c r="AE80" s="80"/>
+      <c r="AD80" s="161"/>
+      <c r="AE80" s="162"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12202,7 +12208,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12244,17 +12250,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="158" t="str">
+      <c r="AT80" s="82" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="159" t="str">
+      <c r="AU80" s="84" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12267,7 +12273,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="116"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12283,8 +12289,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="112"/>
-      <c r="M81" s="118"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="89"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12293,25 +12299,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="81" t="str">
+      <c r="V81" s="130" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="82"/>
-      <c r="X81" s="82"/>
-      <c r="Y81" s="82"/>
-      <c r="Z81" s="82"/>
-      <c r="AA81" s="83" t="str">
+      <c r="W81" s="131"/>
+      <c r="X81" s="131"/>
+      <c r="Y81" s="131"/>
+      <c r="Z81" s="131"/>
+      <c r="AA81" s="132" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="84"/>
-      <c r="AC81" s="85" t="str">
+      <c r="AB81" s="133"/>
+      <c r="AC81" s="134" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="86"/>
-      <c r="AE81" s="87"/>
+      <c r="AD81" s="135"/>
+      <c r="AE81" s="136"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12323,7 +12329,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12365,8 +12371,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="155"/>
-      <c r="AU81" s="157"/>
+      <c r="AT81" s="83"/>
+      <c r="AU81" s="85"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12378,7 +12384,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="115">
+      <c r="B82" s="94">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12397,11 +12403,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="113" t="str">
+      <c r="L82" s="126" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="117" t="str">
+      <c r="M82" s="90" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12416,25 +12422,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="88" t="str">
+      <c r="V82" s="149" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="89"/>
-      <c r="X82" s="89"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="92" t="str">
+      <c r="W82" s="150"/>
+      <c r="X82" s="150"/>
+      <c r="Y82" s="150"/>
+      <c r="Z82" s="153" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="94" t="str">
+      <c r="AA82" s="155" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="95"/>
-      <c r="AC82" s="95"/>
-      <c r="AD82" s="95"/>
-      <c r="AE82" s="96"/>
+      <c r="AB82" s="156"/>
+      <c r="AC82" s="156"/>
+      <c r="AD82" s="156"/>
+      <c r="AE82" s="157"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12446,7 +12452,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12488,17 +12494,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="158" t="str">
+      <c r="AT82" s="82" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="159" t="str">
+      <c r="AU82" s="84" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12511,7 +12517,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="119"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12527,8 +12533,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="114"/>
-      <c r="M83" s="120"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="91"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12537,16 +12543,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="90"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="93"/>
-      <c r="AA83" s="97"/>
-      <c r="AB83" s="97"/>
-      <c r="AC83" s="97"/>
-      <c r="AD83" s="97"/>
-      <c r="AE83" s="98"/>
+      <c r="V83" s="151"/>
+      <c r="W83" s="152"/>
+      <c r="X83" s="152"/>
+      <c r="Y83" s="152"/>
+      <c r="Z83" s="154"/>
+      <c r="AA83" s="158"/>
+      <c r="AB83" s="158"/>
+      <c r="AC83" s="158"/>
+      <c r="AD83" s="158"/>
+      <c r="AE83" s="159"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12558,7 +12564,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12600,8 +12606,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="155"/>
-      <c r="AU83" s="157"/>
+      <c r="AT83" s="83"/>
+      <c r="AU83" s="85"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12613,7 +12619,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="121">
+      <c r="B84" s="92">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12632,11 +12638,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="111" t="str">
+      <c r="L84" s="124" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="122" t="str">
+      <c r="M84" s="88" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12672,7 +12678,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12714,17 +12720,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="158" t="str">
+      <c r="AT84" s="82" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="159" t="str">
+      <c r="AU84" s="84" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12737,7 +12743,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="116"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12753,8 +12759,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="112"/>
-      <c r="M85" s="118"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="89"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12784,7 +12790,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12826,8 +12832,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="155"/>
-      <c r="AU85" s="157"/>
+      <c r="AT85" s="83"/>
+      <c r="AU85" s="85"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12839,7 +12845,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="115">
+      <c r="B86" s="94">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12858,11 +12864,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="113" t="str">
+      <c r="L86" s="126" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="117" t="str">
+      <c r="M86" s="90" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12877,28 +12883,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="99" t="str">
+      <c r="V86" s="137" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="100"/>
-      <c r="X86" s="103" t="str">
+      <c r="W86" s="138"/>
+      <c r="X86" s="141" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="104"/>
-      <c r="Z86" s="104"/>
-      <c r="AA86" s="105" t="str">
+      <c r="Y86" s="142"/>
+      <c r="Z86" s="142"/>
+      <c r="AA86" s="143" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="106" t="str">
+      <c r="AB86" s="144" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="107"/>
-      <c r="AD86" s="108"/>
-      <c r="AE86" s="109"/>
+      <c r="AC86" s="145"/>
+      <c r="AD86" s="146"/>
+      <c r="AE86" s="147"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12910,7 +12916,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12952,17 +12958,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="158" t="str">
+      <c r="AT86" s="82" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="159" t="str">
+      <c r="AU86" s="84" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12975,7 +12981,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="116"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12991,8 +12997,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="112"/>
-      <c r="M87" s="118"/>
+      <c r="L87" s="125"/>
+      <c r="M87" s="89"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -13001,16 +13007,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="101"/>
-      <c r="W87" s="102"/>
-      <c r="X87" s="102"/>
-      <c r="Y87" s="102"/>
-      <c r="Z87" s="102"/>
-      <c r="AA87" s="102"/>
-      <c r="AB87" s="102"/>
-      <c r="AC87" s="102"/>
-      <c r="AD87" s="102"/>
-      <c r="AE87" s="110"/>
+      <c r="V87" s="139"/>
+      <c r="W87" s="140"/>
+      <c r="X87" s="140"/>
+      <c r="Y87" s="140"/>
+      <c r="Z87" s="140"/>
+      <c r="AA87" s="140"/>
+      <c r="AB87" s="140"/>
+      <c r="AC87" s="140"/>
+      <c r="AD87" s="140"/>
+      <c r="AE87" s="148"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -13022,7 +13028,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13064,8 +13070,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="155"/>
-      <c r="AU87" s="157"/>
+      <c r="AT87" s="83"/>
+      <c r="AU87" s="85"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -13077,7 +13083,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="115">
+      <c r="B88" s="94">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13096,11 +13102,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="113" t="str">
+      <c r="L88" s="126" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="117" t="str">
+      <c r="M88" s="90" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13115,25 +13121,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="76" t="str">
+      <c r="V88" s="128" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="77"/>
-      <c r="X88" s="77"/>
-      <c r="Y88" s="77"/>
-      <c r="Z88" s="77"/>
-      <c r="AA88" s="77"/>
+      <c r="W88" s="129"/>
+      <c r="X88" s="129"/>
+      <c r="Y88" s="129"/>
+      <c r="Z88" s="129"/>
+      <c r="AA88" s="129"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="78" t="str">
+      <c r="AC88" s="160" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="80"/>
+      <c r="AD88" s="161"/>
+      <c r="AE88" s="162"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13145,7 +13151,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13187,17 +13193,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="158" t="str">
+      <c r="AT88" s="82" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="159" t="str">
+      <c r="AU88" s="84" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13210,7 +13216,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="116"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13226,8 +13232,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="112"/>
-      <c r="M89" s="118"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="89"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13236,25 +13242,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="81" t="str">
+      <c r="V89" s="130" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="82"/>
-      <c r="X89" s="82"/>
-      <c r="Y89" s="82"/>
-      <c r="Z89" s="82"/>
-      <c r="AA89" s="83" t="str">
+      <c r="W89" s="131"/>
+      <c r="X89" s="131"/>
+      <c r="Y89" s="131"/>
+      <c r="Z89" s="131"/>
+      <c r="AA89" s="132" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="84"/>
-      <c r="AC89" s="85" t="str">
+      <c r="AB89" s="133"/>
+      <c r="AC89" s="134" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="86"/>
-      <c r="AE89" s="87"/>
+      <c r="AD89" s="135"/>
+      <c r="AE89" s="136"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13266,7 +13272,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13308,8 +13314,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="155"/>
-      <c r="AU89" s="157"/>
+      <c r="AT89" s="83"/>
+      <c r="AU89" s="85"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13321,7 +13327,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="115">
+      <c r="B90" s="94">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13340,11 +13346,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="113" t="str">
+      <c r="L90" s="126" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="117" t="str">
+      <c r="M90" s="90" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13359,25 +13365,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="88" t="str">
+      <c r="V90" s="149" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="89"/>
-      <c r="X90" s="89"/>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="92" t="str">
+      <c r="W90" s="150"/>
+      <c r="X90" s="150"/>
+      <c r="Y90" s="150"/>
+      <c r="Z90" s="153" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="94" t="str">
+      <c r="AA90" s="155" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="95"/>
-      <c r="AC90" s="95"/>
-      <c r="AD90" s="95"/>
-      <c r="AE90" s="96"/>
+      <c r="AB90" s="156"/>
+      <c r="AC90" s="156"/>
+      <c r="AD90" s="156"/>
+      <c r="AE90" s="157"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13389,7 +13395,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13431,17 +13437,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="158" t="str">
+      <c r="AT90" s="82" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="159" t="str">
+      <c r="AU90" s="84" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13454,7 +13460,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="119"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13470,8 +13476,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="114"/>
-      <c r="M91" s="120"/>
+      <c r="L91" s="127"/>
+      <c r="M91" s="91"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13480,16 +13486,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="90"/>
-      <c r="W91" s="91"/>
-      <c r="X91" s="91"/>
-      <c r="Y91" s="91"/>
-      <c r="Z91" s="93"/>
-      <c r="AA91" s="97"/>
-      <c r="AB91" s="97"/>
-      <c r="AC91" s="97"/>
-      <c r="AD91" s="97"/>
-      <c r="AE91" s="98"/>
+      <c r="V91" s="151"/>
+      <c r="W91" s="152"/>
+      <c r="X91" s="152"/>
+      <c r="Y91" s="152"/>
+      <c r="Z91" s="154"/>
+      <c r="AA91" s="158"/>
+      <c r="AB91" s="158"/>
+      <c r="AC91" s="158"/>
+      <c r="AD91" s="158"/>
+      <c r="AE91" s="159"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13501,7 +13507,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13543,8 +13549,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="155"/>
-      <c r="AU91" s="157"/>
+      <c r="AT91" s="83"/>
+      <c r="AU91" s="85"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13556,7 +13562,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="121">
+      <c r="B92" s="92">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13575,11 +13581,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="111" t="str">
+      <c r="L92" s="124" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="122" t="str">
+      <c r="M92" s="88" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13615,7 +13621,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13657,17 +13663,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="158" t="str">
+      <c r="AT92" s="82" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="159" t="str">
+      <c r="AU92" s="84" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13680,7 +13686,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="116"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13696,8 +13702,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="112"/>
-      <c r="M93" s="118"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="89"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13727,7 +13733,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13769,8 +13775,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="157"/>
+      <c r="AT93" s="83"/>
+      <c r="AU93" s="85"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13782,7 +13788,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="115">
+      <c r="B94" s="94">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13801,11 +13807,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="113" t="str">
+      <c r="L94" s="126" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="117" t="str">
+      <c r="M94" s="90" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13820,28 +13826,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="99" t="str">
+      <c r="V94" s="137" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="100"/>
-      <c r="X94" s="103" t="str">
+      <c r="W94" s="138"/>
+      <c r="X94" s="141" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="104"/>
-      <c r="Z94" s="104"/>
-      <c r="AA94" s="105" t="str">
+      <c r="Y94" s="142"/>
+      <c r="Z94" s="142"/>
+      <c r="AA94" s="143" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="106" t="str">
+      <c r="AB94" s="144" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="107"/>
-      <c r="AD94" s="108"/>
-      <c r="AE94" s="109"/>
+      <c r="AC94" s="145"/>
+      <c r="AD94" s="146"/>
+      <c r="AE94" s="147"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13853,7 +13859,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13895,17 +13901,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="158" t="str">
+      <c r="AT94" s="82" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="159" t="str">
+      <c r="AU94" s="84" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13918,7 +13924,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="116"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13934,8 +13940,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="112"/>
-      <c r="M95" s="118"/>
+      <c r="L95" s="125"/>
+      <c r="M95" s="89"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13944,16 +13950,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="101"/>
-      <c r="W95" s="102"/>
-      <c r="X95" s="102"/>
-      <c r="Y95" s="102"/>
-      <c r="Z95" s="102"/>
-      <c r="AA95" s="102"/>
-      <c r="AB95" s="102"/>
-      <c r="AC95" s="102"/>
-      <c r="AD95" s="102"/>
-      <c r="AE95" s="110"/>
+      <c r="V95" s="139"/>
+      <c r="W95" s="140"/>
+      <c r="X95" s="140"/>
+      <c r="Y95" s="140"/>
+      <c r="Z95" s="140"/>
+      <c r="AA95" s="140"/>
+      <c r="AB95" s="140"/>
+      <c r="AC95" s="140"/>
+      <c r="AD95" s="140"/>
+      <c r="AE95" s="148"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13965,7 +13971,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14007,8 +14013,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="155"/>
-      <c r="AU95" s="157"/>
+      <c r="AT95" s="83"/>
+      <c r="AU95" s="85"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -14020,7 +14026,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="115">
+      <c r="B96" s="94">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -14039,11 +14045,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="113" t="str">
+      <c r="L96" s="126" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="117" t="str">
+      <c r="M96" s="90" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -14058,25 +14064,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="76" t="str">
+      <c r="V96" s="128" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="77"/>
-      <c r="X96" s="77"/>
-      <c r="Y96" s="77"/>
-      <c r="Z96" s="77"/>
-      <c r="AA96" s="77"/>
+      <c r="W96" s="129"/>
+      <c r="X96" s="129"/>
+      <c r="Y96" s="129"/>
+      <c r="Z96" s="129"/>
+      <c r="AA96" s="129"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="78" t="str">
+      <c r="AC96" s="160" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="79"/>
-      <c r="AE96" s="80"/>
+      <c r="AD96" s="161"/>
+      <c r="AE96" s="162"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14088,7 +14094,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14130,17 +14136,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="158" t="str">
+      <c r="AT96" s="82" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="159" t="str">
+      <c r="AU96" s="84" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14153,7 +14159,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="116"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14169,8 +14175,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="112"/>
-      <c r="M97" s="118"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="89"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14179,25 +14185,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="81" t="str">
+      <c r="V97" s="130" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="82"/>
-      <c r="X97" s="82"/>
-      <c r="Y97" s="82"/>
-      <c r="Z97" s="82"/>
-      <c r="AA97" s="83" t="str">
+      <c r="W97" s="131"/>
+      <c r="X97" s="131"/>
+      <c r="Y97" s="131"/>
+      <c r="Z97" s="131"/>
+      <c r="AA97" s="132" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="84"/>
-      <c r="AC97" s="85" t="str">
+      <c r="AB97" s="133"/>
+      <c r="AC97" s="134" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="86"/>
-      <c r="AE97" s="87"/>
+      <c r="AD97" s="135"/>
+      <c r="AE97" s="136"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14209,7 +14215,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14251,8 +14257,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="155"/>
-      <c r="AU97" s="157"/>
+      <c r="AT97" s="83"/>
+      <c r="AU97" s="85"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14264,7 +14270,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="115">
+      <c r="B98" s="94">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14283,11 +14289,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="113" t="str">
+      <c r="L98" s="126" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="117" t="str">
+      <c r="M98" s="90" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14302,25 +14308,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="88" t="str">
+      <c r="V98" s="149" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="89"/>
-      <c r="X98" s="89"/>
-      <c r="Y98" s="89"/>
-      <c r="Z98" s="92" t="str">
+      <c r="W98" s="150"/>
+      <c r="X98" s="150"/>
+      <c r="Y98" s="150"/>
+      <c r="Z98" s="153" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="94" t="str">
+      <c r="AA98" s="155" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="95"/>
-      <c r="AC98" s="95"/>
-      <c r="AD98" s="95"/>
-      <c r="AE98" s="96"/>
+      <c r="AB98" s="156"/>
+      <c r="AC98" s="156"/>
+      <c r="AD98" s="156"/>
+      <c r="AE98" s="157"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14332,7 +14338,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14374,17 +14380,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="158" t="str">
+      <c r="AT98" s="82" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="159" t="str">
+      <c r="AU98" s="84" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14397,7 +14403,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="119"/>
+      <c r="B99" s="95"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14413,8 +14419,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="114"/>
-      <c r="M99" s="120"/>
+      <c r="L99" s="127"/>
+      <c r="M99" s="91"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14423,16 +14429,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="90"/>
-      <c r="W99" s="91"/>
-      <c r="X99" s="91"/>
-      <c r="Y99" s="91"/>
-      <c r="Z99" s="93"/>
-      <c r="AA99" s="97"/>
-      <c r="AB99" s="97"/>
-      <c r="AC99" s="97"/>
-      <c r="AD99" s="97"/>
-      <c r="AE99" s="98"/>
+      <c r="V99" s="151"/>
+      <c r="W99" s="152"/>
+      <c r="X99" s="152"/>
+      <c r="Y99" s="152"/>
+      <c r="Z99" s="154"/>
+      <c r="AA99" s="158"/>
+      <c r="AB99" s="158"/>
+      <c r="AC99" s="158"/>
+      <c r="AD99" s="158"/>
+      <c r="AE99" s="159"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14444,7 +14450,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14486,8 +14492,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="157"/>
+      <c r="AT99" s="83"/>
+      <c r="AU99" s="85"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14499,7 +14505,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="121">
+      <c r="B100" s="92">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14518,11 +14524,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="111" t="str">
+      <c r="L100" s="124" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="122" t="str">
+      <c r="M100" s="88" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14558,7 +14564,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14600,17 +14606,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="158" t="str">
+      <c r="AT100" s="82" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="159" t="str">
+      <c r="AU100" s="84" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14623,7 +14629,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="116"/>
+      <c r="B101" s="93"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14639,8 +14645,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="112"/>
-      <c r="M101" s="118"/>
+      <c r="L101" s="125"/>
+      <c r="M101" s="89"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14670,7 +14676,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14712,8 +14718,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="155"/>
-      <c r="AU101" s="157"/>
+      <c r="AT101" s="83"/>
+      <c r="AU101" s="85"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14725,7 +14731,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="115">
+      <c r="B102" s="94">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14744,11 +14750,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="113" t="str">
+      <c r="L102" s="126" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="117" t="str">
+      <c r="M102" s="90" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14763,28 +14769,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="99" t="str">
+      <c r="V102" s="137" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="100"/>
-      <c r="X102" s="103" t="str">
+      <c r="W102" s="138"/>
+      <c r="X102" s="141" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="104"/>
-      <c r="Z102" s="104"/>
-      <c r="AA102" s="105" t="str">
+      <c r="Y102" s="142"/>
+      <c r="Z102" s="142"/>
+      <c r="AA102" s="143" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="106" t="str">
+      <c r="AB102" s="144" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="107"/>
-      <c r="AD102" s="108"/>
-      <c r="AE102" s="109"/>
+      <c r="AC102" s="145"/>
+      <c r="AD102" s="146"/>
+      <c r="AE102" s="147"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14796,7 +14802,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14838,17 +14844,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="158" t="str">
+      <c r="AT102" s="82" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="159" t="str">
+      <c r="AU102" s="84" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14861,7 +14867,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="116"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14877,8 +14883,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="112"/>
-      <c r="M103" s="118"/>
+      <c r="L103" s="125"/>
+      <c r="M103" s="89"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14887,16 +14893,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="101"/>
-      <c r="W103" s="102"/>
-      <c r="X103" s="102"/>
-      <c r="Y103" s="102"/>
-      <c r="Z103" s="102"/>
-      <c r="AA103" s="102"/>
-      <c r="AB103" s="102"/>
-      <c r="AC103" s="102"/>
-      <c r="AD103" s="102"/>
-      <c r="AE103" s="110"/>
+      <c r="V103" s="139"/>
+      <c r="W103" s="140"/>
+      <c r="X103" s="140"/>
+      <c r="Y103" s="140"/>
+      <c r="Z103" s="140"/>
+      <c r="AA103" s="140"/>
+      <c r="AB103" s="140"/>
+      <c r="AC103" s="140"/>
+      <c r="AD103" s="140"/>
+      <c r="AE103" s="148"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14908,7 +14914,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14950,8 +14956,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="155"/>
-      <c r="AU103" s="157"/>
+      <c r="AT103" s="83"/>
+      <c r="AU103" s="85"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14963,7 +14969,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="115">
+      <c r="B104" s="94">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14982,11 +14988,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="113" t="str">
+      <c r="L104" s="126" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="117" t="str">
+      <c r="M104" s="90" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -15001,25 +15007,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="76" t="str">
+      <c r="V104" s="128" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="77"/>
-      <c r="X104" s="77"/>
-      <c r="Y104" s="77"/>
-      <c r="Z104" s="77"/>
-      <c r="AA104" s="77"/>
+      <c r="W104" s="129"/>
+      <c r="X104" s="129"/>
+      <c r="Y104" s="129"/>
+      <c r="Z104" s="129"/>
+      <c r="AA104" s="129"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="78" t="str">
+      <c r="AC104" s="160" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="79"/>
-      <c r="AE104" s="80"/>
+      <c r="AD104" s="161"/>
+      <c r="AE104" s="162"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -15031,7 +15037,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15073,17 +15079,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="158" t="str">
+      <c r="AT104" s="82" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="159" t="str">
+      <c r="AU104" s="84" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15096,7 +15102,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="116"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15112,8 +15118,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="112"/>
-      <c r="M105" s="118"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="89"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15122,25 +15128,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="81" t="str">
+      <c r="V105" s="130" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="82"/>
-      <c r="X105" s="82"/>
-      <c r="Y105" s="82"/>
-      <c r="Z105" s="82"/>
-      <c r="AA105" s="83" t="str">
+      <c r="W105" s="131"/>
+      <c r="X105" s="131"/>
+      <c r="Y105" s="131"/>
+      <c r="Z105" s="131"/>
+      <c r="AA105" s="132" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="84"/>
-      <c r="AC105" s="85" t="str">
+      <c r="AB105" s="133"/>
+      <c r="AC105" s="134" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="86"/>
-      <c r="AE105" s="87"/>
+      <c r="AD105" s="135"/>
+      <c r="AE105" s="136"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15152,7 +15158,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15194,8 +15200,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="155"/>
-      <c r="AU105" s="157"/>
+      <c r="AT105" s="83"/>
+      <c r="AU105" s="85"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15207,7 +15213,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="115">
+      <c r="B106" s="94">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15226,11 +15232,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="113" t="str">
+      <c r="L106" s="126" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="117" t="str">
+      <c r="M106" s="90" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15245,25 +15251,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="88" t="str">
+      <c r="V106" s="149" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="89"/>
-      <c r="X106" s="89"/>
-      <c r="Y106" s="89"/>
-      <c r="Z106" s="92" t="str">
+      <c r="W106" s="150"/>
+      <c r="X106" s="150"/>
+      <c r="Y106" s="150"/>
+      <c r="Z106" s="153" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="94" t="str">
+      <c r="AA106" s="155" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="95"/>
-      <c r="AC106" s="95"/>
-      <c r="AD106" s="95"/>
-      <c r="AE106" s="96"/>
+      <c r="AB106" s="156"/>
+      <c r="AC106" s="156"/>
+      <c r="AD106" s="156"/>
+      <c r="AE106" s="157"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15275,7 +15281,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15317,17 +15323,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="158" t="str">
+      <c r="AT106" s="82" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="159" t="str">
+      <c r="AU106" s="84" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15340,7 +15346,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="119"/>
+      <c r="B107" s="95"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15356,8 +15362,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="114"/>
-      <c r="M107" s="120"/>
+      <c r="L107" s="127"/>
+      <c r="M107" s="91"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15366,16 +15372,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="90"/>
-      <c r="W107" s="91"/>
-      <c r="X107" s="91"/>
-      <c r="Y107" s="91"/>
-      <c r="Z107" s="93"/>
-      <c r="AA107" s="97"/>
-      <c r="AB107" s="97"/>
-      <c r="AC107" s="97"/>
-      <c r="AD107" s="97"/>
-      <c r="AE107" s="98"/>
+      <c r="V107" s="151"/>
+      <c r="W107" s="152"/>
+      <c r="X107" s="152"/>
+      <c r="Y107" s="152"/>
+      <c r="Z107" s="154"/>
+      <c r="AA107" s="158"/>
+      <c r="AB107" s="158"/>
+      <c r="AC107" s="158"/>
+      <c r="AD107" s="158"/>
+      <c r="AE107" s="159"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15387,7 +15393,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15429,8 +15435,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="155"/>
-      <c r="AU107" s="157"/>
+      <c r="AT107" s="83"/>
+      <c r="AU107" s="85"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15442,7 +15448,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="121">
+      <c r="B108" s="92">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15461,11 +15467,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="111" t="str">
+      <c r="L108" s="124" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="122" t="str">
+      <c r="M108" s="88" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15501,7 +15507,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15543,17 +15549,17 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="158" t="str">
+      <c r="AT108" s="82" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="159" t="str">
+      <c r="AU108" s="84" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15566,7 +15572,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="116"/>
+      <c r="B109" s="93"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15582,8 +15588,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="112"/>
-      <c r="M109" s="118"/>
+      <c r="L109" s="125"/>
+      <c r="M109" s="89"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15613,7 +15619,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15655,8 +15661,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="155"/>
-      <c r="AU109" s="157"/>
+      <c r="AT109" s="83"/>
+      <c r="AU109" s="85"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15668,7 +15674,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="115">
+      <c r="B110" s="94">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15687,11 +15693,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="113" t="str">
+      <c r="L110" s="126" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="117" t="str">
+      <c r="M110" s="90" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15706,28 +15712,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="99" t="str">
+      <c r="V110" s="137" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="100"/>
-      <c r="X110" s="103" t="str">
+      <c r="W110" s="138"/>
+      <c r="X110" s="141" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="104"/>
-      <c r="Z110" s="104"/>
-      <c r="AA110" s="105" t="str">
+      <c r="Y110" s="142"/>
+      <c r="Z110" s="142"/>
+      <c r="AA110" s="143" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="106" t="str">
+      <c r="AB110" s="144" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="107"/>
-      <c r="AD110" s="108"/>
-      <c r="AE110" s="109"/>
+      <c r="AC110" s="145"/>
+      <c r="AD110" s="146"/>
+      <c r="AE110" s="147"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15739,7 +15745,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15781,17 +15787,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="158" t="str">
+      <c r="AT110" s="82" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="159" t="str">
+      <c r="AU110" s="84" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15804,7 +15810,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="116"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15820,8 +15826,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="112"/>
-      <c r="M111" s="118"/>
+      <c r="L111" s="125"/>
+      <c r="M111" s="89"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15830,16 +15836,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="101"/>
-      <c r="W111" s="102"/>
-      <c r="X111" s="102"/>
-      <c r="Y111" s="102"/>
-      <c r="Z111" s="102"/>
-      <c r="AA111" s="102"/>
-      <c r="AB111" s="102"/>
-      <c r="AC111" s="102"/>
-      <c r="AD111" s="102"/>
-      <c r="AE111" s="110"/>
+      <c r="V111" s="139"/>
+      <c r="W111" s="140"/>
+      <c r="X111" s="140"/>
+      <c r="Y111" s="140"/>
+      <c r="Z111" s="140"/>
+      <c r="AA111" s="140"/>
+      <c r="AB111" s="140"/>
+      <c r="AC111" s="140"/>
+      <c r="AD111" s="140"/>
+      <c r="AE111" s="148"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15851,7 +15857,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15893,8 +15899,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="155"/>
-      <c r="AU111" s="157"/>
+      <c r="AT111" s="83"/>
+      <c r="AU111" s="85"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15906,7 +15912,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="115">
+      <c r="B112" s="94">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15925,11 +15931,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="113" t="str">
+      <c r="L112" s="126" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="117" t="str">
+      <c r="M112" s="90" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15944,25 +15950,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="76" t="str">
+      <c r="V112" s="128" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="77"/>
-      <c r="X112" s="77"/>
-      <c r="Y112" s="77"/>
-      <c r="Z112" s="77"/>
-      <c r="AA112" s="77"/>
+      <c r="W112" s="129"/>
+      <c r="X112" s="129"/>
+      <c r="Y112" s="129"/>
+      <c r="Z112" s="129"/>
+      <c r="AA112" s="129"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="78" t="str">
+      <c r="AC112" s="160" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="79"/>
-      <c r="AE112" s="80"/>
+      <c r="AD112" s="161"/>
+      <c r="AE112" s="162"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15974,7 +15980,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -16016,17 +16022,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="158" t="str">
+      <c r="AT112" s="82" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="159" t="str">
+      <c r="AU112" s="84" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16039,7 +16045,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="116"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16055,8 +16061,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="112"/>
-      <c r="M113" s="118"/>
+      <c r="L113" s="125"/>
+      <c r="M113" s="89"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -16065,25 +16071,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="81" t="str">
+      <c r="V113" s="130" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="82"/>
-      <c r="X113" s="82"/>
-      <c r="Y113" s="82"/>
-      <c r="Z113" s="82"/>
-      <c r="AA113" s="83" t="str">
+      <c r="W113" s="131"/>
+      <c r="X113" s="131"/>
+      <c r="Y113" s="131"/>
+      <c r="Z113" s="131"/>
+      <c r="AA113" s="132" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="84"/>
-      <c r="AC113" s="85" t="str">
+      <c r="AB113" s="133"/>
+      <c r="AC113" s="134" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="86"/>
-      <c r="AE113" s="87"/>
+      <c r="AD113" s="135"/>
+      <c r="AE113" s="136"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16095,7 +16101,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16137,8 +16143,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="155"/>
-      <c r="AU113" s="157"/>
+      <c r="AT113" s="83"/>
+      <c r="AU113" s="85"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16150,7 +16156,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="115">
+      <c r="B114" s="94">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16169,11 +16175,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="113" t="str">
+      <c r="L114" s="126" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="117" t="str">
+      <c r="M114" s="90" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16188,25 +16194,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="88" t="str">
+      <c r="V114" s="149" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="89"/>
-      <c r="X114" s="89"/>
-      <c r="Y114" s="89"/>
-      <c r="Z114" s="92" t="str">
+      <c r="W114" s="150"/>
+      <c r="X114" s="150"/>
+      <c r="Y114" s="150"/>
+      <c r="Z114" s="153" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="94" t="str">
+      <c r="AA114" s="155" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="95"/>
-      <c r="AC114" s="95"/>
-      <c r="AD114" s="95"/>
-      <c r="AE114" s="96"/>
+      <c r="AB114" s="156"/>
+      <c r="AC114" s="156"/>
+      <c r="AD114" s="156"/>
+      <c r="AE114" s="157"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16218,7 +16224,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16260,17 +16266,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="158" t="str">
+      <c r="AT114" s="82" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="159" t="str">
+      <c r="AU114" s="84" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16283,7 +16289,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="119"/>
+      <c r="B115" s="95"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16299,8 +16305,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="114"/>
-      <c r="M115" s="120"/>
+      <c r="L115" s="127"/>
+      <c r="M115" s="91"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16309,16 +16315,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="90"/>
-      <c r="W115" s="91"/>
-      <c r="X115" s="91"/>
-      <c r="Y115" s="91"/>
-      <c r="Z115" s="93"/>
-      <c r="AA115" s="97"/>
-      <c r="AB115" s="97"/>
-      <c r="AC115" s="97"/>
-      <c r="AD115" s="97"/>
-      <c r="AE115" s="98"/>
+      <c r="V115" s="151"/>
+      <c r="W115" s="152"/>
+      <c r="X115" s="152"/>
+      <c r="Y115" s="152"/>
+      <c r="Z115" s="154"/>
+      <c r="AA115" s="158"/>
+      <c r="AB115" s="158"/>
+      <c r="AC115" s="158"/>
+      <c r="AD115" s="158"/>
+      <c r="AE115" s="159"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16330,7 +16336,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16372,8 +16378,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="155"/>
-      <c r="AU115" s="157"/>
+      <c r="AT115" s="83"/>
+      <c r="AU115" s="85"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16385,7 +16391,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="121">
+      <c r="B116" s="92">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16404,11 +16410,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="111" t="str">
+      <c r="L116" s="124" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="122" t="str">
+      <c r="M116" s="88" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16444,7 +16450,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16486,17 +16492,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="158" t="str">
+      <c r="AT116" s="82" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="159" t="str">
+      <c r="AU116" s="84" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16509,7 +16515,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="116"/>
+      <c r="B117" s="93"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16525,8 +16531,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="112"/>
-      <c r="M117" s="118"/>
+      <c r="L117" s="125"/>
+      <c r="M117" s="89"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16556,7 +16562,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16598,8 +16604,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="155"/>
-      <c r="AU117" s="157"/>
+      <c r="AT117" s="83"/>
+      <c r="AU117" s="85"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16611,7 +16617,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="115">
+      <c r="B118" s="94">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16630,11 +16636,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="113" t="str">
+      <c r="L118" s="126" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="117" t="str">
+      <c r="M118" s="90" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16649,28 +16655,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="99" t="str">
+      <c r="V118" s="137" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="100"/>
-      <c r="X118" s="103" t="str">
+      <c r="W118" s="138"/>
+      <c r="X118" s="141" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="104"/>
-      <c r="Z118" s="104"/>
-      <c r="AA118" s="105" t="str">
+      <c r="Y118" s="142"/>
+      <c r="Z118" s="142"/>
+      <c r="AA118" s="143" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="106" t="str">
+      <c r="AB118" s="144" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="107"/>
-      <c r="AD118" s="108"/>
-      <c r="AE118" s="109"/>
+      <c r="AC118" s="145"/>
+      <c r="AD118" s="146"/>
+      <c r="AE118" s="147"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16682,7 +16688,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16724,17 +16730,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="158" t="str">
+      <c r="AT118" s="82" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="159" t="str">
+      <c r="AU118" s="84" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16747,7 +16753,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="116"/>
+      <c r="B119" s="93"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16763,8 +16769,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="112"/>
-      <c r="M119" s="118"/>
+      <c r="L119" s="125"/>
+      <c r="M119" s="89"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16773,16 +16779,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="101"/>
-      <c r="W119" s="102"/>
-      <c r="X119" s="102"/>
-      <c r="Y119" s="102"/>
-      <c r="Z119" s="102"/>
-      <c r="AA119" s="102"/>
-      <c r="AB119" s="102"/>
-      <c r="AC119" s="102"/>
-      <c r="AD119" s="102"/>
-      <c r="AE119" s="110"/>
+      <c r="V119" s="139"/>
+      <c r="W119" s="140"/>
+      <c r="X119" s="140"/>
+      <c r="Y119" s="140"/>
+      <c r="Z119" s="140"/>
+      <c r="AA119" s="140"/>
+      <c r="AB119" s="140"/>
+      <c r="AC119" s="140"/>
+      <c r="AD119" s="140"/>
+      <c r="AE119" s="148"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16794,7 +16800,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16836,8 +16842,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="155"/>
-      <c r="AU119" s="157"/>
+      <c r="AT119" s="83"/>
+      <c r="AU119" s="85"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -16849,7 +16855,7 @@
       <c r="CB119" s="37"/>
     </row>
     <row r="120" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B120" s="115">
+      <c r="B120" s="94">
         <f>IF(B118="","",B118+7)</f>
         <v>43425</v>
       </c>
@@ -16868,11 +16874,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L120" s="113" t="str">
+      <c r="L120" s="126" t="str">
         <f>IF(K120="","",AT120)</f>
         <v/>
       </c>
-      <c r="M120" s="117" t="str">
+      <c r="M120" s="90" t="str">
         <f ca="1">IF(AV120="","",IF(L120="","",AU120))</f>
         <v/>
       </c>
@@ -16887,25 +16893,25 @@
       <c r="S120" s="36"/>
       <c r="T120" s="36"/>
       <c r="U120" s="36"/>
-      <c r="V120" s="76" t="str">
+      <c r="V120" s="128" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"No Weight Change",IF(K122&gt;K114,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W120" s="77"/>
-      <c r="X120" s="77"/>
-      <c r="Y120" s="77"/>
-      <c r="Z120" s="77"/>
-      <c r="AA120" s="77"/>
+      <c r="W120" s="129"/>
+      <c r="X120" s="129"/>
+      <c r="Y120" s="129"/>
+      <c r="Z120" s="129"/>
+      <c r="AA120" s="129"/>
       <c r="AB120" s="42" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"",IF(K122&gt;K114,K122-K114,K114-K122)))</f>
         <v/>
       </c>
-      <c r="AC120" s="78" t="str">
+      <c r="AC120" s="160" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD120" s="79"/>
-      <c r="AE120" s="80"/>
+      <c r="AD120" s="161"/>
+      <c r="AE120" s="162"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="56">
         <f>AG118+1</f>
@@ -16917,7 +16923,7 @@
       </c>
       <c r="AI120" s="35">
         <f>IF(K120="",AI118,K120)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ120" s="35">
         <f t="shared" si="37"/>
@@ -16959,17 +16965,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT120" s="158" t="str">
+      <c r="AT120" s="82" t="str">
         <f>IF(AS120="","",AS120-AS118)</f>
         <v/>
       </c>
-      <c r="AU120" s="159" t="str">
+      <c r="AU120" s="84" t="str">
         <f ca="1">IF(AV120="","",IF(AT120="","",MROUND(AV120,5)))</f>
         <v/>
       </c>
       <c r="AV120" s="35">
         <f ca="1">IF(AH121&lt;7,AV118,IF(AH120&lt;7,AV118,((K121+(((-L120)*$AV$7)/AH121)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY120" s="35"/>
       <c r="AZ120" s="35"/>
@@ -16982,7 +16988,7 @@
       <c r="CB120" s="37"/>
     </row>
     <row r="121" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B121" s="116"/>
+      <c r="B121" s="93"/>
       <c r="C121" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16998,8 +17004,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L121" s="112"/>
-      <c r="M121" s="118"/>
+      <c r="L121" s="125"/>
+      <c r="M121" s="89"/>
       <c r="N121" s="36"/>
       <c r="O121" s="36"/>
       <c r="P121" s="36"/>
@@ -17008,25 +17014,25 @@
       <c r="S121" s="36"/>
       <c r="T121" s="36"/>
       <c r="U121" s="36"/>
-      <c r="V121" s="81" t="str">
+      <c r="V121" s="130" t="str">
         <f ca="1">IF(M122="","",IF(K122=K114,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W121" s="82"/>
-      <c r="X121" s="82"/>
-      <c r="Y121" s="82"/>
-      <c r="Z121" s="82"/>
-      <c r="AA121" s="83" t="str">
+      <c r="W121" s="131"/>
+      <c r="X121" s="131"/>
+      <c r="Y121" s="131"/>
+      <c r="Z121" s="131"/>
+      <c r="AA121" s="132" t="str">
         <f ca="1">IF(V121="","",AB120/4)</f>
         <v/>
       </c>
-      <c r="AB121" s="84"/>
-      <c r="AC121" s="85" t="str">
+      <c r="AB121" s="133"/>
+      <c r="AC121" s="134" t="str">
         <f ca="1">IF(V120="","",IF(V120="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD121" s="86"/>
-      <c r="AE121" s="87"/>
+      <c r="AD121" s="135"/>
+      <c r="AE121" s="136"/>
       <c r="AF121" s="36"/>
       <c r="AG121" s="56">
         <f>AG120+0.5</f>
@@ -17038,7 +17044,7 @@
       </c>
       <c r="AI121" s="35">
         <f>AI120</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ121" s="35">
         <f t="shared" si="37"/>
@@ -17080,8 +17086,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT121" s="155"/>
-      <c r="AU121" s="157"/>
+      <c r="AT121" s="83"/>
+      <c r="AU121" s="85"/>
       <c r="AY121" s="35"/>
       <c r="AZ121" s="35"/>
       <c r="BA121" s="51"/>
@@ -17093,7 +17099,7 @@
       <c r="CB121" s="37"/>
     </row>
     <row r="122" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B122" s="115">
+      <c r="B122" s="94">
         <f>IF(B120="","",B120+7)</f>
         <v>43432</v>
       </c>
@@ -17112,11 +17118,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L122" s="113" t="str">
+      <c r="L122" s="126" t="str">
         <f>IF(K122="","",AT122)</f>
         <v/>
       </c>
-      <c r="M122" s="117" t="str">
+      <c r="M122" s="90" t="str">
         <f ca="1">IF(AV122="","",IF(L122="","",AU122))</f>
         <v/>
       </c>
@@ -17131,25 +17137,25 @@
       <c r="S122" s="36"/>
       <c r="T122" s="36"/>
       <c r="U122" s="36"/>
-      <c r="V122" s="88" t="str">
+      <c r="V122" s="149" t="str">
         <f ca="1">IF(AA121="","","You have")</f>
         <v/>
       </c>
-      <c r="W122" s="89"/>
-      <c r="X122" s="89"/>
-      <c r="Y122" s="89"/>
-      <c r="Z122" s="92" t="str">
+      <c r="W122" s="150"/>
+      <c r="X122" s="150"/>
+      <c r="Y122" s="150"/>
+      <c r="Z122" s="153" t="str">
         <f ca="1">IF(AA121="","",IF(K122&gt;$F$7,K122-$F$7,$F$7-K122))</f>
         <v/>
       </c>
-      <c r="AA122" s="94" t="str">
+      <c r="AA122" s="155" t="str">
         <f ca="1">IF(AA121="","",IF(AA121="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB122" s="95"/>
-      <c r="AC122" s="95"/>
-      <c r="AD122" s="95"/>
-      <c r="AE122" s="96"/>
+      <c r="AB122" s="156"/>
+      <c r="AC122" s="156"/>
+      <c r="AD122" s="156"/>
+      <c r="AE122" s="157"/>
       <c r="AF122" s="36"/>
       <c r="AG122" s="56">
         <f>AG120+1</f>
@@ -17161,7 +17167,7 @@
       </c>
       <c r="AI122" s="35">
         <f>IF(K122="",AI120,K122)</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ122" s="35">
         <f t="shared" si="37"/>
@@ -17203,17 +17209,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT122" s="158" t="str">
+      <c r="AT122" s="82" t="str">
         <f>IF(AS122="","",AS122-AS120)</f>
         <v/>
       </c>
-      <c r="AU122" s="159" t="str">
+      <c r="AU122" s="84" t="str">
         <f ca="1">IF(AV122="","",IF(AT122="","",MROUND(AV122,5)))</f>
         <v/>
       </c>
       <c r="AV122" s="35">
         <f ca="1">IF(AH123&lt;7,AV120,IF(AH122&lt;7,AV120,((K123+(((-L122)*$AV$7)/AH123)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY122" s="35"/>
       <c r="AZ122" s="35"/>
@@ -17226,7 +17232,7 @@
       <c r="CB122" s="37"/>
     </row>
     <row r="123" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B123" s="119"/>
+      <c r="B123" s="95"/>
       <c r="C123" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -17242,8 +17248,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L123" s="114"/>
-      <c r="M123" s="120"/>
+      <c r="L123" s="127"/>
+      <c r="M123" s="91"/>
       <c r="N123" s="36"/>
       <c r="O123" s="36"/>
       <c r="P123" s="36"/>
@@ -17252,16 +17258,16 @@
       <c r="S123" s="36"/>
       <c r="T123" s="36"/>
       <c r="U123" s="36"/>
-      <c r="V123" s="90"/>
-      <c r="W123" s="91"/>
-      <c r="X123" s="91"/>
-      <c r="Y123" s="91"/>
-      <c r="Z123" s="93"/>
-      <c r="AA123" s="97"/>
-      <c r="AB123" s="97"/>
-      <c r="AC123" s="97"/>
-      <c r="AD123" s="97"/>
-      <c r="AE123" s="98"/>
+      <c r="V123" s="151"/>
+      <c r="W123" s="152"/>
+      <c r="X123" s="152"/>
+      <c r="Y123" s="152"/>
+      <c r="Z123" s="154"/>
+      <c r="AA123" s="158"/>
+      <c r="AB123" s="158"/>
+      <c r="AC123" s="158"/>
+      <c r="AD123" s="158"/>
+      <c r="AE123" s="159"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="56">
         <f>AG122+0.5</f>
@@ -17273,7 +17279,7 @@
       </c>
       <c r="AI123" s="35">
         <f>AI122</f>
-        <v>185.79999999999998</v>
+        <v>185.97142857142856</v>
       </c>
       <c r="AJ123" s="35">
         <f t="shared" si="37"/>
@@ -17312,8 +17318,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT123" s="155"/>
-      <c r="AU123" s="157"/>
+      <c r="AT123" s="83"/>
+      <c r="AU123" s="85"/>
       <c r="AY123" s="35"/>
       <c r="AZ123" s="35"/>
       <c r="BA123" s="51"/>
@@ -17348,7 +17354,7 @@
       </c>
       <c r="AV124" s="35">
         <f ca="1">AV122</f>
-        <v>2830.9125364431529</v>
+        <v>2838.3636363636351</v>
       </c>
       <c r="AY124" s="35"/>
       <c r="AZ124" s="35"/>
@@ -17778,6 +17784,459 @@
     </row>
   </sheetData>
   <mergeCells count="477">
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="V120:AA120"/>
+    <mergeCell ref="AC120:AE120"/>
+    <mergeCell ref="V121:Z121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AE121"/>
+    <mergeCell ref="V122:Y123"/>
+    <mergeCell ref="Z122:Z123"/>
+    <mergeCell ref="AA122:AE123"/>
+    <mergeCell ref="V112:AA112"/>
+    <mergeCell ref="AC112:AE112"/>
+    <mergeCell ref="V113:Z113"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="V114:Y115"/>
+    <mergeCell ref="Z114:Z115"/>
+    <mergeCell ref="AA114:AE115"/>
+    <mergeCell ref="V118:W119"/>
+    <mergeCell ref="X118:Z119"/>
+    <mergeCell ref="AA118:AA119"/>
+    <mergeCell ref="AB118:AE119"/>
+    <mergeCell ref="V104:AA104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="V106:Y107"/>
+    <mergeCell ref="Z106:Z107"/>
+    <mergeCell ref="AA106:AE107"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Z111"/>
+    <mergeCell ref="AA110:AA111"/>
+    <mergeCell ref="AB110:AE111"/>
+    <mergeCell ref="V96:AA96"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="V97:Z97"/>
+    <mergeCell ref="AA97:AB97"/>
+    <mergeCell ref="AC97:AE97"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="AA98:AE99"/>
+    <mergeCell ref="V102:W103"/>
+    <mergeCell ref="X102:Z103"/>
+    <mergeCell ref="AA102:AA103"/>
+    <mergeCell ref="AB102:AE103"/>
+    <mergeCell ref="V88:AA88"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="V90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AE91"/>
+    <mergeCell ref="V94:W95"/>
+    <mergeCell ref="X94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AE95"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="V82:Y83"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="AA82:AE83"/>
+    <mergeCell ref="V86:W87"/>
+    <mergeCell ref="X86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AE87"/>
+    <mergeCell ref="V74:Y75"/>
+    <mergeCell ref="Z74:Z75"/>
+    <mergeCell ref="AA74:AE75"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="V78:W79"/>
+    <mergeCell ref="X78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="V80:AA80"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="V34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AE35"/>
+    <mergeCell ref="X70:Z71"/>
+    <mergeCell ref="AA70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="V72:AA72"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AE47"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="V49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="V50:Y51"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="AA50:AE51"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="V66:Y67"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="V54:W55"/>
+    <mergeCell ref="X54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AE55"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="V58:Y59"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AE59"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="V42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AE43"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="V26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AE27"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AE39"/>
+    <mergeCell ref="V40:AA40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="X30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AE31"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AE23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AE15"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AU40:AU41"/>
+    <mergeCell ref="AT42:AT43"/>
+    <mergeCell ref="AU42:AU43"/>
+    <mergeCell ref="AT44:AT45"/>
+    <mergeCell ref="AU44:AU45"/>
+    <mergeCell ref="AT46:AT47"/>
+    <mergeCell ref="AU46:AU47"/>
+    <mergeCell ref="AT48:AT49"/>
+    <mergeCell ref="AU48:AU49"/>
+    <mergeCell ref="AT50:AT51"/>
+    <mergeCell ref="AU50:AU51"/>
+    <mergeCell ref="AT52:AT53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AT56:AT57"/>
+    <mergeCell ref="AU56:AU57"/>
+    <mergeCell ref="AT58:AT59"/>
+    <mergeCell ref="AU58:AU59"/>
+    <mergeCell ref="AT60:AT61"/>
+    <mergeCell ref="AU60:AU61"/>
+    <mergeCell ref="AT62:AT63"/>
+    <mergeCell ref="AU62:AU63"/>
+    <mergeCell ref="AT64:AT65"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AT66:AT67"/>
+    <mergeCell ref="AU66:AU67"/>
+    <mergeCell ref="AT68:AT69"/>
+    <mergeCell ref="AU68:AU69"/>
+    <mergeCell ref="AT70:AT71"/>
+    <mergeCell ref="AU70:AU71"/>
+    <mergeCell ref="AT72:AT73"/>
+    <mergeCell ref="AU72:AU73"/>
+    <mergeCell ref="AT74:AT75"/>
+    <mergeCell ref="AU74:AU75"/>
+    <mergeCell ref="AT76:AT77"/>
+    <mergeCell ref="AU76:AU77"/>
+    <mergeCell ref="AT78:AT79"/>
+    <mergeCell ref="AU78:AU79"/>
+    <mergeCell ref="AT80:AT81"/>
+    <mergeCell ref="AU80:AU81"/>
+    <mergeCell ref="AT82:AT83"/>
+    <mergeCell ref="AU82:AU83"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AT108:AT109"/>
+    <mergeCell ref="AU108:AU109"/>
+    <mergeCell ref="AT110:AT111"/>
+    <mergeCell ref="AU110:AU111"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AT98:AT99"/>
+    <mergeCell ref="AU98:AU99"/>
+    <mergeCell ref="AT100:AT101"/>
+    <mergeCell ref="AU100:AU101"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:T3"/>
@@ -17802,459 +18261,6 @@
     <mergeCell ref="AU104:AU105"/>
     <mergeCell ref="AT106:AT107"/>
     <mergeCell ref="AU106:AU107"/>
-    <mergeCell ref="AT108:AT109"/>
-    <mergeCell ref="AU108:AU109"/>
-    <mergeCell ref="AT110:AT111"/>
-    <mergeCell ref="AU110:AU111"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AT98:AT99"/>
-    <mergeCell ref="AU98:AU99"/>
-    <mergeCell ref="AT100:AT101"/>
-    <mergeCell ref="AU100:AU101"/>
-    <mergeCell ref="AT82:AT83"/>
-    <mergeCell ref="AU82:AU83"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AT72:AT73"/>
-    <mergeCell ref="AU72:AU73"/>
-    <mergeCell ref="AT74:AT75"/>
-    <mergeCell ref="AU74:AU75"/>
-    <mergeCell ref="AT76:AT77"/>
-    <mergeCell ref="AU76:AU77"/>
-    <mergeCell ref="AT78:AT79"/>
-    <mergeCell ref="AU78:AU79"/>
-    <mergeCell ref="AT80:AT81"/>
-    <mergeCell ref="AU80:AU81"/>
-    <mergeCell ref="AT62:AT63"/>
-    <mergeCell ref="AU62:AU63"/>
-    <mergeCell ref="AT64:AT65"/>
-    <mergeCell ref="AU64:AU65"/>
-    <mergeCell ref="AT66:AT67"/>
-    <mergeCell ref="AU66:AU67"/>
-    <mergeCell ref="AT68:AT69"/>
-    <mergeCell ref="AU68:AU69"/>
-    <mergeCell ref="AT70:AT71"/>
-    <mergeCell ref="AU70:AU71"/>
-    <mergeCell ref="AT52:AT53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AT56:AT57"/>
-    <mergeCell ref="AU56:AU57"/>
-    <mergeCell ref="AT58:AT59"/>
-    <mergeCell ref="AU58:AU59"/>
-    <mergeCell ref="AT60:AT61"/>
-    <mergeCell ref="AU60:AU61"/>
-    <mergeCell ref="AT42:AT43"/>
-    <mergeCell ref="AU42:AU43"/>
-    <mergeCell ref="AT44:AT45"/>
-    <mergeCell ref="AU44:AU45"/>
-    <mergeCell ref="AT46:AT47"/>
-    <mergeCell ref="AU46:AU47"/>
-    <mergeCell ref="AT48:AT49"/>
-    <mergeCell ref="AU48:AU49"/>
-    <mergeCell ref="AT50:AT51"/>
-    <mergeCell ref="AU50:AU51"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AE15"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AE23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AE43"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="V26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AE27"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AE39"/>
-    <mergeCell ref="V40:AA40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AE31"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="V66:Y67"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AE67"/>
-    <mergeCell ref="V70:W71"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="V54:W55"/>
-    <mergeCell ref="X54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AE55"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="V58:Y59"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AE59"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="V34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AE35"/>
-    <mergeCell ref="X70:Z71"/>
-    <mergeCell ref="AA70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="V72:AA72"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AE47"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="V49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="V50:Y51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AE51"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V74:Y75"/>
-    <mergeCell ref="Z74:Z75"/>
-    <mergeCell ref="AA74:AE75"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="V78:W79"/>
-    <mergeCell ref="X78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
-    <mergeCell ref="V80:AA80"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="V82:Y83"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="AA82:AE83"/>
-    <mergeCell ref="V86:W87"/>
-    <mergeCell ref="X86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AE87"/>
-    <mergeCell ref="V88:AA88"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="AA89:AB89"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="V90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AE91"/>
-    <mergeCell ref="V94:W95"/>
-    <mergeCell ref="X94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AE95"/>
-    <mergeCell ref="V96:AA96"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="V97:Z97"/>
-    <mergeCell ref="AA97:AB97"/>
-    <mergeCell ref="AC97:AE97"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="AA98:AE99"/>
-    <mergeCell ref="V102:W103"/>
-    <mergeCell ref="X102:Z103"/>
-    <mergeCell ref="AA102:AA103"/>
-    <mergeCell ref="AB102:AE103"/>
-    <mergeCell ref="V105:Z105"/>
-    <mergeCell ref="AA105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="V106:Y107"/>
-    <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="AA106:AE107"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Z111"/>
-    <mergeCell ref="AA110:AA111"/>
-    <mergeCell ref="AB110:AE111"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="V120:AA120"/>
-    <mergeCell ref="AC120:AE120"/>
-    <mergeCell ref="V121:Z121"/>
-    <mergeCell ref="AA121:AB121"/>
-    <mergeCell ref="AC121:AE121"/>
-    <mergeCell ref="V122:Y123"/>
-    <mergeCell ref="Z122:Z123"/>
-    <mergeCell ref="AA122:AE123"/>
-    <mergeCell ref="V112:AA112"/>
-    <mergeCell ref="AC112:AE112"/>
-    <mergeCell ref="V113:Z113"/>
-    <mergeCell ref="AA113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="V114:Y115"/>
-    <mergeCell ref="Z114:Z115"/>
-    <mergeCell ref="AA114:AE115"/>
-    <mergeCell ref="V118:W119"/>
-    <mergeCell ref="X118:Z119"/>
-    <mergeCell ref="AA118:AA119"/>
-    <mergeCell ref="AB118:AE119"/>
-    <mergeCell ref="V104:AA104"/>
-    <mergeCell ref="AC104:AE104"/>
   </mergeCells>
   <conditionalFormatting sqref="V18:AE19 V26:AE27">
     <cfRule type="expression" dxfId="38" priority="42">

--- a/TDEE variant with bf 3.06.xlsx
+++ b/TDEE variant with bf 3.06.xlsx
@@ -1079,55 +1079,130 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1136,14 +1211,41 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1286,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,143 +1301,38 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,280 +1723,280 @@
                   <c:v>187.7428571428571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>185.97142857142856</c:v>
+                  <c:v>185.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>186</c:v>
@@ -3216,8 +3216,8 @@
   <dimension ref="A1:CB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3271,7 +3271,7 @@
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
-      <c r="G2" s="96"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="72" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
-      <c r="M2" s="96"/>
+      <c r="M2" s="134"/>
       <c r="O2" s="72" t="s">
         <v>40</v>
       </c>
@@ -3316,38 +3316,38 @@
       <c r="CB2" s="37"/>
     </row>
     <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="111">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="150">
         <v>43047</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="97" t="str">
+      <c r="G3" s="151"/>
+      <c r="H3" s="135" t="str">
         <f>IF(B9="","","Today's Date is:")</f>
         <v>Today's Date is:</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137">
         <f ca="1">IF(H3="","",TODAY())</f>
-        <v>43116</v>
-      </c>
-      <c r="M3" s="100"/>
-      <c r="O3" s="74" t="s">
+        <v>43117</v>
+      </c>
+      <c r="M3" s="138"/>
+      <c r="O3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="153"/>
       <c r="W3" s="43"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="43"/>
@@ -3382,24 +3382,24 @@
       <c r="CA3" s="37"/>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="74" t="str">
         <f>IF(F3="","","Weights in Lb or Kg?")</f>
         <v>Weights in Lb or Kg?</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="str">
+      <c r="G4" s="153"/>
+      <c r="H4" s="74" t="str">
         <f>IF(F6="","","Your Current Weight is:")</f>
         <v>Your Current Weight is:</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="139"/>
       <c r="L4" s="68">
         <f>IF(F6="","",IF(AI124="",F6,AI124))</f>
         <v>186</v>
@@ -3409,17 +3409,17 @@
         <v>Lb</v>
       </c>
       <c r="N4" s="35"/>
-      <c r="O4" s="79" t="str">
+      <c r="O4" s="74" t="str">
         <f>IF(S3=" - Choose - ","","Measurements in inch or cm?")</f>
         <v>Measurements in inch or cm?</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="78"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="44"/>
@@ -3463,24 +3463,24 @@
       <c r="CA4" s="37"/>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B5" s="79" t="str">
+      <c r="B5" s="74" t="str">
         <f>IF(F4=" - Choose - ","","Calories or KiloJoules?")</f>
         <v>Calories or KiloJoules?</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="109" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="102" t="str">
+      <c r="G5" s="149"/>
+      <c r="H5" s="140" t="str">
         <f>IF(L4="","",IF(L4=F6,"Your weight hasn’t changed.",IF(L4&gt;F6,"You've Gained","You've Lost")))</f>
         <v>You've Lost</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="68">
         <f>IF(L4="","",IF(F6=L4,"",IF(F6&lt;L4,L4-F6,F6-L4)))</f>
         <v>2.5999999999999943</v>
@@ -3490,13 +3490,13 @@
         <v>Lb</v>
       </c>
       <c r="N5" s="35"/>
-      <c r="O5" s="79" t="str">
+      <c r="O5" s="74" t="str">
         <f>IF(S4=" - Choose - ","","Height:")</f>
         <v>Height:</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="5">
         <v>66</v>
       </c>
@@ -3552,13 +3552,13 @@
       <c r="CA5" s="37"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B6" s="79" t="str">
+      <c r="B6" s="74" t="str">
         <f>IF(F5=" - Choose - ","","Starting Weight:")</f>
         <v>Starting Weight:</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="5">
         <v>188.6</v>
       </c>
@@ -3566,13 +3566,13 @@
         <f>IF(B5="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H6" s="102" t="str">
+      <c r="H6" s="140" t="str">
         <f>IF(H5="","","Your Current TDEE is:")</f>
         <v>Your Current TDEE is:</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="30">
         <f ca="1">IF(F6="","",IF(AV124="",MROUND(F6*AW7,25),MROUND(AV124,25)))</f>
         <v>2850</v>
@@ -3621,13 +3621,13 @@
       <c r="CA6" s="37"/>
     </row>
     <row r="7" spans="1:80" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="74" t="str">
         <f>IF(F6="","","Goal Weight:")</f>
         <v>Goal Weight:</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="6">
         <v>183</v>
       </c>
@@ -3635,18 +3635,18 @@
         <f>IF(F6="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H7" s="116" t="str">
+      <c r="H7" s="126" t="str">
         <f ca="1">IF(L8="","",IF(H9=0,"Congratulations","To Reach Your Goal weight by"))</f>
         <v>To Reach Your Goal weight by</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118">
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128">
         <f ca="1">IF(L8="","",IF(H9=0,"",L3+(H9*7)))</f>
-        <v>43126.5</v>
-      </c>
-      <c r="M7" s="119"/>
+        <v>43127.5</v>
+      </c>
+      <c r="M7" s="129"/>
       <c r="N7" s="35"/>
       <c r="O7" s="72" t="s">
         <v>46</v>
@@ -3685,13 +3685,13 @@
       <c r="CA7" s="37"/>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="142" t="str">
         <f>IF(F7="","",IF(F7=F6,"",IF(F7=L4,"",IF(F7&gt;F6,"Goal Weight Gain per Week:","Goal Weight Loss per Week:"))))</f>
         <v>Goal Weight Loss per Week:</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="6">
         <v>2</v>
       </c>
@@ -3699,13 +3699,13 @@
         <f>IF(F7="","",IF(F4="Lb","Lb",IF(F4="Kg","Kg","")))</f>
         <v>Lb</v>
       </c>
-      <c r="H8" s="114" t="str">
+      <c r="H8" s="124" t="str">
         <f ca="1">IF(L8="","","You will need to Eat")</f>
         <v>You will need to Eat</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="22">
         <f ca="1">IF(F8="","",IF(F7=L4,L6,IF(F7&gt;L4,L6+F9,L6-F9)))</f>
         <v>1850</v>
@@ -3715,12 +3715,12 @@
         <v>Cal/Day</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="5">
         <v>12</v>
       </c>
@@ -3750,13 +3750,13 @@
       <c r="CA8" s="37"/>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B9" s="120" t="str">
+      <c r="B9" s="130" t="str">
         <f>IF(F8="","",IF(F7=L4,"",IF(F7&gt;F6,"Target Daily Surplus:","Target Daily Deficit:")))</f>
         <v>Target Daily Deficit:</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="8">
         <f>IF(F8="","",MROUND((F8*AV7)/7,5))</f>
         <v>1000</v>
@@ -3769,14 +3769,14 @@
         <f ca="1">IF(L8="","",IF(F6&lt;F7,AF4,AF5))</f>
         <v>1.5</v>
       </c>
-      <c r="I9" s="122" t="str">
+      <c r="I9" s="132" t="str">
         <f>IF(H3="","","Weeks until you reach your goal weight")</f>
         <v>Weeks until you reach your goal weight</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -3929,7 +3929,7 @@
       <c r="CB11" s="37"/>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B12" s="92">
+      <c r="B12" s="121">
         <f>IF(F3="","",F3)</f>
         <v>43047</v>
       </c>
@@ -3954,11 +3954,11 @@
         <f t="shared" ref="K12:K43" si="0">IF(AH12=0,"",AS12)</f>
         <v>187.4</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L12" s="111">
         <f>IF(K12="","",AT12)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="122">
         <f>IF(AV12="","",IF(L12="","",AU12))</f>
         <v>3225</v>
       </c>
@@ -4041,11 +4041,11 @@
         <f t="shared" ref="AS12:AS43" si="8">IF(AH12=0,"",SUM(AL12:AR12)/AH12)</f>
         <v>187.4</v>
       </c>
-      <c r="AT12" s="86">
+      <c r="AT12" s="154">
         <f>IF(AS12="","",AS12-AM6)</f>
         <v>-1.1999999999999886</v>
       </c>
-      <c r="AU12" s="87">
+      <c r="AU12" s="156">
         <f>IF(AV12="","",IF(AT12="","",MROUND(AV12,5)))</f>
         <v>3225</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="CB12" s="37"/>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B13" s="113"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="20" t="str">
         <f>IF(F5=" - Choose - ","",F5)</f>
         <v>Cal.</v>
@@ -4099,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -4165,8 +4165,8 @@
         <f t="shared" si="8"/>
         <v>2625.4285714285716</v>
       </c>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="85"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="157"/>
       <c r="AW13" s="35">
         <v>13</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="CB13" s="37"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94">
+      <c r="B14" s="115">
         <f>IF(B12="","",B12+7)</f>
         <v>43054</v>
       </c>
@@ -4220,11 +4220,11 @@
         <f t="shared" si="0"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="L14" s="126">
+      <c r="L14" s="113">
         <f>IF(K14="","",AT14)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="M14" s="90">
+      <c r="M14" s="117">
         <f ca="1">IF(AV14="","",IF(L14="","",AU14))</f>
         <v>2720</v>
       </c>
@@ -4239,28 +4239,28 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="137" t="str">
+      <c r="V14" s="99" t="str">
         <f ca="1">IF(M18="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="141">
+      <c r="W14" s="100"/>
+      <c r="X14" s="103">
         <f ca="1">IF(M18="","",B12)</f>
         <v>43047</v>
       </c>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="143" t="str">
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="105" t="str">
         <f ca="1">IF(M18="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB14" s="144">
+      <c r="AB14" s="106">
         <f ca="1">IF(M18="","",B18)</f>
         <v>43068</v>
       </c>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="147"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="109"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="56">
         <f>AG12+1</f>
@@ -4314,11 +4314,11 @@
         <f t="shared" si="8"/>
         <v>188.57142857142858</v>
       </c>
-      <c r="AT14" s="86">
+      <c r="AT14" s="154">
         <f>IF(AS14="","",AS14-AS12)</f>
         <v>1.1714285714285779</v>
       </c>
-      <c r="AU14" s="87">
+      <c r="AU14" s="156">
         <f ca="1">IF(AV14="","",IF(AT14="","",MROUND(AV14,5)))</f>
         <v>2720</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="CB14" s="37"/>
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B15" s="93"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4363,8 +4363,8 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -4373,16 +4373,16 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="148"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="110"/>
       <c r="AF15" s="36"/>
       <c r="AG15" s="56">
         <f>AG14+0.5</f>
@@ -4436,8 +4436,8 @@
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="85"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="157"/>
       <c r="AY15" s="35"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="51"/>
@@ -4449,7 +4449,7 @@
       <c r="CB15" s="37"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.35">
-      <c r="B16" s="94">
+      <c r="B16" s="115">
         <f>IF(B14="","",B14+7)</f>
         <v>43061</v>
       </c>
@@ -4472,11 +4472,11 @@
         <f t="shared" si="0"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="L16" s="126">
+      <c r="L16" s="113">
         <f>IF(K16="","",AT16)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="117">
         <f ca="1">IF(AV16="","",IF(L16="","",AU16))</f>
         <v>3000</v>
       </c>
@@ -4491,25 +4491,25 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="128" t="str">
+      <c r="V16" s="76" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"No Weight Change",IF(K18&gt;F6,"You Gained:","You Lost:")))</f>
         <v>You Gained:</v>
       </c>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="42">
         <f ca="1">IF(M18="","",IF(K18=F6,"",IF(K18&gt;F6,K18-F6,F6-K18)))</f>
         <v>3.1428571428571672</v>
       </c>
-      <c r="AC16" s="160" t="str">
+      <c r="AC16" s="78" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb",IF(F4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="162"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="56">
         <f>AG14+1</f>
@@ -4563,11 +4563,11 @@
         <f t="shared" si="8"/>
         <v>187.62857142857143</v>
       </c>
-      <c r="AT16" s="82">
+      <c r="AT16" s="158">
         <f>IF(AS16="","",AS16-AS14)</f>
         <v>-0.94285714285715017</v>
       </c>
-      <c r="AU16" s="84">
+      <c r="AU16" s="159">
         <f ca="1">IF(AV16="","",IF(AT16="","",MROUND(AV16,5)))</f>
         <v>3000</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="CB16" s="37"/>
     </row>
     <row r="17" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B17" s="93"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4606,8 +4606,8 @@
         <f t="shared" si="0"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -4616,25 +4616,25 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="130" t="str">
+      <c r="V17" s="81" t="str">
         <f ca="1">IF(M18="","",IF(K18=F6,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="132">
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83">
         <f ca="1">IF(V17="","",AB16/4)</f>
         <v>0.7857142857142918</v>
       </c>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="134" t="str">
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="85" t="str">
         <f ca="1">IF(V16="","",IF(V16="No Weight Change","",IF(F4="Lb","Lb/Wk",IF(F4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="56">
         <f>AG16+0.5</f>
@@ -4688,8 +4688,8 @@
         <f t="shared" si="8"/>
         <v>2585.7142857142858</v>
       </c>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="85"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="157"/>
       <c r="AY17" s="35"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="51"/>
@@ -4701,7 +4701,7 @@
       <c r="CB17" s="37"/>
     </row>
     <row r="18" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B18" s="94">
+      <c r="B18" s="115">
         <f>IF(B16="","",B16+7)</f>
         <v>43068</v>
       </c>
@@ -4730,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="113">
         <f>IF(K18="","",AT18)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="117">
         <f ca="1">IF(AV18="","",IF(L18="","",AU18))</f>
         <v>2280</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
-      <c r="V18" s="149" t="str">
+      <c r="V18" s="88" t="str">
         <f ca="1">IF(AA17="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="153">
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="92">
         <f ca="1">IF(AA17="","",IF(K18&gt;F7,K18-F7,F7-K18))</f>
         <v>8.7428571428571615</v>
       </c>
-      <c r="AA18" s="155" t="str">
+      <c r="AA18" s="94" t="str">
         <f ca="1">IF(AA17="","",IF(AA17="No Weight Change","",IF(F4="Lb","Lb to go!",IF(F4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
       <c r="AF18" s="36"/>
       <c r="AG18" s="56">
         <f>AG16+1</f>
@@ -4821,11 +4821,11 @@
         <f t="shared" si="8"/>
         <v>191.74285714285716</v>
       </c>
-      <c r="AT18" s="82">
+      <c r="AT18" s="158">
         <f>IF(AS18="","",AS18-AS16)</f>
         <v>4.1142857142857281</v>
       </c>
-      <c r="AU18" s="84">
+      <c r="AU18" s="159">
         <f ca="1">IF(AV18="","",IF(AT18="","",MROUND(AV18,5)))</f>
         <v>2280</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="CB18" s="37"/>
     </row>
     <row r="19" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B19" s="113"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -4868,8 +4868,8 @@
         <f t="shared" si="0"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="91"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -4878,16 +4878,16 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="152"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="159"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="56">
         <f>AG18+0.5</f>
@@ -4941,8 +4941,8 @@
         <f t="shared" si="8"/>
         <v>2226.5306122448978</v>
       </c>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="85"/>
+      <c r="AT19" s="155"/>
+      <c r="AU19" s="157"/>
       <c r="AY19" s="35"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="51"/>
@@ -4954,7 +4954,7 @@
       <c r="CB19" s="37"/>
     </row>
     <row r="20" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B20" s="92">
+      <c r="B20" s="121">
         <f>IF(B18="","",B18+7)</f>
         <v>43075</v>
       </c>
@@ -4987,11 +4987,11 @@
         <f t="shared" si="0"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="L20" s="124">
+      <c r="L20" s="111">
         <f>IF(K20="","",AT20)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="122">
         <f ca="1">IF(AV20="","",IF(L20="","",AU20))</f>
         <v>3105</v>
       </c>
@@ -5075,11 +5075,11 @@
         <f t="shared" si="8"/>
         <v>187.82857142857145</v>
       </c>
-      <c r="AT20" s="82">
+      <c r="AT20" s="158">
         <f>IF(AS20="","",AS20-AS18)</f>
         <v>-3.914285714285711</v>
       </c>
-      <c r="AU20" s="84">
+      <c r="AU20" s="159">
         <f ca="1">IF(AV20="","",IF(AT20="","",MROUND(AV20,5)))</f>
         <v>3105</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="CB20" s="37"/>
     </row>
     <row r="21" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B21" s="93"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5128,8 +5128,8 @@
         <f t="shared" si="0"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
@@ -5194,8 +5194,8 @@
         <f t="shared" si="8"/>
         <v>2334.7142857142858</v>
       </c>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="85"/>
+      <c r="AT21" s="155"/>
+      <c r="AU21" s="157"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="51"/>
@@ -5207,7 +5207,7 @@
       <c r="CB21" s="37"/>
     </row>
     <row r="22" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B22" s="94">
+      <c r="B22" s="115">
         <f>IF(B20="","",B20+7)</f>
         <v>43082</v>
       </c>
@@ -5240,11 +5240,11 @@
         <f t="shared" si="0"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="L22" s="126">
+      <c r="L22" s="113">
         <f>IF(K22="","",AT22)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="117">
         <f ca="1">IF(AV22="","",IF(L22="","",AU22))</f>
         <v>2865</v>
       </c>
@@ -5259,28 +5259,28 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
-      <c r="V22" s="137" t="str">
+      <c r="V22" s="99" t="str">
         <f ca="1">IF(M26="","","From")</f>
         <v>From</v>
       </c>
-      <c r="W22" s="138"/>
-      <c r="X22" s="141">
+      <c r="W22" s="100"/>
+      <c r="X22" s="103">
         <f ca="1">IF(M26="","",B20)</f>
         <v>43075</v>
       </c>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="143" t="str">
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105" t="str">
         <f ca="1">IF(M26="","","to")</f>
         <v>to</v>
       </c>
-      <c r="AB22" s="144">
+      <c r="AB22" s="106">
         <f ca="1">IF(M26="","",B26)</f>
         <v>43096</v>
       </c>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="147"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="109"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="56">
         <f>AG20+1</f>
@@ -5334,11 +5334,11 @@
         <f t="shared" si="8"/>
         <v>187.22857142857146</v>
       </c>
-      <c r="AT22" s="82">
+      <c r="AT22" s="158">
         <f>IF(AS22="","",AS22-AS20)</f>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="AU22" s="84">
+      <c r="AU22" s="159">
         <f ca="1">IF(AV22="","",IF(AT22="","",MROUND(AV22,5)))</f>
         <v>2865</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="CB22" s="37"/>
     </row>
     <row r="23" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B23" s="93"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5387,8 +5387,8 @@
         <f t="shared" si="0"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="89"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
@@ -5397,16 +5397,16 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="148"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="56">
         <f>AG22+0.5</f>
@@ -5460,8 +5460,8 @@
         <f t="shared" si="8"/>
         <v>2557.8571428571427</v>
       </c>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="85"/>
+      <c r="AT23" s="155"/>
+      <c r="AU23" s="157"/>
       <c r="AY23" s="35"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="51"/>
@@ -5473,7 +5473,7 @@
       <c r="CB23" s="37"/>
     </row>
     <row r="24" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B24" s="94">
+      <c r="B24" s="115">
         <f>IF(B22="","",B22+7)</f>
         <v>43089</v>
       </c>
@@ -5500,11 +5500,11 @@
         <f t="shared" si="0"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="L24" s="126">
+      <c r="L24" s="113">
         <f>IF(K24="","",AT24)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="M24" s="90">
+      <c r="M24" s="117">
         <f ca="1">IF(AV24="","",IF(L24="","",AU24))</f>
         <v>2740</v>
       </c>
@@ -5519,25 +5519,25 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
-      <c r="V24" s="128" t="str">
+      <c r="V24" s="76" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"No Weight Change",IF(K26&gt;K18,"You Gained:","You Lost:")))</f>
         <v>You Lost:</v>
       </c>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="42">
         <f ca="1">IF(M26="","",IF(K26=K18,"",IF(K26&gt;K18,K26-K18,K18-K26)))</f>
         <v>1.2489795918367577</v>
       </c>
-      <c r="AC24" s="160" t="str">
+      <c r="AC24" s="78" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v>Lb</v>
       </c>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="162"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="56">
         <f>AG22+1</f>
@@ -5591,11 +5591,11 @@
         <f t="shared" si="8"/>
         <v>188.31428571428569</v>
       </c>
-      <c r="AT24" s="82">
+      <c r="AT24" s="158">
         <f>IF(AS24="","",AS24-AS22)</f>
         <v>1.0857142857142321</v>
       </c>
-      <c r="AU24" s="84">
+      <c r="AU24" s="159">
         <f ca="1">IF(AV24="","",IF(AT24="","",MROUND(AV24,5)))</f>
         <v>2740</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="CB24" s="37"/>
     </row>
     <row r="25" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B25" s="93"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5638,8 +5638,8 @@
         <f t="shared" si="0"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="89"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="118"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -5648,25 +5648,25 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="130" t="str">
+      <c r="V25" s="81" t="str">
         <f ca="1">IF(M26="","",IF(K26=K18,"","At a Rate Of"))</f>
         <v>At a Rate Of</v>
       </c>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="132">
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83">
         <f ca="1">IF(V25="","",AB24/4)</f>
         <v>0.31224489795918942</v>
       </c>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="134" t="str">
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85" t="str">
         <f ca="1">IF(V24="","",IF(V24="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v>Lb/Wk</v>
       </c>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="87"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="56">
         <f>AG24+0.5</f>
@@ -5720,8 +5720,8 @@
         <f t="shared" si="8"/>
         <v>2541.4285714285716</v>
       </c>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="85"/>
+      <c r="AT25" s="155"/>
+      <c r="AU25" s="157"/>
       <c r="AY25" s="35"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="51"/>
@@ -5733,7 +5733,7 @@
       <c r="CB25" s="37"/>
     </row>
     <row r="26" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B26" s="94">
+      <c r="B26" s="115">
         <f>IF(B24="","",B24+7)</f>
         <v>43096</v>
       </c>
@@ -5754,11 +5754,11 @@
         <f t="shared" si="0"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="L26" s="126">
+      <c r="L26" s="113">
         <f>IF(K26="","",AT26)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="117">
         <f ca="1">IF(AV26="","",IF(L26="","",AU26))</f>
         <v>2740</v>
       </c>
@@ -5773,25 +5773,25 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="149" t="str">
+      <c r="V26" s="88" t="str">
         <f ca="1">IF(AA25="","","You have")</f>
         <v>You have</v>
       </c>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="153">
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="92">
         <f ca="1">IF(AA25="","",IF(K26&gt;$F$7,K26-$F$7,$F$7-K26))</f>
         <v>7.4938775510204039</v>
       </c>
-      <c r="AA26" s="155" t="str">
+      <c r="AA26" s="94" t="str">
         <f ca="1">IF(AA25="","",IF(AA25="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v>Lb to go!</v>
       </c>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="56">
         <f>AG24+1</f>
@@ -5845,11 +5845,11 @@
         <f t="shared" si="8"/>
         <v>190.4938775510204</v>
       </c>
-      <c r="AT26" s="82">
+      <c r="AT26" s="158">
         <f>IF(AS26="","",AS26-AS24)</f>
         <v>2.1795918367347156</v>
       </c>
-      <c r="AU26" s="84">
+      <c r="AU26" s="159">
         <f ca="1">IF(AV26="","",IF(AT26="","",MROUND(AV26,5)))</f>
         <v>2740</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="CB26" s="37"/>
     </row>
     <row r="27" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -5884,8 +5884,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="91"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -5894,16 +5894,16 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
       <c r="AF27" s="36"/>
       <c r="AG27" s="56">
         <f>AG26+0.5</f>
@@ -5957,8 +5957,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="85"/>
+      <c r="AT27" s="155"/>
+      <c r="AU27" s="157"/>
       <c r="AY27" s="35"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="51"/>
@@ -5970,7 +5970,7 @@
       <c r="CB27" s="37"/>
     </row>
     <row r="28" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B28" s="92">
+      <c r="B28" s="121">
         <f>IF(B26="","",B26+7)</f>
         <v>43103</v>
       </c>
@@ -5995,11 +5995,11 @@
         <f t="shared" si="0"/>
         <v>189.39825072886302</v>
       </c>
-      <c r="L28" s="124">
+      <c r="L28" s="111">
         <f>IF(K28="","",AT28)</f>
         <v>-1.095626822157385</v>
       </c>
-      <c r="M28" s="88">
+      <c r="M28" s="122">
         <f ca="1">IF(AV28="","",IF(L28="","",AU28))</f>
         <v>2740</v>
       </c>
@@ -6077,11 +6077,11 @@
         <f t="shared" si="8"/>
         <v>189.39825072886302</v>
       </c>
-      <c r="AT28" s="82">
+      <c r="AT28" s="158">
         <f>IF(AS28="","",AS28-AS26)</f>
         <v>-1.095626822157385</v>
       </c>
-      <c r="AU28" s="84">
+      <c r="AU28" s="159">
         <f ca="1">IF(AV28="","",IF(AT28="","",MROUND(AV28,5)))</f>
         <v>2740</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="CB28" s="37"/>
     </row>
     <row r="29" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B29" s="93"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6122,8 +6122,8 @@
         <f t="shared" si="0"/>
         <v>1942</v>
       </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="89"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -6195,8 +6195,8 @@
         <f t="shared" si="8"/>
         <v>1942</v>
       </c>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="85"/>
+      <c r="AT29" s="155"/>
+      <c r="AU29" s="157"/>
       <c r="AY29" s="35"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="51"/>
@@ -6208,7 +6208,7 @@
       <c r="CB29" s="37"/>
     </row>
     <row r="30" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B30" s="94">
+      <c r="B30" s="115">
         <f>IF(B28="","",B28+7)</f>
         <v>43110</v>
       </c>
@@ -6241,11 +6241,11 @@
         <f t="shared" si="0"/>
         <v>187.7428571428571</v>
       </c>
-      <c r="L30" s="126">
+      <c r="L30" s="113">
         <f>IF(K30="","",AT30)</f>
         <v>-1.6553935860059141</v>
       </c>
-      <c r="M30" s="90">
+      <c r="M30" s="117">
         <f ca="1">IF(AV30="","",IF(L30="","",AU30))</f>
         <v>2830</v>
       </c>
@@ -6260,28 +6260,28 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="137" t="str">
+      <c r="V30" s="99" t="str">
         <f ca="1">IF(M34="","","From")</f>
         <v/>
       </c>
-      <c r="W30" s="138"/>
-      <c r="X30" s="141" t="str">
+      <c r="W30" s="100"/>
+      <c r="X30" s="103" t="str">
         <f ca="1">IF(M34="","",B28)</f>
         <v/>
       </c>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="143" t="str">
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="105" t="str">
         <f ca="1">IF(M34="","","to")</f>
         <v/>
       </c>
-      <c r="AB30" s="144" t="str">
+      <c r="AB30" s="106" t="str">
         <f ca="1">IF(M34="","",B34)</f>
         <v/>
       </c>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="147"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="36"/>
       <c r="AG30" s="56">
         <f>AG28+1</f>
@@ -6335,11 +6335,11 @@
         <f t="shared" si="8"/>
         <v>187.7428571428571</v>
       </c>
-      <c r="AT30" s="82">
+      <c r="AT30" s="158">
         <f>IF(AS30="","",AS30-AS28)</f>
         <v>-1.6553935860059141</v>
       </c>
-      <c r="AU30" s="84">
+      <c r="AU30" s="159">
         <f ca="1">IF(AV30="","",IF(AT30="","",MROUND(AV30,5)))</f>
         <v>2830</v>
       </c>
@@ -6358,7 +6358,7 @@
       <c r="CB30" s="37"/>
     </row>
     <row r="31" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B31" s="93"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6388,8 +6388,8 @@
         <f t="shared" si="0"/>
         <v>2066.4285714285716</v>
       </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="89"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="118"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -6398,16 +6398,16 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="148"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="110"/>
       <c r="AF31" s="36"/>
       <c r="AG31" s="56">
         <f>AG30+0.5</f>
@@ -6461,8 +6461,8 @@
         <f t="shared" si="8"/>
         <v>2066.4285714285716</v>
       </c>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="85"/>
+      <c r="AT31" s="155"/>
+      <c r="AU31" s="157"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="51"/>
@@ -6474,7 +6474,7 @@
       <c r="CB31" s="37"/>
     </row>
     <row r="32" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B32" s="94">
+      <c r="B32" s="115">
         <f>IF(B30="","",B30+7)</f>
         <v>43117</v>
       </c>
@@ -6488,22 +6488,24 @@
       <c r="E32" s="71">
         <v>186</v>
       </c>
-      <c r="F32" s="71"/>
+      <c r="F32" s="71">
+        <v>185.8</v>
+      </c>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
       <c r="J32" s="7"/>
       <c r="K32" s="33">
         <f t="shared" si="0"/>
-        <v>185.97142857142856</v>
-      </c>
-      <c r="L32" s="126">
+        <v>185.82857142857142</v>
+      </c>
+      <c r="L32" s="113">
         <f>IF(K32="","",AT32)</f>
-        <v>-1.7714285714285438</v>
-      </c>
-      <c r="M32" s="90">
+        <v>-1.9142857142856826</v>
+      </c>
+      <c r="M32" s="117">
         <f ca="1">IF(AV32="","",IF(L32="","",AU32))</f>
-        <v>2840</v>
+        <v>2850</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="69"/>
@@ -6516,25 +6518,25 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="128" t="str">
+      <c r="V32" s="76" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"No Weight Change",IF(K34&gt;K26,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
       <c r="AB32" s="42" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"",IF(K34&gt;K26,K34-K26,K26-K34)))</f>
         <v/>
       </c>
-      <c r="AC32" s="160" t="str">
+      <c r="AC32" s="78" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="162"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="36"/>
       <c r="AG32" s="56">
         <f>AG30+1</f>
@@ -6546,7 +6548,7 @@
       </c>
       <c r="AI32" s="35">
         <f>IF(K32="",AI30,K32)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ32" s="35">
         <f t="shared" si="9"/>
@@ -6566,39 +6568,39 @@
       </c>
       <c r="AN32" s="58">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="AO32" s="58">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="AP32" s="58">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="AQ32" s="58">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="AR32" s="59">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="AS32" s="61">
         <f t="shared" si="8"/>
-        <v>185.97142857142856</v>
-      </c>
-      <c r="AT32" s="82">
+        <v>185.82857142857142</v>
+      </c>
+      <c r="AT32" s="158">
         <f>IF(AS32="","",AS32-AS30)</f>
-        <v>-1.7714285714285438</v>
-      </c>
-      <c r="AU32" s="84">
+        <v>-1.9142857142856826</v>
+      </c>
+      <c r="AU32" s="159">
         <f ca="1">IF(AV32="","",IF(AT32="","",MROUND(AV32,5)))</f>
-        <v>2840</v>
+        <v>2850</v>
       </c>
       <c r="AV32" s="35">
         <f ca="1">IF(AH33&lt;7,AV30,IF(AH32&lt;7,AV30,((K33+(((-L32)*$AV$7)/AH33)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY32" s="35"/>
       <c r="AZ32" s="35"/>
@@ -6611,7 +6613,7 @@
       <c r="CB32" s="37"/>
     </row>
     <row r="33" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6622,17 +6624,19 @@
       <c r="E33" s="71">
         <v>2060</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="71">
+        <v>2145</v>
+      </c>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
       <c r="J33" s="7"/>
       <c r="K33" s="40">
         <f t="shared" si="0"/>
-        <v>2091.2857142857142</v>
-      </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="89"/>
+        <v>2152</v>
+      </c>
+      <c r="L33" s="112"/>
+      <c r="M33" s="118"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -6641,25 +6645,25 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
-      <c r="V33" s="130" t="str">
+      <c r="V33" s="81" t="str">
         <f ca="1">IF(M34="","",IF(K34=K26,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="132" t="str">
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83" t="str">
         <f ca="1">IF(V33="","",AB32/4)</f>
         <v/>
       </c>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134" t="str">
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="85" t="str">
         <f ca="1">IF(V32="","",IF(V32="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
       <c r="AF33" s="36"/>
       <c r="AG33" s="56">
         <f>AG32+0.5</f>
@@ -6671,7 +6675,7 @@
       </c>
       <c r="AI33" s="35">
         <f>AI32</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="9"/>
@@ -6691,30 +6695,30 @@
       </c>
       <c r="AN33" s="65">
         <f t="shared" si="3"/>
-        <v>2060</v>
+        <v>2145</v>
       </c>
       <c r="AO33" s="65">
         <f t="shared" si="4"/>
-        <v>2060</v>
+        <v>2145</v>
       </c>
       <c r="AP33" s="65">
         <f t="shared" si="5"/>
-        <v>2060</v>
+        <v>2145</v>
       </c>
       <c r="AQ33" s="65">
         <f t="shared" si="6"/>
-        <v>2060</v>
+        <v>2145</v>
       </c>
       <c r="AR33" s="66">
         <f t="shared" si="7"/>
-        <v>2060</v>
+        <v>2145</v>
       </c>
       <c r="AS33" s="39">
         <f t="shared" si="8"/>
-        <v>2091.2857142857142</v>
-      </c>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="85"/>
+        <v>2152</v>
+      </c>
+      <c r="AT33" s="155"/>
+      <c r="AU33" s="157"/>
       <c r="AY33" s="35"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="51"/>
@@ -6726,7 +6730,7 @@
       <c r="CB33" s="37"/>
     </row>
     <row r="34" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B34" s="94">
+      <c r="B34" s="115">
         <f>IF(B32="","",B32+7)</f>
         <v>43124</v>
       </c>
@@ -6745,11 +6749,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="126" t="str">
+      <c r="L34" s="113" t="str">
         <f>IF(K34="","",AT34)</f>
         <v/>
       </c>
-      <c r="M34" s="90" t="str">
+      <c r="M34" s="117" t="str">
         <f ca="1">IF(AV34="","",IF(L34="","",AU34))</f>
         <v/>
       </c>
@@ -6764,25 +6768,25 @@
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
-      <c r="V34" s="149" t="str">
+      <c r="V34" s="88" t="str">
         <f ca="1">IF(AA33="","","You have")</f>
         <v/>
       </c>
-      <c r="W34" s="150"/>
-      <c r="X34" s="150"/>
-      <c r="Y34" s="150"/>
-      <c r="Z34" s="153" t="str">
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="92" t="str">
         <f ca="1">IF(AA33="","",IF(K34&gt;$F$7,K34-$F$7,$F$7-K34))</f>
         <v/>
       </c>
-      <c r="AA34" s="155" t="str">
+      <c r="AA34" s="94" t="str">
         <f ca="1">IF(AA33="","",IF(AA33="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="157"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="96"/>
       <c r="AF34" s="36"/>
       <c r="AG34" s="56">
         <f>AG32+1</f>
@@ -6794,7 +6798,7 @@
       </c>
       <c r="AI34" s="35">
         <f>IF(K34="",AI32,K34)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="9"/>
@@ -6836,17 +6840,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT34" s="82" t="str">
+      <c r="AT34" s="158" t="str">
         <f>IF(AS34="","",AS34-AS32)</f>
         <v/>
       </c>
-      <c r="AU34" s="84" t="str">
+      <c r="AU34" s="159" t="str">
         <f ca="1">IF(AV34="","",IF(AT34="","",MROUND(AV34,5)))</f>
         <v/>
       </c>
       <c r="AV34" s="35">
         <f ca="1">IF(AH35&lt;7,AV32,IF(AH34&lt;7,AV32,((K35+(((-L34)*$AV$7)/AH35)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY34" s="35"/>
       <c r="AZ34" s="35"/>
@@ -6859,7 +6863,7 @@
       <c r="CB34" s="37"/>
     </row>
     <row r="35" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B35" s="95"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -6875,8 +6879,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -6885,16 +6889,16 @@
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="159"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="56">
         <f>AG34+0.5</f>
@@ -6906,7 +6910,7 @@
       </c>
       <c r="AI35" s="35">
         <f>AI34</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="9"/>
@@ -6948,8 +6952,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="85"/>
+      <c r="AT35" s="155"/>
+      <c r="AU35" s="157"/>
       <c r="AY35" s="35"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="51"/>
@@ -6961,7 +6965,7 @@
       <c r="CB35" s="37"/>
     </row>
     <row r="36" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B36" s="92">
+      <c r="B36" s="121">
         <f>IF(B34="","",B34+7)</f>
         <v>43131</v>
       </c>
@@ -6980,11 +6984,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="124" t="str">
+      <c r="L36" s="111" t="str">
         <f>IF(K36="","",AT36)</f>
         <v/>
       </c>
-      <c r="M36" s="88" t="str">
+      <c r="M36" s="122" t="str">
         <f ca="1">IF(AV36="","",IF(L36="","",AU36))</f>
         <v/>
       </c>
@@ -7020,7 +7024,7 @@
       </c>
       <c r="AI36" s="35">
         <f>IF(K36="",AI34,K36)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="9"/>
@@ -7062,17 +7066,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT36" s="82" t="str">
+      <c r="AT36" s="158" t="str">
         <f>IF(AS36="","",AS36-AS34)</f>
         <v/>
       </c>
-      <c r="AU36" s="84" t="str">
+      <c r="AU36" s="159" t="str">
         <f ca="1">IF(AV36="","",IF(AT36="","",MROUND(AV36,5)))</f>
         <v/>
       </c>
       <c r="AV36" s="35">
         <f ca="1">IF(AH37&lt;7,AV34,IF(AH36&lt;7,AV34,((K37+(((-L36)*$AV$7)/AH37)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY36" s="35"/>
       <c r="AZ36" s="35"/>
@@ -7085,7 +7089,7 @@
       <c r="CB36" s="37"/>
     </row>
     <row r="37" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7101,8 +7105,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="89"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -7132,7 +7136,7 @@
       </c>
       <c r="AI37" s="35">
         <f>AI36</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ37" s="35">
         <f t="shared" si="9"/>
@@ -7174,8 +7178,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT37" s="83"/>
-      <c r="AU37" s="85"/>
+      <c r="AT37" s="155"/>
+      <c r="AU37" s="157"/>
       <c r="AY37" s="35"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="51"/>
@@ -7187,7 +7191,7 @@
       <c r="CB37" s="37"/>
     </row>
     <row r="38" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B38" s="94">
+      <c r="B38" s="115">
         <f>IF(B36="","",B36+7)</f>
         <v>43138</v>
       </c>
@@ -7206,11 +7210,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="126" t="str">
+      <c r="L38" s="113" t="str">
         <f>IF(K38="","",AT38)</f>
         <v/>
       </c>
-      <c r="M38" s="90" t="str">
+      <c r="M38" s="117" t="str">
         <f ca="1">IF(AV38="","",IF(L38="","",AU38))</f>
         <v/>
       </c>
@@ -7225,28 +7229,28 @@
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
-      <c r="V38" s="137" t="str">
+      <c r="V38" s="99" t="str">
         <f ca="1">IF(M42="","","From")</f>
         <v/>
       </c>
-      <c r="W38" s="138"/>
-      <c r="X38" s="141" t="str">
+      <c r="W38" s="100"/>
+      <c r="X38" s="103" t="str">
         <f ca="1">IF(M42="","",B36)</f>
         <v/>
       </c>
-      <c r="Y38" s="142"/>
-      <c r="Z38" s="142"/>
-      <c r="AA38" s="143" t="str">
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="105" t="str">
         <f ca="1">IF(M42="","","to")</f>
         <v/>
       </c>
-      <c r="AB38" s="144" t="str">
+      <c r="AB38" s="106" t="str">
         <f ca="1">IF(M42="","",B42)</f>
         <v/>
       </c>
-      <c r="AC38" s="145"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="147"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="109"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="56">
         <f>AG36+1</f>
@@ -7258,7 +7262,7 @@
       </c>
       <c r="AI38" s="35">
         <f>IF(K38="",AI36,K38)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ38" s="35">
         <f t="shared" si="9"/>
@@ -7300,17 +7304,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT38" s="82" t="str">
+      <c r="AT38" s="158" t="str">
         <f>IF(AS38="","",AS38-AS36)</f>
         <v/>
       </c>
-      <c r="AU38" s="84" t="str">
+      <c r="AU38" s="159" t="str">
         <f ca="1">IF(AV38="","",IF(AT38="","",MROUND(AV38,5)))</f>
         <v/>
       </c>
       <c r="AV38" s="35">
         <f ca="1">IF(AH39&lt;7,AV36,IF(AH38&lt;7,AV36,((K39+(((-L38)*$AV$7)/AH39)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY38" s="35"/>
       <c r="AZ38" s="35"/>
@@ -7323,7 +7327,7 @@
       <c r="CB38" s="37"/>
     </row>
     <row r="39" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7339,8 +7343,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="89"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="118"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -7349,16 +7353,16 @@
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="140"/>
-      <c r="AA39" s="140"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="148"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+      <c r="AA39" s="102"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="110"/>
       <c r="AF39" s="36"/>
       <c r="AG39" s="56">
         <f>AG38+0.5</f>
@@ -7370,7 +7374,7 @@
       </c>
       <c r="AI39" s="35">
         <f>AI38</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ39" s="35">
         <f t="shared" si="9"/>
@@ -7412,8 +7416,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT39" s="83"/>
-      <c r="AU39" s="85"/>
+      <c r="AT39" s="155"/>
+      <c r="AU39" s="157"/>
       <c r="AY39" s="35"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="51"/>
@@ -7425,7 +7429,7 @@
       <c r="CB39" s="37"/>
     </row>
     <row r="40" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B40" s="94">
+      <c r="B40" s="115">
         <f>IF(B38="","",B38+7)</f>
         <v>43145</v>
       </c>
@@ -7444,11 +7448,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="126" t="str">
+      <c r="L40" s="113" t="str">
         <f>IF(K40="","",AT40)</f>
         <v/>
       </c>
-      <c r="M40" s="90" t="str">
+      <c r="M40" s="117" t="str">
         <f ca="1">IF(AV40="","",IF(L40="","",AU40))</f>
         <v/>
       </c>
@@ -7463,25 +7467,25 @@
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
-      <c r="V40" s="128" t="str">
+      <c r="V40" s="76" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"No Weight Change",IF(K42&gt;K34,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="129"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
       <c r="AB40" s="42" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"",IF(K42&gt;K34,K42-K34,K34-K42)))</f>
         <v/>
       </c>
-      <c r="AC40" s="160" t="str">
+      <c r="AC40" s="78" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="162"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
       <c r="AF40" s="36"/>
       <c r="AG40" s="56">
         <f>AG38+1</f>
@@ -7493,7 +7497,7 @@
       </c>
       <c r="AI40" s="35">
         <f>IF(K40="",AI38,K40)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ40" s="35">
         <f t="shared" si="9"/>
@@ -7535,17 +7539,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT40" s="82" t="str">
+      <c r="AT40" s="158" t="str">
         <f>IF(AS40="","",AS40-AS38)</f>
         <v/>
       </c>
-      <c r="AU40" s="84" t="str">
+      <c r="AU40" s="159" t="str">
         <f ca="1">IF(AV40="","",IF(AT40="","",MROUND(AV40,5)))</f>
         <v/>
       </c>
       <c r="AV40" s="35">
         <f ca="1">IF(AH41&lt;7,AV38,IF(AH40&lt;7,AV38,((K41+(((-L40)*$AV$7)/AH41)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY40" s="35"/>
       <c r="AZ40" s="35"/>
@@ -7558,7 +7562,7 @@
       <c r="CB40" s="37"/>
     </row>
     <row r="41" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7574,8 +7578,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="89"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -7584,25 +7588,25 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
-      <c r="V41" s="130" t="str">
+      <c r="V41" s="81" t="str">
         <f ca="1">IF(M42="","",IF(K42=K34,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="132" t="str">
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="83" t="str">
         <f ca="1">IF(V41="","",AB40/4)</f>
         <v/>
       </c>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="134" t="str">
+      <c r="AB41" s="84"/>
+      <c r="AC41" s="85" t="str">
         <f ca="1">IF(V40="","",IF(V40="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD41" s="135"/>
-      <c r="AE41" s="136"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="87"/>
       <c r="AF41" s="36"/>
       <c r="AG41" s="56">
         <f>AG40+0.5</f>
@@ -7614,7 +7618,7 @@
       </c>
       <c r="AI41" s="35">
         <f>AI40</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ41" s="35">
         <f t="shared" si="9"/>
@@ -7656,8 +7660,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="85"/>
+      <c r="AT41" s="155"/>
+      <c r="AU41" s="157"/>
       <c r="AY41" s="35"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="51"/>
@@ -7669,7 +7673,7 @@
       <c r="CB41" s="37"/>
     </row>
     <row r="42" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B42" s="94">
+      <c r="B42" s="115">
         <f>IF(B40="","",B40+7)</f>
         <v>43152</v>
       </c>
@@ -7688,11 +7692,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="126" t="str">
+      <c r="L42" s="113" t="str">
         <f>IF(K42="","",AT42)</f>
         <v/>
       </c>
-      <c r="M42" s="90" t="str">
+      <c r="M42" s="117" t="str">
         <f ca="1">IF(AV42="","",IF(L42="","",AU42))</f>
         <v/>
       </c>
@@ -7707,25 +7711,25 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-      <c r="V42" s="149" t="str">
+      <c r="V42" s="88" t="str">
         <f ca="1">IF(AA41="","","You have")</f>
         <v/>
       </c>
-      <c r="W42" s="150"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="153" t="str">
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="92" t="str">
         <f ca="1">IF(AA41="","",IF(K42&gt;$F$7,K42-$F$7,$F$7-K42))</f>
         <v/>
       </c>
-      <c r="AA42" s="155" t="str">
+      <c r="AA42" s="94" t="str">
         <f ca="1">IF(AA41="","",IF(AA41="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB42" s="156"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="157"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="96"/>
       <c r="AF42" s="36"/>
       <c r="AG42" s="56">
         <f>AG40+1</f>
@@ -7737,7 +7741,7 @@
       </c>
       <c r="AI42" s="35">
         <f>IF(K42="",AI40,K42)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ42" s="35">
         <f t="shared" si="9"/>
@@ -7779,17 +7783,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT42" s="82" t="str">
+      <c r="AT42" s="158" t="str">
         <f>IF(AS42="","",AS42-AS40)</f>
         <v/>
       </c>
-      <c r="AU42" s="84" t="str">
+      <c r="AU42" s="159" t="str">
         <f ca="1">IF(AV42="","",IF(AT42="","",MROUND(AV42,5)))</f>
         <v/>
       </c>
       <c r="AV42" s="35">
         <f ca="1">IF(AH43&lt;7,AV40,IF(AH42&lt;7,AV40,((K43+(((-L42)*$AV$7)/AH43)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY42" s="35"/>
       <c r="AZ42" s="35"/>
@@ -7802,7 +7806,7 @@
       <c r="CB42" s="37"/>
     </row>
     <row r="43" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B43" s="95"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -7818,8 +7822,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="127"/>
-      <c r="M43" s="91"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
@@ -7828,16 +7832,16 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="154"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="158"/>
-      <c r="AE43" s="159"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="98"/>
       <c r="AF43" s="36"/>
       <c r="AG43" s="56">
         <f>AG42+0.5</f>
@@ -7849,7 +7853,7 @@
       </c>
       <c r="AI43" s="35">
         <f>AI42</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ43" s="35">
         <f t="shared" si="9"/>
@@ -7891,8 +7895,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="85"/>
+      <c r="AT43" s="155"/>
+      <c r="AU43" s="157"/>
       <c r="AY43" s="35"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="51"/>
@@ -7904,7 +7908,7 @@
       <c r="CB43" s="37"/>
     </row>
     <row r="44" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B44" s="92">
+      <c r="B44" s="121">
         <f>IF(B42="","",B42+7)</f>
         <v>43159</v>
       </c>
@@ -7923,11 +7927,11 @@
         <f t="shared" ref="K44:K75" si="12">IF(AH44=0,"",AS44)</f>
         <v/>
       </c>
-      <c r="L44" s="124" t="str">
+      <c r="L44" s="111" t="str">
         <f>IF(K44="","",AT44)</f>
         <v/>
       </c>
-      <c r="M44" s="88" t="str">
+      <c r="M44" s="122" t="str">
         <f ca="1">IF(AV44="","",IF(L44="","",AU44))</f>
         <v/>
       </c>
@@ -7963,7 +7967,7 @@
       </c>
       <c r="AI44" s="35">
         <f>IF(K44="",AI42,K44)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ44" s="35">
         <f t="shared" ref="AJ44:AJ75" si="14">AJ43</f>
@@ -8005,17 +8009,17 @@
         <f t="shared" ref="AS44:AS75" si="21">IF(AH44=0,"",SUM(AL44:AR44)/AH44)</f>
         <v/>
       </c>
-      <c r="AT44" s="82" t="str">
+      <c r="AT44" s="158" t="str">
         <f>IF(AS44="","",AS44-AS42)</f>
         <v/>
       </c>
-      <c r="AU44" s="84" t="str">
+      <c r="AU44" s="159" t="str">
         <f ca="1">IF(AV44="","",IF(AT44="","",MROUND(AV44,5)))</f>
         <v/>
       </c>
       <c r="AV44" s="35">
         <f ca="1">IF(AH45&lt;7,AV42,IF(AH44&lt;7,AV42,((K45+(((-L44)*$AV$7)/AH45)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY44" s="35"/>
       <c r="AZ44" s="35"/>
@@ -8028,7 +8032,7 @@
       <c r="CB44" s="37"/>
     </row>
     <row r="45" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8044,8 +8048,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L45" s="125"/>
-      <c r="M45" s="89"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="118"/>
       <c r="N45" s="36"/>
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
@@ -8075,7 +8079,7 @@
       </c>
       <c r="AI45" s="35">
         <f>AI44</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ45" s="35">
         <f t="shared" si="14"/>
@@ -8117,8 +8121,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="85"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="157"/>
       <c r="AY45" s="35"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="51"/>
@@ -8130,7 +8134,7 @@
       <c r="CB45" s="37"/>
     </row>
     <row r="46" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B46" s="94">
+      <c r="B46" s="115">
         <f>IF(B44="","",B44+7)</f>
         <v>43166</v>
       </c>
@@ -8149,11 +8153,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L46" s="126" t="str">
+      <c r="L46" s="113" t="str">
         <f>IF(K46="","",AT46)</f>
         <v/>
       </c>
-      <c r="M46" s="90" t="str">
+      <c r="M46" s="117" t="str">
         <f ca="1">IF(AV46="","",IF(L46="","",AU46))</f>
         <v/>
       </c>
@@ -8168,28 +8172,28 @@
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="137" t="str">
+      <c r="V46" s="99" t="str">
         <f ca="1">IF(M50="","","From")</f>
         <v/>
       </c>
-      <c r="W46" s="138"/>
-      <c r="X46" s="141" t="str">
+      <c r="W46" s="100"/>
+      <c r="X46" s="103" t="str">
         <f ca="1">IF(M50="","",B44)</f>
         <v/>
       </c>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="142"/>
-      <c r="AA46" s="143" t="str">
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="105" t="str">
         <f ca="1">IF(M50="","","to")</f>
         <v/>
       </c>
-      <c r="AB46" s="144" t="str">
+      <c r="AB46" s="106" t="str">
         <f ca="1">IF(M50="","",B50)</f>
         <v/>
       </c>
-      <c r="AC46" s="145"/>
-      <c r="AD46" s="146"/>
-      <c r="AE46" s="147"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="109"/>
       <c r="AF46" s="36"/>
       <c r="AG46" s="56">
         <f>AG44+1</f>
@@ -8201,7 +8205,7 @@
       </c>
       <c r="AI46" s="35">
         <f>IF(K46="",AI44,K46)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ46" s="35">
         <f t="shared" si="14"/>
@@ -8243,17 +8247,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT46" s="82" t="str">
+      <c r="AT46" s="158" t="str">
         <f>IF(AS46="","",AS46-AS44)</f>
         <v/>
       </c>
-      <c r="AU46" s="84" t="str">
+      <c r="AU46" s="159" t="str">
         <f ca="1">IF(AV46="","",IF(AT46="","",MROUND(AV46,5)))</f>
         <v/>
       </c>
       <c r="AV46" s="35">
         <f ca="1">IF(AH47&lt;7,AV44,IF(AH46&lt;7,AV44,((K47+(((-L46)*$AV$7)/AH47)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY46" s="35"/>
       <c r="AZ46" s="35"/>
@@ -8266,7 +8270,7 @@
       <c r="CB46" s="37"/>
     </row>
     <row r="47" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8282,8 +8286,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L47" s="125"/>
-      <c r="M47" s="89"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="118"/>
       <c r="N47" s="36"/>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -8292,16 +8296,16 @@
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="140"/>
-      <c r="X47" s="140"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="148"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="102"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="110"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="56">
         <f>AG46+0.5</f>
@@ -8313,7 +8317,7 @@
       </c>
       <c r="AI47" s="35">
         <f>AI46</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ47" s="35">
         <f t="shared" si="14"/>
@@ -8355,8 +8359,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT47" s="83"/>
-      <c r="AU47" s="85"/>
+      <c r="AT47" s="155"/>
+      <c r="AU47" s="157"/>
       <c r="AY47" s="35"/>
       <c r="AZ47" s="35"/>
       <c r="BA47" s="51"/>
@@ -8368,7 +8372,7 @@
       <c r="CB47" s="37"/>
     </row>
     <row r="48" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B48" s="94">
+      <c r="B48" s="115">
         <f>IF(B46="","",B46+7)</f>
         <v>43173</v>
       </c>
@@ -8387,11 +8391,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L48" s="126" t="str">
+      <c r="L48" s="113" t="str">
         <f>IF(K48="","",AT48)</f>
         <v/>
       </c>
-      <c r="M48" s="90" t="str">
+      <c r="M48" s="117" t="str">
         <f ca="1">IF(AV48="","",IF(L48="","",AU48))</f>
         <v/>
       </c>
@@ -8406,25 +8410,25 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="128" t="str">
+      <c r="V48" s="76" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"No Weight Change",IF(K50&gt;K42,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W48" s="129"/>
-      <c r="X48" s="129"/>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
       <c r="AB48" s="42" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"",IF(K50&gt;K42,K50-K42,K42-K50)))</f>
         <v/>
       </c>
-      <c r="AC48" s="160" t="str">
+      <c r="AC48" s="78" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD48" s="161"/>
-      <c r="AE48" s="162"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="56">
         <f>AG46+1</f>
@@ -8436,7 +8440,7 @@
       </c>
       <c r="AI48" s="35">
         <f>IF(K48="",AI46,K48)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ48" s="35">
         <f t="shared" si="14"/>
@@ -8478,17 +8482,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT48" s="82" t="str">
+      <c r="AT48" s="158" t="str">
         <f>IF(AS48="","",AS48-AS46)</f>
         <v/>
       </c>
-      <c r="AU48" s="84" t="str">
+      <c r="AU48" s="159" t="str">
         <f ca="1">IF(AV48="","",IF(AT48="","",MROUND(AV48,5)))</f>
         <v/>
       </c>
       <c r="AV48" s="35">
         <f ca="1">IF(AH49&lt;7,AV46,IF(AH48&lt;7,AV46,((K49+(((-L48)*$AV$7)/AH49)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY48" s="35"/>
       <c r="AZ48" s="35"/>
@@ -8501,7 +8505,7 @@
       <c r="CB48" s="37"/>
     </row>
     <row r="49" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8517,8 +8521,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L49" s="125"/>
-      <c r="M49" s="89"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="118"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
@@ -8527,25 +8531,25 @@
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="130" t="str">
+      <c r="V49" s="81" t="str">
         <f ca="1">IF(M50="","",IF(K50=K42,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="132" t="str">
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="83" t="str">
         <f ca="1">IF(V49="","",AB48/4)</f>
         <v/>
       </c>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="134" t="str">
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="85" t="str">
         <f ca="1">IF(V48="","",IF(V48="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD49" s="135"/>
-      <c r="AE49" s="136"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="87"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="56">
         <f>AG48+0.5</f>
@@ -8557,7 +8561,7 @@
       </c>
       <c r="AI49" s="35">
         <f>AI48</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ49" s="35">
         <f t="shared" si="14"/>
@@ -8599,8 +8603,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="85"/>
+      <c r="AT49" s="155"/>
+      <c r="AU49" s="157"/>
       <c r="AY49" s="35"/>
       <c r="AZ49" s="35"/>
       <c r="BA49" s="51"/>
@@ -8612,7 +8616,7 @@
       <c r="CB49" s="37"/>
     </row>
     <row r="50" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B50" s="94">
+      <c r="B50" s="115">
         <f>IF(B48="","",B48+7)</f>
         <v>43180</v>
       </c>
@@ -8631,11 +8635,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L50" s="126" t="str">
+      <c r="L50" s="113" t="str">
         <f>IF(K50="","",AT50)</f>
         <v/>
       </c>
-      <c r="M50" s="90" t="str">
+      <c r="M50" s="117" t="str">
         <f ca="1">IF(AV50="","",IF(L50="","",AU50))</f>
         <v/>
       </c>
@@ -8650,25 +8654,25 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
-      <c r="V50" s="149" t="str">
+      <c r="V50" s="88" t="str">
         <f ca="1">IF(AA49="","","You have")</f>
         <v/>
       </c>
-      <c r="W50" s="150"/>
-      <c r="X50" s="150"/>
-      <c r="Y50" s="150"/>
-      <c r="Z50" s="153" t="str">
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="92" t="str">
         <f ca="1">IF(AA49="","",IF(K50&gt;$F$7,K50-$F$7,$F$7-K50))</f>
         <v/>
       </c>
-      <c r="AA50" s="155" t="str">
+      <c r="AA50" s="94" t="str">
         <f ca="1">IF(AA49="","",IF(AA49="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-      <c r="AD50" s="156"/>
-      <c r="AE50" s="157"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="96"/>
       <c r="AF50" s="36"/>
       <c r="AG50" s="56">
         <f>AG48+1</f>
@@ -8680,7 +8684,7 @@
       </c>
       <c r="AI50" s="35">
         <f>IF(K50="",AI48,K50)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ50" s="35">
         <f t="shared" si="14"/>
@@ -8722,17 +8726,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT50" s="82" t="str">
+      <c r="AT50" s="158" t="str">
         <f>IF(AS50="","",AS50-AS48)</f>
         <v/>
       </c>
-      <c r="AU50" s="84" t="str">
+      <c r="AU50" s="159" t="str">
         <f ca="1">IF(AV50="","",IF(AT50="","",MROUND(AV50,5)))</f>
         <v/>
       </c>
       <c r="AV50" s="35">
         <f ca="1">IF(AH51&lt;7,AV48,IF(AH50&lt;7,AV48,((K51+(((-L50)*$AV$7)/AH51)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY50" s="35"/>
       <c r="AZ50" s="35"/>
@@ -8745,7 +8749,7 @@
       <c r="CB50" s="37"/>
     </row>
     <row r="51" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B51" s="95"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8761,8 +8765,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L51" s="127"/>
-      <c r="M51" s="91"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="120"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -8771,16 +8775,16 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="152"/>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
-      <c r="AC51" s="158"/>
-      <c r="AD51" s="158"/>
-      <c r="AE51" s="159"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="98"/>
       <c r="AF51" s="36"/>
       <c r="AG51" s="56">
         <f>AG50+0.5</f>
@@ -8792,7 +8796,7 @@
       </c>
       <c r="AI51" s="35">
         <f>AI50</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ51" s="35">
         <f t="shared" si="14"/>
@@ -8834,8 +8838,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT51" s="83"/>
-      <c r="AU51" s="85"/>
+      <c r="AT51" s="155"/>
+      <c r="AU51" s="157"/>
       <c r="AY51" s="35"/>
       <c r="AZ51" s="35"/>
       <c r="BA51" s="51"/>
@@ -8847,7 +8851,7 @@
       <c r="CB51" s="37"/>
     </row>
     <row r="52" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B52" s="92">
+      <c r="B52" s="121">
         <f>IF(B50="","",B50+7)</f>
         <v>43187</v>
       </c>
@@ -8866,11 +8870,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L52" s="124" t="str">
+      <c r="L52" s="111" t="str">
         <f>IF(K52="","",AT52)</f>
         <v/>
       </c>
-      <c r="M52" s="88" t="str">
+      <c r="M52" s="122" t="str">
         <f ca="1">IF(AV52="","",IF(L52="","",AU52))</f>
         <v/>
       </c>
@@ -8906,7 +8910,7 @@
       </c>
       <c r="AI52" s="35">
         <f>IF(K52="",AI50,K52)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ52" s="35">
         <f t="shared" si="14"/>
@@ -8948,17 +8952,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT52" s="82" t="str">
+      <c r="AT52" s="158" t="str">
         <f>IF(AS52="","",AS52-AS50)</f>
         <v/>
       </c>
-      <c r="AU52" s="84" t="str">
+      <c r="AU52" s="159" t="str">
         <f ca="1">IF(AV52="","",IF(AT52="","",MROUND(AV52,5)))</f>
         <v/>
       </c>
       <c r="AV52" s="35">
         <f ca="1">IF(AH53&lt;7,AV50,IF(AH52&lt;7,AV50,((K53+(((-L52)*$AV$7)/AH53)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY52" s="35"/>
       <c r="AZ52" s="35"/>
@@ -8971,7 +8975,7 @@
       <c r="CB52" s="37"/>
     </row>
     <row r="53" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B53" s="93"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -8987,8 +8991,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L53" s="125"/>
-      <c r="M53" s="89"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="118"/>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
@@ -9018,7 +9022,7 @@
       </c>
       <c r="AI53" s="35">
         <f>AI52</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ53" s="35">
         <f t="shared" si="14"/>
@@ -9060,8 +9064,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="85"/>
+      <c r="AT53" s="155"/>
+      <c r="AU53" s="157"/>
       <c r="AY53" s="35"/>
       <c r="AZ53" s="35"/>
       <c r="BA53" s="51"/>
@@ -9073,7 +9077,7 @@
       <c r="CB53" s="37"/>
     </row>
     <row r="54" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B54" s="94">
+      <c r="B54" s="115">
         <f>IF(B52="","",B52+7)</f>
         <v>43194</v>
       </c>
@@ -9092,11 +9096,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L54" s="126" t="str">
+      <c r="L54" s="113" t="str">
         <f>IF(K54="","",AT54)</f>
         <v/>
       </c>
-      <c r="M54" s="90" t="str">
+      <c r="M54" s="117" t="str">
         <f ca="1">IF(AV54="","",IF(L54="","",AU54))</f>
         <v/>
       </c>
@@ -9111,28 +9115,28 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="137" t="str">
+      <c r="V54" s="99" t="str">
         <f ca="1">IF(M58="","","From")</f>
         <v/>
       </c>
-      <c r="W54" s="138"/>
-      <c r="X54" s="141" t="str">
+      <c r="W54" s="100"/>
+      <c r="X54" s="103" t="str">
         <f ca="1">IF(M58="","",B52)</f>
         <v/>
       </c>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="143" t="str">
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="105" t="str">
         <f ca="1">IF(M58="","","to")</f>
         <v/>
       </c>
-      <c r="AB54" s="144" t="str">
+      <c r="AB54" s="106" t="str">
         <f ca="1">IF(M58="","",B58)</f>
         <v/>
       </c>
-      <c r="AC54" s="145"/>
-      <c r="AD54" s="146"/>
-      <c r="AE54" s="147"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="109"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="56">
         <f>AG52+1</f>
@@ -9144,7 +9148,7 @@
       </c>
       <c r="AI54" s="35">
         <f>IF(K54="",AI52,K54)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ54" s="35">
         <f t="shared" si="14"/>
@@ -9186,17 +9190,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT54" s="82" t="str">
+      <c r="AT54" s="158" t="str">
         <f>IF(AS54="","",AS54-AS52)</f>
         <v/>
       </c>
-      <c r="AU54" s="84" t="str">
+      <c r="AU54" s="159" t="str">
         <f ca="1">IF(AV54="","",IF(AT54="","",MROUND(AV54,5)))</f>
         <v/>
       </c>
       <c r="AV54" s="35">
         <f ca="1">IF(AH55&lt;7,AV52,IF(AH54&lt;7,AV52,((K55+(((-L54)*$AV$7)/AH55)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY54" s="35"/>
       <c r="AZ54" s="35"/>
@@ -9209,7 +9213,7 @@
       <c r="CB54" s="37"/>
     </row>
     <row r="55" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9225,8 +9229,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L55" s="125"/>
-      <c r="M55" s="89"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="118"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
@@ -9235,16 +9239,16 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="140"/>
-      <c r="X55" s="140"/>
-      <c r="Y55" s="140"/>
-      <c r="Z55" s="140"/>
-      <c r="AA55" s="140"/>
-      <c r="AB55" s="140"/>
-      <c r="AC55" s="140"/>
-      <c r="AD55" s="140"/>
-      <c r="AE55" s="148"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="102"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="102"/>
+      <c r="AC55" s="102"/>
+      <c r="AD55" s="102"/>
+      <c r="AE55" s="110"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="56">
         <f>AG54+0.5</f>
@@ -9256,7 +9260,7 @@
       </c>
       <c r="AI55" s="35">
         <f>AI54</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ55" s="35">
         <f t="shared" si="14"/>
@@ -9298,8 +9302,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT55" s="83"/>
-      <c r="AU55" s="85"/>
+      <c r="AT55" s="155"/>
+      <c r="AU55" s="157"/>
       <c r="AY55" s="35"/>
       <c r="AZ55" s="35"/>
       <c r="BA55" s="51"/>
@@ -9311,7 +9315,7 @@
       <c r="CB55" s="37"/>
     </row>
     <row r="56" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B56" s="94">
+      <c r="B56" s="115">
         <f>IF(B54="","",B54+7)</f>
         <v>43201</v>
       </c>
@@ -9330,11 +9334,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L56" s="126" t="str">
+      <c r="L56" s="113" t="str">
         <f>IF(K56="","",AT56)</f>
         <v/>
       </c>
-      <c r="M56" s="90" t="str">
+      <c r="M56" s="117" t="str">
         <f ca="1">IF(AV56="","",IF(L56="","",AU56))</f>
         <v/>
       </c>
@@ -9349,25 +9353,25 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
-      <c r="V56" s="128" t="str">
+      <c r="V56" s="76" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"No Weight Change",IF(K58&gt;K50,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W56" s="129"/>
-      <c r="X56" s="129"/>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
       <c r="AB56" s="42" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"",IF(K58&gt;K50,K58-K50,K50-K58)))</f>
         <v/>
       </c>
-      <c r="AC56" s="160" t="str">
+      <c r="AC56" s="78" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="162"/>
+      <c r="AD56" s="79"/>
+      <c r="AE56" s="80"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="56">
         <f>AG54+1</f>
@@ -9379,7 +9383,7 @@
       </c>
       <c r="AI56" s="35">
         <f>IF(K56="",AI54,K56)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ56" s="35">
         <f t="shared" si="14"/>
@@ -9421,17 +9425,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT56" s="82" t="str">
+      <c r="AT56" s="158" t="str">
         <f>IF(AS56="","",AS56-AS54)</f>
         <v/>
       </c>
-      <c r="AU56" s="84" t="str">
+      <c r="AU56" s="159" t="str">
         <f ca="1">IF(AV56="","",IF(AT56="","",MROUND(AV56,5)))</f>
         <v/>
       </c>
       <c r="AV56" s="35">
         <f ca="1">IF(AH57&lt;7,AV54,IF(AH56&lt;7,AV54,((K57+(((-L56)*$AV$7)/AH57)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY56" s="35"/>
       <c r="AZ56" s="35"/>
@@ -9444,7 +9448,7 @@
       <c r="CB56" s="37"/>
     </row>
     <row r="57" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9460,8 +9464,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L57" s="125"/>
-      <c r="M57" s="89"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="118"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -9470,25 +9474,25 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="130" t="str">
+      <c r="V57" s="81" t="str">
         <f ca="1">IF(M58="","",IF(K58=K50,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W57" s="131"/>
-      <c r="X57" s="131"/>
-      <c r="Y57" s="131"/>
-      <c r="Z57" s="131"/>
-      <c r="AA57" s="132" t="str">
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="83" t="str">
         <f ca="1">IF(V57="","",AB56/4)</f>
         <v/>
       </c>
-      <c r="AB57" s="133"/>
-      <c r="AC57" s="134" t="str">
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="85" t="str">
         <f ca="1">IF(V56="","",IF(V56="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="136"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="87"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="56">
         <f>AG56+0.5</f>
@@ -9500,7 +9504,7 @@
       </c>
       <c r="AI57" s="35">
         <f>AI56</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ57" s="35">
         <f t="shared" si="14"/>
@@ -9542,8 +9546,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT57" s="83"/>
-      <c r="AU57" s="85"/>
+      <c r="AT57" s="155"/>
+      <c r="AU57" s="157"/>
       <c r="AY57" s="35"/>
       <c r="AZ57" s="35"/>
       <c r="BA57" s="51"/>
@@ -9555,7 +9559,7 @@
       <c r="CB57" s="37"/>
     </row>
     <row r="58" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B58" s="94">
+      <c r="B58" s="115">
         <f>IF(B56="","",B56+7)</f>
         <v>43208</v>
       </c>
@@ -9574,11 +9578,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L58" s="126" t="str">
+      <c r="L58" s="113" t="str">
         <f>IF(K58="","",AT58)</f>
         <v/>
       </c>
-      <c r="M58" s="90" t="str">
+      <c r="M58" s="117" t="str">
         <f ca="1">IF(AV58="","",IF(L58="","",AU58))</f>
         <v/>
       </c>
@@ -9593,25 +9597,25 @@
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="149" t="str">
+      <c r="V58" s="88" t="str">
         <f ca="1">IF(AA57="","","You have")</f>
         <v/>
       </c>
-      <c r="W58" s="150"/>
-      <c r="X58" s="150"/>
-      <c r="Y58" s="150"/>
-      <c r="Z58" s="153" t="str">
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="92" t="str">
         <f ca="1">IF(AA57="","",IF(K58&gt;$F$7,K58-$F$7,$F$7-K58))</f>
         <v/>
       </c>
-      <c r="AA58" s="155" t="str">
+      <c r="AA58" s="94" t="str">
         <f ca="1">IF(AA57="","",IF(AA57="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB58" s="156"/>
-      <c r="AC58" s="156"/>
-      <c r="AD58" s="156"/>
-      <c r="AE58" s="157"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="96"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="56">
         <f>AG56+1</f>
@@ -9623,7 +9627,7 @@
       </c>
       <c r="AI58" s="35">
         <f>IF(K58="",AI56,K58)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ58" s="35">
         <f t="shared" si="14"/>
@@ -9665,17 +9669,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT58" s="82" t="str">
+      <c r="AT58" s="158" t="str">
         <f>IF(AS58="","",AS58-AS56)</f>
         <v/>
       </c>
-      <c r="AU58" s="84" t="str">
+      <c r="AU58" s="159" t="str">
         <f ca="1">IF(AV58="","",IF(AT58="","",MROUND(AV58,5)))</f>
         <v/>
       </c>
       <c r="AV58" s="35">
         <f ca="1">IF(AH59&lt;7,AV56,IF(AH58&lt;7,AV56,((K59+(((-L58)*$AV$7)/AH59)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY58" s="35"/>
       <c r="AZ58" s="35"/>
@@ -9688,7 +9692,7 @@
       <c r="CB58" s="37"/>
     </row>
     <row r="59" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B59" s="95"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9704,8 +9708,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L59" s="127"/>
-      <c r="M59" s="91"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="120"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -9714,16 +9718,16 @@
       <c r="S59" s="36"/>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="152"/>
-      <c r="X59" s="152"/>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="158"/>
-      <c r="AB59" s="158"/>
-      <c r="AC59" s="158"/>
-      <c r="AD59" s="158"/>
-      <c r="AE59" s="159"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="98"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="56">
         <f>AG58+0.5</f>
@@ -9735,7 +9739,7 @@
       </c>
       <c r="AI59" s="35">
         <f>AI58</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ59" s="35">
         <f t="shared" si="14"/>
@@ -9777,8 +9781,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT59" s="83"/>
-      <c r="AU59" s="85"/>
+      <c r="AT59" s="155"/>
+      <c r="AU59" s="157"/>
       <c r="AY59" s="35"/>
       <c r="AZ59" s="35"/>
       <c r="BA59" s="51"/>
@@ -9790,7 +9794,7 @@
       <c r="CB59" s="37"/>
     </row>
     <row r="60" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B60" s="92">
+      <c r="B60" s="121">
         <f>IF(B58="","",B58+7)</f>
         <v>43215</v>
       </c>
@@ -9809,11 +9813,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L60" s="124" t="str">
+      <c r="L60" s="111" t="str">
         <f>IF(K60="","",AT60)</f>
         <v/>
       </c>
-      <c r="M60" s="88" t="str">
+      <c r="M60" s="122" t="str">
         <f ca="1">IF(AV60="","",IF(L60="","",AU60))</f>
         <v/>
       </c>
@@ -9849,7 +9853,7 @@
       </c>
       <c r="AI60" s="35">
         <f>IF(K60="",AI58,K60)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ60" s="35">
         <f t="shared" si="14"/>
@@ -9891,17 +9895,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT60" s="82" t="str">
+      <c r="AT60" s="158" t="str">
         <f>IF(AS60="","",AS60-AS58)</f>
         <v/>
       </c>
-      <c r="AU60" s="84" t="str">
+      <c r="AU60" s="159" t="str">
         <f ca="1">IF(AV60="","",IF(AT60="","",MROUND(AV60,5)))</f>
         <v/>
       </c>
       <c r="AV60" s="35">
         <f ca="1">IF(AH61&lt;7,AV58,IF(AH60&lt;7,AV58,((K61+(((-L60)*$AV$7)/AH61)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY60" s="35"/>
       <c r="AZ60" s="35"/>
@@ -9914,7 +9918,7 @@
       <c r="CB60" s="37"/>
     </row>
     <row r="61" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -9930,8 +9934,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L61" s="125"/>
-      <c r="M61" s="89"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="118"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
@@ -9961,7 +9965,7 @@
       </c>
       <c r="AI61" s="35">
         <f>AI60</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ61" s="35">
         <f t="shared" si="14"/>
@@ -10003,8 +10007,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT61" s="83"/>
-      <c r="AU61" s="85"/>
+      <c r="AT61" s="155"/>
+      <c r="AU61" s="157"/>
       <c r="AY61" s="35"/>
       <c r="AZ61" s="35"/>
       <c r="BA61" s="51"/>
@@ -10016,7 +10020,7 @@
       <c r="CB61" s="37"/>
     </row>
     <row r="62" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B62" s="94">
+      <c r="B62" s="115">
         <f>IF(B60="","",B60+7)</f>
         <v>43222</v>
       </c>
@@ -10035,11 +10039,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L62" s="126" t="str">
+      <c r="L62" s="113" t="str">
         <f>IF(K62="","",AT62)</f>
         <v/>
       </c>
-      <c r="M62" s="90" t="str">
+      <c r="M62" s="117" t="str">
         <f ca="1">IF(AV62="","",IF(L62="","",AU62))</f>
         <v/>
       </c>
@@ -10054,28 +10058,28 @@
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="137" t="str">
+      <c r="V62" s="99" t="str">
         <f ca="1">IF(M66="","","From")</f>
         <v/>
       </c>
-      <c r="W62" s="138"/>
-      <c r="X62" s="141" t="str">
+      <c r="W62" s="100"/>
+      <c r="X62" s="103" t="str">
         <f ca="1">IF(M66="","",B60)</f>
         <v/>
       </c>
-      <c r="Y62" s="142"/>
-      <c r="Z62" s="142"/>
-      <c r="AA62" s="143" t="str">
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="105" t="str">
         <f ca="1">IF(M66="","","to")</f>
         <v/>
       </c>
-      <c r="AB62" s="144" t="str">
+      <c r="AB62" s="106" t="str">
         <f ca="1">IF(M66="","",B66)</f>
         <v/>
       </c>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="146"/>
-      <c r="AE62" s="147"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="109"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="56">
         <f>AG60+1</f>
@@ -10087,7 +10091,7 @@
       </c>
       <c r="AI62" s="35">
         <f>IF(K62="",AI60,K62)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ62" s="35">
         <f t="shared" si="14"/>
@@ -10129,17 +10133,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT62" s="82" t="str">
+      <c r="AT62" s="158" t="str">
         <f>IF(AS62="","",AS62-AS60)</f>
         <v/>
       </c>
-      <c r="AU62" s="84" t="str">
+      <c r="AU62" s="159" t="str">
         <f ca="1">IF(AV62="","",IF(AT62="","",MROUND(AV62,5)))</f>
         <v/>
       </c>
       <c r="AV62" s="35">
         <f ca="1">IF(AH63&lt;7,AV60,IF(AH62&lt;7,AV60,((K63+(((-L62)*$AV$7)/AH63)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY62" s="35"/>
       <c r="AZ62" s="35"/>
@@ -10152,7 +10156,7 @@
       <c r="CB62" s="37"/>
     </row>
     <row r="63" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10168,8 +10172,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L63" s="125"/>
-      <c r="M63" s="89"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="118"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -10178,16 +10182,16 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="139"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="140"/>
-      <c r="Y63" s="140"/>
-      <c r="Z63" s="140"/>
-      <c r="AA63" s="140"/>
-      <c r="AB63" s="140"/>
-      <c r="AC63" s="140"/>
-      <c r="AD63" s="140"/>
-      <c r="AE63" s="148"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="110"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="56">
         <f>AG62+0.5</f>
@@ -10199,7 +10203,7 @@
       </c>
       <c r="AI63" s="35">
         <f>AI62</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ63" s="35">
         <f t="shared" si="14"/>
@@ -10241,8 +10245,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT63" s="83"/>
-      <c r="AU63" s="85"/>
+      <c r="AT63" s="155"/>
+      <c r="AU63" s="157"/>
       <c r="AY63" s="35"/>
       <c r="AZ63" s="35"/>
       <c r="BA63" s="51"/>
@@ -10254,7 +10258,7 @@
       <c r="CB63" s="37"/>
     </row>
     <row r="64" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B64" s="94">
+      <c r="B64" s="115">
         <f>IF(B62="","",B62+7)</f>
         <v>43229</v>
       </c>
@@ -10273,11 +10277,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L64" s="126" t="str">
+      <c r="L64" s="113" t="str">
         <f>IF(K64="","",AT64)</f>
         <v/>
       </c>
-      <c r="M64" s="90" t="str">
+      <c r="M64" s="117" t="str">
         <f ca="1">IF(AV64="","",IF(L64="","",AU64))</f>
         <v/>
       </c>
@@ -10292,25 +10296,25 @@
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="128" t="str">
+      <c r="V64" s="76" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"No Weight Change",IF(K66&gt;K58,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W64" s="129"/>
-      <c r="X64" s="129"/>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="129"/>
-      <c r="AA64" s="129"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
       <c r="AB64" s="42" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"",IF(K66&gt;K58,K66-K58,K58-K66)))</f>
         <v/>
       </c>
-      <c r="AC64" s="160" t="str">
+      <c r="AC64" s="78" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD64" s="161"/>
-      <c r="AE64" s="162"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="80"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="56">
         <f>AG62+1</f>
@@ -10322,7 +10326,7 @@
       </c>
       <c r="AI64" s="35">
         <f>IF(K64="",AI62,K64)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ64" s="35">
         <f t="shared" si="14"/>
@@ -10364,17 +10368,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT64" s="82" t="str">
+      <c r="AT64" s="158" t="str">
         <f>IF(AS64="","",AS64-AS62)</f>
         <v/>
       </c>
-      <c r="AU64" s="84" t="str">
+      <c r="AU64" s="159" t="str">
         <f ca="1">IF(AV64="","",IF(AT64="","",MROUND(AV64,5)))</f>
         <v/>
       </c>
       <c r="AV64" s="35">
         <f ca="1">IF(AH65&lt;7,AV62,IF(AH64&lt;7,AV62,((K65+(((-L64)*$AV$7)/AH65)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY64" s="35"/>
       <c r="AZ64" s="35"/>
@@ -10387,7 +10391,7 @@
       <c r="CB64" s="37"/>
     </row>
     <row r="65" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B65" s="93"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10403,8 +10407,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L65" s="125"/>
-      <c r="M65" s="89"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="118"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -10413,25 +10417,25 @@
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="130" t="str">
+      <c r="V65" s="81" t="str">
         <f ca="1">IF(M66="","",IF(K66=K58,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="132" t="str">
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="83" t="str">
         <f ca="1">IF(V65="","",AB64/4)</f>
         <v/>
       </c>
-      <c r="AB65" s="133"/>
-      <c r="AC65" s="134" t="str">
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="85" t="str">
         <f ca="1">IF(V64="","",IF(V64="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD65" s="135"/>
-      <c r="AE65" s="136"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="87"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="56">
         <f>AG64+0.5</f>
@@ -10443,7 +10447,7 @@
       </c>
       <c r="AI65" s="35">
         <f>AI64</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ65" s="35">
         <f t="shared" si="14"/>
@@ -10485,8 +10489,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="85"/>
+      <c r="AT65" s="155"/>
+      <c r="AU65" s="157"/>
       <c r="AY65" s="35"/>
       <c r="AZ65" s="35"/>
       <c r="BA65" s="51"/>
@@ -10498,7 +10502,7 @@
       <c r="CB65" s="37"/>
     </row>
     <row r="66" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B66" s="94">
+      <c r="B66" s="115">
         <f>IF(B64="","",B64+7)</f>
         <v>43236</v>
       </c>
@@ -10517,11 +10521,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L66" s="126" t="str">
+      <c r="L66" s="113" t="str">
         <f>IF(K66="","",AT66)</f>
         <v/>
       </c>
-      <c r="M66" s="90" t="str">
+      <c r="M66" s="117" t="str">
         <f ca="1">IF(AV66="","",IF(L66="","",AU66))</f>
         <v/>
       </c>
@@ -10536,25 +10540,25 @@
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="149" t="str">
+      <c r="V66" s="88" t="str">
         <f ca="1">IF(AA65="","","You have")</f>
         <v/>
       </c>
-      <c r="W66" s="150"/>
-      <c r="X66" s="150"/>
-      <c r="Y66" s="150"/>
-      <c r="Z66" s="153" t="str">
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="92" t="str">
         <f ca="1">IF(AA65="","",IF(K66&gt;$F$7,K66-$F$7,$F$7-K66))</f>
         <v/>
       </c>
-      <c r="AA66" s="155" t="str">
+      <c r="AA66" s="94" t="str">
         <f ca="1">IF(AA65="","",IF(AA65="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB66" s="156"/>
-      <c r="AC66" s="156"/>
-      <c r="AD66" s="156"/>
-      <c r="AE66" s="157"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="96"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="56">
         <f>AG64+1</f>
@@ -10566,7 +10570,7 @@
       </c>
       <c r="AI66" s="35">
         <f>IF(K66="",AI64,K66)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ66" s="35">
         <f t="shared" si="14"/>
@@ -10608,17 +10612,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT66" s="82" t="str">
+      <c r="AT66" s="158" t="str">
         <f>IF(AS66="","",AS66-AS64)</f>
         <v/>
       </c>
-      <c r="AU66" s="84" t="str">
+      <c r="AU66" s="159" t="str">
         <f ca="1">IF(AV66="","",IF(AT66="","",MROUND(AV66,5)))</f>
         <v/>
       </c>
       <c r="AV66" s="35">
         <f ca="1">IF(AH67&lt;7,AV64,IF(AH66&lt;7,AV64,((K67+(((-L66)*$AV$7)/AH67)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY66" s="35"/>
       <c r="AZ66" s="35"/>
@@ -10631,7 +10635,7 @@
       <c r="CB66" s="37"/>
     </row>
     <row r="67" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B67" s="95"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10647,8 +10651,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L67" s="127"/>
-      <c r="M67" s="91"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="120"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -10657,16 +10661,16 @@
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="151"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="152"/>
-      <c r="Y67" s="152"/>
-      <c r="Z67" s="154"/>
-      <c r="AA67" s="158"/>
-      <c r="AB67" s="158"/>
-      <c r="AC67" s="158"/>
-      <c r="AD67" s="158"/>
-      <c r="AE67" s="159"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="93"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="98"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="56">
         <f>AG66+0.5</f>
@@ -10678,7 +10682,7 @@
       </c>
       <c r="AI67" s="35">
         <f>AI66</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ67" s="35">
         <f t="shared" si="14"/>
@@ -10720,8 +10724,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT67" s="83"/>
-      <c r="AU67" s="85"/>
+      <c r="AT67" s="155"/>
+      <c r="AU67" s="157"/>
       <c r="AY67" s="35"/>
       <c r="AZ67" s="35"/>
       <c r="BA67" s="51"/>
@@ -10733,7 +10737,7 @@
       <c r="CB67" s="37"/>
     </row>
     <row r="68" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B68" s="92">
+      <c r="B68" s="121">
         <f>IF(B66="","",B66+7)</f>
         <v>43243</v>
       </c>
@@ -10752,11 +10756,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L68" s="124" t="str">
+      <c r="L68" s="111" t="str">
         <f>IF(K68="","",AT68)</f>
         <v/>
       </c>
-      <c r="M68" s="88" t="str">
+      <c r="M68" s="122" t="str">
         <f ca="1">IF(AV68="","",IF(L68="","",AU68))</f>
         <v/>
       </c>
@@ -10792,7 +10796,7 @@
       </c>
       <c r="AI68" s="35">
         <f>IF(K68="",AI66,K68)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ68" s="35">
         <f t="shared" si="14"/>
@@ -10834,17 +10838,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT68" s="82" t="str">
+      <c r="AT68" s="158" t="str">
         <f>IF(AS68="","",AS68-AS66)</f>
         <v/>
       </c>
-      <c r="AU68" s="84" t="str">
+      <c r="AU68" s="159" t="str">
         <f ca="1">IF(AV68="","",IF(AT68="","",MROUND(AV68,5)))</f>
         <v/>
       </c>
       <c r="AV68" s="35">
         <f ca="1">IF(AH69&lt;7,AV66,IF(AH68&lt;7,AV66,((K69+(((-L68)*$AV$7)/AH69)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY68" s="35"/>
       <c r="AZ68" s="35"/>
@@ -10857,7 +10861,7 @@
       <c r="CB68" s="37"/>
     </row>
     <row r="69" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -10873,8 +10877,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L69" s="125"/>
-      <c r="M69" s="89"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="118"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -10904,7 +10908,7 @@
       </c>
       <c r="AI69" s="35">
         <f>AI68</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ69" s="35">
         <f t="shared" si="14"/>
@@ -10946,8 +10950,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT69" s="83"/>
-      <c r="AU69" s="85"/>
+      <c r="AT69" s="155"/>
+      <c r="AU69" s="157"/>
       <c r="AY69" s="35"/>
       <c r="AZ69" s="35"/>
       <c r="BA69" s="51"/>
@@ -10959,7 +10963,7 @@
       <c r="CB69" s="37"/>
     </row>
     <row r="70" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B70" s="94">
+      <c r="B70" s="115">
         <f>IF(B68="","",B68+7)</f>
         <v>43250</v>
       </c>
@@ -10978,11 +10982,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L70" s="126" t="str">
+      <c r="L70" s="113" t="str">
         <f>IF(K70="","",AT70)</f>
         <v/>
       </c>
-      <c r="M70" s="90" t="str">
+      <c r="M70" s="117" t="str">
         <f ca="1">IF(AV70="","",IF(L70="","",AU70))</f>
         <v/>
       </c>
@@ -10997,28 +11001,28 @@
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="137" t="str">
+      <c r="V70" s="99" t="str">
         <f ca="1">IF(M74="","","From")</f>
         <v/>
       </c>
-      <c r="W70" s="138"/>
-      <c r="X70" s="141" t="str">
+      <c r="W70" s="100"/>
+      <c r="X70" s="103" t="str">
         <f ca="1">IF(M74="","",B68)</f>
         <v/>
       </c>
-      <c r="Y70" s="142"/>
-      <c r="Z70" s="142"/>
-      <c r="AA70" s="143" t="str">
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="105" t="str">
         <f ca="1">IF(M74="","","to")</f>
         <v/>
       </c>
-      <c r="AB70" s="144" t="str">
+      <c r="AB70" s="106" t="str">
         <f ca="1">IF(M74="","",B74)</f>
         <v/>
       </c>
-      <c r="AC70" s="145"/>
-      <c r="AD70" s="146"/>
-      <c r="AE70" s="147"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="109"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="56">
         <f>AG68+1</f>
@@ -11030,7 +11034,7 @@
       </c>
       <c r="AI70" s="35">
         <f>IF(K70="",AI68,K70)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ70" s="35">
         <f t="shared" si="14"/>
@@ -11072,17 +11076,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT70" s="82" t="str">
+      <c r="AT70" s="158" t="str">
         <f>IF(AS70="","",AS70-AS68)</f>
         <v/>
       </c>
-      <c r="AU70" s="84" t="str">
+      <c r="AU70" s="159" t="str">
         <f ca="1">IF(AV70="","",IF(AT70="","",MROUND(AV70,5)))</f>
         <v/>
       </c>
       <c r="AV70" s="35">
         <f ca="1">IF(AH71&lt;7,AV68,IF(AH70&lt;7,AV68,((K71+(((-L70)*$AV$7)/AH71)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY70" s="35"/>
       <c r="AZ70" s="35"/>
@@ -11095,7 +11099,7 @@
       <c r="CB70" s="37"/>
     </row>
     <row r="71" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11111,8 +11115,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L71" s="125"/>
-      <c r="M71" s="89"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="118"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
@@ -11121,16 +11125,16 @@
       <c r="S71" s="36"/>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="139"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="140"/>
-      <c r="Y71" s="140"/>
-      <c r="Z71" s="140"/>
-      <c r="AA71" s="140"/>
-      <c r="AB71" s="140"/>
-      <c r="AC71" s="140"/>
-      <c r="AD71" s="140"/>
-      <c r="AE71" s="148"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+      <c r="AA71" s="102"/>
+      <c r="AB71" s="102"/>
+      <c r="AC71" s="102"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="110"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="56">
         <f>AG70+0.5</f>
@@ -11142,7 +11146,7 @@
       </c>
       <c r="AI71" s="35">
         <f>AI70</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ71" s="35">
         <f t="shared" si="14"/>
@@ -11184,8 +11188,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT71" s="83"/>
-      <c r="AU71" s="85"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="157"/>
       <c r="AY71" s="35"/>
       <c r="AZ71" s="35"/>
       <c r="BA71" s="51"/>
@@ -11197,7 +11201,7 @@
       <c r="CB71" s="37"/>
     </row>
     <row r="72" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B72" s="94">
+      <c r="B72" s="115">
         <f>IF(B70="","",B70+7)</f>
         <v>43257</v>
       </c>
@@ -11216,11 +11220,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L72" s="126" t="str">
+      <c r="L72" s="113" t="str">
         <f>IF(K72="","",AT72)</f>
         <v/>
       </c>
-      <c r="M72" s="90" t="str">
+      <c r="M72" s="117" t="str">
         <f ca="1">IF(AV72="","",IF(L72="","",AU72))</f>
         <v/>
       </c>
@@ -11235,25 +11239,25 @@
       <c r="S72" s="36"/>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="128" t="str">
+      <c r="V72" s="76" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"No Weight Change",IF(K74&gt;K66,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W72" s="129"/>
-      <c r="X72" s="129"/>
-      <c r="Y72" s="129"/>
-      <c r="Z72" s="129"/>
-      <c r="AA72" s="129"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
+      <c r="Z72" s="77"/>
+      <c r="AA72" s="77"/>
       <c r="AB72" s="42" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"",IF(K74&gt;K66,K74-K66,K66-K74)))</f>
         <v/>
       </c>
-      <c r="AC72" s="160" t="str">
+      <c r="AC72" s="78" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD72" s="161"/>
-      <c r="AE72" s="162"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="80"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="56">
         <f>AG70+1</f>
@@ -11265,7 +11269,7 @@
       </c>
       <c r="AI72" s="35">
         <f>IF(K72="",AI70,K72)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ72" s="35">
         <f t="shared" si="14"/>
@@ -11307,17 +11311,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT72" s="82" t="str">
+      <c r="AT72" s="158" t="str">
         <f>IF(AS72="","",AS72-AS70)</f>
         <v/>
       </c>
-      <c r="AU72" s="84" t="str">
+      <c r="AU72" s="159" t="str">
         <f ca="1">IF(AV72="","",IF(AT72="","",MROUND(AV72,5)))</f>
         <v/>
       </c>
       <c r="AV72" s="35">
         <f ca="1">IF(AH73&lt;7,AV70,IF(AH72&lt;7,AV70,((K73+(((-L72)*$AV$7)/AH73)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY72" s="35"/>
       <c r="AZ72" s="35"/>
@@ -11330,7 +11334,7 @@
       <c r="CB72" s="37"/>
     </row>
     <row r="73" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="28" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11346,8 +11350,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L73" s="125"/>
-      <c r="M73" s="89"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="118"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
@@ -11356,25 +11360,25 @@
       <c r="S73" s="36"/>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="130" t="str">
+      <c r="V73" s="81" t="str">
         <f ca="1">IF(M74="","",IF(K74=K66,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W73" s="131"/>
-      <c r="X73" s="131"/>
-      <c r="Y73" s="131"/>
-      <c r="Z73" s="131"/>
-      <c r="AA73" s="132" t="str">
+      <c r="W73" s="82"/>
+      <c r="X73" s="82"/>
+      <c r="Y73" s="82"/>
+      <c r="Z73" s="82"/>
+      <c r="AA73" s="83" t="str">
         <f ca="1">IF(V73="","",AB72/4)</f>
         <v/>
       </c>
-      <c r="AB73" s="133"/>
-      <c r="AC73" s="134" t="str">
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="85" t="str">
         <f ca="1">IF(V72="","",IF(V72="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD73" s="135"/>
-      <c r="AE73" s="136"/>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="87"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="56">
         <f>AG72+0.5</f>
@@ -11386,7 +11390,7 @@
       </c>
       <c r="AI73" s="35">
         <f>AI72</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ73" s="35">
         <f t="shared" si="14"/>
@@ -11428,8 +11432,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT73" s="83"/>
-      <c r="AU73" s="85"/>
+      <c r="AT73" s="155"/>
+      <c r="AU73" s="157"/>
       <c r="AY73" s="35"/>
       <c r="AZ73" s="35"/>
       <c r="BA73" s="51"/>
@@ -11441,7 +11445,7 @@
       <c r="CB73" s="37"/>
     </row>
     <row r="74" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B74" s="94">
+      <c r="B74" s="115">
         <f>IF(B72="","",B72+7)</f>
         <v>43264</v>
       </c>
@@ -11460,11 +11464,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L74" s="126" t="str">
+      <c r="L74" s="113" t="str">
         <f>IF(K74="","",AT74)</f>
         <v/>
       </c>
-      <c r="M74" s="90" t="str">
+      <c r="M74" s="117" t="str">
         <f ca="1">IF(AV74="","",IF(L74="","",AU74))</f>
         <v/>
       </c>
@@ -11479,25 +11483,25 @@
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="149" t="str">
+      <c r="V74" s="88" t="str">
         <f ca="1">IF(AA73="","","You have")</f>
         <v/>
       </c>
-      <c r="W74" s="150"/>
-      <c r="X74" s="150"/>
-      <c r="Y74" s="150"/>
-      <c r="Z74" s="153" t="str">
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="92" t="str">
         <f ca="1">IF(AA73="","",IF(K74&gt;$F$7,K74-$F$7,$F$7-K74))</f>
         <v/>
       </c>
-      <c r="AA74" s="155" t="str">
+      <c r="AA74" s="94" t="str">
         <f ca="1">IF(AA73="","",IF(AA73="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB74" s="156"/>
-      <c r="AC74" s="156"/>
-      <c r="AD74" s="156"/>
-      <c r="AE74" s="157"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="96"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="56">
         <f>AG72+1</f>
@@ -11509,7 +11513,7 @@
       </c>
       <c r="AI74" s="35">
         <f>IF(K74="",AI72,K74)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ74" s="35">
         <f t="shared" si="14"/>
@@ -11551,17 +11555,17 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT74" s="82" t="str">
+      <c r="AT74" s="158" t="str">
         <f>IF(AS74="","",AS74-AS72)</f>
         <v/>
       </c>
-      <c r="AU74" s="84" t="str">
+      <c r="AU74" s="159" t="str">
         <f ca="1">IF(AV74="","",IF(AT74="","",MROUND(AV74,5)))</f>
         <v/>
       </c>
       <c r="AV74" s="35">
         <f ca="1">IF(AH75&lt;7,AV72,IF(AH74&lt;7,AV72,((K75+(((-L74)*$AV$7)/AH75)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY74" s="35"/>
       <c r="AZ74" s="35"/>
@@ -11574,7 +11578,7 @@
       <c r="CB74" s="37"/>
     </row>
     <row r="75" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="11" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11590,8 +11594,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L75" s="127"/>
-      <c r="M75" s="91"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -11600,16 +11604,16 @@
       <c r="S75" s="36"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="151"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="154"/>
-      <c r="AA75" s="158"/>
-      <c r="AB75" s="158"/>
-      <c r="AC75" s="158"/>
-      <c r="AD75" s="158"/>
-      <c r="AE75" s="159"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="91"/>
+      <c r="X75" s="91"/>
+      <c r="Y75" s="91"/>
+      <c r="Z75" s="93"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="98"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="56">
         <f>AG74+0.5</f>
@@ -11621,7 +11625,7 @@
       </c>
       <c r="AI75" s="35">
         <f>AI74</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ75" s="35">
         <f t="shared" si="14"/>
@@ -11663,8 +11667,8 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AT75" s="83"/>
-      <c r="AU75" s="85"/>
+      <c r="AT75" s="155"/>
+      <c r="AU75" s="157"/>
       <c r="AY75" s="35"/>
       <c r="AZ75" s="35"/>
       <c r="BA75" s="51"/>
@@ -11676,7 +11680,7 @@
       <c r="CB75" s="37"/>
     </row>
     <row r="76" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B76" s="92">
+      <c r="B76" s="121">
         <f>IF(B74="","",B74+7)</f>
         <v>43271</v>
       </c>
@@ -11695,11 +11699,11 @@
         <f t="shared" ref="K76:K107" si="23">IF(AH76=0,"",AS76)</f>
         <v/>
       </c>
-      <c r="L76" s="124" t="str">
+      <c r="L76" s="111" t="str">
         <f>IF(K76="","",AT76)</f>
         <v/>
       </c>
-      <c r="M76" s="88" t="str">
+      <c r="M76" s="122" t="str">
         <f ca="1">IF(AV76="","",IF(L76="","",AU76))</f>
         <v/>
       </c>
@@ -11735,7 +11739,7 @@
       </c>
       <c r="AI76" s="35">
         <f>IF(K76="",AI74,K76)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ76" s="35">
         <f t="shared" ref="AJ76:AJ107" si="25">AJ75</f>
@@ -11777,17 +11781,17 @@
         <f t="shared" ref="AS76:AS107" si="32">IF(AH76=0,"",SUM(AL76:AR76)/AH76)</f>
         <v/>
       </c>
-      <c r="AT76" s="82" t="str">
+      <c r="AT76" s="158" t="str">
         <f>IF(AS76="","",AS76-AS74)</f>
         <v/>
       </c>
-      <c r="AU76" s="84" t="str">
+      <c r="AU76" s="159" t="str">
         <f ca="1">IF(AV76="","",IF(AT76="","",MROUND(AV76,5)))</f>
         <v/>
       </c>
       <c r="AV76" s="35">
         <f ca="1">IF(AH77&lt;7,AV74,IF(AH76&lt;7,AV74,((K77+(((-L76)*$AV$7)/AH77)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY76" s="35"/>
       <c r="AZ76" s="35"/>
@@ -11800,7 +11804,7 @@
       <c r="CB76" s="37"/>
     </row>
     <row r="77" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Cal.</v>
@@ -11816,8 +11820,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L77" s="125"/>
-      <c r="M77" s="89"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="118"/>
       <c r="N77" s="36"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
@@ -11847,7 +11851,7 @@
       </c>
       <c r="AI77" s="35">
         <f>AI76</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ77" s="35">
         <f t="shared" si="25"/>
@@ -11889,8 +11893,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT77" s="83"/>
-      <c r="AU77" s="85"/>
+      <c r="AT77" s="155"/>
+      <c r="AU77" s="157"/>
       <c r="AY77" s="35"/>
       <c r="AZ77" s="35"/>
       <c r="BA77" s="51"/>
@@ -11902,7 +11906,7 @@
       <c r="CB77" s="37"/>
     </row>
     <row r="78" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B78" s="94">
+      <c r="B78" s="115">
         <f>IF(B76="","",B76+7)</f>
         <v>43278</v>
       </c>
@@ -11921,11 +11925,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L78" s="126" t="str">
+      <c r="L78" s="113" t="str">
         <f>IF(K78="","",AT78)</f>
         <v/>
       </c>
-      <c r="M78" s="90" t="str">
+      <c r="M78" s="117" t="str">
         <f ca="1">IF(AV78="","",IF(L78="","",AU78))</f>
         <v/>
       </c>
@@ -11940,28 +11944,28 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="137" t="str">
+      <c r="V78" s="99" t="str">
         <f ca="1">IF(M82="","","From")</f>
         <v/>
       </c>
-      <c r="W78" s="138"/>
-      <c r="X78" s="141" t="str">
+      <c r="W78" s="100"/>
+      <c r="X78" s="103" t="str">
         <f ca="1">IF(M82="","",B76)</f>
         <v/>
       </c>
-      <c r="Y78" s="142"/>
-      <c r="Z78" s="142"/>
-      <c r="AA78" s="143" t="str">
+      <c r="Y78" s="104"/>
+      <c r="Z78" s="104"/>
+      <c r="AA78" s="105" t="str">
         <f ca="1">IF(M82="","","to")</f>
         <v/>
       </c>
-      <c r="AB78" s="144" t="str">
+      <c r="AB78" s="106" t="str">
         <f ca="1">IF(M82="","",B82)</f>
         <v/>
       </c>
-      <c r="AC78" s="145"/>
-      <c r="AD78" s="146"/>
-      <c r="AE78" s="147"/>
+      <c r="AC78" s="107"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="109"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="56">
         <f>AG76+1</f>
@@ -11973,7 +11977,7 @@
       </c>
       <c r="AI78" s="35">
         <f>IF(K78="",AI76,K78)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ78" s="35">
         <f t="shared" si="25"/>
@@ -12015,17 +12019,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT78" s="82" t="str">
+      <c r="AT78" s="158" t="str">
         <f>IF(AS78="","",AS78-AS76)</f>
         <v/>
       </c>
-      <c r="AU78" s="84" t="str">
+      <c r="AU78" s="159" t="str">
         <f ca="1">IF(AV78="","",IF(AT78="","",MROUND(AV78,5)))</f>
         <v/>
       </c>
       <c r="AV78" s="35">
         <f ca="1">IF(AH79&lt;7,AV76,IF(AH78&lt;7,AV76,((K79+(((-L78)*$AV$7)/AH79)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY78" s="35"/>
       <c r="AZ78" s="35"/>
@@ -12038,7 +12042,7 @@
       <c r="CB78" s="37"/>
     </row>
     <row r="79" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12054,8 +12058,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L79" s="125"/>
-      <c r="M79" s="89"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="118"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
@@ -12064,16 +12068,16 @@
       <c r="S79" s="36"/>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="140"/>
-      <c r="X79" s="140"/>
-      <c r="Y79" s="140"/>
-      <c r="Z79" s="140"/>
-      <c r="AA79" s="140"/>
-      <c r="AB79" s="140"/>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="140"/>
-      <c r="AE79" s="148"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="102"/>
+      <c r="Z79" s="102"/>
+      <c r="AA79" s="102"/>
+      <c r="AB79" s="102"/>
+      <c r="AC79" s="102"/>
+      <c r="AD79" s="102"/>
+      <c r="AE79" s="110"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="56">
         <f>AG78+0.5</f>
@@ -12085,7 +12089,7 @@
       </c>
       <c r="AI79" s="35">
         <f>AI78</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ79" s="35">
         <f t="shared" si="25"/>
@@ -12127,8 +12131,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT79" s="83"/>
-      <c r="AU79" s="85"/>
+      <c r="AT79" s="155"/>
+      <c r="AU79" s="157"/>
       <c r="AY79" s="35"/>
       <c r="AZ79" s="35"/>
       <c r="BA79" s="51"/>
@@ -12140,7 +12144,7 @@
       <c r="CB79" s="37"/>
     </row>
     <row r="80" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B80" s="94">
+      <c r="B80" s="115">
         <f>IF(B78="","",B78+7)</f>
         <v>43285</v>
       </c>
@@ -12159,11 +12163,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L80" s="126" t="str">
+      <c r="L80" s="113" t="str">
         <f>IF(K80="","",AT80)</f>
         <v/>
       </c>
-      <c r="M80" s="90" t="str">
+      <c r="M80" s="117" t="str">
         <f ca="1">IF(AV80="","",IF(L80="","",AU80))</f>
         <v/>
       </c>
@@ -12178,25 +12182,25 @@
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
-      <c r="V80" s="128" t="str">
+      <c r="V80" s="76" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"No Weight Change",IF(K82&gt;K74,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W80" s="129"/>
-      <c r="X80" s="129"/>
-      <c r="Y80" s="129"/>
-      <c r="Z80" s="129"/>
-      <c r="AA80" s="129"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
       <c r="AB80" s="42" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"",IF(K82&gt;K74,K82-K74,K74-K82)))</f>
         <v/>
       </c>
-      <c r="AC80" s="160" t="str">
+      <c r="AC80" s="78" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD80" s="161"/>
-      <c r="AE80" s="162"/>
+      <c r="AD80" s="79"/>
+      <c r="AE80" s="80"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="56">
         <f>AG78+1</f>
@@ -12208,7 +12212,7 @@
       </c>
       <c r="AI80" s="35">
         <f>IF(K80="",AI78,K80)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ80" s="35">
         <f t="shared" si="25"/>
@@ -12250,17 +12254,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT80" s="82" t="str">
+      <c r="AT80" s="158" t="str">
         <f>IF(AS80="","",AS80-AS78)</f>
         <v/>
       </c>
-      <c r="AU80" s="84" t="str">
+      <c r="AU80" s="159" t="str">
         <f ca="1">IF(AV80="","",IF(AT80="","",MROUND(AV80,5)))</f>
         <v/>
       </c>
       <c r="AV80" s="35">
         <f ca="1">IF(AH81&lt;7,AV78,IF(AH80&lt;7,AV78,((K81+(((-L80)*$AV$7)/AH81)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY80" s="35"/>
       <c r="AZ80" s="35"/>
@@ -12273,7 +12277,7 @@
       <c r="CB80" s="37"/>
     </row>
     <row r="81" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12289,8 +12293,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L81" s="125"/>
-      <c r="M81" s="89"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="118"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -12299,25 +12303,25 @@
       <c r="S81" s="36"/>
       <c r="T81" s="36"/>
       <c r="U81" s="36"/>
-      <c r="V81" s="130" t="str">
+      <c r="V81" s="81" t="str">
         <f ca="1">IF(M82="","",IF(K82=K74,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W81" s="131"/>
-      <c r="X81" s="131"/>
-      <c r="Y81" s="131"/>
-      <c r="Z81" s="131"/>
-      <c r="AA81" s="132" t="str">
+      <c r="W81" s="82"/>
+      <c r="X81" s="82"/>
+      <c r="Y81" s="82"/>
+      <c r="Z81" s="82"/>
+      <c r="AA81" s="83" t="str">
         <f ca="1">IF(V81="","",AB80/4)</f>
         <v/>
       </c>
-      <c r="AB81" s="133"/>
-      <c r="AC81" s="134" t="str">
+      <c r="AB81" s="84"/>
+      <c r="AC81" s="85" t="str">
         <f ca="1">IF(V80="","",IF(V80="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD81" s="135"/>
-      <c r="AE81" s="136"/>
+      <c r="AD81" s="86"/>
+      <c r="AE81" s="87"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="56">
         <f>AG80+0.5</f>
@@ -12329,7 +12333,7 @@
       </c>
       <c r="AI81" s="35">
         <f>AI80</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ81" s="35">
         <f t="shared" si="25"/>
@@ -12371,8 +12375,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT81" s="83"/>
-      <c r="AU81" s="85"/>
+      <c r="AT81" s="155"/>
+      <c r="AU81" s="157"/>
       <c r="AY81" s="35"/>
       <c r="AZ81" s="35"/>
       <c r="BA81" s="51"/>
@@ -12384,7 +12388,7 @@
       <c r="CB81" s="37"/>
     </row>
     <row r="82" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B82" s="94">
+      <c r="B82" s="115">
         <f>IF(B80="","",B80+7)</f>
         <v>43292</v>
       </c>
@@ -12403,11 +12407,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L82" s="126" t="str">
+      <c r="L82" s="113" t="str">
         <f>IF(K82="","",AT82)</f>
         <v/>
       </c>
-      <c r="M82" s="90" t="str">
+      <c r="M82" s="117" t="str">
         <f ca="1">IF(AV82="","",IF(L82="","",AU82))</f>
         <v/>
       </c>
@@ -12422,25 +12426,25 @@
       <c r="S82" s="36"/>
       <c r="T82" s="36"/>
       <c r="U82" s="36"/>
-      <c r="V82" s="149" t="str">
+      <c r="V82" s="88" t="str">
         <f ca="1">IF(AA81="","","You have")</f>
         <v/>
       </c>
-      <c r="W82" s="150"/>
-      <c r="X82" s="150"/>
-      <c r="Y82" s="150"/>
-      <c r="Z82" s="153" t="str">
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="92" t="str">
         <f ca="1">IF(AA81="","",IF(K82&gt;$F$7,K82-$F$7,$F$7-K82))</f>
         <v/>
       </c>
-      <c r="AA82" s="155" t="str">
+      <c r="AA82" s="94" t="str">
         <f ca="1">IF(AA81="","",IF(AA81="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB82" s="156"/>
-      <c r="AC82" s="156"/>
-      <c r="AD82" s="156"/>
-      <c r="AE82" s="157"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="96"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="56">
         <f>AG80+1</f>
@@ -12452,7 +12456,7 @@
       </c>
       <c r="AI82" s="35">
         <f>IF(K82="",AI80,K82)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ82" s="35">
         <f t="shared" si="25"/>
@@ -12494,17 +12498,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT82" s="82" t="str">
+      <c r="AT82" s="158" t="str">
         <f>IF(AS82="","",AS82-AS80)</f>
         <v/>
       </c>
-      <c r="AU82" s="84" t="str">
+      <c r="AU82" s="159" t="str">
         <f ca="1">IF(AV82="","",IF(AT82="","",MROUND(AV82,5)))</f>
         <v/>
       </c>
       <c r="AV82" s="35">
         <f ca="1">IF(AH83&lt;7,AV80,IF(AH82&lt;7,AV80,((K83+(((-L82)*$AV$7)/AH83)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY82" s="35"/>
       <c r="AZ82" s="35"/>
@@ -12517,7 +12521,7 @@
       <c r="CB82" s="37"/>
     </row>
     <row r="83" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B83" s="95"/>
+      <c r="B83" s="119"/>
       <c r="C83" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12533,8 +12537,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L83" s="127"/>
-      <c r="M83" s="91"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="120"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
@@ -12543,16 +12547,16 @@
       <c r="S83" s="36"/>
       <c r="T83" s="36"/>
       <c r="U83" s="36"/>
-      <c r="V83" s="151"/>
-      <c r="W83" s="152"/>
-      <c r="X83" s="152"/>
-      <c r="Y83" s="152"/>
-      <c r="Z83" s="154"/>
-      <c r="AA83" s="158"/>
-      <c r="AB83" s="158"/>
-      <c r="AC83" s="158"/>
-      <c r="AD83" s="158"/>
-      <c r="AE83" s="159"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="98"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="56">
         <f>AG82+0.5</f>
@@ -12564,7 +12568,7 @@
       </c>
       <c r="AI83" s="35">
         <f>AI82</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ83" s="35">
         <f t="shared" si="25"/>
@@ -12606,8 +12610,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT83" s="83"/>
-      <c r="AU83" s="85"/>
+      <c r="AT83" s="155"/>
+      <c r="AU83" s="157"/>
       <c r="AY83" s="35"/>
       <c r="AZ83" s="35"/>
       <c r="BA83" s="51"/>
@@ -12619,7 +12623,7 @@
       <c r="CB83" s="37"/>
     </row>
     <row r="84" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B84" s="92">
+      <c r="B84" s="121">
         <f>IF(B82="","",B82+7)</f>
         <v>43299</v>
       </c>
@@ -12638,11 +12642,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L84" s="124" t="str">
+      <c r="L84" s="111" t="str">
         <f>IF(K84="","",AT84)</f>
         <v/>
       </c>
-      <c r="M84" s="88" t="str">
+      <c r="M84" s="122" t="str">
         <f ca="1">IF(AV84="","",IF(L84="","",AU84))</f>
         <v/>
       </c>
@@ -12678,7 +12682,7 @@
       </c>
       <c r="AI84" s="35">
         <f>IF(K84="",AI82,K84)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ84" s="35">
         <f t="shared" si="25"/>
@@ -12720,17 +12724,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT84" s="82" t="str">
+      <c r="AT84" s="158" t="str">
         <f>IF(AS84="","",AS84-AS82)</f>
         <v/>
       </c>
-      <c r="AU84" s="84" t="str">
+      <c r="AU84" s="159" t="str">
         <f ca="1">IF(AV84="","",IF(AT84="","",MROUND(AV84,5)))</f>
         <v/>
       </c>
       <c r="AV84" s="35">
         <f ca="1">IF(AH85&lt;7,AV82,IF(AH84&lt;7,AV82,((K85+(((-L84)*$AV$7)/AH85)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY84" s="35"/>
       <c r="AZ84" s="35"/>
@@ -12743,7 +12747,7 @@
       <c r="CB84" s="37"/>
     </row>
     <row r="85" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12759,8 +12763,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L85" s="125"/>
-      <c r="M85" s="89"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="118"/>
       <c r="N85" s="36"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
@@ -12790,7 +12794,7 @@
       </c>
       <c r="AI85" s="35">
         <f>AI84</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ85" s="35">
         <f t="shared" si="25"/>
@@ -12832,8 +12836,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT85" s="83"/>
-      <c r="AU85" s="85"/>
+      <c r="AT85" s="155"/>
+      <c r="AU85" s="157"/>
       <c r="AY85" s="35"/>
       <c r="AZ85" s="35"/>
       <c r="BA85" s="51"/>
@@ -12845,7 +12849,7 @@
       <c r="CB85" s="37"/>
     </row>
     <row r="86" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B86" s="94">
+      <c r="B86" s="115">
         <f>IF(B84="","",B84+7)</f>
         <v>43306</v>
       </c>
@@ -12864,11 +12868,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L86" s="126" t="str">
+      <c r="L86" s="113" t="str">
         <f>IF(K86="","",AT86)</f>
         <v/>
       </c>
-      <c r="M86" s="90" t="str">
+      <c r="M86" s="117" t="str">
         <f ca="1">IF(AV86="","",IF(L86="","",AU86))</f>
         <v/>
       </c>
@@ -12883,28 +12887,28 @@
       <c r="S86" s="36"/>
       <c r="T86" s="36"/>
       <c r="U86" s="36"/>
-      <c r="V86" s="137" t="str">
+      <c r="V86" s="99" t="str">
         <f ca="1">IF(M90="","","From")</f>
         <v/>
       </c>
-      <c r="W86" s="138"/>
-      <c r="X86" s="141" t="str">
+      <c r="W86" s="100"/>
+      <c r="X86" s="103" t="str">
         <f ca="1">IF(M90="","",B84)</f>
         <v/>
       </c>
-      <c r="Y86" s="142"/>
-      <c r="Z86" s="142"/>
-      <c r="AA86" s="143" t="str">
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
+      <c r="AA86" s="105" t="str">
         <f ca="1">IF(M90="","","to")</f>
         <v/>
       </c>
-      <c r="AB86" s="144" t="str">
+      <c r="AB86" s="106" t="str">
         <f ca="1">IF(M90="","",B90)</f>
         <v/>
       </c>
-      <c r="AC86" s="145"/>
-      <c r="AD86" s="146"/>
-      <c r="AE86" s="147"/>
+      <c r="AC86" s="107"/>
+      <c r="AD86" s="108"/>
+      <c r="AE86" s="109"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="56">
         <f>AG84+1</f>
@@ -12916,7 +12920,7 @@
       </c>
       <c r="AI86" s="35">
         <f>IF(K86="",AI84,K86)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ86" s="35">
         <f t="shared" si="25"/>
@@ -12958,17 +12962,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT86" s="82" t="str">
+      <c r="AT86" s="158" t="str">
         <f>IF(AS86="","",AS86-AS84)</f>
         <v/>
       </c>
-      <c r="AU86" s="84" t="str">
+      <c r="AU86" s="159" t="str">
         <f ca="1">IF(AV86="","",IF(AT86="","",MROUND(AV86,5)))</f>
         <v/>
       </c>
       <c r="AV86" s="35">
         <f ca="1">IF(AH87&lt;7,AV84,IF(AH86&lt;7,AV84,((K87+(((-L86)*$AV$7)/AH87)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY86" s="35"/>
       <c r="AZ86" s="35"/>
@@ -12981,7 +12985,7 @@
       <c r="CB86" s="37"/>
     </row>
     <row r="87" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B87" s="93"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -12997,8 +13001,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L87" s="125"/>
-      <c r="M87" s="89"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="118"/>
       <c r="N87" s="36"/>
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
@@ -13007,16 +13011,16 @@
       <c r="S87" s="36"/>
       <c r="T87" s="36"/>
       <c r="U87" s="36"/>
-      <c r="V87" s="139"/>
-      <c r="W87" s="140"/>
-      <c r="X87" s="140"/>
-      <c r="Y87" s="140"/>
-      <c r="Z87" s="140"/>
-      <c r="AA87" s="140"/>
-      <c r="AB87" s="140"/>
-      <c r="AC87" s="140"/>
-      <c r="AD87" s="140"/>
-      <c r="AE87" s="148"/>
+      <c r="V87" s="101"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
+      <c r="AB87" s="102"/>
+      <c r="AC87" s="102"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="110"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="56">
         <f>AG86+0.5</f>
@@ -13028,7 +13032,7 @@
       </c>
       <c r="AI87" s="35">
         <f>AI86</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ87" s="35">
         <f t="shared" si="25"/>
@@ -13070,8 +13074,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT87" s="83"/>
-      <c r="AU87" s="85"/>
+      <c r="AT87" s="155"/>
+      <c r="AU87" s="157"/>
       <c r="AY87" s="35"/>
       <c r="AZ87" s="35"/>
       <c r="BA87" s="51"/>
@@ -13083,7 +13087,7 @@
       <c r="CB87" s="37"/>
     </row>
     <row r="88" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B88" s="94">
+      <c r="B88" s="115">
         <f>IF(B86="","",B86+7)</f>
         <v>43313</v>
       </c>
@@ -13102,11 +13106,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L88" s="126" t="str">
+      <c r="L88" s="113" t="str">
         <f>IF(K88="","",AT88)</f>
         <v/>
       </c>
-      <c r="M88" s="90" t="str">
+      <c r="M88" s="117" t="str">
         <f ca="1">IF(AV88="","",IF(L88="","",AU88))</f>
         <v/>
       </c>
@@ -13121,25 +13125,25 @@
       <c r="S88" s="36"/>
       <c r="T88" s="36"/>
       <c r="U88" s="36"/>
-      <c r="V88" s="128" t="str">
+      <c r="V88" s="76" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"No Weight Change",IF(K90&gt;K82,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W88" s="129"/>
-      <c r="X88" s="129"/>
-      <c r="Y88" s="129"/>
-      <c r="Z88" s="129"/>
-      <c r="AA88" s="129"/>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+      <c r="Y88" s="77"/>
+      <c r="Z88" s="77"/>
+      <c r="AA88" s="77"/>
       <c r="AB88" s="42" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"",IF(K90&gt;K82,K90-K82,K82-K90)))</f>
         <v/>
       </c>
-      <c r="AC88" s="160" t="str">
+      <c r="AC88" s="78" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD88" s="161"/>
-      <c r="AE88" s="162"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="80"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="56">
         <f>AG86+1</f>
@@ -13151,7 +13155,7 @@
       </c>
       <c r="AI88" s="35">
         <f>IF(K88="",AI86,K88)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ88" s="35">
         <f t="shared" si="25"/>
@@ -13193,17 +13197,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT88" s="82" t="str">
+      <c r="AT88" s="158" t="str">
         <f>IF(AS88="","",AS88-AS86)</f>
         <v/>
       </c>
-      <c r="AU88" s="84" t="str">
+      <c r="AU88" s="159" t="str">
         <f ca="1">IF(AV88="","",IF(AT88="","",MROUND(AV88,5)))</f>
         <v/>
       </c>
       <c r="AV88" s="35">
         <f ca="1">IF(AH89&lt;7,AV86,IF(AH88&lt;7,AV86,((K89+(((-L88)*$AV$7)/AH89)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY88" s="35"/>
       <c r="AZ88" s="35"/>
@@ -13216,7 +13220,7 @@
       <c r="CB88" s="37"/>
     </row>
     <row r="89" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13232,8 +13236,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L89" s="125"/>
-      <c r="M89" s="89"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="118"/>
       <c r="N89" s="36"/>
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
@@ -13242,25 +13246,25 @@
       <c r="S89" s="36"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
-      <c r="V89" s="130" t="str">
+      <c r="V89" s="81" t="str">
         <f ca="1">IF(M90="","",IF(K90=K82,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W89" s="131"/>
-      <c r="X89" s="131"/>
-      <c r="Y89" s="131"/>
-      <c r="Z89" s="131"/>
-      <c r="AA89" s="132" t="str">
+      <c r="W89" s="82"/>
+      <c r="X89" s="82"/>
+      <c r="Y89" s="82"/>
+      <c r="Z89" s="82"/>
+      <c r="AA89" s="83" t="str">
         <f ca="1">IF(V89="","",AB88/4)</f>
         <v/>
       </c>
-      <c r="AB89" s="133"/>
-      <c r="AC89" s="134" t="str">
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85" t="str">
         <f ca="1">IF(V88="","",IF(V88="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD89" s="135"/>
-      <c r="AE89" s="136"/>
+      <c r="AD89" s="86"/>
+      <c r="AE89" s="87"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="56">
         <f>AG88+0.5</f>
@@ -13272,7 +13276,7 @@
       </c>
       <c r="AI89" s="35">
         <f>AI88</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ89" s="35">
         <f t="shared" si="25"/>
@@ -13314,8 +13318,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT89" s="83"/>
-      <c r="AU89" s="85"/>
+      <c r="AT89" s="155"/>
+      <c r="AU89" s="157"/>
       <c r="AY89" s="35"/>
       <c r="AZ89" s="35"/>
       <c r="BA89" s="51"/>
@@ -13327,7 +13331,7 @@
       <c r="CB89" s="37"/>
     </row>
     <row r="90" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B90" s="94">
+      <c r="B90" s="115">
         <f>IF(B88="","",B88+7)</f>
         <v>43320</v>
       </c>
@@ -13346,11 +13350,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L90" s="126" t="str">
+      <c r="L90" s="113" t="str">
         <f>IF(K90="","",AT90)</f>
         <v/>
       </c>
-      <c r="M90" s="90" t="str">
+      <c r="M90" s="117" t="str">
         <f ca="1">IF(AV90="","",IF(L90="","",AU90))</f>
         <v/>
       </c>
@@ -13365,25 +13369,25 @@
       <c r="S90" s="36"/>
       <c r="T90" s="36"/>
       <c r="U90" s="36"/>
-      <c r="V90" s="149" t="str">
+      <c r="V90" s="88" t="str">
         <f ca="1">IF(AA89="","","You have")</f>
         <v/>
       </c>
-      <c r="W90" s="150"/>
-      <c r="X90" s="150"/>
-      <c r="Y90" s="150"/>
-      <c r="Z90" s="153" t="str">
+      <c r="W90" s="89"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="92" t="str">
         <f ca="1">IF(AA89="","",IF(K90&gt;$F$7,K90-$F$7,$F$7-K90))</f>
         <v/>
       </c>
-      <c r="AA90" s="155" t="str">
+      <c r="AA90" s="94" t="str">
         <f ca="1">IF(AA89="","",IF(AA89="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB90" s="156"/>
-      <c r="AC90" s="156"/>
-      <c r="AD90" s="156"/>
-      <c r="AE90" s="157"/>
+      <c r="AB90" s="95"/>
+      <c r="AC90" s="95"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="96"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="56">
         <f>AG88+1</f>
@@ -13395,7 +13399,7 @@
       </c>
       <c r="AI90" s="35">
         <f>IF(K90="",AI88,K90)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ90" s="35">
         <f t="shared" si="25"/>
@@ -13437,17 +13441,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT90" s="82" t="str">
+      <c r="AT90" s="158" t="str">
         <f>IF(AS90="","",AS90-AS88)</f>
         <v/>
       </c>
-      <c r="AU90" s="84" t="str">
+      <c r="AU90" s="159" t="str">
         <f ca="1">IF(AV90="","",IF(AT90="","",MROUND(AV90,5)))</f>
         <v/>
       </c>
       <c r="AV90" s="35">
         <f ca="1">IF(AH91&lt;7,AV88,IF(AH90&lt;7,AV88,((K91+(((-L90)*$AV$7)/AH91)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY90" s="35"/>
       <c r="AZ90" s="35"/>
@@ -13460,7 +13464,7 @@
       <c r="CB90" s="37"/>
     </row>
     <row r="91" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B91" s="95"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13476,8 +13480,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L91" s="127"/>
-      <c r="M91" s="91"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="120"/>
       <c r="N91" s="36"/>
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
@@ -13486,16 +13490,16 @@
       <c r="S91" s="36"/>
       <c r="T91" s="36"/>
       <c r="U91" s="36"/>
-      <c r="V91" s="151"/>
-      <c r="W91" s="152"/>
-      <c r="X91" s="152"/>
-      <c r="Y91" s="152"/>
-      <c r="Z91" s="154"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158"/>
-      <c r="AC91" s="158"/>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="159"/>
+      <c r="V91" s="90"/>
+      <c r="W91" s="91"/>
+      <c r="X91" s="91"/>
+      <c r="Y91" s="91"/>
+      <c r="Z91" s="93"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="98"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="56">
         <f>AG90+0.5</f>
@@ -13507,7 +13511,7 @@
       </c>
       <c r="AI91" s="35">
         <f>AI90</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ91" s="35">
         <f t="shared" si="25"/>
@@ -13549,8 +13553,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT91" s="83"/>
-      <c r="AU91" s="85"/>
+      <c r="AT91" s="155"/>
+      <c r="AU91" s="157"/>
       <c r="AY91" s="35"/>
       <c r="AZ91" s="35"/>
       <c r="BA91" s="51"/>
@@ -13562,7 +13566,7 @@
       <c r="CB91" s="37"/>
     </row>
     <row r="92" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B92" s="92">
+      <c r="B92" s="121">
         <f>IF(B90="","",B90+7)</f>
         <v>43327</v>
       </c>
@@ -13581,11 +13585,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L92" s="124" t="str">
+      <c r="L92" s="111" t="str">
         <f>IF(K92="","",AT92)</f>
         <v/>
       </c>
-      <c r="M92" s="88" t="str">
+      <c r="M92" s="122" t="str">
         <f ca="1">IF(AV92="","",IF(L92="","",AU92))</f>
         <v/>
       </c>
@@ -13621,7 +13625,7 @@
       </c>
       <c r="AI92" s="35">
         <f>IF(K92="",AI90,K92)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ92" s="35">
         <f t="shared" si="25"/>
@@ -13663,17 +13667,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT92" s="82" t="str">
+      <c r="AT92" s="158" t="str">
         <f>IF(AS92="","",AS92-AS90)</f>
         <v/>
       </c>
-      <c r="AU92" s="84" t="str">
+      <c r="AU92" s="159" t="str">
         <f ca="1">IF(AV92="","",IF(AT92="","",MROUND(AV92,5)))</f>
         <v/>
       </c>
       <c r="AV92" s="35">
         <f ca="1">IF(AH93&lt;7,AV90,IF(AH92&lt;7,AV90,((K93+(((-L92)*$AV$7)/AH93)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY92" s="35"/>
       <c r="AZ92" s="35"/>
@@ -13686,7 +13690,7 @@
       <c r="CB92" s="37"/>
     </row>
     <row r="93" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13702,8 +13706,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L93" s="125"/>
-      <c r="M93" s="89"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="118"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
@@ -13733,7 +13737,7 @@
       </c>
       <c r="AI93" s="35">
         <f>AI92</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ93" s="35">
         <f t="shared" si="25"/>
@@ -13775,8 +13779,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT93" s="83"/>
-      <c r="AU93" s="85"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="157"/>
       <c r="AY93" s="35"/>
       <c r="AZ93" s="35"/>
       <c r="BA93" s="51"/>
@@ -13788,7 +13792,7 @@
       <c r="CB93" s="37"/>
     </row>
     <row r="94" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B94" s="94">
+      <c r="B94" s="115">
         <f>IF(B92="","",B92+7)</f>
         <v>43334</v>
       </c>
@@ -13807,11 +13811,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L94" s="126" t="str">
+      <c r="L94" s="113" t="str">
         <f>IF(K94="","",AT94)</f>
         <v/>
       </c>
-      <c r="M94" s="90" t="str">
+      <c r="M94" s="117" t="str">
         <f ca="1">IF(AV94="","",IF(L94="","",AU94))</f>
         <v/>
       </c>
@@ -13826,28 +13830,28 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="137" t="str">
+      <c r="V94" s="99" t="str">
         <f ca="1">IF(M98="","","From")</f>
         <v/>
       </c>
-      <c r="W94" s="138"/>
-      <c r="X94" s="141" t="str">
+      <c r="W94" s="100"/>
+      <c r="X94" s="103" t="str">
         <f ca="1">IF(M98="","",B92)</f>
         <v/>
       </c>
-      <c r="Y94" s="142"/>
-      <c r="Z94" s="142"/>
-      <c r="AA94" s="143" t="str">
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+      <c r="AA94" s="105" t="str">
         <f ca="1">IF(M98="","","to")</f>
         <v/>
       </c>
-      <c r="AB94" s="144" t="str">
+      <c r="AB94" s="106" t="str">
         <f ca="1">IF(M98="","",B98)</f>
         <v/>
       </c>
-      <c r="AC94" s="145"/>
-      <c r="AD94" s="146"/>
-      <c r="AE94" s="147"/>
+      <c r="AC94" s="107"/>
+      <c r="AD94" s="108"/>
+      <c r="AE94" s="109"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="56">
         <f>AG92+1</f>
@@ -13859,7 +13863,7 @@
       </c>
       <c r="AI94" s="35">
         <f>IF(K94="",AI92,K94)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ94" s="35">
         <f t="shared" si="25"/>
@@ -13901,17 +13905,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT94" s="82" t="str">
+      <c r="AT94" s="158" t="str">
         <f>IF(AS94="","",AS94-AS92)</f>
         <v/>
       </c>
-      <c r="AU94" s="84" t="str">
+      <c r="AU94" s="159" t="str">
         <f ca="1">IF(AV94="","",IF(AT94="","",MROUND(AV94,5)))</f>
         <v/>
       </c>
       <c r="AV94" s="35">
         <f ca="1">IF(AH95&lt;7,AV92,IF(AH94&lt;7,AV92,((K95+(((-L94)*$AV$7)/AH95)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY94" s="35"/>
       <c r="AZ94" s="35"/>
@@ -13924,7 +13928,7 @@
       <c r="CB94" s="37"/>
     </row>
     <row r="95" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
+      <c r="B95" s="116"/>
       <c r="C95" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -13940,8 +13944,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L95" s="125"/>
-      <c r="M95" s="89"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="118"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -13950,16 +13954,16 @@
       <c r="S95" s="36"/>
       <c r="T95" s="36"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="139"/>
-      <c r="W95" s="140"/>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="140"/>
-      <c r="AD95" s="140"/>
-      <c r="AE95" s="148"/>
+      <c r="V95" s="101"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="102"/>
+      <c r="AA95" s="102"/>
+      <c r="AB95" s="102"/>
+      <c r="AC95" s="102"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="110"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="56">
         <f>AG94+0.5</f>
@@ -13971,7 +13975,7 @@
       </c>
       <c r="AI95" s="35">
         <f>AI94</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ95" s="35">
         <f t="shared" si="25"/>
@@ -14013,8 +14017,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="85"/>
+      <c r="AT95" s="155"/>
+      <c r="AU95" s="157"/>
       <c r="AY95" s="35"/>
       <c r="AZ95" s="35"/>
       <c r="BA95" s="51"/>
@@ -14026,7 +14030,7 @@
       <c r="CB95" s="37"/>
     </row>
     <row r="96" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B96" s="94">
+      <c r="B96" s="115">
         <f>IF(B94="","",B94+7)</f>
         <v>43341</v>
       </c>
@@ -14045,11 +14049,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L96" s="126" t="str">
+      <c r="L96" s="113" t="str">
         <f>IF(K96="","",AT96)</f>
         <v/>
       </c>
-      <c r="M96" s="90" t="str">
+      <c r="M96" s="117" t="str">
         <f ca="1">IF(AV96="","",IF(L96="","",AU96))</f>
         <v/>
       </c>
@@ -14064,25 +14068,25 @@
       <c r="S96" s="36"/>
       <c r="T96" s="36"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="128" t="str">
+      <c r="V96" s="76" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"No Weight Change",IF(K98&gt;K90,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W96" s="129"/>
-      <c r="X96" s="129"/>
-      <c r="Y96" s="129"/>
-      <c r="Z96" s="129"/>
-      <c r="AA96" s="129"/>
+      <c r="W96" s="77"/>
+      <c r="X96" s="77"/>
+      <c r="Y96" s="77"/>
+      <c r="Z96" s="77"/>
+      <c r="AA96" s="77"/>
       <c r="AB96" s="42" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"",IF(K98&gt;K90,K98-K90,K90-K98)))</f>
         <v/>
       </c>
-      <c r="AC96" s="160" t="str">
+      <c r="AC96" s="78" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD96" s="161"/>
-      <c r="AE96" s="162"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="80"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="56">
         <f>AG94+1</f>
@@ -14094,7 +14098,7 @@
       </c>
       <c r="AI96" s="35">
         <f>IF(K96="",AI94,K96)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ96" s="35">
         <f t="shared" si="25"/>
@@ -14136,17 +14140,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT96" s="82" t="str">
+      <c r="AT96" s="158" t="str">
         <f>IF(AS96="","",AS96-AS94)</f>
         <v/>
       </c>
-      <c r="AU96" s="84" t="str">
+      <c r="AU96" s="159" t="str">
         <f ca="1">IF(AV96="","",IF(AT96="","",MROUND(AV96,5)))</f>
         <v/>
       </c>
       <c r="AV96" s="35">
         <f ca="1">IF(AH97&lt;7,AV94,IF(AH96&lt;7,AV94,((K97+(((-L96)*$AV$7)/AH97)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY96" s="35"/>
       <c r="AZ96" s="35"/>
@@ -14159,7 +14163,7 @@
       <c r="CB96" s="37"/>
     </row>
     <row r="97" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B97" s="93"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14175,8 +14179,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L97" s="125"/>
-      <c r="M97" s="89"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="118"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
@@ -14185,25 +14189,25 @@
       <c r="S97" s="36"/>
       <c r="T97" s="36"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="130" t="str">
+      <c r="V97" s="81" t="str">
         <f ca="1">IF(M98="","",IF(K98=K90,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W97" s="131"/>
-      <c r="X97" s="131"/>
-      <c r="Y97" s="131"/>
-      <c r="Z97" s="131"/>
-      <c r="AA97" s="132" t="str">
+      <c r="W97" s="82"/>
+      <c r="X97" s="82"/>
+      <c r="Y97" s="82"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="83" t="str">
         <f ca="1">IF(V97="","",AB96/4)</f>
         <v/>
       </c>
-      <c r="AB97" s="133"/>
-      <c r="AC97" s="134" t="str">
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="85" t="str">
         <f ca="1">IF(V96="","",IF(V96="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD97" s="135"/>
-      <c r="AE97" s="136"/>
+      <c r="AD97" s="86"/>
+      <c r="AE97" s="87"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="56">
         <f>AG96+0.5</f>
@@ -14215,7 +14219,7 @@
       </c>
       <c r="AI97" s="35">
         <f>AI96</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ97" s="35">
         <f t="shared" si="25"/>
@@ -14257,8 +14261,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT97" s="83"/>
-      <c r="AU97" s="85"/>
+      <c r="AT97" s="155"/>
+      <c r="AU97" s="157"/>
       <c r="AY97" s="35"/>
       <c r="AZ97" s="35"/>
       <c r="BA97" s="51"/>
@@ -14270,7 +14274,7 @@
       <c r="CB97" s="37"/>
     </row>
     <row r="98" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B98" s="94">
+      <c r="B98" s="115">
         <f>IF(B96="","",B96+7)</f>
         <v>43348</v>
       </c>
@@ -14289,11 +14293,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="126" t="str">
+      <c r="L98" s="113" t="str">
         <f>IF(K98="","",AT98)</f>
         <v/>
       </c>
-      <c r="M98" s="90" t="str">
+      <c r="M98" s="117" t="str">
         <f ca="1">IF(AV98="","",IF(L98="","",AU98))</f>
         <v/>
       </c>
@@ -14308,25 +14312,25 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="149" t="str">
+      <c r="V98" s="88" t="str">
         <f ca="1">IF(AA97="","","You have")</f>
         <v/>
       </c>
-      <c r="W98" s="150"/>
-      <c r="X98" s="150"/>
-      <c r="Y98" s="150"/>
-      <c r="Z98" s="153" t="str">
+      <c r="W98" s="89"/>
+      <c r="X98" s="89"/>
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="92" t="str">
         <f ca="1">IF(AA97="","",IF(K98&gt;$F$7,K98-$F$7,$F$7-K98))</f>
         <v/>
       </c>
-      <c r="AA98" s="155" t="str">
+      <c r="AA98" s="94" t="str">
         <f ca="1">IF(AA97="","",IF(AA97="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB98" s="156"/>
-      <c r="AC98" s="156"/>
-      <c r="AD98" s="156"/>
-      <c r="AE98" s="157"/>
+      <c r="AB98" s="95"/>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="96"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="56">
         <f>AG96+1</f>
@@ -14338,7 +14342,7 @@
       </c>
       <c r="AI98" s="35">
         <f>IF(K98="",AI96,K98)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ98" s="35">
         <f t="shared" si="25"/>
@@ -14380,17 +14384,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT98" s="82" t="str">
+      <c r="AT98" s="158" t="str">
         <f>IF(AS98="","",AS98-AS96)</f>
         <v/>
       </c>
-      <c r="AU98" s="84" t="str">
+      <c r="AU98" s="159" t="str">
         <f ca="1">IF(AV98="","",IF(AT98="","",MROUND(AV98,5)))</f>
         <v/>
       </c>
       <c r="AV98" s="35">
         <f ca="1">IF(AH99&lt;7,AV96,IF(AH98&lt;7,AV96,((K99+(((-L98)*$AV$7)/AH99)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY98" s="35"/>
       <c r="AZ98" s="35"/>
@@ -14403,7 +14407,7 @@
       <c r="CB98" s="37"/>
     </row>
     <row r="99" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B99" s="95"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14419,8 +14423,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L99" s="127"/>
-      <c r="M99" s="91"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="120"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
@@ -14429,16 +14433,16 @@
       <c r="S99" s="36"/>
       <c r="T99" s="36"/>
       <c r="U99" s="36"/>
-      <c r="V99" s="151"/>
-      <c r="W99" s="152"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="152"/>
-      <c r="Z99" s="154"/>
-      <c r="AA99" s="158"/>
-      <c r="AB99" s="158"/>
-      <c r="AC99" s="158"/>
-      <c r="AD99" s="158"/>
-      <c r="AE99" s="159"/>
+      <c r="V99" s="90"/>
+      <c r="W99" s="91"/>
+      <c r="X99" s="91"/>
+      <c r="Y99" s="91"/>
+      <c r="Z99" s="93"/>
+      <c r="AA99" s="97"/>
+      <c r="AB99" s="97"/>
+      <c r="AC99" s="97"/>
+      <c r="AD99" s="97"/>
+      <c r="AE99" s="98"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="56">
         <f>AG98+0.5</f>
@@ -14450,7 +14454,7 @@
       </c>
       <c r="AI99" s="35">
         <f>AI98</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ99" s="35">
         <f t="shared" si="25"/>
@@ -14492,8 +14496,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT99" s="83"/>
-      <c r="AU99" s="85"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="157"/>
       <c r="AY99" s="35"/>
       <c r="AZ99" s="35"/>
       <c r="BA99" s="51"/>
@@ -14505,7 +14509,7 @@
       <c r="CB99" s="37"/>
     </row>
     <row r="100" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B100" s="92">
+      <c r="B100" s="121">
         <f>IF(B98="","",B98+7)</f>
         <v>43355</v>
       </c>
@@ -14524,11 +14528,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L100" s="124" t="str">
+      <c r="L100" s="111" t="str">
         <f>IF(K100="","",AT100)</f>
         <v/>
       </c>
-      <c r="M100" s="88" t="str">
+      <c r="M100" s="122" t="str">
         <f ca="1">IF(AV100="","",IF(L100="","",AU100))</f>
         <v/>
       </c>
@@ -14564,7 +14568,7 @@
       </c>
       <c r="AI100" s="35">
         <f>IF(K100="",AI98,K100)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ100" s="35">
         <f t="shared" si="25"/>
@@ -14606,17 +14610,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT100" s="82" t="str">
+      <c r="AT100" s="158" t="str">
         <f>IF(AS100="","",AS100-AS98)</f>
         <v/>
       </c>
-      <c r="AU100" s="84" t="str">
+      <c r="AU100" s="159" t="str">
         <f ca="1">IF(AV100="","",IF(AT100="","",MROUND(AV100,5)))</f>
         <v/>
       </c>
       <c r="AV100" s="35">
         <f ca="1">IF(AH101&lt;7,AV98,IF(AH100&lt;7,AV98,((K101+(((-L100)*$AV$7)/AH101)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY100" s="35"/>
       <c r="AZ100" s="35"/>
@@ -14629,7 +14633,7 @@
       <c r="CB100" s="37"/>
     </row>
     <row r="101" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14645,8 +14649,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="89"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="118"/>
       <c r="N101" s="36"/>
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
@@ -14676,7 +14680,7 @@
       </c>
       <c r="AI101" s="35">
         <f>AI100</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ101" s="35">
         <f t="shared" si="25"/>
@@ -14718,8 +14722,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT101" s="83"/>
-      <c r="AU101" s="85"/>
+      <c r="AT101" s="155"/>
+      <c r="AU101" s="157"/>
       <c r="AY101" s="35"/>
       <c r="AZ101" s="35"/>
       <c r="BA101" s="51"/>
@@ -14731,7 +14735,7 @@
       <c r="CB101" s="37"/>
     </row>
     <row r="102" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B102" s="94">
+      <c r="B102" s="115">
         <f>IF(B100="","",B100+7)</f>
         <v>43362</v>
       </c>
@@ -14750,11 +14754,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L102" s="126" t="str">
+      <c r="L102" s="113" t="str">
         <f>IF(K102="","",AT102)</f>
         <v/>
       </c>
-      <c r="M102" s="90" t="str">
+      <c r="M102" s="117" t="str">
         <f ca="1">IF(AV102="","",IF(L102="","",AU102))</f>
         <v/>
       </c>
@@ -14769,28 +14773,28 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
       <c r="U102" s="36"/>
-      <c r="V102" s="137" t="str">
+      <c r="V102" s="99" t="str">
         <f ca="1">IF(M106="","","From")</f>
         <v/>
       </c>
-      <c r="W102" s="138"/>
-      <c r="X102" s="141" t="str">
+      <c r="W102" s="100"/>
+      <c r="X102" s="103" t="str">
         <f ca="1">IF(M106="","",B100)</f>
         <v/>
       </c>
-      <c r="Y102" s="142"/>
-      <c r="Z102" s="142"/>
-      <c r="AA102" s="143" t="str">
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="105" t="str">
         <f ca="1">IF(M106="","","to")</f>
         <v/>
       </c>
-      <c r="AB102" s="144" t="str">
+      <c r="AB102" s="106" t="str">
         <f ca="1">IF(M106="","",B106)</f>
         <v/>
       </c>
-      <c r="AC102" s="145"/>
-      <c r="AD102" s="146"/>
-      <c r="AE102" s="147"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="108"/>
+      <c r="AE102" s="109"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="56">
         <f>AG100+1</f>
@@ -14802,7 +14806,7 @@
       </c>
       <c r="AI102" s="35">
         <f>AI101</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ102" s="35">
         <f t="shared" si="25"/>
@@ -14844,17 +14848,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT102" s="82" t="str">
+      <c r="AT102" s="158" t="str">
         <f>IF(AS102="","",AS102-AS100)</f>
         <v/>
       </c>
-      <c r="AU102" s="84" t="str">
+      <c r="AU102" s="159" t="str">
         <f ca="1">IF(AV102="","",IF(AT102="","",MROUND(AV102,5)))</f>
         <v/>
       </c>
       <c r="AV102" s="35">
         <f ca="1">IF(AH103&lt;7,AV100,IF(AH102&lt;7,AV100,((K103+(((-L102)*$AV$7)/AH103)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY102" s="35"/>
       <c r="AZ102" s="35"/>
@@ -14867,7 +14871,7 @@
       <c r="CB102" s="37"/>
     </row>
     <row r="103" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -14883,8 +14887,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="89"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="118"/>
       <c r="N103" s="36"/>
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
@@ -14893,16 +14897,16 @@
       <c r="S103" s="36"/>
       <c r="T103" s="36"/>
       <c r="U103" s="36"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="140"/>
-      <c r="X103" s="140"/>
-      <c r="Y103" s="140"/>
-      <c r="Z103" s="140"/>
-      <c r="AA103" s="140"/>
-      <c r="AB103" s="140"/>
-      <c r="AC103" s="140"/>
-      <c r="AD103" s="140"/>
-      <c r="AE103" s="148"/>
+      <c r="V103" s="101"/>
+      <c r="W103" s="102"/>
+      <c r="X103" s="102"/>
+      <c r="Y103" s="102"/>
+      <c r="Z103" s="102"/>
+      <c r="AA103" s="102"/>
+      <c r="AB103" s="102"/>
+      <c r="AC103" s="102"/>
+      <c r="AD103" s="102"/>
+      <c r="AE103" s="110"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="56">
         <f>AG102+0.5</f>
@@ -14914,7 +14918,7 @@
       </c>
       <c r="AI103" s="35">
         <f>AI102</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ103" s="35">
         <f t="shared" si="25"/>
@@ -14956,8 +14960,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT103" s="83"/>
-      <c r="AU103" s="85"/>
+      <c r="AT103" s="155"/>
+      <c r="AU103" s="157"/>
       <c r="AY103" s="35"/>
       <c r="AZ103" s="35"/>
       <c r="BA103" s="51"/>
@@ -14969,7 +14973,7 @@
       <c r="CB103" s="37"/>
     </row>
     <row r="104" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B104" s="94">
+      <c r="B104" s="115">
         <f>IF(B102="","",B102+7)</f>
         <v>43369</v>
       </c>
@@ -14988,11 +14992,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L104" s="126" t="str">
+      <c r="L104" s="113" t="str">
         <f>IF(K104="","",AT104)</f>
         <v/>
       </c>
-      <c r="M104" s="90" t="str">
+      <c r="M104" s="117" t="str">
         <f ca="1">IF(AV104="","",IF(L104="","",AU104))</f>
         <v/>
       </c>
@@ -15007,25 +15011,25 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
       <c r="U104" s="36"/>
-      <c r="V104" s="128" t="str">
+      <c r="V104" s="76" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"No Weight Change",IF(K106&gt;K98,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W104" s="129"/>
-      <c r="X104" s="129"/>
-      <c r="Y104" s="129"/>
-      <c r="Z104" s="129"/>
-      <c r="AA104" s="129"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
       <c r="AB104" s="42" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"",IF(K106&gt;K98,K106-K98,K98-K106)))</f>
         <v/>
       </c>
-      <c r="AC104" s="160" t="str">
+      <c r="AC104" s="78" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD104" s="161"/>
-      <c r="AE104" s="162"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="80"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="56">
         <f>AG102+1</f>
@@ -15037,7 +15041,7 @@
       </c>
       <c r="AI104" s="35">
         <f>IF(K104="",AI102,K104)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ104" s="35">
         <f t="shared" si="25"/>
@@ -15079,17 +15083,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT104" s="82" t="str">
+      <c r="AT104" s="158" t="str">
         <f>IF(AS104="","",AS104-AS102)</f>
         <v/>
       </c>
-      <c r="AU104" s="84" t="str">
+      <c r="AU104" s="159" t="str">
         <f ca="1">IF(AV104="","",IF(AT104="","",MROUND(AV104,5)))</f>
         <v/>
       </c>
       <c r="AV104" s="35">
         <f ca="1">IF(AH105&lt;7,AV102,IF(AH104&lt;7,AV102,((K105+(((-L104)*$AV$7)/AH105)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY104" s="35"/>
       <c r="AZ104" s="35"/>
@@ -15102,7 +15106,7 @@
       <c r="CB104" s="37"/>
     </row>
     <row r="105" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15118,8 +15122,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="89"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="118"/>
       <c r="N105" s="36"/>
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
@@ -15128,25 +15132,25 @@
       <c r="S105" s="36"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
-      <c r="V105" s="130" t="str">
+      <c r="V105" s="81" t="str">
         <f ca="1">IF(M106="","",IF(K106=K98,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W105" s="131"/>
-      <c r="X105" s="131"/>
-      <c r="Y105" s="131"/>
-      <c r="Z105" s="131"/>
-      <c r="AA105" s="132" t="str">
+      <c r="W105" s="82"/>
+      <c r="X105" s="82"/>
+      <c r="Y105" s="82"/>
+      <c r="Z105" s="82"/>
+      <c r="AA105" s="83" t="str">
         <f ca="1">IF(V105="","",AB104/4)</f>
         <v/>
       </c>
-      <c r="AB105" s="133"/>
-      <c r="AC105" s="134" t="str">
+      <c r="AB105" s="84"/>
+      <c r="AC105" s="85" t="str">
         <f ca="1">IF(V104="","",IF(V104="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD105" s="135"/>
-      <c r="AE105" s="136"/>
+      <c r="AD105" s="86"/>
+      <c r="AE105" s="87"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="56">
         <f>AG104+0.5</f>
@@ -15158,7 +15162,7 @@
       </c>
       <c r="AI105" s="35">
         <f>AI104</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ105" s="35">
         <f t="shared" si="25"/>
@@ -15200,8 +15204,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT105" s="83"/>
-      <c r="AU105" s="85"/>
+      <c r="AT105" s="155"/>
+      <c r="AU105" s="157"/>
       <c r="AY105" s="35"/>
       <c r="AZ105" s="35"/>
       <c r="BA105" s="51"/>
@@ -15213,7 +15217,7 @@
       <c r="CB105" s="37"/>
     </row>
     <row r="106" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B106" s="94">
+      <c r="B106" s="115">
         <f>IF(B104="","",B104+7)</f>
         <v>43376</v>
       </c>
@@ -15232,11 +15236,11 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L106" s="126" t="str">
+      <c r="L106" s="113" t="str">
         <f>IF(K106="","",AT106)</f>
         <v/>
       </c>
-      <c r="M106" s="90" t="str">
+      <c r="M106" s="117" t="str">
         <f ca="1">IF(AV106="","",IF(L106="","",AU106))</f>
         <v/>
       </c>
@@ -15251,25 +15255,25 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
       <c r="U106" s="36"/>
-      <c r="V106" s="149" t="str">
+      <c r="V106" s="88" t="str">
         <f ca="1">IF(AA105="","","You have")</f>
         <v/>
       </c>
-      <c r="W106" s="150"/>
-      <c r="X106" s="150"/>
-      <c r="Y106" s="150"/>
-      <c r="Z106" s="153" t="str">
+      <c r="W106" s="89"/>
+      <c r="X106" s="89"/>
+      <c r="Y106" s="89"/>
+      <c r="Z106" s="92" t="str">
         <f ca="1">IF(AA105="","",IF(K106&gt;$F$7,K106-$F$7,$F$7-K106))</f>
         <v/>
       </c>
-      <c r="AA106" s="155" t="str">
+      <c r="AA106" s="94" t="str">
         <f ca="1">IF(AA105="","",IF(AA105="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB106" s="156"/>
-      <c r="AC106" s="156"/>
-      <c r="AD106" s="156"/>
-      <c r="AE106" s="157"/>
+      <c r="AB106" s="95"/>
+      <c r="AC106" s="95"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="96"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="56">
         <f>AG104+1</f>
@@ -15281,7 +15285,7 @@
       </c>
       <c r="AI106" s="35">
         <f>IF(K106="",AI104,K106)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ106" s="35">
         <f t="shared" si="25"/>
@@ -15323,17 +15327,17 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT106" s="82" t="str">
+      <c r="AT106" s="158" t="str">
         <f>IF(AS106="","",AS106-AS104)</f>
         <v/>
       </c>
-      <c r="AU106" s="84" t="str">
+      <c r="AU106" s="159" t="str">
         <f ca="1">IF(AV106="","",IF(AT106="","",MROUND(AV106,5)))</f>
         <v/>
       </c>
       <c r="AV106" s="35">
         <f ca="1">IF(AH107&lt;7,AV104,IF(AH106&lt;7,AV104,((K107+(((-L106)*$AV$7)/AH107)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY106" s="35"/>
       <c r="AZ106" s="35"/>
@@ -15346,7 +15350,7 @@
       <c r="CB106" s="37"/>
     </row>
     <row r="107" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B107" s="95"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15362,8 +15366,8 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L107" s="127"/>
-      <c r="M107" s="91"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="120"/>
       <c r="N107" s="36"/>
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
@@ -15372,16 +15376,16 @@
       <c r="S107" s="36"/>
       <c r="T107" s="36"/>
       <c r="U107" s="36"/>
-      <c r="V107" s="151"/>
-      <c r="W107" s="152"/>
-      <c r="X107" s="152"/>
-      <c r="Y107" s="152"/>
-      <c r="Z107" s="154"/>
-      <c r="AA107" s="158"/>
-      <c r="AB107" s="158"/>
-      <c r="AC107" s="158"/>
-      <c r="AD107" s="158"/>
-      <c r="AE107" s="159"/>
+      <c r="V107" s="90"/>
+      <c r="W107" s="91"/>
+      <c r="X107" s="91"/>
+      <c r="Y107" s="91"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="97"/>
+      <c r="AB107" s="97"/>
+      <c r="AC107" s="97"/>
+      <c r="AD107" s="97"/>
+      <c r="AE107" s="98"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="56">
         <f>AG106+0.5</f>
@@ -15393,7 +15397,7 @@
       </c>
       <c r="AI107" s="35">
         <f>AI106</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ107" s="35">
         <f t="shared" si="25"/>
@@ -15435,8 +15439,8 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AT107" s="83"/>
-      <c r="AU107" s="85"/>
+      <c r="AT107" s="155"/>
+      <c r="AU107" s="157"/>
       <c r="AY107" s="35"/>
       <c r="AZ107" s="35"/>
       <c r="BA107" s="51"/>
@@ -15448,7 +15452,7 @@
       <c r="CB107" s="37"/>
     </row>
     <row r="108" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B108" s="92">
+      <c r="B108" s="121">
         <f>IF(B106="","",B106+7)</f>
         <v>43383</v>
       </c>
@@ -15467,11 +15471,11 @@
         <f t="shared" ref="K108:K123" si="35">IF(AH108=0,"",AS108)</f>
         <v/>
       </c>
-      <c r="L108" s="124" t="str">
+      <c r="L108" s="111" t="str">
         <f>IF(K108="","",AT108)</f>
         <v/>
       </c>
-      <c r="M108" s="88" t="str">
+      <c r="M108" s="122" t="str">
         <f ca="1">IF(AV108="","",IF(L108="","",AU108))</f>
         <v/>
       </c>
@@ -15507,7 +15511,7 @@
       </c>
       <c r="AI108" s="35">
         <f>IF(K108="",AI106,K108)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ108" s="35">
         <f t="shared" ref="AJ108:AJ123" si="37">AJ107</f>
@@ -15549,17 +15553,17 @@
         <f t="shared" ref="AS108:AS123" si="44">IF(AH108=0,"",SUM(AL108:AR108)/AH108)</f>
         <v/>
       </c>
-      <c r="AT108" s="82" t="str">
+      <c r="AT108" s="158" t="str">
         <f>IF(AS108="","",AS108-AS106)</f>
         <v/>
       </c>
-      <c r="AU108" s="84" t="str">
+      <c r="AU108" s="159" t="str">
         <f ca="1">IF(AV108="","",IF(AT108="","",MROUND(AV108,5)))</f>
         <v/>
       </c>
       <c r="AV108" s="35">
         <f ca="1">IF(AH109&lt;7,AV106,IF(AH108&lt;7,AV106,((K109+(((-L108)*$AV$7)/AH109)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY108" s="35"/>
       <c r="AZ108" s="35"/>
@@ -15572,7 +15576,7 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B109" s="93"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15588,8 +15592,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L109" s="125"/>
-      <c r="M109" s="89"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="118"/>
       <c r="N109" s="36"/>
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
@@ -15619,7 +15623,7 @@
       </c>
       <c r="AI109" s="35">
         <f>AI108</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ109" s="35">
         <f t="shared" si="37"/>
@@ -15661,8 +15665,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT109" s="83"/>
-      <c r="AU109" s="85"/>
+      <c r="AT109" s="155"/>
+      <c r="AU109" s="157"/>
       <c r="AY109" s="35"/>
       <c r="AZ109" s="35"/>
       <c r="BA109" s="51"/>
@@ -15674,7 +15678,7 @@
       <c r="CB109" s="37"/>
     </row>
     <row r="110" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B110" s="94">
+      <c r="B110" s="115">
         <f>IF(B108="","",B108+7)</f>
         <v>43390</v>
       </c>
@@ -15693,11 +15697,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L110" s="126" t="str">
+      <c r="L110" s="113" t="str">
         <f>IF(K110="","",AT110)</f>
         <v/>
       </c>
-      <c r="M110" s="90" t="str">
+      <c r="M110" s="117" t="str">
         <f ca="1">IF(AV110="","",IF(L110="","",AU110))</f>
         <v/>
       </c>
@@ -15712,28 +15716,28 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
       <c r="U110" s="36"/>
-      <c r="V110" s="137" t="str">
+      <c r="V110" s="99" t="str">
         <f ca="1">IF(M114="","","From")</f>
         <v/>
       </c>
-      <c r="W110" s="138"/>
-      <c r="X110" s="141" t="str">
+      <c r="W110" s="100"/>
+      <c r="X110" s="103" t="str">
         <f ca="1">IF(M114="","",B108)</f>
         <v/>
       </c>
-      <c r="Y110" s="142"/>
-      <c r="Z110" s="142"/>
-      <c r="AA110" s="143" t="str">
+      <c r="Y110" s="104"/>
+      <c r="Z110" s="104"/>
+      <c r="AA110" s="105" t="str">
         <f ca="1">IF(M114="","","to")</f>
         <v/>
       </c>
-      <c r="AB110" s="144" t="str">
+      <c r="AB110" s="106" t="str">
         <f ca="1">IF(M114="","",B114)</f>
         <v/>
       </c>
-      <c r="AC110" s="145"/>
-      <c r="AD110" s="146"/>
-      <c r="AE110" s="147"/>
+      <c r="AC110" s="107"/>
+      <c r="AD110" s="108"/>
+      <c r="AE110" s="109"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="56">
         <f>AG108+1</f>
@@ -15745,7 +15749,7 @@
       </c>
       <c r="AI110" s="35">
         <f>IF(K110="",AI108,K110)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ110" s="35">
         <f t="shared" si="37"/>
@@ -15787,17 +15791,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT110" s="82" t="str">
+      <c r="AT110" s="158" t="str">
         <f>IF(AS110="","",AS110-AS108)</f>
         <v/>
       </c>
-      <c r="AU110" s="84" t="str">
+      <c r="AU110" s="159" t="str">
         <f ca="1">IF(AV110="","",IF(AT110="","",MROUND(AV110,5)))</f>
         <v/>
       </c>
       <c r="AV110" s="35">
         <f ca="1">IF(AH111&lt;7,AV108,IF(AH110&lt;7,AV108,((K111+(((-L110)*$AV$7)/AH111)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY110" s="35"/>
       <c r="AZ110" s="35"/>
@@ -15810,7 +15814,7 @@
       <c r="CB110" s="37"/>
     </row>
     <row r="111" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
+      <c r="B111" s="116"/>
       <c r="C111" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -15826,8 +15830,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L111" s="125"/>
-      <c r="M111" s="89"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="118"/>
       <c r="N111" s="36"/>
       <c r="O111" s="36"/>
       <c r="P111" s="36"/>
@@ -15836,16 +15840,16 @@
       <c r="S111" s="36"/>
       <c r="T111" s="36"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="140"/>
-      <c r="X111" s="140"/>
-      <c r="Y111" s="140"/>
-      <c r="Z111" s="140"/>
-      <c r="AA111" s="140"/>
-      <c r="AB111" s="140"/>
-      <c r="AC111" s="140"/>
-      <c r="AD111" s="140"/>
-      <c r="AE111" s="148"/>
+      <c r="V111" s="101"/>
+      <c r="W111" s="102"/>
+      <c r="X111" s="102"/>
+      <c r="Y111" s="102"/>
+      <c r="Z111" s="102"/>
+      <c r="AA111" s="102"/>
+      <c r="AB111" s="102"/>
+      <c r="AC111" s="102"/>
+      <c r="AD111" s="102"/>
+      <c r="AE111" s="110"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="56">
         <f>AG110+0.5</f>
@@ -15857,7 +15861,7 @@
       </c>
       <c r="AI111" s="35">
         <f>AI110</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ111" s="35">
         <f t="shared" si="37"/>
@@ -15899,8 +15903,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT111" s="83"/>
-      <c r="AU111" s="85"/>
+      <c r="AT111" s="155"/>
+      <c r="AU111" s="157"/>
       <c r="AY111" s="35"/>
       <c r="AZ111" s="35"/>
       <c r="BA111" s="51"/>
@@ -15912,7 +15916,7 @@
       <c r="CB111" s="37"/>
     </row>
     <row r="112" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B112" s="94">
+      <c r="B112" s="115">
         <f>IF(B110="","",B110+7)</f>
         <v>43397</v>
       </c>
@@ -15931,11 +15935,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L112" s="126" t="str">
+      <c r="L112" s="113" t="str">
         <f>IF(K112="","",AT112)</f>
         <v/>
       </c>
-      <c r="M112" s="90" t="str">
+      <c r="M112" s="117" t="str">
         <f ca="1">IF(AV112="","",IF(L112="","",AU112))</f>
         <v/>
       </c>
@@ -15950,25 +15954,25 @@
       <c r="S112" s="36"/>
       <c r="T112" s="36"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="128" t="str">
+      <c r="V112" s="76" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"No Weight Change",IF(K114&gt;K106,"You Gained:","You Lost:")))</f>
         <v/>
       </c>
-      <c r="W112" s="129"/>
-      <c r="X112" s="129"/>
-      <c r="Y112" s="129"/>
-      <c r="Z112" s="129"/>
-      <c r="AA112" s="129"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
       <c r="AB112" s="42" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"",IF(K114&gt;K106,K114-K106,K106-K114)))</f>
         <v/>
       </c>
-      <c r="AC112" s="160" t="str">
+      <c r="AC112" s="78" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb",IF($F$4="Kg","Kg",""))))</f>
         <v/>
       </c>
-      <c r="AD112" s="161"/>
-      <c r="AE112" s="162"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="80"/>
       <c r="AF112" s="36"/>
       <c r="AG112" s="56">
         <f>AG110+1</f>
@@ -15980,7 +15984,7 @@
       </c>
       <c r="AI112" s="35">
         <f>IF(K112="",AI110,K112)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ112" s="35">
         <f t="shared" si="37"/>
@@ -16022,17 +16026,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT112" s="82" t="str">
+      <c r="AT112" s="158" t="str">
         <f>IF(AS112="","",AS112-AS110)</f>
         <v/>
       </c>
-      <c r="AU112" s="84" t="str">
+      <c r="AU112" s="159" t="str">
         <f ca="1">IF(AV112="","",IF(AT112="","",MROUND(AV112,5)))</f>
         <v/>
       </c>
       <c r="AV112" s="35">
         <f ca="1">IF(AH113&lt;7,AV110,IF(AH112&lt;7,AV110,((K113+(((-L112)*$AV$7)/AH113)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY112" s="35"/>
       <c r="AZ112" s="35"/>
@@ -16045,7 +16049,7 @@
       <c r="CB112" s="37"/>
     </row>
     <row r="113" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
+      <c r="B113" s="116"/>
       <c r="C113" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16061,8 +16065,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L113" s="125"/>
-      <c r="M113" s="89"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="118"/>
       <c r="N113" s="36"/>
       <c r="O113" s="36"/>
       <c r="P113" s="36"/>
@@ -16071,25 +16075,25 @@
       <c r="S113" s="36"/>
       <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="130" t="str">
+      <c r="V113" s="81" t="str">
         <f ca="1">IF(M114="","",IF(K114=K106,"","At a Rate Of"))</f>
         <v/>
       </c>
-      <c r="W113" s="131"/>
-      <c r="X113" s="131"/>
-      <c r="Y113" s="131"/>
-      <c r="Z113" s="131"/>
-      <c r="AA113" s="132" t="str">
+      <c r="W113" s="82"/>
+      <c r="X113" s="82"/>
+      <c r="Y113" s="82"/>
+      <c r="Z113" s="82"/>
+      <c r="AA113" s="83" t="str">
         <f ca="1">IF(V113="","",AB112/4)</f>
         <v/>
       </c>
-      <c r="AB113" s="133"/>
-      <c r="AC113" s="134" t="str">
+      <c r="AB113" s="84"/>
+      <c r="AC113" s="85" t="str">
         <f ca="1">IF(V112="","",IF(V112="No Weight Change","",IF($F$4="Lb","Lb/Wk",IF($F$4="Kg","Kg/Wk",""))))</f>
         <v/>
       </c>
-      <c r="AD113" s="135"/>
-      <c r="AE113" s="136"/>
+      <c r="AD113" s="86"/>
+      <c r="AE113" s="87"/>
       <c r="AF113" s="36"/>
       <c r="AG113" s="56">
         <f>AG112+0.5</f>
@@ -16101,7 +16105,7 @@
       </c>
       <c r="AI113" s="35">
         <f>AI112</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ113" s="35">
         <f t="shared" si="37"/>
@@ -16143,8 +16147,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT113" s="83"/>
-      <c r="AU113" s="85"/>
+      <c r="AT113" s="155"/>
+      <c r="AU113" s="157"/>
       <c r="AY113" s="35"/>
       <c r="AZ113" s="35"/>
       <c r="BA113" s="51"/>
@@ -16156,7 +16160,7 @@
       <c r="CB113" s="37"/>
     </row>
     <row r="114" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B114" s="94">
+      <c r="B114" s="115">
         <f>IF(B112="","",B112+7)</f>
         <v>43404</v>
       </c>
@@ -16175,11 +16179,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L114" s="126" t="str">
+      <c r="L114" s="113" t="str">
         <f>IF(K114="","",AT114)</f>
         <v/>
       </c>
-      <c r="M114" s="90" t="str">
+      <c r="M114" s="117" t="str">
         <f ca="1">IF(AV114="","",IF(L114="","",AU114))</f>
         <v/>
       </c>
@@ -16194,25 +16198,25 @@
       <c r="S114" s="36"/>
       <c r="T114" s="36"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="149" t="str">
+      <c r="V114" s="88" t="str">
         <f ca="1">IF(AA113="","","You have")</f>
         <v/>
       </c>
-      <c r="W114" s="150"/>
-      <c r="X114" s="150"/>
-      <c r="Y114" s="150"/>
-      <c r="Z114" s="153" t="str">
+      <c r="W114" s="89"/>
+      <c r="X114" s="89"/>
+      <c r="Y114" s="89"/>
+      <c r="Z114" s="92" t="str">
         <f ca="1">IF(AA113="","",IF(K114&gt;$F$7,K114-$F$7,$F$7-K114))</f>
         <v/>
       </c>
-      <c r="AA114" s="155" t="str">
+      <c r="AA114" s="94" t="str">
         <f ca="1">IF(AA113="","",IF(AA113="No Weight Change","",IF($F$4="Lb","Lb to go!",IF($F$4="Kg","Kg to go!",""))))</f>
         <v/>
       </c>
-      <c r="AB114" s="156"/>
-      <c r="AC114" s="156"/>
-      <c r="AD114" s="156"/>
-      <c r="AE114" s="157"/>
+      <c r="AB114" s="95"/>
+      <c r="AC114" s="95"/>
+      <c r="AD114" s="95"/>
+      <c r="AE114" s="96"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="56">
         <f>AG112+1</f>
@@ -16224,7 +16228,7 @@
       </c>
       <c r="AI114" s="35">
         <f>IF(K114="",AI112,K114)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ114" s="35">
         <f t="shared" si="37"/>
@@ -16266,17 +16270,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT114" s="82" t="str">
+      <c r="AT114" s="158" t="str">
         <f>IF(AS114="","",AS114-AS112)</f>
         <v/>
       </c>
-      <c r="AU114" s="84" t="str">
+      <c r="AU114" s="159" t="str">
         <f ca="1">IF(AV114="","",IF(AT114="","",MROUND(AV114,5)))</f>
         <v/>
       </c>
       <c r="AV114" s="35">
         <f ca="1">IF(AH115&lt;7,AV112,IF(AH114&lt;7,AV112,((K115+(((-L114)*$AV$7)/AH115)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY114" s="35"/>
       <c r="AZ114" s="35"/>
@@ -16289,7 +16293,7 @@
       <c r="CB114" s="37"/>
     </row>
     <row r="115" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B115" s="95"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="11" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16305,8 +16309,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L115" s="127"/>
-      <c r="M115" s="91"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="120"/>
       <c r="N115" s="36"/>
       <c r="O115" s="36"/>
       <c r="P115" s="36"/>
@@ -16315,16 +16319,16 @@
       <c r="S115" s="36"/>
       <c r="T115" s="36"/>
       <c r="U115" s="36"/>
-      <c r="V115" s="151"/>
-      <c r="W115" s="152"/>
-      <c r="X115" s="152"/>
-      <c r="Y115" s="152"/>
-      <c r="Z115" s="154"/>
-      <c r="AA115" s="158"/>
-      <c r="AB115" s="158"/>
-      <c r="AC115" s="158"/>
-      <c r="AD115" s="158"/>
-      <c r="AE115" s="159"/>
+      <c r="V115" s="90"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="93"/>
+      <c r="AA115" s="97"/>
+      <c r="AB115" s="97"/>
+      <c r="AC115" s="97"/>
+      <c r="AD115" s="97"/>
+      <c r="AE115" s="98"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="56">
         <f>AG114+0.5</f>
@@ -16336,7 +16340,7 @@
       </c>
       <c r="AI115" s="35">
         <f>AI114</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ115" s="35">
         <f t="shared" si="37"/>
@@ -16378,8 +16382,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT115" s="83"/>
-      <c r="AU115" s="85"/>
+      <c r="AT115" s="155"/>
+      <c r="AU115" s="157"/>
       <c r="AY115" s="35"/>
       <c r="AZ115" s="35"/>
       <c r="BA115" s="51"/>
@@ -16391,7 +16395,7 @@
       <c r="CB115" s="37"/>
     </row>
     <row r="116" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B116" s="92">
+      <c r="B116" s="121">
         <f>IF(B114="","",B114+7)</f>
         <v>43411</v>
       </c>
@@ -16410,11 +16414,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L116" s="124" t="str">
+      <c r="L116" s="111" t="str">
         <f>IF(K116="","",AT116)</f>
         <v/>
       </c>
-      <c r="M116" s="88" t="str">
+      <c r="M116" s="122" t="str">
         <f ca="1">IF(AV116="","",IF(L116="","",AU116))</f>
         <v/>
       </c>
@@ -16450,7 +16454,7 @@
       </c>
       <c r="AI116" s="35">
         <f>IF(K116="",AI114,K116)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ116" s="35">
         <f t="shared" si="37"/>
@@ -16492,17 +16496,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT116" s="82" t="str">
+      <c r="AT116" s="158" t="str">
         <f>IF(AS116="","",AS116-AS114)</f>
         <v/>
       </c>
-      <c r="AU116" s="84" t="str">
+      <c r="AU116" s="159" t="str">
         <f ca="1">IF(AV116="","",IF(AT116="","",MROUND(AV116,5)))</f>
         <v/>
       </c>
       <c r="AV116" s="35">
         <f ca="1">IF(AH117&lt;7,AV114,IF(AH116&lt;7,AV114,((K117+(((-L116)*$AV$7)/AH117)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY116" s="35"/>
       <c r="AZ116" s="35"/>
@@ -16515,7 +16519,7 @@
       <c r="CB116" s="37"/>
     </row>
     <row r="117" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
+      <c r="B117" s="116"/>
       <c r="C117" s="26" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16531,8 +16535,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L117" s="125"/>
-      <c r="M117" s="89"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="118"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
@@ -16562,7 +16566,7 @@
       </c>
       <c r="AI117" s="35">
         <f>AI116</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ117" s="35">
         <f t="shared" si="37"/>
@@ -16604,8 +16608,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT117" s="83"/>
-      <c r="AU117" s="85"/>
+      <c r="AT117" s="155"/>
+      <c r="AU117" s="157"/>
       <c r="AY117" s="35"/>
       <c r="AZ117" s="35"/>
       <c r="BA117" s="51"/>
@@ -16617,7 +16621,7 @@
       <c r="CB117" s="37"/>
     </row>
     <row r="118" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B118" s="94">
+      <c r="B118" s="115">
         <f>IF(B116="","",B116+7)</f>
         <v>43418</v>
       </c>
@@ -16636,11 +16640,11 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L118" s="126" t="str">
+      <c r="L118" s="113" t="str">
         <f>IF(K118="","",AT118)</f>
         <v/>
       </c>
-      <c r="M118" s="90" t="str">
+      <c r="M118" s="117" t="str">
         <f ca="1">IF(AV118="","",IF(L118="","",AU118))</f>
         <v/>
       </c>
@@ -16655,28 +16659,28 @@
       <c r="S118" s="36"/>
       <c r="T118" s="36"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="137" t="str">
+      <c r="V118" s="99" t="str">
         <f ca="1">IF(M122="","","From")</f>
         <v/>
       </c>
-      <c r="W118" s="138"/>
-      <c r="X118" s="141" t="str">
+      <c r="W118" s="100"/>
+      <c r="X118" s="103" t="str">
         <f ca="1">IF(M122="","",B116)</f>
         <v/>
       </c>
-      <c r="Y118" s="142"/>
-      <c r="Z118" s="142"/>
-      <c r="AA118" s="143" t="str">
+      <c r="Y118" s="104"/>
+      <c r="Z118" s="104"/>
+      <c r="AA118" s="105" t="str">
         <f ca="1">IF(M122="","","to")</f>
         <v/>
       </c>
-      <c r="AB118" s="144" t="str">
+      <c r="AB118" s="106" t="str">
         <f ca="1">IF(M122="","",B122)</f>
         <v/>
       </c>
-      <c r="AC118" s="145"/>
-      <c r="AD118" s="146"/>
-      <c r="AE118" s="147"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="108"/>
+      <c r="AE118" s="109"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="56">
         <f>AG116+1</f>
@@ -16688,7 +16692,7 @@
       </c>
       <c r="AI118" s="35">
         <f>IF(K118="",AI116,K118)</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ118" s="35">
         <f t="shared" si="37"/>
@@ -16730,17 +16734,17 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT118" s="82" t="str">
+      <c r="AT118" s="158" t="str">
         <f>IF(AS118="","",AS118-AS116)</f>
         <v/>
       </c>
-      <c r="AU118" s="84" t="str">
+      <c r="AU118" s="159" t="str">
         <f ca="1">IF(AV118="","",IF(AT118="","",MROUND(AV118,5)))</f>
         <v/>
       </c>
       <c r="AV118" s="35">
         <f ca="1">IF(AH119&lt;7,AV116,IF(AH118&lt;7,AV116,((K119+(((-L118)*$AV$7)/AH119)))+SUM(OFFSET(IF(ROW()/2-5&gt;$S$8,INDEX(M:M,ROW()-(($S$8-1)*2)),$M$12),0,0,IF(ROW()/2-6&gt;($S$8-1),($S$8-1)*2,(ROW()/2-6)*2),1)))/IF(ROW()/2-5&gt;$S$8,$S$8,ROW()/2-5))</f>
-        <v>2838.3636363636351</v>
+        <v>2850.3766233766219</v>
       </c>
       <c r="AY118" s="35"/>
       <c r="AZ118" s="35"/>
@@ -16753,7 +16757,7 @@
       <c r="CB118" s="37"/>
     </row>
     <row r="119" spans="2:80" x14ac:dyDescent="0.35">
-      <c r="B119" s="93"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="28" t="str">
         <f t="shared" si="33"/>
         <v>Cal.</v>
@@ -16769,8 +16773,8 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L119" s="125"/>
-      <c r="M119" s="89"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="118"/>
       <c r="N119" s="36"/>
       <c r="O119" s="36"/>
       <c r="P119" s="36"/>
@@ -16779,16 +16783,16 @@
       <c r="S119" s="36"/>
       <c r="T119" s="36"/>
       <c r="U119" s="36"/>
-      <c r="V119" s="139"/>
-      <c r="W119" s="140"/>
-      <c r="X119" s="140"/>
-      <c r="Y119" s="140"/>
-      <c r="Z119" s="140"/>
-      <c r="AA119" s="140"/>
-      <c r="AB119" s="140"/>
-      <c r="AC119" s="140"/>
-      <c r="AD119" s="140"/>
-      <c r="AE119" s="148"/>
+      <c r="V119" s="101"/>
+      <c r="W119" s="102"/>
+      <c r="X119" s="102"/>
+      <c r="Y119" s="102"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="102"/>
+      <c r="AB119" s="102"/>
+      <c r="AC119" s="102"/>
+      <c r="AD119" s="102"/>
+      <c r="AE119" s="110"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="56">
         <f>AG118+0.5</f>
@@ -16800,7 +16804,7 @@
       </c>
       <c r="AI119" s="35">
         <f>AI118</f>
-        <v>185.97142857142856</v>
+        <v>185.82857142857142</v>
       </c>
       <c r="AJ119" s="35">
         <f t="shared" si="37"/>
@@ -16842,8 +16846,8 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AT119" s="83"/>
-      <c r="AU119" s="85"/>
+      <c r="AT119" s="155"/>
+      <c r="AU119" s="157"/>
       <c r="AY119" s="35"/>
       <c r="AZ119" s="35"/>
       <c r="BA119" s="51"/>
@@ -